--- a/xls/create-test-data.xlsx
+++ b/xls/create-test-data.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Корректоры" sheetId="1" r:id="rId1"/>
     <sheet name="Каналы" sheetId="2" r:id="rId2"/>
     <sheet name="INST_COLL_NAME" sheetId="3" r:id="rId3"/>
+    <sheet name="lowLine" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="194">
   <si>
     <t>correctorChannelId</t>
   </si>
@@ -553,6 +554,51 @@
   </si>
   <si>
     <t>2020-02-19T12:00:00Z</t>
+  </si>
+  <si>
+    <t>flid</t>
+  </si>
+  <si>
+    <t>eic</t>
+  </si>
+  <si>
+    <t>cfgLines</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>XXX-YYY-000-ZZZ-001</t>
+  </si>
+  <si>
+    <t>XXX-YYY-000-ZZZ-002</t>
+  </si>
+  <si>
+    <t>XXX-YYY-000-ZZZ-003</t>
+  </si>
+  <si>
+    <t>XXX-YYY-000-ZZZ-004</t>
+  </si>
+  <si>
+    <t>XXX-YYY-000-ZZZ-005</t>
+  </si>
+  <si>
+    <t>XXX-YYY-000-ZZZ-006</t>
+  </si>
+  <si>
+    <t>XXX-YYY-000-ZZZ-007</t>
+  </si>
+  <si>
+    <t>XXX-YYY-000-ZZZ-008</t>
+  </si>
+  <si>
+    <t>XXX-YYY-000-ZZZ-009</t>
+  </si>
+  <si>
+    <t>XXX-YYY-000-ZZZ-010</t>
+  </si>
+  <si>
+    <t>[1,2,3]</t>
   </si>
 </sst>
 </file>
@@ -610,7 +656,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -687,11 +733,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -712,6 +767,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1277,7 +1333,7 @@
   <dimension ref="A2:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2461,12 +2517,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.140625" customWidth="1"/>
     <col min="9" max="9" width="105.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2477,7 +2534,9 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>75</v>
       </c>
@@ -2529,8 +2588,8 @@
         <v>192</v>
       </c>
       <c r="I3" t="str">
-        <f>CONCATENATE("{ ""p"": ",B3,", ""t"" :",C3,",""dp"": ",D3,", ""q"":",E3,", ""currday"":",F3,", ""lastupdate"":""",G3,""", ""quality"":",H3,"},")</f>
-        <v>{ "p": 50.2, "t" :30.2,"dp": 1234.56, "q":12223.7, "currday":12345.67, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+        <f>CONCATENATE("{ ""flid"": ",A3,", ""p"": ",B3,", ""t"" :",C3,",""dp"": ",D3,", ""q"":",E3,", ""currday"":",F3,", ""lastupdate"":""",G3,""", ""quality"":",H3,"},")</f>
+        <v>{ "flid": 1, "p": 50.2, "t" :30.2,"dp": 1234.56, "q":12223.7, "currday":12345.67, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2559,8 +2618,8 @@
         <v>192</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I21" si="0">CONCATENATE("{ ""p"": ",B4,", ""t"" :",C4,",""dp"": ",D4,", ""q"":",E4,", ""currday"":",F4,", ""lastupdate"":""",G4,""", ""quality"":",H4,"},")</f>
-        <v>{ "p": 50.3, "t" :30.3,"dp": 1234.57, "q":12223.8, "currday":12345.68, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+        <f t="shared" ref="I4:I21" si="0">CONCATENATE("{ ""flid"": ",A4,", ""p"": ",B4,", ""t"" :",C4,",""dp"": ",D4,", ""q"":",E4,", ""currday"":",F4,", ""lastupdate"":""",G4,""", ""quality"":",H4,"},")</f>
+        <v>{ "flid": 2, "p": 50.3, "t" :30.3,"dp": 1234.57, "q":12223.8, "currday":12345.68, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2590,7 +2649,7 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>{ "p": 50.4, "t" :30.4,"dp": 1234.58, "q":12223.9, "currday":12345.69, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+        <v>{ "flid": 3, "p": 50.4, "t" :30.4,"dp": 1234.58, "q":12223.9, "currday":12345.69, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2620,7 +2679,7 @@
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>{ "p": 50.5, "t" :30.5,"dp": 1234.59, "q":12223.10, "currday":12345.70, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+        <v>{ "flid": 4, "p": 50.5, "t" :30.5,"dp": 1234.59, "q":12223.10, "currday":12345.70, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2650,7 +2709,7 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>{ "p": 50.6, "t" :30.6,"dp": 1234.60, "q":12223.11, "currday":12345.71, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+        <v>{ "flid": 5, "p": 50.6, "t" :30.6,"dp": 1234.60, "q":12223.11, "currday":12345.71, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2680,7 +2739,7 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>{ "p": 50.7, "t" :30.7,"dp": 1234.61, "q":12223.12, "currday":12345.72, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+        <v>{ "flid": 6, "p": 50.7, "t" :30.7,"dp": 1234.61, "q":12223.12, "currday":12345.72, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2710,7 +2769,7 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>{ "p": 50.8, "t" :30.8,"dp": 1234.62, "q":12223.13, "currday":12345.73, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+        <v>{ "flid": 7, "p": 50.8, "t" :30.8,"dp": 1234.62, "q":12223.13, "currday":12345.73, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2740,7 +2799,7 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
-        <v>{ "p": 50.9, "t" :30.9,"dp": 1234.63, "q":12223.14, "currday":12345.74, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+        <v>{ "flid": 8, "p": 50.9, "t" :30.9,"dp": 1234.63, "q":12223.14, "currday":12345.74, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2770,7 +2829,7 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
-        <v>{ "p": 50.10, "t" :30.10,"dp": 1234.64, "q":12223.15, "currday":12345.75, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+        <v>{ "flid": 9, "p": 50.10, "t" :30.10,"dp": 1234.64, "q":12223.15, "currday":12345.75, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2800,7 +2859,7 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
-        <v>{ "p": 50.11, "t" :30.11,"dp": 1234.65, "q":12223.16, "currday":12345.76, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+        <v>{ "flid": 10, "p": 50.11, "t" :30.11,"dp": 1234.65, "q":12223.16, "currday":12345.76, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2830,7 +2889,7 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
-        <v>{ "p": 50.12, "t" :30.12,"dp": 1234.66, "q":12223.17, "currday":12345.77, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+        <v>{ "flid": 11, "p": 50.12, "t" :30.12,"dp": 1234.66, "q":12223.17, "currday":12345.77, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2860,7 +2919,7 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
-        <v>{ "p": 50.13, "t" :30.13,"dp": 1234.67, "q":12223.18, "currday":12345.78, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+        <v>{ "flid": 12, "p": 50.13, "t" :30.13,"dp": 1234.67, "q":12223.18, "currday":12345.78, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2890,7 +2949,7 @@
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
-        <v>{ "p": 50.14, "t" :30.14,"dp": 1234.68, "q":12223.19, "currday":12345.79, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+        <v>{ "flid": 13, "p": 50.14, "t" :30.14,"dp": 1234.68, "q":12223.19, "currday":12345.79, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2920,7 +2979,7 @@
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
-        <v>{ "p": 50.15, "t" :30.15,"dp": 1234.69, "q":12223.20, "currday":12345.80, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+        <v>{ "flid": 14, "p": 50.15, "t" :30.15,"dp": 1234.69, "q":12223.20, "currday":12345.80, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2950,7 +3009,7 @@
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>{ "p": 50.16, "t" :30.16,"dp": 1234.70, "q":12223.21, "currday":12345.81, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+        <v>{ "flid": 15, "p": 50.16, "t" :30.16,"dp": 1234.70, "q":12223.21, "currday":12345.81, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2980,7 +3039,7 @@
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
-        <v>{ "p": 50.17, "t" :30.17,"dp": 1234.71, "q":12223.22, "currday":12345.82, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+        <v>{ "flid": 16, "p": 50.17, "t" :30.17,"dp": 1234.71, "q":12223.22, "currday":12345.82, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3010,7 +3069,7 @@
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
-        <v>{ "p": 50.18, "t" :30.18,"dp": 1234.72, "q":12223.23, "currday":12345.83, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+        <v>{ "flid": 17, "p": 50.18, "t" :30.18,"dp": 1234.72, "q":12223.23, "currday":12345.83, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3040,7 +3099,7 @@
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
-        <v>{ "p": 50.19, "t" :30.19,"dp": 1234.73, "q":12223.24, "currday":12345.84, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+        <v>{ "flid": 18, "p": 50.19, "t" :30.19,"dp": 1234.73, "q":12223.24, "currday":12345.84, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3070,11 +3129,235 @@
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
-        <v>{ "p": 50.20, "t" :30.20,"dp": 1234.74, "q":12223.25, "currday":12345.85, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+        <v>{ "flid": 19, "p": 50.20, "t" :30.20,"dp": 1234.74, "q":12223.25, "currday":12345.85, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="80" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" t="str">
+        <f>CONCATENATE("{ ""flid"" :",B3,", ""eic"":""",C3,""", ""correctorChannelId"": ",D3,", ""cfgLines"": ",E3,"},")</f>
+        <v>{ "flid" :1, "eic":"XXX-YYY-000-ZZZ-001", "correctorChannelId": 1, "cfgLines": null},</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F12" si="0">CONCATENATE("{ ""flid"" :",B4,", ""eic"":""",C4,""", ""correctorChannelId"": ",D4,", ""cfgLines"": ",E4,"},")</f>
+        <v>{ "flid" :2, "eic":"XXX-YYY-000-ZZZ-002", "correctorChannelId": 2, "cfgLines": null},</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "flid" :3, "eic":"XXX-YYY-000-ZZZ-003", "correctorChannelId": 3, "cfgLines": null},</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "flid" :4, "eic":"XXX-YYY-000-ZZZ-004", "correctorChannelId": 4, "cfgLines": null},</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "flid" :5, "eic":"XXX-YYY-000-ZZZ-005", "correctorChannelId": 5, "cfgLines": null},</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "flid" :6, "eic":"XXX-YYY-000-ZZZ-006", "correctorChannelId": 6, "cfgLines": null},</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "flid" :7, "eic":"XXX-YYY-000-ZZZ-007", "correctorChannelId": null, "cfgLines": [1,2,3]},</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "flid" :8, "eic":"XXX-YYY-000-ZZZ-008", "correctorChannelId": null, "cfgLines": [1,2,3]},</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "flid" :9, "eic":"XXX-YYY-000-ZZZ-009", "correctorChannelId": null, "cfgLines": [1,2,3]},</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "flid" :10, "eic":"XXX-YYY-000-ZZZ-010", "correctorChannelId": null, "cfgLines": [1,2,3]},</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
         <v>74</v>
       </c>
     </row>

--- a/xls/create-test-data.xlsx
+++ b/xls/create-test-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Корр-каналы" sheetId="5" r:id="rId1"/>
@@ -519,9 +519,6 @@
     <t>","addr":</t>
   </si>
   <si>
-    <t>,"cfgLines":[</t>
-  </si>
-  <si>
     <t xml:space="preserve">Харьков ГРС 1 </t>
   </si>
   <si>
@@ -679,6 +676,9 @@
   </si>
   <si>
     <t>0.9345</t>
+  </si>
+  <si>
+    <t>,"channels":[</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1389,7 @@
   <dimension ref="A1:AD10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1406,7 @@
     <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="109.5703125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
     <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.140625" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
@@ -1541,11 +1541,11 @@
         <v>1</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="L2" s="13" t="str">
         <f>CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2)</f>
-        <v>{"corrid":1,"name":"Корректор № 1","ip":"192.168.0.111","ftpDir":"./","addr":1,"cfgLines":[</v>
+        <v>{"corrid":1,"name":"Корректор № 1","ip":"192.168.0.111","ftpDir":"./","addr":1,"channels":[</v>
       </c>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
@@ -1566,7 +1566,7 @@
       <c r="AC2" s="14"/>
       <c r="AD2" s="24" t="str">
         <f t="shared" ref="AD2:AD9" si="0">CONCATENATE(L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2,Z2,AA2,AB2,AC2)</f>
-        <v>{"corrid":1,"name":"Корректор № 1","ip":"192.168.0.111","ftpDir":"./","addr":1,"cfgLines":[</v>
+        <v>{"corrid":1,"name":"Корректор № 1","ip":"192.168.0.111","ftpDir":"./","addr":1,"channels":[</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1817,11 +1817,11 @@
         <v>2</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="L6" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>{"corrid":2,"name":"Корректор № 2","ip":"192.168.0.112","ftpDir":"./","addr":2,"cfgLines":[</v>
+        <v>{"corrid":2,"name":"Корректор № 2","ip":"192.168.0.112","ftpDir":"./","addr":2,"channels":[</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
@@ -1842,7 +1842,7 @@
       <c r="AC6" s="14"/>
       <c r="AD6" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>{"corrid":2,"name":"Корректор № 2","ip":"192.168.0.112","ftpDir":"./","addr":2,"cfgLines":[</v>
+        <v>{"corrid":2,"name":"Корректор № 2","ip":"192.168.0.112","ftpDir":"./","addr":2,"channels":[</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2076,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P19"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:P19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2116,28 +2116,28 @@
         <v>11</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>117</v>
       </c>
       <c r="I2" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J2" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="K2" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="L2" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="M2" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="N2" s="30" t="s">
         <v>180</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>181</v>
       </c>
       <c r="O2" s="32"/>
       <c r="P2" s="34" t="str">
@@ -2153,7 +2153,7 @@
         <v>120</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -2163,7 +2163,7 @@
         <v xml:space="preserve">{ "flid" :1, "eic":"XXX-YYY-000-ZZZ-001", "name":"Харьков ГРС 1 ", "chid": 1, "cfgLines": </v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -2186,7 +2186,7 @@
         <v>121</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -2196,7 +2196,7 @@
         <v xml:space="preserve">{ "flid" :2, "eic":"XXX-YYY-000-ZZZ-002", "name":"Харьков ГРС 2", "chid": 2, "cfgLines": </v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -2219,7 +2219,7 @@
         <v>122</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -2229,7 +2229,7 @@
         <v xml:space="preserve">{ "flid" :3, "eic":"XXX-YYY-000-ZZZ-003", "name":"Харьков ГРС 3", "chid": 3, "cfgLines": </v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -2252,7 +2252,7 @@
         <v>123</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
@@ -2262,7 +2262,7 @@
         <v xml:space="preserve">{ "flid" :4, "eic":"XXX-YYY-000-ZZZ-004", "name":"Харьков ГРС 4", "chid": 4, "cfgLines": </v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="8"/>
@@ -2285,7 +2285,7 @@
         <v>124</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
@@ -2295,7 +2295,7 @@
         <v xml:space="preserve">{ "flid" :5, "eic":"XXX-YYY-000-ZZZ-005", "name":"Харьков ГРС 5", "chid": 5, "cfgLines": </v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="8"/>
@@ -2318,7 +2318,7 @@
         <v>125</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
@@ -2328,7 +2328,7 @@
         <v xml:space="preserve">{ "flid" :6, "eic":"XXX-YYY-000-ZZZ-006", "name":"Харьков ГРС 6", "chid": 6, "cfgLines": </v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2367,7 +2367,7 @@
         <v>126</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E10" s="36" t="s">
         <v>119</v>
@@ -2399,28 +2399,28 @@
       <c r="E11" s="36"/>
       <c r="F11" s="15"/>
       <c r="G11" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="H11" s="19">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8" t="s">
+      <c r="L11" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="J11" s="8">
-        <v>1</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="L11" s="8" t="s">
+      <c r="M11" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="M11" s="8" t="s">
-        <v>184</v>
-      </c>
       <c r="N11" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O11" s="10" t="s">
         <v>137</v>
@@ -2437,28 +2437,28 @@
       <c r="E12" s="36"/>
       <c r="F12" s="15"/>
       <c r="G12" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H12" s="8">
         <v>2</v>
       </c>
       <c r="I12" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="J12" s="8">
-        <v>1</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="L12" s="8" t="s">
+      <c r="M12" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="M12" s="8" t="s">
-        <v>184</v>
-      </c>
       <c r="N12" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O12" s="10" t="s">
         <v>137</v>
@@ -2475,28 +2475,28 @@
       <c r="E13" s="36"/>
       <c r="F13" s="15"/>
       <c r="G13" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H13" s="19">
         <v>3</v>
       </c>
       <c r="I13" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="L13" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="J13" s="8">
-        <v>1</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="L13" s="8" t="s">
+      <c r="M13" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="M13" s="8" t="s">
-        <v>184</v>
-      </c>
       <c r="N13" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O13" s="10" t="s">
         <v>137</v>
@@ -2513,28 +2513,28 @@
       <c r="E14" s="36"/>
       <c r="F14" s="17"/>
       <c r="G14" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H14" s="19">
         <v>4</v>
       </c>
       <c r="I14" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J14" s="19">
+        <v>1</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="L14" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="J14" s="19">
-        <v>1</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="L14" s="19" t="s">
+      <c r="M14" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="M14" s="19" t="s">
-        <v>184</v>
-      </c>
       <c r="N14" s="43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O14" s="44" t="s">
         <v>138</v>
@@ -2552,7 +2552,7 @@
         <v>127</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E15" s="36" t="s">
         <v>119</v>
@@ -2584,28 +2584,28 @@
       <c r="E16" s="36"/>
       <c r="F16" s="15"/>
       <c r="G16" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H16" s="19">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="J16" s="8">
+        <v>1</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="H16" s="19">
-        <v>1</v>
-      </c>
-      <c r="I16" s="8" t="s">
+      <c r="L16" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="J16" s="8">
-        <v>1</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="L16" s="8" t="s">
+      <c r="M16" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="M16" s="8" t="s">
-        <v>184</v>
-      </c>
       <c r="N16" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O16" s="10" t="s">
         <v>137</v>
@@ -2622,28 +2622,28 @@
       <c r="E17" s="36"/>
       <c r="F17" s="15"/>
       <c r="G17" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H17" s="8">
         <v>2</v>
       </c>
       <c r="I17" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" s="8">
+        <v>1</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="L17" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="J17" s="8">
-        <v>1</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="L17" s="8" t="s">
+      <c r="M17" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="M17" s="8" t="s">
-        <v>184</v>
-      </c>
       <c r="N17" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O17" s="10" t="s">
         <v>137</v>
@@ -2660,28 +2660,28 @@
       <c r="E18" s="36"/>
       <c r="F18" s="15"/>
       <c r="G18" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H18" s="19">
         <v>3</v>
       </c>
       <c r="I18" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="J18" s="8">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="L18" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="J18" s="8">
-        <v>1</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="L18" s="8" t="s">
+      <c r="M18" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="M18" s="8" t="s">
-        <v>184</v>
-      </c>
       <c r="N18" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O18" s="10" t="s">
         <v>137</v>
@@ -2698,28 +2698,28 @@
       <c r="E19" s="36"/>
       <c r="F19" s="17"/>
       <c r="G19" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H19" s="19">
         <v>4</v>
       </c>
       <c r="I19" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" s="19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="J19" s="19">
-        <v>1</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="L19" s="19" t="s">
+      <c r="M19" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="M19" s="19" t="s">
-        <v>184</v>
-      </c>
       <c r="N19" s="43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O19" s="44" t="s">
         <v>138</v>
@@ -2740,7 +2740,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="A1:L21"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3430,8 +3430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K21"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3472,10 +3472,10 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>19</v>
@@ -3508,14 +3508,14 @@
         <v>116</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J3" s="1">
         <v>192</v>
       </c>
       <c r="K3" t="str">
-        <f>CONCATENATE("{ ""flid"": ",A3,",""chid"":",B3,", ""p"": ",C3,", ""t"" :",D3,",""dp"": ",E3,", ""q"":",F3,", ""start"":""",H3,", ""end"":""",I3,""", ""quality"":",J3,"},")</f>
-        <v>{ "flid": 1,"chid":1, "p": 50.2, "t" :30.2,"dp": 1234.56, "q":12223.7, "start":"2020-02-19T12:00:00Z, "end":"2020-02-19T13:00:00Z", "quality":192},</v>
+        <f>CONCATENATE("{ ""flid"": ",A3,",""chid"":",B3,", ""p"": ",C3,", ""t"" :",D3,",""dp"": ",E3,", ""q"":",F3,", ""start"":""",H3,""", ""end"":""",I3,""", ""quality"":",J3,"},")</f>
+        <v>{ "flid": 1,"chid":1, "p": 50.2, "t" :30.2,"dp": 1234.56, "q":12223.7, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3542,14 +3542,14 @@
         <v>116</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J4" s="1">
         <v>192</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4:K21" si="0">CONCATENATE("{ ""flid"": ",A4,",""chid"":",B4,", ""p"": ",C4,", ""t"" :",D4,",""dp"": ",E4,", ""q"":",F4,", ""start"":""",H4,", ""end"":""",I4,""", ""quality"":",J4,"},")</f>
-        <v>{ "flid": 1,"chid":1, "p": 50.3, "t" :30.3,"dp": 1234.57, "q":12223.8, "start":"2020-02-19T12:00:00Z, "end":"2020-02-19T13:00:00Z", "quality":192},</v>
+        <f t="shared" ref="K4:K21" si="0">CONCATENATE("{ ""flid"": ",A4,",""chid"":",B4,", ""p"": ",C4,", ""t"" :",D4,",""dp"": ",E4,", ""q"":",F4,", ""start"":""",H4,""", ""end"":""",I4,""", ""quality"":",J4,"},")</f>
+        <v>{ "flid": 1,"chid":1, "p": 50.3, "t" :30.3,"dp": 1234.57, "q":12223.8, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -3576,14 +3576,14 @@
         <v>116</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J5" s="1">
         <v>192</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.4, "t" :30.4,"dp": 1234.58, "q":12223.9, "start":"2020-02-19T12:00:00Z, "end":"2020-02-19T13:00:00Z", "quality":192},</v>
+        <v>{ "flid": 1,"chid":1, "p": 50.4, "t" :30.4,"dp": 1234.58, "q":12223.9, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -3610,14 +3610,14 @@
         <v>116</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J6" s="1">
         <v>192</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.5, "t" :30.5,"dp": 1234.59, "q":12223.10, "start":"2020-02-19T12:00:00Z, "end":"2020-02-19T13:00:00Z", "quality":192},</v>
+        <v>{ "flid": 1,"chid":1, "p": 50.5, "t" :30.5,"dp": 1234.59, "q":12223.10, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -3644,14 +3644,14 @@
         <v>116</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J7" s="1">
         <v>192</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.6, "t" :30.6,"dp": 1234.60, "q":12223.11, "start":"2020-02-19T12:00:00Z, "end":"2020-02-19T13:00:00Z", "quality":192},</v>
+        <v>{ "flid": 1,"chid":1, "p": 50.6, "t" :30.6,"dp": 1234.60, "q":12223.11, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -3678,14 +3678,14 @@
         <v>116</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J8" s="1">
         <v>192</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.7, "t" :30.7,"dp": 1234.61, "q":12223.12, "start":"2020-02-19T12:00:00Z, "end":"2020-02-19T13:00:00Z", "quality":192},</v>
+        <v>{ "flid": 1,"chid":1, "p": 50.7, "t" :30.7,"dp": 1234.61, "q":12223.12, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3712,14 +3712,14 @@
         <v>116</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J9" s="1">
         <v>192</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.8, "t" :30.8,"dp": 1234.62, "q":12223.13, "start":"2020-02-19T12:00:00Z, "end":"2020-02-19T13:00:00Z", "quality":192},</v>
+        <v>{ "flid": 1,"chid":1, "p": 50.8, "t" :30.8,"dp": 1234.62, "q":12223.13, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3746,14 +3746,14 @@
         <v>116</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J10" s="1">
         <v>192</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.9, "t" :30.9,"dp": 1234.63, "q":12223.14, "start":"2020-02-19T12:00:00Z, "end":"2020-02-19T13:00:00Z", "quality":192},</v>
+        <v>{ "flid": 1,"chid":1, "p": 50.9, "t" :30.9,"dp": 1234.63, "q":12223.14, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -3780,14 +3780,14 @@
         <v>116</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J11" s="1">
         <v>192</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.10, "t" :30.10,"dp": 1234.64, "q":12223.15, "start":"2020-02-19T12:00:00Z, "end":"2020-02-19T13:00:00Z", "quality":192},</v>
+        <v>{ "flid": 1,"chid":1, "p": 50.10, "t" :30.10,"dp": 1234.64, "q":12223.15, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3814,14 +3814,14 @@
         <v>116</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J12" s="1">
         <v>192</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.11, "t" :30.11,"dp": 1234.65, "q":12223.16, "start":"2020-02-19T12:00:00Z, "end":"2020-02-19T13:00:00Z", "quality":192},</v>
+        <v>{ "flid": 2,"chid":1, "p": 50.11, "t" :30.11,"dp": 1234.65, "q":12223.16, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3848,14 +3848,14 @@
         <v>116</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J13" s="1">
         <v>192</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.12, "t" :30.12,"dp": 1234.66, "q":12223.17, "start":"2020-02-19T12:00:00Z, "end":"2020-02-19T13:00:00Z", "quality":192},</v>
+        <v>{ "flid": 2,"chid":1, "p": 50.12, "t" :30.12,"dp": 1234.66, "q":12223.17, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3882,14 +3882,14 @@
         <v>116</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J14" s="1">
         <v>192</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.13, "t" :30.13,"dp": 1234.67, "q":12223.18, "start":"2020-02-19T12:00:00Z, "end":"2020-02-19T13:00:00Z", "quality":192},</v>
+        <v>{ "flid": 2,"chid":1, "p": 50.13, "t" :30.13,"dp": 1234.67, "q":12223.18, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3916,14 +3916,14 @@
         <v>116</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J15" s="1">
         <v>192</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.14, "t" :30.14,"dp": 1234.68, "q":12223.19, "start":"2020-02-19T12:00:00Z, "end":"2020-02-19T13:00:00Z", "quality":192},</v>
+        <v>{ "flid": 2,"chid":1, "p": 50.14, "t" :30.14,"dp": 1234.68, "q":12223.19, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3950,14 +3950,14 @@
         <v>116</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J16" s="1">
         <v>192</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.15, "t" :30.15,"dp": 1234.69, "q":12223.20, "start":"2020-02-19T12:00:00Z, "end":"2020-02-19T13:00:00Z", "quality":192},</v>
+        <v>{ "flid": 2,"chid":1, "p": 50.15, "t" :30.15,"dp": 1234.69, "q":12223.20, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3984,14 +3984,14 @@
         <v>116</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J17" s="1">
         <v>192</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.16, "t" :30.16,"dp": 1234.70, "q":12223.21, "start":"2020-02-19T12:00:00Z, "end":"2020-02-19T13:00:00Z", "quality":192},</v>
+        <v>{ "flid": 2,"chid":1, "p": 50.16, "t" :30.16,"dp": 1234.70, "q":12223.21, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -4018,14 +4018,14 @@
         <v>116</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J18" s="1">
         <v>192</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.17, "t" :30.17,"dp": 1234.71, "q":12223.22, "start":"2020-02-19T12:00:00Z, "end":"2020-02-19T13:00:00Z", "quality":192},</v>
+        <v>{ "flid": 2,"chid":1, "p": 50.17, "t" :30.17,"dp": 1234.71, "q":12223.22, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -4052,14 +4052,14 @@
         <v>116</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J19" s="1">
         <v>192</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.18, "t" :30.18,"dp": 1234.72, "q":12223.23, "start":"2020-02-19T12:00:00Z, "end":"2020-02-19T13:00:00Z", "quality":192},</v>
+        <v>{ "flid": 2,"chid":1, "p": 50.18, "t" :30.18,"dp": 1234.72, "q":12223.23, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -4086,14 +4086,14 @@
         <v>116</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J20" s="1">
         <v>192</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.19, "t" :30.19,"dp": 1234.73, "q":12223.24, "start":"2020-02-19T12:00:00Z, "end":"2020-02-19T13:00:00Z", "quality":192},</v>
+        <v>{ "flid": 2,"chid":1, "p": 50.19, "t" :30.19,"dp": 1234.73, "q":12223.24, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -4120,14 +4120,14 @@
         <v>116</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J21" s="1">
         <v>192</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.20, "t" :30.20,"dp": 1234.74, "q":12223.25, "start":"2020-02-19T12:00:00Z, "end":"2020-02-19T13:00:00Z", "quality":192},</v>
+        <v>{ "flid": 2,"chid":1, "p": 50.20, "t" :30.20,"dp": 1234.74, "q":12223.25, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
       </c>
     </row>
   </sheetData>
@@ -4140,7 +4140,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="K3" sqref="K3:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4177,10 +4177,10 @@
       </c>
       <c r="G2" s="45"/>
       <c r="H2" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="45" t="s">
         <v>188</v>
-      </c>
-      <c r="I2" s="45" t="s">
-        <v>189</v>
       </c>
       <c r="J2" s="45" t="s">
         <v>19</v>
@@ -4206,21 +4206,21 @@
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="J3" s="1">
         <v>192</v>
       </c>
       <c r="K3" t="str">
-        <f>CONCATENATE("{ ""flid"": ",A3,",""chid"":",B3,", ""p"": ",C3,", ""t"" :",D3,",""dp"": ",E3,", ""q"":",F3,", ""start"":""",H3,", ""end"":""",I3,""", ""quality"":",J3,"},")</f>
-        <v>{ "flid": 1,"chid":1, "p": 50.2, "t" :30.2,"dp": 1234.56, "q":122523.7, "start":"2020-02-19T07:00:00Z, "end":"2020-03-19T07:00:00Z", "quality":192},</v>
+        <f>CONCATENATE("{ ""flid"": ",A3,",""chid"":",B3,", ""p"": ",C3,", ""t"" :",D3,",""dp"": ",E3,", ""q"":",F3,", ""start"":""",H3,""", ""end"":""",I3,""", ""quality"":",J3,"},")</f>
+        <v>{ "flid": 1,"chid":1, "p": 50.2, "t" :30.2,"dp": 1234.56, "q":122523.7, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4240,21 +4240,21 @@
         <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="J4" s="1">
         <v>192</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4:K21" si="0">CONCATENATE("{ ""flid"": ",A4,",""chid"":",B4,", ""p"": ",C4,", ""t"" :",D4,",""dp"": ",E4,", ""q"":",F4,", ""start"":""",H4,", ""end"":""",I4,""", ""quality"":",J4,"},")</f>
-        <v>{ "flid": 1,"chid":1, "p": 50.3, "t" :30.3,"dp": 1234.57, "q":122523.8, "start":"2020-02-19T07:00:00Z, "end":"2020-03-19T07:00:00Z", "quality":192},</v>
+        <f t="shared" ref="K4:K21" si="0">CONCATENATE("{ ""flid"": ",A4,",""chid"":",B4,", ""p"": ",C4,", ""t"" :",D4,",""dp"": ",E4,", ""q"":",F4,", ""start"":""",H4,""", ""end"":""",I4,""", ""quality"":",J4,"},")</f>
+        <v>{ "flid": 1,"chid":1, "p": 50.3, "t" :30.3,"dp": 1234.57, "q":122523.8, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4274,21 +4274,21 @@
         <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="J5" s="1">
         <v>192</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.4, "t" :30.4,"dp": 1234.58, "q":122523.9, "start":"2020-02-19T07:00:00Z, "end":"2020-03-19T07:00:00Z", "quality":192},</v>
+        <v>{ "flid": 1,"chid":1, "p": 50.4, "t" :30.4,"dp": 1234.58, "q":122523.9, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4308,21 +4308,21 @@
         <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="J6" s="1">
         <v>192</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.5, "t" :30.5,"dp": 1234.59, "q":122523.10, "start":"2020-02-19T07:00:00Z, "end":"2020-03-19T07:00:00Z", "quality":192},</v>
+        <v>{ "flid": 1,"chid":1, "p": 50.5, "t" :30.5,"dp": 1234.59, "q":122523.10, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4342,21 +4342,21 @@
         <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="J7" s="1">
         <v>192</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.6, "t" :30.6,"dp": 1234.60, "q":122523.11, "start":"2020-02-19T07:00:00Z, "end":"2020-03-19T07:00:00Z", "quality":192},</v>
+        <v>{ "flid": 1,"chid":1, "p": 50.6, "t" :30.6,"dp": 1234.60, "q":122523.11, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -4376,21 +4376,21 @@
         <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="J8" s="1">
         <v>192</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.7, "t" :30.7,"dp": 1234.61, "q":122523.12, "start":"2020-02-19T07:00:00Z, "end":"2020-03-19T07:00:00Z", "quality":192},</v>
+        <v>{ "flid": 1,"chid":1, "p": 50.7, "t" :30.7,"dp": 1234.61, "q":122523.12, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4410,21 +4410,21 @@
         <v>52</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="J9" s="1">
         <v>192</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.8, "t" :30.8,"dp": 1234.62, "q":122523.13, "start":"2020-02-19T07:00:00Z, "end":"2020-03-19T07:00:00Z", "quality":192},</v>
+        <v>{ "flid": 1,"chid":1, "p": 50.8, "t" :30.8,"dp": 1234.62, "q":122523.13, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4444,21 +4444,21 @@
         <v>57</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="J10" s="1">
         <v>192</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.9, "t" :30.9,"dp": 1234.63, "q":122523.14, "start":"2020-02-19T07:00:00Z, "end":"2020-03-19T07:00:00Z", "quality":192},</v>
+        <v>{ "flid": 1,"chid":1, "p": 50.9, "t" :30.9,"dp": 1234.63, "q":122523.14, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4478,21 +4478,21 @@
         <v>62</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="J11" s="1">
         <v>192</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.10, "t" :30.10,"dp": 1234.64, "q":122523.15, "start":"2020-02-19T07:00:00Z, "end":"2020-03-19T07:00:00Z", "quality":192},</v>
+        <v>{ "flid": 1,"chid":1, "p": 50.10, "t" :30.10,"dp": 1234.64, "q":122523.15, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4512,21 +4512,21 @@
         <v>67</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="J12" s="1">
         <v>192</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.11, "t" :30.11,"dp": 1234.65, "q":122523.16, "start":"2020-02-19T07:00:00Z, "end":"2020-03-19T07:00:00Z", "quality":192},</v>
+        <v>{ "flid": 2,"chid":1, "p": 50.11, "t" :30.11,"dp": 1234.65, "q":122523.16, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4546,21 +4546,21 @@
         <v>72</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="J13" s="1">
         <v>192</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.12, "t" :30.12,"dp": 1234.66, "q":122523.17, "start":"2020-02-19T07:00:00Z, "end":"2020-03-19T07:00:00Z", "quality":192},</v>
+        <v>{ "flid": 2,"chid":1, "p": 50.12, "t" :30.12,"dp": 1234.66, "q":122523.17, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4580,21 +4580,21 @@
         <v>77</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="J14" s="1">
         <v>192</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.13, "t" :30.13,"dp": 1234.67, "q":122523.18, "start":"2020-02-19T07:00:00Z, "end":"2020-03-19T07:00:00Z", "quality":192},</v>
+        <v>{ "flid": 2,"chid":1, "p": 50.13, "t" :30.13,"dp": 1234.67, "q":122523.18, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4614,21 +4614,21 @@
         <v>82</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="J15" s="1">
         <v>192</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.14, "t" :30.14,"dp": 1234.68, "q":122523.19, "start":"2020-02-19T07:00:00Z, "end":"2020-03-19T07:00:00Z", "quality":192},</v>
+        <v>{ "flid": 2,"chid":1, "p": 50.14, "t" :30.14,"dp": 1234.68, "q":122523.19, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4648,21 +4648,21 @@
         <v>87</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="J16" s="1">
         <v>192</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.15, "t" :30.15,"dp": 1234.69, "q":122523.20, "start":"2020-02-19T07:00:00Z, "end":"2020-03-19T07:00:00Z", "quality":192},</v>
+        <v>{ "flid": 2,"chid":1, "p": 50.15, "t" :30.15,"dp": 1234.69, "q":122523.20, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -4682,21 +4682,21 @@
         <v>92</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="J17" s="1">
         <v>192</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.16, "t" :30.16,"dp": 1234.70, "q":122523.21, "start":"2020-02-19T07:00:00Z, "end":"2020-03-19T07:00:00Z", "quality":192},</v>
+        <v>{ "flid": 2,"chid":1, "p": 50.16, "t" :30.16,"dp": 1234.70, "q":122523.21, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -4716,21 +4716,21 @@
         <v>97</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="J18" s="1">
         <v>192</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.17, "t" :30.17,"dp": 1234.71, "q":122523.22, "start":"2020-02-19T07:00:00Z, "end":"2020-03-19T07:00:00Z", "quality":192},</v>
+        <v>{ "flid": 2,"chid":1, "p": 50.17, "t" :30.17,"dp": 1234.71, "q":122523.22, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -4750,21 +4750,21 @@
         <v>102</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="J19" s="1">
         <v>192</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.18, "t" :30.18,"dp": 1234.72, "q":122523.23, "start":"2020-02-19T07:00:00Z, "end":"2020-03-19T07:00:00Z", "quality":192},</v>
+        <v>{ "flid": 2,"chid":1, "p": 50.18, "t" :30.18,"dp": 1234.72, "q":122523.23, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -4784,21 +4784,21 @@
         <v>107</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="J20" s="1">
         <v>192</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.19, "t" :30.19,"dp": 1234.73, "q":122523.24, "start":"2020-02-19T07:00:00Z, "end":"2020-03-19T07:00:00Z", "quality":192},</v>
+        <v>{ "flid": 2,"chid":1, "p": 50.19, "t" :30.19,"dp": 1234.73, "q":122523.24, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -4818,21 +4818,21 @@
         <v>112</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="J21" s="1">
         <v>192</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.20, "t" :30.20,"dp": 1234.74, "q":122523.25, "start":"2020-02-19T07:00:00Z, "end":"2020-03-19T07:00:00Z", "quality":192},</v>
+        <v>{ "flid": 2,"chid":1, "p": 50.20, "t" :30.20,"dp": 1234.74, "q":122523.25, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
       </c>
     </row>
   </sheetData>
@@ -4845,8 +4845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4874,19 +4874,19 @@
         <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>18</v>
@@ -4906,13 +4906,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -4939,13 +4939,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4972,13 +4972,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -5005,13 +5005,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -5038,13 +5038,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -5071,13 +5071,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -5104,13 +5104,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -5137,13 +5137,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -5170,13 +5170,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -5203,13 +5203,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -5236,13 +5236,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -5269,13 +5269,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -5302,13 +5302,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -5335,13 +5335,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -5368,13 +5368,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -5401,13 +5401,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -5434,13 +5434,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -5467,13 +5467,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -5500,13 +5500,13 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>

--- a/xls/create-test-data.xlsx
+++ b/xls/create-test-data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\node\oask-gtp-webapi\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24912" windowHeight="12840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Корр-каналы" sheetId="5" r:id="rId1"/>
@@ -14,12 +19,12 @@
     <sheet name="DayHlData" sheetId="7" r:id="rId5"/>
     <sheet name="StatHlData" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="240">
   <si>
     <t>isAbsP</t>
   </si>
@@ -588,15 +593,6 @@
     <t>end</t>
   </si>
   <si>
-    <t>2020-02-19T13:00:00Z</t>
-  </si>
-  <si>
-    <t>2020-02-19T07:00:00Z</t>
-  </si>
-  <si>
-    <t>2020-03-19T07:00:00Z</t>
-  </si>
-  <si>
     <t>122523.7</t>
   </si>
   <si>
@@ -679,12 +675,81 @@
   </si>
   <si>
     <t>,"channels":[</t>
+  </si>
+  <si>
+    <t>2020-02-19T12:00</t>
+  </si>
+  <si>
+    <t>2020-02-19T13:00</t>
+  </si>
+  <si>
+    <t>2020-02-19T14:00</t>
+  </si>
+  <si>
+    <t>2020-02-19T15:00</t>
+  </si>
+  <si>
+    <t>2020-02-19T16:00</t>
+  </si>
+  <si>
+    <t>2020-02-19T17:00</t>
+  </si>
+  <si>
+    <t>2020-02-19T18:00</t>
+  </si>
+  <si>
+    <t>2020-02-19T19:00</t>
+  </si>
+  <si>
+    <t>2020-02-19T20:00</t>
+  </si>
+  <si>
+    <t>2020-02-19T21:00</t>
+  </si>
+  <si>
+    <t>2020-02-19T22:00</t>
+  </si>
+  <si>
+    <t>2020-02-19T23:00</t>
+  </si>
+  <si>
+    <t>2020-02-01T07:00</t>
+  </si>
+  <si>
+    <t>2020-02-02T07:00</t>
+  </si>
+  <si>
+    <t>2020-02-03T07:00</t>
+  </si>
+  <si>
+    <t>2020-02-04T07:00</t>
+  </si>
+  <si>
+    <t>2020-02-05T07:00</t>
+  </si>
+  <si>
+    <t>2020-02-06T07:00</t>
+  </si>
+  <si>
+    <t>2020-02-07T07:00</t>
+  </si>
+  <si>
+    <t>2020-02-08T07:00</t>
+  </si>
+  <si>
+    <t>2020-02-09T07:00</t>
+  </si>
+  <si>
+    <t>2020-02-10T07:00</t>
+  </si>
+  <si>
+    <t>2020-02-11T07:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1142,7 +1207,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1177,7 +1242,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1389,43 +1454,43 @@
   <dimension ref="A1:AD10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="AD1" sqref="AD1:AD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="109.5703125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="28" max="29" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="145.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="109.5546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" customWidth="1"/>
+    <col min="14" max="14" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.109375" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="28" max="29" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="145.88671875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>128</v>
       </c>
@@ -1509,7 +1574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>133</v>
       </c>
@@ -1541,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L2" s="13" t="str">
         <f>CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2)</f>
@@ -1569,7 +1634,7 @@
         <v>{"corrid":1,"name":"Корректор № 1","ip":"192.168.0.111","ftpDir":"./","addr":1,"channels":[</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1641,7 +1706,7 @@
         <v>{"chid":1,"chno":1,"name":"Line 1","template":"S001R1","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -1713,7 +1778,7 @@
         <v>{"chid":2,"chno":2,"name":"Line 2","template":"S001R2","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -1785,7 +1850,7 @@
         <v>{"chid":3,"chno":3,"name":"Line 3","template":"S001R3","isAbsP":true,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>133</v>
       </c>
@@ -1817,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L6" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1845,7 +1910,7 @@
         <v>{"corrid":2,"name":"Корректор № 2","ip":"192.168.0.112","ftpDir":"./","addr":2,"channels":[</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -1917,7 +1982,7 @@
         <v>{"chid":4,"chno":1,"name":"Line 1","template":"S001R1","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -1989,7 +2054,7 @@
         <v>{"chid":5,"chno":2,"name":"Line 2","template":"S001R2","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2061,7 +2126,7 @@
         <v>{"chid":6,"chno":3,"name":"Line 3","template":"S001R3","isAbsP":true,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="AD10" s="6" t="s">
         <v>12</v>
       </c>
@@ -2076,30 +2141,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="90.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="132.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="90.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="132.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="28" t="s">
         <v>117</v>
       </c>
@@ -2145,7 +2210,7 @@
         <v>["flid":flid"koef":koef"leadPt":leadPt"leadStat":leadStat</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -2178,7 +2243,7 @@
         <v>{ "flid" :1, "eic":"XXX-YYY-000-ZZZ-001", "name":"Харьков ГРС 1 ", "chid": 1, "cfgLines": null},</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -2211,7 +2276,7 @@
         <v>{ "flid" :2, "eic":"XXX-YYY-000-ZZZ-002", "name":"Харьков ГРС 2", "chid": 2, "cfgLines": null},</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -2244,7 +2309,7 @@
         <v>{ "flid" :3, "eic":"XXX-YYY-000-ZZZ-003", "name":"Харьков ГРС 3", "chid": 3, "cfgLines": null},</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -2277,7 +2342,7 @@
         <v>{ "flid" :4, "eic":"XXX-YYY-000-ZZZ-004", "name":"Харьков ГРС 4", "chid": 4, "cfgLines": null},</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -2310,7 +2375,7 @@
         <v>{ "flid" :5, "eic":"XXX-YYY-000-ZZZ-005", "name":"Харьков ГРС 5", "chid": 5, "cfgLines": null},</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -2343,7 +2408,7 @@
         <v>{ "flid" :6, "eic":"XXX-YYY-000-ZZZ-006", "name":"Харьков ГРС 6", "chid": 6, "cfgLines": null},</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2359,7 +2424,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="34"/>
     </row>
-    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -2392,7 +2457,7 @@
         <v>{ "flid" :7, "eic":"XXX-YYY-000-ZZZ-007", "name":"Харьков ГРС 7", "chid": null, "cfgLines": [</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2430,7 +2495,7 @@
         <v>{"flid":1,"koef":1,"leadPt":false,"leadStat":false},</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2468,7 +2533,7 @@
         <v>{"flid":2,"koef":1,"leadPt":false,"leadStat":false},</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2506,7 +2571,7 @@
         <v>{"flid":3,"koef":1,"leadPt":false,"leadStat":false},</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2544,7 +2609,7 @@
         <v>{"flid":4,"koef":1,"leadPt":false,"leadStat":false}]},</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>8</v>
       </c>
@@ -2577,7 +2642,7 @@
         <v>{ "flid" :8, "eic":"XXX-YYY-000-ZZZ-008", "name":"Харьков ГРС 8", "chid": null, "cfgLines": [</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2615,7 +2680,7 @@
         <v>{"flid":1,"koef":1,"leadPt":false,"leadStat":false},</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2653,7 +2718,7 @@
         <v>{"flid":2,"koef":1,"leadPt":false,"leadStat":false},</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2691,7 +2756,7 @@
         <v>{"flid":3,"koef":1,"leadPt":false,"leadStat":false},</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2740,23 +2805,23 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="H3" sqref="H3:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="105.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="105.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H1" s="29" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
@@ -2788,12 +2853,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -2811,22 +2876,22 @@
         <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>116</v>
+        <v>217</v>
       </c>
       <c r="I3" s="1">
         <v>192</v>
       </c>
       <c r="J3" t="str">
         <f>CONCATENATE("{ ""flid"": ",A3,",""chid"":",B3,", ""p"": ",C3,", ""t"" :",D3,",""dp"": ",E3,", ""q"":",F3,", ""currday"":",G3,", ""lastupdate"":""",H3,""", ""quality"":",I3,"},")</f>
-        <v>{ "flid": 1,"chid":1, "p": 50.2, "t" :30.2,"dp": 1234.56, "q":12223.7, "currday":12345.67, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.2, "t" :30.2,"dp": 1234.56, "q":12223.7, "currday":12345.67, "lastupdate":"2020-02-19T12:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
@@ -2844,22 +2909,22 @@
         <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>116</v>
+        <v>218</v>
       </c>
       <c r="I4" s="1">
         <v>192</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" ref="J4:J21" si="0">CONCATENATE("{ ""flid"": ",A4,",""chid"":",B4,", ""p"": ",C4,", ""t"" :",D4,",""dp"": ",E4,", ""q"":",F4,", ""currday"":",G4,", ""lastupdate"":""",H4,""", ""quality"":",I4,"},")</f>
-        <v>{ "flid": 1,"chid":1, "p": 50.3, "t" :30.3,"dp": 1234.57, "q":12223.8, "currday":12345.68, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.3, "t" :30.3,"dp": 1234.57, "q":12223.8, "currday":12345.68, "lastupdate":"2020-02-19T13:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>30</v>
@@ -2877,22 +2942,22 @@
         <v>34</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>116</v>
+        <v>219</v>
       </c>
       <c r="I5" s="1">
         <v>192</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.4, "t" :30.4,"dp": 1234.58, "q":12223.9, "currday":12345.69, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.4, "t" :30.4,"dp": 1234.58, "q":12223.9, "currday":12345.69, "lastupdate":"2020-02-19T14:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>35</v>
@@ -2910,22 +2975,22 @@
         <v>39</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>116</v>
+        <v>220</v>
       </c>
       <c r="I6" s="1">
         <v>192</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.5, "t" :30.5,"dp": 1234.59, "q":12223.10, "currday":12345.70, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.5, "t" :30.5,"dp": 1234.59, "q":12223.10, "currday":12345.70, "lastupdate":"2020-02-19T15:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>40</v>
@@ -2943,22 +3008,22 @@
         <v>44</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>116</v>
+        <v>221</v>
       </c>
       <c r="I7" s="1">
         <v>192</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.6, "t" :30.6,"dp": 1234.60, "q":12223.11, "currday":12345.71, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.6, "t" :30.6,"dp": 1234.60, "q":12223.11, "currday":12345.71, "lastupdate":"2020-02-19T16:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>45</v>
@@ -2976,22 +3041,22 @@
         <v>49</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="I8" s="1">
         <v>192</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.7, "t" :30.7,"dp": 1234.61, "q":12223.12, "currday":12345.72, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.7, "t" :30.7,"dp": 1234.61, "q":12223.12, "currday":12345.72, "lastupdate":"2020-02-19T17:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>50</v>
@@ -3009,22 +3074,22 @@
         <v>54</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>116</v>
+        <v>223</v>
       </c>
       <c r="I9" s="1">
         <v>192</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.8, "t" :30.8,"dp": 1234.62, "q":12223.13, "currday":12345.73, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.8, "t" :30.8,"dp": 1234.62, "q":12223.13, "currday":12345.73, "lastupdate":"2020-02-19T18:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>55</v>
@@ -3042,22 +3107,22 @@
         <v>59</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="I10" s="1">
         <v>192</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.9, "t" :30.9,"dp": 1234.63, "q":12223.14, "currday":12345.74, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.9, "t" :30.9,"dp": 1234.63, "q":12223.14, "currday":12345.74, "lastupdate":"2020-02-19T19:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>60</v>
@@ -3075,22 +3140,22 @@
         <v>64</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c r="I11" s="1">
         <v>192</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.10, "t" :30.10,"dp": 1234.64, "q":12223.15, "currday":12345.75, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.10, "t" :30.10,"dp": 1234.64, "q":12223.15, "currday":12345.75, "lastupdate":"2020-02-19T20:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>65</v>
@@ -3108,22 +3173,22 @@
         <v>69</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>116</v>
+        <v>226</v>
       </c>
       <c r="I12" s="1">
         <v>192</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.11, "t" :30.11,"dp": 1234.65, "q":12223.16, "currday":12345.76, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "p": 50.11, "t" :30.11,"dp": 1234.65, "q":12223.16, "currday":12345.76, "lastupdate":"2020-02-19T21:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>70</v>
@@ -3141,22 +3206,22 @@
         <v>74</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="I13" s="1">
         <v>192</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.12, "t" :30.12,"dp": 1234.66, "q":12223.17, "currday":12345.77, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "p": 50.12, "t" :30.12,"dp": 1234.66, "q":12223.17, "currday":12345.77, "lastupdate":"2020-02-19T22:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>75</v>
@@ -3174,22 +3239,22 @@
         <v>79</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="I14" s="1">
         <v>192</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.13, "t" :30.13,"dp": 1234.67, "q":12223.18, "currday":12345.78, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "p": 50.13, "t" :30.13,"dp": 1234.67, "q":12223.18, "currday":12345.78, "lastupdate":"2020-02-19T23:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>80</v>
@@ -3207,22 +3272,22 @@
         <v>84</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>116</v>
+        <v>217</v>
       </c>
       <c r="I15" s="1">
         <v>192</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.14, "t" :30.14,"dp": 1234.68, "q":12223.19, "currday":12345.79, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "p": 50.14, "t" :30.14,"dp": 1234.68, "q":12223.19, "currday":12345.79, "lastupdate":"2020-02-19T12:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>85</v>
@@ -3240,22 +3305,22 @@
         <v>89</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>116</v>
+        <v>218</v>
       </c>
       <c r="I16" s="1">
         <v>192</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.15, "t" :30.15,"dp": 1234.69, "q":12223.20, "currday":12345.80, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "p": 50.15, "t" :30.15,"dp": 1234.69, "q":12223.20, "currday":12345.80, "lastupdate":"2020-02-19T13:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>90</v>
@@ -3273,22 +3338,22 @@
         <v>94</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>116</v>
+        <v>219</v>
       </c>
       <c r="I17" s="1">
         <v>192</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.16, "t" :30.16,"dp": 1234.70, "q":12223.21, "currday":12345.81, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "p": 50.16, "t" :30.16,"dp": 1234.70, "q":12223.21, "currday":12345.81, "lastupdate":"2020-02-19T14:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>95</v>
@@ -3306,22 +3371,22 @@
         <v>99</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>116</v>
+        <v>220</v>
       </c>
       <c r="I18" s="1">
         <v>192</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.17, "t" :30.17,"dp": 1234.71, "q":12223.22, "currday":12345.82, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "p": 50.17, "t" :30.17,"dp": 1234.71, "q":12223.22, "currday":12345.82, "lastupdate":"2020-02-19T15:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>100</v>
@@ -3339,22 +3404,22 @@
         <v>104</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>116</v>
+        <v>221</v>
       </c>
       <c r="I19" s="1">
         <v>192</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.18, "t" :30.18,"dp": 1234.72, "q":12223.23, "currday":12345.83, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "p": 50.18, "t" :30.18,"dp": 1234.72, "q":12223.23, "currday":12345.83, "lastupdate":"2020-02-19T16:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>105</v>
@@ -3372,22 +3437,22 @@
         <v>109</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="I20" s="1">
         <v>192</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.19, "t" :30.19,"dp": 1234.73, "q":12223.24, "currday":12345.84, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "p": 50.19, "t" :30.19,"dp": 1234.73, "q":12223.24, "currday":12345.84, "lastupdate":"2020-02-19T17:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>110</v>
@@ -3405,17 +3470,17 @@
         <v>114</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>116</v>
+        <v>223</v>
       </c>
       <c r="I21" s="1">
         <v>192</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.20, "t" :30.20,"dp": 1234.74, "q":12223.25, "currday":12345.85, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "p": 50.20, "t" :30.20,"dp": 1234.74, "q":12223.25, "currday":12345.85, "lastupdate":"2020-02-19T18:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J22" t="s">
         <v>12</v>
       </c>
@@ -3430,28 +3495,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3:K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="145.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="145.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H1" s="29" t="s">
         <v>115</v>
       </c>
       <c r="I1" s="29"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
@@ -3484,12 +3549,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -3505,25 +3570,25 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>116</v>
+        <v>217</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="J3" s="1">
         <v>192</v>
       </c>
       <c r="K3" t="str">
         <f>CONCATENATE("{ ""flid"": ",A3,",""chid"":",B3,", ""p"": ",C3,", ""t"" :",D3,",""dp"": ",E3,", ""q"":",F3,", ""start"":""",H3,""", ""end"":""",I3,""", ""quality"":",J3,"},")</f>
-        <v>{ "flid": 1,"chid":1, "p": 50.2, "t" :30.2,"dp": 1234.56, "q":12223.7, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.2, "t" :30.2,"dp": 1234.56, "q":12223.7, "start":"2020-02-19T12:00", "end":"2020-02-19T13:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
@@ -3539,25 +3604,25 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>116</v>
+        <v>218</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="J4" s="1">
         <v>192</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" ref="K4:K21" si="0">CONCATENATE("{ ""flid"": ",A4,",""chid"":",B4,", ""p"": ",C4,", ""t"" :",D4,",""dp"": ",E4,", ""q"":",F4,", ""start"":""",H4,""", ""end"":""",I4,""", ""quality"":",J4,"},")</f>
-        <v>{ "flid": 1,"chid":1, "p": 50.3, "t" :30.3,"dp": 1234.57, "q":12223.8, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.3, "t" :30.3,"dp": 1234.57, "q":12223.8, "start":"2020-02-19T13:00", "end":"2020-02-19T14:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>30</v>
@@ -3573,25 +3638,25 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>116</v>
+        <v>219</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="J5" s="1">
         <v>192</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.4, "t" :30.4,"dp": 1234.58, "q":12223.9, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.4, "t" :30.4,"dp": 1234.58, "q":12223.9, "start":"2020-02-19T14:00", "end":"2020-02-19T15:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>35</v>
@@ -3607,25 +3672,25 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>116</v>
+        <v>220</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="J6" s="1">
         <v>192</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.5, "t" :30.5,"dp": 1234.59, "q":12223.10, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.5, "t" :30.5,"dp": 1234.59, "q":12223.10, "start":"2020-02-19T15:00", "end":"2020-02-19T16:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>40</v>
@@ -3641,25 +3706,25 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>116</v>
+        <v>221</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="J7" s="1">
         <v>192</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.6, "t" :30.6,"dp": 1234.60, "q":12223.11, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.6, "t" :30.6,"dp": 1234.60, "q":12223.11, "start":"2020-02-19T16:00", "end":"2020-02-19T17:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>45</v>
@@ -3675,25 +3740,25 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="J8" s="1">
         <v>192</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.7, "t" :30.7,"dp": 1234.61, "q":12223.12, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.7, "t" :30.7,"dp": 1234.61, "q":12223.12, "start":"2020-02-19T17:00", "end":"2020-02-19T18:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>50</v>
@@ -3709,25 +3774,25 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>116</v>
+        <v>223</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="J9" s="1">
         <v>192</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.8, "t" :30.8,"dp": 1234.62, "q":12223.13, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.8, "t" :30.8,"dp": 1234.62, "q":12223.13, "start":"2020-02-19T18:00", "end":"2020-02-19T19:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>55</v>
@@ -3743,25 +3808,25 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="J10" s="1">
         <v>192</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.9, "t" :30.9,"dp": 1234.63, "q":12223.14, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.9, "t" :30.9,"dp": 1234.63, "q":12223.14, "start":"2020-02-19T19:00", "end":"2020-02-19T20:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>60</v>
@@ -3777,25 +3842,25 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="J11" s="1">
         <v>192</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.10, "t" :30.10,"dp": 1234.64, "q":12223.15, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.10, "t" :30.10,"dp": 1234.64, "q":12223.15, "start":"2020-02-19T20:00", "end":"2020-02-19T21:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>65</v>
@@ -3811,25 +3876,25 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>116</v>
+        <v>226</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="J12" s="1">
         <v>192</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.11, "t" :30.11,"dp": 1234.65, "q":12223.16, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.11, "t" :30.11,"dp": 1234.65, "q":12223.16, "start":"2020-02-19T21:00", "end":"2020-02-19T22:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>70</v>
@@ -3845,25 +3910,25 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="J13" s="1">
         <v>192</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.12, "t" :30.12,"dp": 1234.66, "q":12223.17, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.12, "t" :30.12,"dp": 1234.66, "q":12223.17, "start":"2020-02-19T22:00", "end":"2020-02-19T23:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>75</v>
@@ -3879,25 +3944,25 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="J14" s="1">
         <v>192</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.13, "t" :30.13,"dp": 1234.67, "q":12223.18, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.13, "t" :30.13,"dp": 1234.67, "q":12223.18, "start":"2020-02-19T23:00", "end":"2020-02-19T12:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>80</v>
@@ -3913,25 +3978,25 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>116</v>
+        <v>217</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="J15" s="1">
         <v>192</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.14, "t" :30.14,"dp": 1234.68, "q":12223.19, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "p": 50.14, "t" :30.14,"dp": 1234.68, "q":12223.19, "start":"2020-02-19T12:00", "end":"2020-02-19T13:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>85</v>
@@ -3947,25 +4012,25 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>116</v>
+        <v>218</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="J16" s="1">
         <v>192</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.15, "t" :30.15,"dp": 1234.69, "q":12223.20, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "p": 50.15, "t" :30.15,"dp": 1234.69, "q":12223.20, "start":"2020-02-19T13:00", "end":"2020-02-19T14:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>90</v>
@@ -3981,25 +4046,25 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>116</v>
+        <v>219</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="J17" s="1">
         <v>192</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.16, "t" :30.16,"dp": 1234.70, "q":12223.21, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "p": 50.16, "t" :30.16,"dp": 1234.70, "q":12223.21, "start":"2020-02-19T14:00", "end":"2020-02-19T15:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>95</v>
@@ -4015,25 +4080,25 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>116</v>
+        <v>220</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="J18" s="1">
         <v>192</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.17, "t" :30.17,"dp": 1234.71, "q":12223.22, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "p": 50.17, "t" :30.17,"dp": 1234.71, "q":12223.22, "start":"2020-02-19T15:00", "end":"2020-02-19T16:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>100</v>
@@ -4049,25 +4114,25 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>116</v>
+        <v>221</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="J19" s="1">
         <v>192</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.18, "t" :30.18,"dp": 1234.72, "q":12223.23, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "p": 50.18, "t" :30.18,"dp": 1234.72, "q":12223.23, "start":"2020-02-19T16:00", "end":"2020-02-19T17:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>105</v>
@@ -4083,25 +4148,25 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="J20" s="1">
         <v>192</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.19, "t" :30.19,"dp": 1234.73, "q":12223.24, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "p": 50.19, "t" :30.19,"dp": 1234.73, "q":12223.24, "start":"2020-02-19T17:00", "end":"2020-02-19T18:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>110</v>
@@ -4117,17 +4182,17 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>116</v>
+        <v>223</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="J21" s="1">
         <v>192</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.20, "t" :30.20,"dp": 1234.74, "q":12223.25, "start":"2020-02-19T12:00:00Z", "end":"2020-02-19T13:00:00Z", "quality":192},</v>
+        <v>{ "flid": 4,"chid":4, "p": 50.20, "t" :30.20,"dp": 1234.74, "q":12223.25, "start":"2020-02-19T18:00", "end":"2020-02-19T19:00", "quality":192},</v>
       </c>
     </row>
   </sheetData>
@@ -4140,23 +4205,23 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K21"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H1" s="29" t="s">
         <v>115</v>
       </c>
       <c r="I1" s="29"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
@@ -4189,12 +4254,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -4206,29 +4271,29 @@
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="J3" s="1">
         <v>192</v>
       </c>
       <c r="K3" t="str">
         <f>CONCATENATE("{ ""flid"": ",A3,",""chid"":",B3,", ""p"": ",C3,", ""t"" :",D3,",""dp"": ",E3,", ""q"":",F3,", ""start"":""",H3,""", ""end"":""",I3,""", ""quality"":",J3,"},")</f>
-        <v>{ "flid": 1,"chid":1, "p": 50.2, "t" :30.2,"dp": 1234.56, "q":122523.7, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.2, "t" :30.2,"dp": 1234.56, "q":122523.7, "start":"2020-02-01T07:00", "end":"2020-02-02T07:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
@@ -4240,29 +4305,29 @@
         <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="J4" s="1">
         <v>192</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" ref="K4:K21" si="0">CONCATENATE("{ ""flid"": ",A4,",""chid"":",B4,", ""p"": ",C4,", ""t"" :",D4,",""dp"": ",E4,", ""q"":",F4,", ""start"":""",H4,""", ""end"":""",I4,""", ""quality"":",J4,"},")</f>
-        <v>{ "flid": 1,"chid":1, "p": 50.3, "t" :30.3,"dp": 1234.57, "q":122523.8, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.3, "t" :30.3,"dp": 1234.57, "q":122523.8, "start":"2020-02-02T07:00", "end":"2020-02-03T07:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>30</v>
@@ -4274,29 +4339,29 @@
         <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="J5" s="1">
         <v>192</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.4, "t" :30.4,"dp": 1234.58, "q":122523.9, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.4, "t" :30.4,"dp": 1234.58, "q":122523.9, "start":"2020-02-03T07:00", "end":"2020-02-04T07:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>35</v>
@@ -4308,29 +4373,29 @@
         <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="J6" s="1">
         <v>192</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.5, "t" :30.5,"dp": 1234.59, "q":122523.10, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.5, "t" :30.5,"dp": 1234.59, "q":122523.10, "start":"2020-02-04T07:00", "end":"2020-02-05T07:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>40</v>
@@ -4342,29 +4407,29 @@
         <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="J7" s="1">
         <v>192</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.6, "t" :30.6,"dp": 1234.60, "q":122523.11, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.6, "t" :30.6,"dp": 1234.60, "q":122523.11, "start":"2020-02-05T07:00", "end":"2020-02-06T07:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>45</v>
@@ -4376,29 +4441,29 @@
         <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="J8" s="1">
         <v>192</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.7, "t" :30.7,"dp": 1234.61, "q":122523.12, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.7, "t" :30.7,"dp": 1234.61, "q":122523.12, "start":"2020-02-06T07:00", "end":"2020-02-07T07:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>50</v>
@@ -4410,29 +4475,29 @@
         <v>52</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="J9" s="1">
         <v>192</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.8, "t" :30.8,"dp": 1234.62, "q":122523.13, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.8, "t" :30.8,"dp": 1234.62, "q":122523.13, "start":"2020-02-07T07:00", "end":"2020-02-08T07:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>55</v>
@@ -4444,29 +4509,29 @@
         <v>57</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="J10" s="1">
         <v>192</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.9, "t" :30.9,"dp": 1234.63, "q":122523.14, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.9, "t" :30.9,"dp": 1234.63, "q":122523.14, "start":"2020-02-08T07:00", "end":"2020-02-09T07:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>60</v>
@@ -4478,29 +4543,29 @@
         <v>62</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="J11" s="1">
         <v>192</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "p": 50.10, "t" :30.10,"dp": 1234.64, "q":122523.15, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "p": 50.10, "t" :30.10,"dp": 1234.64, "q":122523.15, "start":"2020-02-09T07:00", "end":"2020-02-10T07:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>65</v>
@@ -4512,29 +4577,29 @@
         <v>67</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="J12" s="1">
         <v>192</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.11, "t" :30.11,"dp": 1234.65, "q":122523.16, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "p": 50.11, "t" :30.11,"dp": 1234.65, "q":122523.16, "start":"2020-02-01T07:00", "end":"2020-02-02T07:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>70</v>
@@ -4546,29 +4611,29 @@
         <v>72</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="J13" s="1">
         <v>192</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.12, "t" :30.12,"dp": 1234.66, "q":122523.17, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "p": 50.12, "t" :30.12,"dp": 1234.66, "q":122523.17, "start":"2020-02-02T07:00", "end":"2020-02-03T07:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>75</v>
@@ -4580,29 +4645,29 @@
         <v>77</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="J14" s="1">
         <v>192</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.13, "t" :30.13,"dp": 1234.67, "q":122523.18, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "p": 50.13, "t" :30.13,"dp": 1234.67, "q":122523.18, "start":"2020-02-03T07:00", "end":"2020-02-04T07:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>80</v>
@@ -4614,29 +4679,29 @@
         <v>82</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="J15" s="1">
         <v>192</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.14, "t" :30.14,"dp": 1234.68, "q":122523.19, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "p": 50.14, "t" :30.14,"dp": 1234.68, "q":122523.19, "start":"2020-02-04T07:00", "end":"2020-02-05T07:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>85</v>
@@ -4648,29 +4713,29 @@
         <v>87</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="J16" s="1">
         <v>192</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.15, "t" :30.15,"dp": 1234.69, "q":122523.20, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "p": 50.15, "t" :30.15,"dp": 1234.69, "q":122523.20, "start":"2020-02-05T07:00", "end":"2020-02-06T07:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>90</v>
@@ -4682,29 +4747,29 @@
         <v>92</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="J17" s="1">
         <v>192</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.16, "t" :30.16,"dp": 1234.70, "q":122523.21, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "p": 50.16, "t" :30.16,"dp": 1234.70, "q":122523.21, "start":"2020-02-06T07:00", "end":"2020-02-07T07:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>95</v>
@@ -4716,29 +4781,29 @@
         <v>97</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="J18" s="1">
         <v>192</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.17, "t" :30.17,"dp": 1234.71, "q":122523.22, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "p": 50.17, "t" :30.17,"dp": 1234.71, "q":122523.22, "start":"2020-02-07T07:00", "end":"2020-02-08T07:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>100</v>
@@ -4750,29 +4815,29 @@
         <v>102</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="J19" s="1">
         <v>192</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.18, "t" :30.18,"dp": 1234.72, "q":122523.23, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "p": 50.18, "t" :30.18,"dp": 1234.72, "q":122523.23, "start":"2020-02-08T07:00", "end":"2020-02-09T07:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>105</v>
@@ -4784,29 +4849,29 @@
         <v>107</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="J20" s="1">
         <v>192</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.19, "t" :30.19,"dp": 1234.73, "q":122523.24, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "p": 50.19, "t" :30.19,"dp": 1234.73, "q":122523.24, "start":"2020-02-09T07:00", "end":"2020-02-10T07:00", "quality":192},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>110</v>
@@ -4818,21 +4883,21 @@
         <v>112</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="J21" s="1">
         <v>192</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "p": 50.20, "t" :30.20,"dp": 1234.74, "q":122523.25, "start":"2020-02-19T07:00:00Z", "end":"2020-03-19T07:00:00Z", "quality":192},</v>
+        <v>{ "flid": 4,"chid":4, "p": 50.20, "t" :30.20,"dp": 1234.74, "q":122523.25, "start":"2020-02-10T07:00", "end":"2020-02-11T07:00", "quality":192},</v>
       </c>
     </row>
   </sheetData>
@@ -4845,28 +4910,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="127.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="127.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H1" s="29" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
@@ -4874,19 +4939,19 @@
         <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>18</v>
@@ -4898,21 +4963,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -4928,24 +4993,24 @@
       </c>
       <c r="J3" t="str">
         <f>CONCATENATE("{ ""flid"": ",A3,",""chid"":",B3,", ""CO2"": ",C3,", ""N2"" :",D3,",""Ro"": ",E3,", ""xx"":",F3,", ""zz"":",G3,", ""lastupdate"":""",H3,""", ""quality"":",I3,"},")</f>
-        <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4961,24 +5026,24 @@
       </c>
       <c r="J4" t="str">
         <f t="shared" ref="J4:J21" si="0">CONCATENATE("{ ""flid"": ",A4,",""chid"":",B4,", ""CO2"": ",C4,", ""N2"" :",D4,",""Ro"": ",E4,", ""xx"":",F4,", ""zz"":",G4,", ""lastupdate"":""",H4,""", ""quality"":",I4,"},")</f>
-        <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -4994,24 +5059,24 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -5027,24 +5092,24 @@
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -5060,24 +5125,24 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -5093,24 +5158,24 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -5126,24 +5191,24 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -5159,24 +5224,24 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -5192,24 +5257,24 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -5225,24 +5290,24 @@
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -5258,24 +5323,24 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -5291,24 +5356,24 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -5324,24 +5389,24 @@
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -5357,24 +5422,24 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -5390,24 +5455,24 @@
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -5423,24 +5488,24 @@
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -5456,24 +5521,24 @@
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -5489,24 +5554,24 @@
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{ "flid": 4,"chid":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -5522,7 +5587,7 @@
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
+        <v>{ "flid": 4,"chid":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:00:00Z", "quality":192},</v>
       </c>
     </row>
   </sheetData>

--- a/xls/create-test-data.xlsx
+++ b/xls/create-test-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24912" windowHeight="12840" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24912" windowHeight="12840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Корр-каналы" sheetId="5" r:id="rId1"/>
@@ -3496,7 +3496,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K21"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3579,8 +3579,8 @@
         <v>192</v>
       </c>
       <c r="K3" t="str">
-        <f>CONCATENATE("{ ""flid"": ",A3,",""chid"":",B3,", ""p"": ",C3,", ""t"" :",D3,",""dp"": ",E3,", ""q"":",F3,", ""start"":""",H3,""", ""end"":""",I3,""", ""quality"":",J3,"},")</f>
-        <v>{ "flid": 3,"chid":3, "p": 50.2, "t" :30.2,"dp": 1234.56, "q":12223.7, "start":"2020-02-19T12:00", "end":"2020-02-19T13:00", "quality":192},</v>
+        <f>CONCATENATE("{ ""flid"": ",A3,",""chid"":",B3,", ""p"": ",C3,", ""t"" :",D3,",""dp"": ",E3,", ""q"":",F3,", ""start"":""",H3,""", ""lastupdate"":""",I3,""", ""quality"":",J3,"},")</f>
+        <v>{ "flid": 3,"chid":3, "p": 50.2, "t" :30.2,"dp": 1234.56, "q":12223.7, "start":"2020-02-19T12:00", "lastupdate":"2020-02-19T13:00", "quality":192},</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3613,8 +3613,8 @@
         <v>192</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4:K21" si="0">CONCATENATE("{ ""flid"": ",A4,",""chid"":",B4,", ""p"": ",C4,", ""t"" :",D4,",""dp"": ",E4,", ""q"":",F4,", ""start"":""",H4,""", ""end"":""",I4,""", ""quality"":",J4,"},")</f>
-        <v>{ "flid": 3,"chid":3, "p": 50.3, "t" :30.3,"dp": 1234.57, "q":12223.8, "start":"2020-02-19T13:00", "end":"2020-02-19T14:00", "quality":192},</v>
+        <f t="shared" ref="K4:K21" si="0">CONCATENATE("{ ""flid"": ",A4,",""chid"":",B4,", ""p"": ",C4,", ""t"" :",D4,",""dp"": ",E4,", ""q"":",F4,", ""start"":""",H4,""", ""lastupdate"":""",I4,""", ""quality"":",J4,"},")</f>
+        <v>{ "flid": 3,"chid":3, "p": 50.3, "t" :30.3,"dp": 1234.57, "q":12223.8, "start":"2020-02-19T13:00", "lastupdate":"2020-02-19T14:00", "quality":192},</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"chid":3, "p": 50.4, "t" :30.4,"dp": 1234.58, "q":12223.9, "start":"2020-02-19T14:00", "end":"2020-02-19T15:00", "quality":192},</v>
+        <v>{ "flid": 3,"chid":3, "p": 50.4, "t" :30.4,"dp": 1234.58, "q":12223.9, "start":"2020-02-19T14:00", "lastupdate":"2020-02-19T15:00", "quality":192},</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"chid":3, "p": 50.5, "t" :30.5,"dp": 1234.59, "q":12223.10, "start":"2020-02-19T15:00", "end":"2020-02-19T16:00", "quality":192},</v>
+        <v>{ "flid": 3,"chid":3, "p": 50.5, "t" :30.5,"dp": 1234.59, "q":12223.10, "start":"2020-02-19T15:00", "lastupdate":"2020-02-19T16:00", "quality":192},</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"chid":3, "p": 50.6, "t" :30.6,"dp": 1234.60, "q":12223.11, "start":"2020-02-19T16:00", "end":"2020-02-19T17:00", "quality":192},</v>
+        <v>{ "flid": 3,"chid":3, "p": 50.6, "t" :30.6,"dp": 1234.60, "q":12223.11, "start":"2020-02-19T16:00", "lastupdate":"2020-02-19T17:00", "quality":192},</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"chid":3, "p": 50.7, "t" :30.7,"dp": 1234.61, "q":12223.12, "start":"2020-02-19T17:00", "end":"2020-02-19T18:00", "quality":192},</v>
+        <v>{ "flid": 3,"chid":3, "p": 50.7, "t" :30.7,"dp": 1234.61, "q":12223.12, "start":"2020-02-19T17:00", "lastupdate":"2020-02-19T18:00", "quality":192},</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"chid":3, "p": 50.8, "t" :30.8,"dp": 1234.62, "q":12223.13, "start":"2020-02-19T18:00", "end":"2020-02-19T19:00", "quality":192},</v>
+        <v>{ "flid": 3,"chid":3, "p": 50.8, "t" :30.8,"dp": 1234.62, "q":12223.13, "start":"2020-02-19T18:00", "lastupdate":"2020-02-19T19:00", "quality":192},</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"chid":3, "p": 50.9, "t" :30.9,"dp": 1234.63, "q":12223.14, "start":"2020-02-19T19:00", "end":"2020-02-19T20:00", "quality":192},</v>
+        <v>{ "flid": 3,"chid":3, "p": 50.9, "t" :30.9,"dp": 1234.63, "q":12223.14, "start":"2020-02-19T19:00", "lastupdate":"2020-02-19T20:00", "quality":192},</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"chid":3, "p": 50.10, "t" :30.10,"dp": 1234.64, "q":12223.15, "start":"2020-02-19T20:00", "end":"2020-02-19T21:00", "quality":192},</v>
+        <v>{ "flid": 3,"chid":3, "p": 50.10, "t" :30.10,"dp": 1234.64, "q":12223.15, "start":"2020-02-19T20:00", "lastupdate":"2020-02-19T21:00", "quality":192},</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"chid":3, "p": 50.11, "t" :30.11,"dp": 1234.65, "q":12223.16, "start":"2020-02-19T21:00", "end":"2020-02-19T22:00", "quality":192},</v>
+        <v>{ "flid": 3,"chid":3, "p": 50.11, "t" :30.11,"dp": 1234.65, "q":12223.16, "start":"2020-02-19T21:00", "lastupdate":"2020-02-19T22:00", "quality":192},</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"chid":3, "p": 50.12, "t" :30.12,"dp": 1234.66, "q":12223.17, "start":"2020-02-19T22:00", "end":"2020-02-19T23:00", "quality":192},</v>
+        <v>{ "flid": 3,"chid":3, "p": 50.12, "t" :30.12,"dp": 1234.66, "q":12223.17, "start":"2020-02-19T22:00", "lastupdate":"2020-02-19T23:00", "quality":192},</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -3954,7 +3954,7 @@
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"chid":3, "p": 50.13, "t" :30.13,"dp": 1234.67, "q":12223.18, "start":"2020-02-19T23:00", "end":"2020-02-19T12:00", "quality":192},</v>
+        <v>{ "flid": 3,"chid":3, "p": 50.13, "t" :30.13,"dp": 1234.67, "q":12223.18, "start":"2020-02-19T23:00", "lastupdate":"2020-02-19T12:00", "quality":192},</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -3988,7 +3988,7 @@
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"chid":4, "p": 50.14, "t" :30.14,"dp": 1234.68, "q":12223.19, "start":"2020-02-19T12:00", "end":"2020-02-19T13:00", "quality":192},</v>
+        <v>{ "flid": 4,"chid":4, "p": 50.14, "t" :30.14,"dp": 1234.68, "q":12223.19, "start":"2020-02-19T12:00", "lastupdate":"2020-02-19T13:00", "quality":192},</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"chid":4, "p": 50.15, "t" :30.15,"dp": 1234.69, "q":12223.20, "start":"2020-02-19T13:00", "end":"2020-02-19T14:00", "quality":192},</v>
+        <v>{ "flid": 4,"chid":4, "p": 50.15, "t" :30.15,"dp": 1234.69, "q":12223.20, "start":"2020-02-19T13:00", "lastupdate":"2020-02-19T14:00", "quality":192},</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"chid":4, "p": 50.16, "t" :30.16,"dp": 1234.70, "q":12223.21, "start":"2020-02-19T14:00", "end":"2020-02-19T15:00", "quality":192},</v>
+        <v>{ "flid": 4,"chid":4, "p": 50.16, "t" :30.16,"dp": 1234.70, "q":12223.21, "start":"2020-02-19T14:00", "lastupdate":"2020-02-19T15:00", "quality":192},</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"chid":4, "p": 50.17, "t" :30.17,"dp": 1234.71, "q":12223.22, "start":"2020-02-19T15:00", "end":"2020-02-19T16:00", "quality":192},</v>
+        <v>{ "flid": 4,"chid":4, "p": 50.17, "t" :30.17,"dp": 1234.71, "q":12223.22, "start":"2020-02-19T15:00", "lastupdate":"2020-02-19T16:00", "quality":192},</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"chid":4, "p": 50.18, "t" :30.18,"dp": 1234.72, "q":12223.23, "start":"2020-02-19T16:00", "end":"2020-02-19T17:00", "quality":192},</v>
+        <v>{ "flid": 4,"chid":4, "p": 50.18, "t" :30.18,"dp": 1234.72, "q":12223.23, "start":"2020-02-19T16:00", "lastupdate":"2020-02-19T17:00", "quality":192},</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"chid":4, "p": 50.19, "t" :30.19,"dp": 1234.73, "q":12223.24, "start":"2020-02-19T17:00", "end":"2020-02-19T18:00", "quality":192},</v>
+        <v>{ "flid": 4,"chid":4, "p": 50.19, "t" :30.19,"dp": 1234.73, "q":12223.24, "start":"2020-02-19T17:00", "lastupdate":"2020-02-19T18:00", "quality":192},</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -4192,7 +4192,7 @@
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"chid":4, "p": 50.20, "t" :30.20,"dp": 1234.74, "q":12223.25, "start":"2020-02-19T18:00", "end":"2020-02-19T19:00", "quality":192},</v>
+        <v>{ "flid": 4,"chid":4, "p": 50.20, "t" :30.20,"dp": 1234.74, "q":12223.25, "start":"2020-02-19T18:00", "lastupdate":"2020-02-19T19:00", "quality":192},</v>
       </c>
     </row>
   </sheetData>
@@ -4204,8 +4204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4284,8 +4284,8 @@
         <v>192</v>
       </c>
       <c r="K3" t="str">
-        <f>CONCATENATE("{ ""flid"": ",A3,",""chid"":",B3,", ""p"": ",C3,", ""t"" :",D3,",""dp"": ",E3,", ""q"":",F3,", ""start"":""",H3,""", ""end"":""",I3,""", ""quality"":",J3,"},")</f>
-        <v>{ "flid": 3,"chid":3, "p": 50.2, "t" :30.2,"dp": 1234.56, "q":122523.7, "start":"2020-02-01T07:00", "end":"2020-02-02T07:00", "quality":192},</v>
+        <f>CONCATENATE("{ ""flid"": ",A3,",""chid"":",B3,", ""p"": ",C3,", ""t"" :",D3,",""dp"": ",E3,", ""q"":",F3,", ""start"":""",H3,""", ""lastupdate"":""",I3,""", ""quality"":",J3,"},")</f>
+        <v>{ "flid": 3,"chid":3, "p": 50.2, "t" :30.2,"dp": 1234.56, "q":122523.7, "start":"2020-02-01T07:00", "lastupdate":"2020-02-02T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -4318,8 +4318,8 @@
         <v>192</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4:K21" si="0">CONCATENATE("{ ""flid"": ",A4,",""chid"":",B4,", ""p"": ",C4,", ""t"" :",D4,",""dp"": ",E4,", ""q"":",F4,", ""start"":""",H4,""", ""end"":""",I4,""", ""quality"":",J4,"},")</f>
-        <v>{ "flid": 3,"chid":3, "p": 50.3, "t" :30.3,"dp": 1234.57, "q":122523.8, "start":"2020-02-02T07:00", "end":"2020-02-03T07:00", "quality":192},</v>
+        <f t="shared" ref="K4:K21" si="0">CONCATENATE("{ ""flid"": ",A4,",""chid"":",B4,", ""p"": ",C4,", ""t"" :",D4,",""dp"": ",E4,", ""q"":",F4,", ""start"":""",H4,""", ""lastupdate"":""",I4,""", ""quality"":",J4,"},")</f>
+        <v>{ "flid": 3,"chid":3, "p": 50.3, "t" :30.3,"dp": 1234.57, "q":122523.8, "start":"2020-02-02T07:00", "lastupdate":"2020-02-03T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"chid":3, "p": 50.4, "t" :30.4,"dp": 1234.58, "q":122523.9, "start":"2020-02-03T07:00", "end":"2020-02-04T07:00", "quality":192},</v>
+        <v>{ "flid": 3,"chid":3, "p": 50.4, "t" :30.4,"dp": 1234.58, "q":122523.9, "start":"2020-02-03T07:00", "lastupdate":"2020-02-04T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"chid":3, "p": 50.5, "t" :30.5,"dp": 1234.59, "q":122523.10, "start":"2020-02-04T07:00", "end":"2020-02-05T07:00", "quality":192},</v>
+        <v>{ "flid": 3,"chid":3, "p": 50.5, "t" :30.5,"dp": 1234.59, "q":122523.10, "start":"2020-02-04T07:00", "lastupdate":"2020-02-05T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"chid":3, "p": 50.6, "t" :30.6,"dp": 1234.60, "q":122523.11, "start":"2020-02-05T07:00", "end":"2020-02-06T07:00", "quality":192},</v>
+        <v>{ "flid": 3,"chid":3, "p": 50.6, "t" :30.6,"dp": 1234.60, "q":122523.11, "start":"2020-02-05T07:00", "lastupdate":"2020-02-06T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -4455,7 +4455,7 @@
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"chid":3, "p": 50.7, "t" :30.7,"dp": 1234.61, "q":122523.12, "start":"2020-02-06T07:00", "end":"2020-02-07T07:00", "quality":192},</v>
+        <v>{ "flid": 3,"chid":3, "p": 50.7, "t" :30.7,"dp": 1234.61, "q":122523.12, "start":"2020-02-06T07:00", "lastupdate":"2020-02-07T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"chid":3, "p": 50.8, "t" :30.8,"dp": 1234.62, "q":122523.13, "start":"2020-02-07T07:00", "end":"2020-02-08T07:00", "quality":192},</v>
+        <v>{ "flid": 3,"chid":3, "p": 50.8, "t" :30.8,"dp": 1234.62, "q":122523.13, "start":"2020-02-07T07:00", "lastupdate":"2020-02-08T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -4523,7 +4523,7 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"chid":3, "p": 50.9, "t" :30.9,"dp": 1234.63, "q":122523.14, "start":"2020-02-08T07:00", "end":"2020-02-09T07:00", "quality":192},</v>
+        <v>{ "flid": 3,"chid":3, "p": 50.9, "t" :30.9,"dp": 1234.63, "q":122523.14, "start":"2020-02-08T07:00", "lastupdate":"2020-02-09T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"chid":3, "p": 50.10, "t" :30.10,"dp": 1234.64, "q":122523.15, "start":"2020-02-09T07:00", "end":"2020-02-10T07:00", "quality":192},</v>
+        <v>{ "flid": 3,"chid":3, "p": 50.10, "t" :30.10,"dp": 1234.64, "q":122523.15, "start":"2020-02-09T07:00", "lastupdate":"2020-02-10T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"chid":4, "p": 50.11, "t" :30.11,"dp": 1234.65, "q":122523.16, "start":"2020-02-01T07:00", "end":"2020-02-02T07:00", "quality":192},</v>
+        <v>{ "flid": 4,"chid":4, "p": 50.11, "t" :30.11,"dp": 1234.65, "q":122523.16, "start":"2020-02-01T07:00", "lastupdate":"2020-02-02T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -4625,7 +4625,7 @@
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"chid":4, "p": 50.12, "t" :30.12,"dp": 1234.66, "q":122523.17, "start":"2020-02-02T07:00", "end":"2020-02-03T07:00", "quality":192},</v>
+        <v>{ "flid": 4,"chid":4, "p": 50.12, "t" :30.12,"dp": 1234.66, "q":122523.17, "start":"2020-02-02T07:00", "lastupdate":"2020-02-03T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -4659,7 +4659,7 @@
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"chid":4, "p": 50.13, "t" :30.13,"dp": 1234.67, "q":122523.18, "start":"2020-02-03T07:00", "end":"2020-02-04T07:00", "quality":192},</v>
+        <v>{ "flid": 4,"chid":4, "p": 50.13, "t" :30.13,"dp": 1234.67, "q":122523.18, "start":"2020-02-03T07:00", "lastupdate":"2020-02-04T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -4693,7 +4693,7 @@
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"chid":4, "p": 50.14, "t" :30.14,"dp": 1234.68, "q":122523.19, "start":"2020-02-04T07:00", "end":"2020-02-05T07:00", "quality":192},</v>
+        <v>{ "flid": 4,"chid":4, "p": 50.14, "t" :30.14,"dp": 1234.68, "q":122523.19, "start":"2020-02-04T07:00", "lastupdate":"2020-02-05T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -4727,7 +4727,7 @@
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"chid":4, "p": 50.15, "t" :30.15,"dp": 1234.69, "q":122523.20, "start":"2020-02-05T07:00", "end":"2020-02-06T07:00", "quality":192},</v>
+        <v>{ "flid": 4,"chid":4, "p": 50.15, "t" :30.15,"dp": 1234.69, "q":122523.20, "start":"2020-02-05T07:00", "lastupdate":"2020-02-06T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"chid":4, "p": 50.16, "t" :30.16,"dp": 1234.70, "q":122523.21, "start":"2020-02-06T07:00", "end":"2020-02-07T07:00", "quality":192},</v>
+        <v>{ "flid": 4,"chid":4, "p": 50.16, "t" :30.16,"dp": 1234.70, "q":122523.21, "start":"2020-02-06T07:00", "lastupdate":"2020-02-07T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"chid":4, "p": 50.17, "t" :30.17,"dp": 1234.71, "q":122523.22, "start":"2020-02-07T07:00", "end":"2020-02-08T07:00", "quality":192},</v>
+        <v>{ "flid": 4,"chid":4, "p": 50.17, "t" :30.17,"dp": 1234.71, "q":122523.22, "start":"2020-02-07T07:00", "lastupdate":"2020-02-08T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -4829,7 +4829,7 @@
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"chid":4, "p": 50.18, "t" :30.18,"dp": 1234.72, "q":122523.23, "start":"2020-02-08T07:00", "end":"2020-02-09T07:00", "quality":192},</v>
+        <v>{ "flid": 4,"chid":4, "p": 50.18, "t" :30.18,"dp": 1234.72, "q":122523.23, "start":"2020-02-08T07:00", "lastupdate":"2020-02-09T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"chid":4, "p": 50.19, "t" :30.19,"dp": 1234.73, "q":122523.24, "start":"2020-02-09T07:00", "end":"2020-02-10T07:00", "quality":192},</v>
+        <v>{ "flid": 4,"chid":4, "p": 50.19, "t" :30.19,"dp": 1234.73, "q":122523.24, "start":"2020-02-09T07:00", "lastupdate":"2020-02-10T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"chid":4, "p": 50.20, "t" :30.20,"dp": 1234.74, "q":122523.25, "start":"2020-02-10T07:00", "end":"2020-02-11T07:00", "quality":192},</v>
+        <v>{ "flid": 4,"chid":4, "p": 50.20, "t" :30.20,"dp": 1234.74, "q":122523.25, "start":"2020-02-10T07:00", "lastupdate":"2020-02-11T07:00", "quality":192},</v>
       </c>
     </row>
   </sheetData>
@@ -4910,7 +4910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>

--- a/xls/create-test-data.xlsx
+++ b/xls/create-test-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Корр-каналы" sheetId="5" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="StatHlData" sheetId="8" r:id="rId6"/>
     <sheet name="rtsystem" sheetId="9" r:id="rId7"/>
     <sheet name="rtdata" sheetId="10" r:id="rId8"/>
+    <sheet name="regimParam" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="220">
   <si>
     <t>isAbsP</t>
   </si>
@@ -609,6 +610,78 @@
   </si>
   <si>
     <t>good</t>
+  </si>
+  <si>
+    <t>P in KC-1</t>
+  </si>
+  <si>
+    <t>P in KC-2</t>
+  </si>
+  <si>
+    <t>P in KC-3</t>
+  </si>
+  <si>
+    <t>P in KC-4</t>
+  </si>
+  <si>
+    <t>P in KC-5</t>
+  </si>
+  <si>
+    <t>P in KC-6</t>
+  </si>
+  <si>
+    <t>P in KC-7</t>
+  </si>
+  <si>
+    <t>P in KC-8</t>
+  </si>
+  <si>
+    <t>P in KC-9</t>
+  </si>
+  <si>
+    <t>P in KC-10</t>
+  </si>
+  <si>
+    <t>P in KC-11</t>
+  </si>
+  <si>
+    <t>P in KC-12</t>
+  </si>
+  <si>
+    <t>P in KC-13</t>
+  </si>
+  <si>
+    <t>P in KC-14</t>
+  </si>
+  <si>
+    <t>P in KC-15</t>
+  </si>
+  <si>
+    <t>P in KC-16</t>
+  </si>
+  <si>
+    <t>P in KC-17</t>
+  </si>
+  <si>
+    <t>P in KC-18</t>
+  </si>
+  <si>
+    <t>P in KC-19</t>
+  </si>
+  <si>
+    <t>P in KC-20</t>
+  </si>
+  <si>
+    <t>P in KC-21</t>
+  </si>
+  <si>
+    <t>P in KC-22</t>
+  </si>
+  <si>
+    <t>P in KC-23</t>
+  </si>
+  <si>
+    <t>P in KC-24</t>
   </si>
 </sst>
 </file>
@@ -3431,7 +3504,7 @@
         <v>192</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" ref="J23:J40" si="1">CONCATENATE("{ ""flid"": ",A23,",""chid"":",B23,", ""p"": ",C23,", ""t"" :",D23,",""dp"": ",E23,", ""q"":",F23,", ""currday"":",G23,", ""lastupdate"":""",H23,""", ""quality"":",I23,"},")</f>
+        <f t="shared" ref="J23:J38" si="1">CONCATENATE("{ ""flid"": ",A23,",""chid"":",B23,", ""p"": ",C23,", ""t"" :",D23,",""dp"": ",E23,", ""q"":",F23,", ""currday"":",G23,", ""lastupdate"":""",H23,""", ""quality"":",I23,"},")</f>
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
@@ -4692,7 +4765,7 @@
         <v>193</v>
       </c>
       <c r="K22" s="51" t="str">
-        <f t="shared" ref="K22:K39" si="1">CONCATENATE("{ ""flid"": ",A22,",""chid"":",B22,", ""p"": ",C22,", ""t"" :",D22,",""dp"": ",E22,", ""q"":",F22,", ""start"":""",H22,""", ""lastupdate"":""",I22,""", ""quality"":",J22,"},")</f>
+        <f t="shared" ref="K22:K38" si="1">CONCATENATE("{ ""flid"": ",A22,",""chid"":",B22,", ""p"": ",C22,", ""t"" :",D22,",""dp"": ",E22,", ""q"":",F22,", ""start"":""",H22,""", ""lastupdate"":""",I22,""", ""quality"":",J22,"},")</f>
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T13:00", "lastupdate":"2020-02-19T14:00", "quality":193},</v>
       </c>
     </row>
@@ -8448,8 +8521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9299,4 +9372,397 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="49.5703125" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" t="str">
+        <f>CONCATENATE("{ ""paramid"": ",A3,",""sensorid"":",B3,", ""name"": """,C3,"""},")</f>
+        <v>{ "paramid": 1,"sensorid":1, "name": "P in KC-1"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D26" si="0">CONCATENATE("{ ""paramid"": ",A4,",""sensorid"":",B4,", ""name"": """,C4,"""},")</f>
+        <v>{ "paramid": 2,"sensorid":2, "name": "P in KC-2"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "paramid": 3,"sensorid":3, "name": "P in KC-3"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "paramid": 4,"sensorid":4, "name": "P in KC-4"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "paramid": 5,"sensorid":5, "name": "P in KC-5"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "paramid": 6,"sensorid":6, "name": "P in KC-6"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "paramid": 7,"sensorid":null, "name": "P in KC-7"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "paramid": 8,"sensorid":null, "name": "P in KC-8"},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "paramid": 9,"sensorid":null, "name": "P in KC-9"},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "paramid": 10,"sensorid":null, "name": "P in KC-10"},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "paramid": 11,"sensorid":null, "name": "P in KC-11"},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "paramid": 12,"sensorid":null, "name": "P in KC-12"},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "paramid": 13,"sensorid":null, "name": "P in KC-13"},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "paramid": 14,"sensorid":null, "name": "P in KC-14"},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "paramid": 15,"sensorid":null, "name": "P in KC-15"},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "paramid": 16,"sensorid":null, "name": "P in KC-16"},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "paramid": 17,"sensorid":null, "name": "P in KC-17"},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "paramid": 18,"sensorid":null, "name": "P in KC-18"},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "paramid": 19,"sensorid":null, "name": "P in KC-19"},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "paramid": 20,"sensorid":null, "name": "P in KC-20"},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "paramid": 21,"sensorid":null, "name": "P in KC-21"},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "paramid": 22,"sensorid":null, "name": "P in KC-22"},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "paramid": 23,"sensorid":null, "name": "P in KC-23"},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "paramid": 24,"sensorid":null, "name": "P in KC-24"},</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xls/create-test-data.xlsx
+++ b/xls/create-test-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Корр-каналы" sheetId="5" r:id="rId1"/>
@@ -16,13 +16,15 @@
     <sheet name="rtsystem" sheetId="9" r:id="rId7"/>
     <sheet name="rtdata" sheetId="10" r:id="rId8"/>
     <sheet name="regimParam" sheetId="11" r:id="rId9"/>
+    <sheet name="Forms" sheetId="12" r:id="rId10"/>
+    <sheet name="TablesGui" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="289">
   <si>
     <t>isAbsP</t>
   </si>
@@ -682,6 +684,213 @@
   </si>
   <si>
     <t>P in KC-24</t>
+  </si>
+  <si>
+    <t>"formid" :</t>
+  </si>
+  <si>
+    <t>formid</t>
+  </si>
+  <si>
+    <t>{"formid":</t>
+  </si>
+  <si>
+    <t>Форма ввод № 1</t>
+  </si>
+  <si>
+    <t>Форма ввод № 2</t>
+  </si>
+  <si>
+    <t>"key":</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>field1</t>
+  </si>
+  <si>
+    <t>field2</t>
+  </si>
+  <si>
+    <t>field3</t>
+  </si>
+  <si>
+    <t>field5</t>
+  </si>
+  <si>
+    <t>field6</t>
+  </si>
+  <si>
+    <t>field7</t>
+  </si>
+  <si>
+    <t>{"key":"</t>
+  </si>
+  <si>
+    <t>"label":</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Параметр 1</t>
+  </si>
+  <si>
+    <t>Параметр 2</t>
+  </si>
+  <si>
+    <t>Параметр 3</t>
+  </si>
+  <si>
+    <t>Параметр 5</t>
+  </si>
+  <si>
+    <t>Параметр 6</t>
+  </si>
+  <si>
+    <t>Параметр 7</t>
+  </si>
+  <si>
+    <t>","label":"</t>
+  </si>
+  <si>
+    <t>"value":</t>
+  </si>
+  <si>
+    <t>","value":"</t>
+  </si>
+  <si>
+    <t>"controlType":</t>
+  </si>
+  <si>
+    <t>controlType</t>
+  </si>
+  <si>
+    <t>","controlType":"</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>"order":</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>","order":</t>
+  </si>
+  <si>
+    <t>"options":</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>,"options":</t>
+  </si>
+  <si>
+    <t>[{}]</t>
+  </si>
+  <si>
+    <t>"tableid" :</t>
+  </si>
+  <si>
+    <t>tableid</t>
+  </si>
+  <si>
+    <t>{"tableid":</t>
+  </si>
+  <si>
+    <t>Таблица ввод № 1</t>
+  </si>
+  <si>
+    <t>{"name":"</t>
+  </si>
+  <si>
+    <t>"display":</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>","display":"</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>param1</t>
+  </si>
+  <si>
+    <t>param2</t>
+  </si>
+  <si>
+    <t>param3</t>
+  </si>
+  <si>
+    <t>param5</t>
+  </si>
+  <si>
+    <t>param6</t>
+  </si>
+  <si>
+    <t>param7</t>
+  </si>
+  <si>
+    <t>","columns":[</t>
+  </si>
+  <si>
+    <t>param8</t>
+  </si>
+  <si>
+    <t>Параметр 8</t>
+  </si>
+  <si>
+    <t>param9</t>
+  </si>
+  <si>
+    <t>Параметр 9</t>
+  </si>
+  <si>
+    <t>param10</t>
+  </si>
+  <si>
+    <t>Параметр 10</t>
+  </si>
+  <si>
+    <t>param11</t>
+  </si>
+  <si>
+    <t>Параметр 11</t>
+  </si>
+  <si>
+    <t>param12</t>
+  </si>
+  <si>
+    <t>Параметр 12</t>
+  </si>
+  <si>
+    <t>param13</t>
+  </si>
+  <si>
+    <t>Параметр 13</t>
+  </si>
+  <si>
+    <t>param14</t>
+  </si>
+  <si>
+    <t>Параметр 14</t>
+  </si>
+  <si>
+    <t>param15</t>
+  </si>
+  <si>
+    <t>Параметр 15</t>
+  </si>
+  <si>
+    <t>","controls":[</t>
   </si>
 </sst>
 </file>
@@ -1415,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2096,6 +2305,1488 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:X9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="55.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="F2" s="13" t="str">
+        <f>CONCATENATE(A2,B2,C2,D2,E2)</f>
+        <v>{"formid":1,"name":"Форма ввод № 1","controls":[</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="24" t="str">
+        <f t="shared" ref="X2:X9" si="0">CONCATENATE(F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2)</f>
+        <v>{"formid":1,"name":"Форма ввод № 1","controls":[</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="13" t="str">
+        <f t="shared" ref="F3:F9" si="1">CONCATENATE(A3,B3,C3,D3,E3)</f>
+        <v/>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="L3" s="8">
+        <v>100</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="P3" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"key":"field1","label":"Параметр 1","value":"100","controlType":"textbox","order":1,"options":[{}]},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="L4" s="8">
+        <v>101</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="P4" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"key":"field2","label":"Параметр 2","value":"101","controlType":"textbox","order":2,"options":[{}]},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="8">
+        <v>102</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="P5" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="X5" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"key":"field3","label":"Параметр 3","value":"102","controlType":"textbox","order":3,"options":[{}]}]},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="13">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>{"formid":2,"name":"Форма ввод № 2","controls":[</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"formid":2,"name":"Форма ввод № 2","controls":[</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="L7" s="8">
+        <v>104</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="P7" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X7" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"key":"field5","label":"Параметр 5","value":"104","controlType":"textbox","order":5,"options":[{}]},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="L8" s="8">
+        <v>105</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="P8" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X8" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"key":"field6","label":"Параметр 6","value":"105","controlType":"textbox","order":6,"options":[{}]},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="L9" s="8">
+        <v>106</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="P9" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="X9" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"key":"field7","label":"Параметр 7","value":"106","controlType":"textbox","order":7,"options":[{}]}]},</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:X21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="56.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9" hidden="1" customWidth="1"/>
+    <col min="19" max="22" width="0" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="96.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="13" t="str">
+        <f>CONCATENATE(A2,B2,C2,D2,E2)</f>
+        <v>{"tableid":1,"name":"Таблица ввод № 1","columns":[</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="24" t="str">
+        <f t="shared" ref="X2:X9" si="0">CONCATENATE(F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2)</f>
+        <v>{"tableid":1,"name":"Таблица ввод № 1","columns":[</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="13" t="str">
+        <f t="shared" ref="F3:F9" si="1">CONCATENATE(A3,B3,C3,D3,E3)</f>
+        <v/>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"param1","display":"Параметр 1"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"param2","display":"Параметр 2"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="X5" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"param3","display":"Параметр 3"}]},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" s="13">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>{"tableid":2,"name":"Таблица ввод № 1","columns":[</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"tableid":2,"name":"Таблица ввод № 1","columns":[</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X7" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"param5","display":"Параметр 5"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X8" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"param6","display":"Параметр 6"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="X9" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"name":"param7","display":"Параметр 7"}]},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="13">
+        <v>2</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F10" s="13" t="str">
+        <f t="shared" ref="F10:F13" si="2">CONCATENATE(A10,B10,C10,D10,E10)</f>
+        <v>{"tableid":2,"name":"Таблица ввод № 1","columns":[</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="25" t="str">
+        <f t="shared" ref="X10:X13" si="3">CONCATENATE(F10,G10,H10,I10,J10,K10,L10,M10,N10,O10,P10,Q10,R10,S10,T10,U10,V10,W10)</f>
+        <v>{"tableid":2,"name":"Таблица ввод № 1","columns":[</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X11" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"param5","display":"Параметр 5"},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X12" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"param6","display":"Параметр 6"},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X13" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"param7","display":"Параметр 7"},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="13" t="str">
+        <f t="shared" ref="F14:F21" si="4">CONCATENATE(A14,B14,C14,D14,E14)</f>
+        <v/>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X14" s="25" t="str">
+        <f t="shared" ref="X14:X21" si="5">CONCATENATE(F14,G14,H14,I14,J14,K14,L14,M14,N14,O14,P14,Q14,R14,S14,T14,U14,V14,W14)</f>
+        <v>{"name":"param8","display":"Параметр 8"},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X15" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name":"param9","display":"Параметр 9"},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X16" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name":"param10","display":"Параметр 10"},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X17" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name":"param11","display":"Параметр 11"},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X18" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name":"param12","display":"Параметр 12"},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X19" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name":"param13","display":"Параметр 13"},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X20" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name":"param14","display":"Параметр 14"},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="X21" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name":"param15","display":"Параметр 15"}]},</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8522,7 +10213,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9378,12 +11069,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5703125" customWidth="1"/>
     <col min="4" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>

--- a/xls/create-test-data.xlsx
+++ b/xls/create-test-data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\node\oask-gtp-webapi\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24912" windowHeight="12840" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Корр-каналы" sheetId="5" r:id="rId1"/>
@@ -19,12 +24,12 @@
     <sheet name="Forms" sheetId="12" r:id="rId10"/>
     <sheet name="TablesGui" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="283">
   <si>
     <t>isAbsP</t>
   </si>
@@ -705,24 +710,6 @@
   </si>
   <si>
     <t>key</t>
-  </si>
-  <si>
-    <t>field1</t>
-  </si>
-  <si>
-    <t>field2</t>
-  </si>
-  <si>
-    <t>field3</t>
-  </si>
-  <si>
-    <t>field5</t>
-  </si>
-  <si>
-    <t>field6</t>
-  </si>
-  <si>
-    <t>field7</t>
   </si>
   <si>
     <t>{"key":"</t>
@@ -896,7 +883,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1378,7 +1365,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1413,7 +1400,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1628,40 +1615,40 @@
       <selection sqref="A1:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="108.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="101.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="108.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" customWidth="1"/>
+    <col min="14" max="14" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="101.88671875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -1745,7 +1732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>37</v>
       </c>
@@ -1805,7 +1792,7 @@
         <v>{"corrid":1,"name":"Корректор № 1","ip":"192.168.0.111","ftpDir":"./","addr":1,"channels":[</v>
       </c>
     </row>
-    <row r="3" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1877,7 +1864,7 @@
         <v>{"chid":1,"chno":1,"name":"Line 1","template":"S001R1","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="4" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -1949,7 +1936,7 @@
         <v>{"chid":2,"chno":2,"name":"Line 2","template":"S001R2","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="5" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -2021,7 +2008,7 @@
         <v>{"chid":3,"chno":3,"name":"Line 3","template":"S001R3","isAbsP":true,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>37</v>
       </c>
@@ -2081,7 +2068,7 @@
         <v>{"corrid":2,"name":"Корректор № 2","ip":"192.168.0.112","ftpDir":"./","addr":2,"channels":[</v>
       </c>
     </row>
-    <row r="7" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2153,7 +2140,7 @@
         <v>{"chid":4,"chno":1,"name":"Line 1","template":"S001R1","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="8" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -2225,7 +2212,7 @@
         <v>{"chid":5,"chno":2,"name":"Line 2","template":"S001R2","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="9" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2297,7 +2284,7 @@
         <v>{"chid":6,"chno":3,"name":"Line 3","template":"S001R3","isAbsP":true,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="AD10" s="6" t="s">
         <v>12</v>
       </c>
@@ -2313,32 +2300,32 @@
   <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:X9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="55.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="55.109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>220</v>
       </c>
@@ -2360,34 +2347,34 @@
         <v>226</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L1" s="21" t="s">
         <v>190</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N1" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q1" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="O1" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>252</v>
-      </c>
       <c r="R1" s="21" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="S1" s="21"/>
       <c r="T1" s="21"/>
@@ -2398,7 +2385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>222</v>
       </c>
@@ -2412,7 +2399,7 @@
         <v>223</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F2" s="13" t="str">
         <f>CONCATENATE(A2,B2,C2,D2,E2)</f>
@@ -2440,7 +2427,7 @@
         <v>{"formid":1,"name":"Форма ввод № 1","controls":[</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -2451,40 +2438,40 @@
         <v/>
       </c>
       <c r="G3" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="I3" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="L3" s="8">
+        <v>100</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="L3" s="8">
-        <v>100</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>248</v>
-      </c>
       <c r="O3" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="P3" s="8">
         <v>1</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
@@ -2495,10 +2482,10 @@
       </c>
       <c r="X3" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"key":"field1","label":"Параметр 1","value":"100","controlType":"textbox","order":1,"options":[{}]},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{"key":"param1","label":"Параметр 1","value":"100","controlType":"textbox","order":1,"options":[{}]},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -2509,40 +2496,40 @@
         <v/>
       </c>
       <c r="G4" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L4" s="8">
         <v>101</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="P4" s="8">
         <v>2</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
@@ -2553,10 +2540,10 @@
       </c>
       <c r="X4" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"key":"field2","label":"Параметр 2","value":"101","controlType":"textbox","order":2,"options":[{}]},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{"key":"param2","label":"Параметр 2","value":"101","controlType":"textbox","order":2,"options":[{}]},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -2567,40 +2554,40 @@
         <v/>
       </c>
       <c r="G5" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J5" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>244</v>
       </c>
       <c r="L5" s="8">
         <v>102</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="P5" s="8">
         <v>3</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
@@ -2611,10 +2598,10 @@
       </c>
       <c r="X5" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"key":"field3","label":"Параметр 3","value":"102","controlType":"textbox","order":3,"options":[{}]}]},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{"key":"param3","label":"Параметр 3","value":"102","controlType":"textbox","order":3,"options":[{}]}]},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>222</v>
       </c>
@@ -2628,7 +2615,7 @@
         <v>224</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F6" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2656,7 +2643,7 @@
         <v>{"formid":2,"name":"Форма ввод № 2","controls":[</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2667,40 +2654,40 @@
         <v/>
       </c>
       <c r="G7" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>239</v>
-      </c>
       <c r="K7" s="8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L7" s="8">
         <v>104</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="P7" s="8">
         <v>5</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
@@ -2711,10 +2698,10 @@
       </c>
       <c r="X7" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"key":"field5","label":"Параметр 5","value":"104","controlType":"textbox","order":5,"options":[{}]},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{"key":"param5","label":"Параметр 5","value":"104","controlType":"textbox","order":5,"options":[{}]},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -2725,40 +2712,40 @@
         <v/>
       </c>
       <c r="G8" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L8" s="8">
         <v>105</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="P8" s="8">
         <v>6</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
@@ -2769,10 +2756,10 @@
       </c>
       <c r="X8" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"key":"field6","label":"Параметр 6","value":"105","controlType":"textbox","order":6,"options":[{}]},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{"key":"param6","label":"Параметр 6","value":"105","controlType":"textbox","order":6,"options":[{}]},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2783,40 +2770,40 @@
         <v/>
       </c>
       <c r="G9" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L9" s="8">
         <v>106</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="P9" s="8">
         <v>7</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
@@ -2827,7 +2814,7 @@
       </c>
       <c r="X9" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"key":"field7","label":"Параметр 7","value":"106","controlType":"textbox","order":7,"options":[{}]}]},</v>
+        <v>{"key":"param7","label":"Параметр 7","value":"106","controlType":"textbox","order":7,"options":[{}]}]},</v>
       </c>
     </row>
   </sheetData>
@@ -2840,39 +2827,39 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:X21"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="56.28515625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="9" hidden="1" customWidth="1"/>
     <col min="19" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="96.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="96.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>33</v>
@@ -2889,10 +2876,10 @@
         <v>3</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K1" s="21"/>
       <c r="L1" s="21"/>
@@ -2911,9 +2898,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
@@ -2922,10 +2909,10 @@
         <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F2" s="13" t="str">
         <f>CONCATENATE(A2,B2,C2,D2,E2)</f>
@@ -2953,7 +2940,7 @@
         <v>{"tableid":1,"name":"Таблица ввод № 1","columns":[</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -2964,19 +2951,19 @@
         <v/>
       </c>
       <c r="G3" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -2997,7 +2984,7 @@
         <v>{"name":"param1","display":"Параметр 1"},</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -3008,19 +2995,19 @@
         <v/>
       </c>
       <c r="G4" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>266</v>
-      </c>
       <c r="I4" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -3041,7 +3028,7 @@
         <v>{"name":"param2","display":"Параметр 2"},</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -3052,19 +3039,19 @@
         <v/>
       </c>
       <c r="G5" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
@@ -3085,9 +3072,9 @@
         <v>{"name":"param3","display":"Параметр 3"}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B6" s="13">
         <v>2</v>
@@ -3096,10 +3083,10 @@
         <v>43</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F6" s="13" t="str">
         <f t="shared" si="1"/>
@@ -3127,7 +3114,7 @@
         <v>{"tableid":2,"name":"Таблица ввод № 1","columns":[</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -3138,19 +3125,19 @@
         <v/>
       </c>
       <c r="G7" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -3171,7 +3158,7 @@
         <v>{"name":"param5","display":"Параметр 5"},</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -3182,19 +3169,19 @@
         <v/>
       </c>
       <c r="G8" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -3215,7 +3202,7 @@
         <v>{"name":"param6","display":"Параметр 6"},</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -3226,19 +3213,19 @@
         <v/>
       </c>
       <c r="G9" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
@@ -3259,25 +3246,25 @@
         <v>{"name":"param7","display":"Параметр 7"}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B10" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F10" s="13" t="str">
         <f t="shared" ref="F10:F13" si="2">CONCATENATE(A10,B10,C10,D10,E10)</f>
-        <v>{"tableid":2,"name":"Таблица ввод № 1","columns":[</v>
+        <v>{"tableid":3,"name":"Таблица ввод № 1","columns":[</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -3298,10 +3285,10 @@
       <c r="W10" s="14"/>
       <c r="X10" s="25" t="str">
         <f t="shared" ref="X10:X13" si="3">CONCATENATE(F10,G10,H10,I10,J10,K10,L10,M10,N10,O10,P10,Q10,R10,S10,T10,U10,V10,W10)</f>
-        <v>{"tableid":2,"name":"Таблица ввод № 1","columns":[</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{"tableid":3,"name":"Таблица ввод № 1","columns":[</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -3312,19 +3299,19 @@
         <v/>
       </c>
       <c r="G11" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -3345,7 +3332,7 @@
         <v>{"name":"param5","display":"Параметр 5"},</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -3356,19 +3343,19 @@
         <v/>
       </c>
       <c r="G12" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -3389,7 +3376,7 @@
         <v>{"name":"param6","display":"Параметр 6"},</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -3400,19 +3387,19 @@
         <v/>
       </c>
       <c r="G13" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
@@ -3433,7 +3420,7 @@
         <v>{"name":"param7","display":"Параметр 7"},</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -3444,19 +3431,19 @@
         <v/>
       </c>
       <c r="G14" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
@@ -3477,7 +3464,7 @@
         <v>{"name":"param8","display":"Параметр 8"},</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -3488,19 +3475,19 @@
         <v/>
       </c>
       <c r="G15" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
@@ -3521,7 +3508,7 @@
         <v>{"name":"param9","display":"Параметр 9"},</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -3532,19 +3519,19 @@
         <v/>
       </c>
       <c r="G16" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
@@ -3565,7 +3552,7 @@
         <v>{"name":"param10","display":"Параметр 10"},</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -3576,19 +3563,19 @@
         <v/>
       </c>
       <c r="G17" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
@@ -3609,7 +3596,7 @@
         <v>{"name":"param11","display":"Параметр 11"},</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -3620,19 +3607,19 @@
         <v/>
       </c>
       <c r="G18" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
@@ -3653,7 +3640,7 @@
         <v>{"name":"param12","display":"Параметр 12"},</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -3664,19 +3651,19 @@
         <v/>
       </c>
       <c r="G19" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
@@ -3697,7 +3684,7 @@
         <v>{"name":"param13","display":"Параметр 13"},</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -3708,19 +3695,19 @@
         <v/>
       </c>
       <c r="G20" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
@@ -3741,7 +3728,7 @@
         <v>{"name":"param14","display":"Параметр 14"},</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -3752,19 +3739,19 @@
         <v/>
       </c>
       <c r="G21" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
@@ -3798,26 +3785,26 @@
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="90.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="132.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="90.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="132.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="28" t="s">
         <v>21</v>
       </c>
@@ -3863,7 +3850,7 @@
         <v>["flid":flid"koef":koef"leadPt":leadPt"leadStat":leadStat</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -3896,7 +3883,7 @@
         <v>{ "flid" :1, "eic":"XXX-YYY-000-ZZZ-001", "name":"Харьков ГРС 1 ", "chid": 1, "cfgLines": null},</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -3929,7 +3916,7 @@
         <v>{ "flid" :2, "eic":"XXX-YYY-000-ZZZ-002", "name":"Харьков ГРС 2", "chid": 2, "cfgLines": null},</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -3962,7 +3949,7 @@
         <v>{ "flid" :3, "eic":"XXX-YYY-000-ZZZ-003", "name":"Харьков ГРС 3", "chid": 3, "cfgLines": null},</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -3995,7 +3982,7 @@
         <v>{ "flid" :4, "eic":"XXX-YYY-000-ZZZ-004", "name":"Харьков ГРС 4", "chid": 4, "cfgLines": null},</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -4028,7 +4015,7 @@
         <v>{ "flid" :5, "eic":"XXX-YYY-000-ZZZ-005", "name":"Харьков ГРС 5", "chid": 5, "cfgLines": null},</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -4061,7 +4048,7 @@
         <v>{ "flid" :6, "eic":"XXX-YYY-000-ZZZ-006", "name":"Харьков ГРС 6", "chid": 6, "cfgLines": null},</v>
       </c>
     </row>
-    <row r="9" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4077,7 +4064,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="34"/>
     </row>
-    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -4110,7 +4097,7 @@
         <v>{ "flid" :7, "eic":"XXX-YYY-000-ZZZ-007", "name":"Харьков ГРС 7", "chid": null, "cfgLines": [</v>
       </c>
     </row>
-    <row r="11" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4148,7 +4135,7 @@
         <v>{"flid":1,"koef":1,"leadPt":false,"leadStat":false},</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4186,7 +4173,7 @@
         <v>{"flid":2,"koef":1,"leadPt":false,"leadStat":false},</v>
       </c>
     </row>
-    <row r="13" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4224,7 +4211,7 @@
         <v>{"flid":3,"koef":1,"leadPt":false,"leadStat":false},</v>
       </c>
     </row>
-    <row r="14" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4262,7 +4249,7 @@
         <v>{"flid":4,"koef":1,"leadPt":false,"leadStat":false}]},</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>8</v>
       </c>
@@ -4295,7 +4282,7 @@
         <v>{ "flid" :8, "eic":"XXX-YYY-000-ZZZ-008", "name":"Харьков ГРС 8", "chid": null, "cfgLines": [</v>
       </c>
     </row>
-    <row r="16" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4333,7 +4320,7 @@
         <v>{"flid":1,"koef":1,"leadPt":false,"leadStat":false},</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -4371,7 +4358,7 @@
         <v>{"flid":2,"koef":1,"leadPt":false,"leadStat":false},</v>
       </c>
     </row>
-    <row r="18" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -4409,7 +4396,7 @@
         <v>{"flid":3,"koef":1,"leadPt":false,"leadStat":false},</v>
       </c>
     </row>
-    <row r="19" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -4461,20 +4448,20 @@
       <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="105.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="105.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="H1" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -4506,7 +4493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4539,7 +4526,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4572,7 +4559,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:02", "quality":192},</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4605,7 +4592,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -4638,7 +4625,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:03", "quality":192},</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -4671,7 +4658,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -4704,7 +4691,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:04", "quality":192},</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -4737,7 +4724,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -4770,7 +4757,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:05", "quality":192},</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -4803,7 +4790,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:05", "quality":192},</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -4836,7 +4823,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -4869,7 +4856,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:02", "quality":192},</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -4902,7 +4889,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -4935,7 +4922,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:03", "quality":192},</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -4968,7 +4955,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -5001,7 +4988,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:04", "quality":192},</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -5034,7 +5021,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -5067,7 +5054,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:05", "quality":192},</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -5100,7 +5087,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:05", "quality":192},</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -5133,7 +5120,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -5166,7 +5153,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:02", "quality":192},</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -5199,7 +5186,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -5232,7 +5219,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:03", "quality":192},</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -5265,7 +5252,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -5298,7 +5285,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:04", "quality":192},</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -5331,7 +5318,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -5364,7 +5351,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:05", "quality":192},</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -5397,7 +5384,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:05", "quality":192},</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -5430,7 +5417,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -5463,7 +5450,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:02", "quality":192},</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -5496,7 +5483,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -5529,7 +5516,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:03", "quality":192},</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -5562,7 +5549,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -5595,7 +5582,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:04", "quality":192},</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -5628,7 +5615,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -5661,7 +5648,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:05", "quality":192},</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -5694,7 +5681,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:05", "quality":192},</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5705,7 +5692,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -5730,24 +5717,24 @@
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="145.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="145.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="H1" s="29" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="29"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -5780,7 +5767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="46">
         <v>1</v>
       </c>
@@ -5814,7 +5801,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T12:00", "lastupdate":"2020-02-19T13:00", "quality":192},</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="46">
         <v>1</v>
       </c>
@@ -5848,7 +5835,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T13:00", "lastupdate":"2020-02-19T14:00", "quality":192},</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="46">
         <v>1</v>
       </c>
@@ -5882,7 +5869,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T14:00", "lastupdate":"2020-02-19T15:00", "quality":192},</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="46">
         <v>1</v>
       </c>
@@ -5916,7 +5903,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T15:00", "lastupdate":"2020-02-19T16:00", "quality":192},</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="46">
         <v>1</v>
       </c>
@@ -5950,7 +5937,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T16:00", "lastupdate":"2020-02-19T17:00", "quality":192},</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="46">
         <v>1</v>
       </c>
@@ -5984,7 +5971,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T17:00", "lastupdate":"2020-02-19T18:00", "quality":192},</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="46">
         <v>1</v>
       </c>
@@ -6018,7 +6005,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T18:00", "lastupdate":"2020-02-19T19:00", "quality":192},</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="46">
         <v>1</v>
       </c>
@@ -6052,7 +6039,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T19:00", "lastupdate":"2020-02-19T20:00", "quality":192},</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="46">
         <v>1</v>
       </c>
@@ -6086,7 +6073,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T20:00", "lastupdate":"2020-02-19T21:00", "quality":192},</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="48">
         <v>2</v>
       </c>
@@ -6120,7 +6107,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T12:00", "lastupdate":"2020-02-19T13:00", "quality":192},</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="48">
         <v>2</v>
       </c>
@@ -6154,7 +6141,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T13:00", "lastupdate":"2020-02-19T14:00", "quality":192},</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="48">
         <v>2</v>
       </c>
@@ -6188,7 +6175,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T14:00", "lastupdate":"2020-02-19T15:00", "quality":192},</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="48">
         <v>2</v>
       </c>
@@ -6222,7 +6209,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T15:00", "lastupdate":"2020-02-19T16:00", "quality":192},</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="48">
         <v>2</v>
       </c>
@@ -6256,7 +6243,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T16:00", "lastupdate":"2020-02-19T17:00", "quality":192},</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="48">
         <v>2</v>
       </c>
@@ -6290,7 +6277,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T17:00", "lastupdate":"2020-02-19T18:00", "quality":192},</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="48">
         <v>2</v>
       </c>
@@ -6324,7 +6311,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T18:00", "lastupdate":"2020-02-19T19:00", "quality":192},</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="48">
         <v>2</v>
       </c>
@@ -6358,7 +6345,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T19:00", "lastupdate":"2020-02-19T20:00", "quality":192},</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="48">
         <v>2</v>
       </c>
@@ -6392,7 +6379,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T20:00", "lastupdate":"2020-02-19T21:00", "quality":192},</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="50">
         <v>3</v>
       </c>
@@ -6426,7 +6413,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T12:00", "lastupdate":"2020-02-19T13:00", "quality":192},</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="50">
         <v>3</v>
       </c>
@@ -6460,7 +6447,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T13:00", "lastupdate":"2020-02-19T14:00", "quality":193},</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="50">
         <v>3</v>
       </c>
@@ -6494,7 +6481,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T14:00", "lastupdate":"2020-02-19T15:00", "quality":194},</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="50">
         <v>3</v>
       </c>
@@ -6528,7 +6515,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T15:00", "lastupdate":"2020-02-19T16:00", "quality":195},</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="50">
         <v>3</v>
       </c>
@@ -6562,7 +6549,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T16:00", "lastupdate":"2020-02-19T17:00", "quality":196},</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="50">
         <v>3</v>
       </c>
@@ -6596,7 +6583,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T17:00", "lastupdate":"2020-02-19T18:00", "quality":197},</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="50">
         <v>3</v>
       </c>
@@ -6630,7 +6617,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T18:00", "lastupdate":"2020-02-19T19:00", "quality":198},</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="50">
         <v>3</v>
       </c>
@@ -6664,7 +6651,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T19:00", "lastupdate":"2020-02-19T20:00", "quality":199},</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="50">
         <v>3</v>
       </c>
@@ -6698,7 +6685,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T20:00", "lastupdate":"2020-02-19T21:00", "quality":200},</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="48">
         <v>4</v>
       </c>
@@ -6732,7 +6719,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T12:00", "lastupdate":"2020-02-19T13:00", "quality":201},</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="48">
         <v>4</v>
       </c>
@@ -6766,7 +6753,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T13:00", "lastupdate":"2020-02-19T14:00", "quality":202},</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="48">
         <v>4</v>
       </c>
@@ -6800,7 +6787,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T14:00", "lastupdate":"2020-02-19T15:00", "quality":203},</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="48">
         <v>4</v>
       </c>
@@ -6834,7 +6821,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T15:00", "lastupdate":"2020-02-19T16:00", "quality":204},</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="48">
         <v>4</v>
       </c>
@@ -6868,7 +6855,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T16:00", "lastupdate":"2020-02-19T17:00", "quality":205},</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="48">
         <v>4</v>
       </c>
@@ -6902,7 +6889,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T17:00", "lastupdate":"2020-02-19T18:00", "quality":206},</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="48">
         <v>4</v>
       </c>
@@ -6936,7 +6923,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T18:00", "lastupdate":"2020-02-19T19:00", "quality":207},</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="48">
         <v>4</v>
       </c>
@@ -6970,7 +6957,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T19:00", "lastupdate":"2020-02-19T20:00", "quality":208},</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="48">
         <v>4</v>
       </c>
@@ -7004,7 +6991,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T20:00", "lastupdate":"2020-02-19T21:00", "quality":209},</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J39" s="1"/>
     </row>
   </sheetData>
@@ -7020,20 +7007,20 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="H1" s="29" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="29"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -7066,7 +7053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7100,7 +7087,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-01T07:00", "lastupdate":"2020-02-02T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -7134,7 +7121,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-02T07:00", "lastupdate":"2020-02-03T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -7168,7 +7155,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-03T07:00", "lastupdate":"2020-02-04T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -7202,7 +7189,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-04T07:00", "lastupdate":"2020-02-05T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -7236,7 +7223,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-05T07:00", "lastupdate":"2020-02-06T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -7270,7 +7257,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-06T07:00", "lastupdate":"2020-02-07T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -7304,7 +7291,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-07T07:00", "lastupdate":"2020-02-08T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -7338,7 +7325,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-08T07:00", "lastupdate":"2020-02-09T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -7372,7 +7359,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-09T07:00", "lastupdate":"2020-02-10T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -7406,7 +7393,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-01T07:00", "lastupdate":"2020-02-02T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -7440,7 +7427,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-02T07:00", "lastupdate":"2020-02-03T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -7474,7 +7461,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-03T07:00", "lastupdate":"2020-02-04T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -7508,7 +7495,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-04T07:00", "lastupdate":"2020-02-05T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -7542,7 +7529,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-05T07:00", "lastupdate":"2020-02-06T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -7576,7 +7563,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-06T07:00", "lastupdate":"2020-02-07T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -7610,7 +7597,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-07T07:00", "lastupdate":"2020-02-08T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -7644,7 +7631,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-08T07:00", "lastupdate":"2020-02-09T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -7678,7 +7665,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-09T07:00", "lastupdate":"2020-02-10T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -7712,7 +7699,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-01T07:00", "lastupdate":"2020-02-02T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -7745,7 +7732,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-02T07:00", "lastupdate":"2020-02-03T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -7778,7 +7765,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-03T07:00", "lastupdate":"2020-02-04T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -7811,7 +7798,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-04T07:00", "lastupdate":"2020-02-05T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -7844,7 +7831,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-05T07:00", "lastupdate":"2020-02-06T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -7877,7 +7864,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-06T07:00", "lastupdate":"2020-02-07T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -7910,7 +7897,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-07T07:00", "lastupdate":"2020-02-08T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -7943,7 +7930,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-08T07:00", "lastupdate":"2020-02-09T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -7976,7 +7963,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-09T07:00", "lastupdate":"2020-02-10T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -8009,7 +7996,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-01T07:00", "lastupdate":"2020-02-02T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -8042,7 +8029,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-02T07:00", "lastupdate":"2020-02-03T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -8075,7 +8062,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-03T07:00", "lastupdate":"2020-02-04T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -8108,7 +8095,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-04T07:00", "lastupdate":"2020-02-05T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -8141,7 +8128,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-05T07:00", "lastupdate":"2020-02-06T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -8174,7 +8161,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-06T07:00", "lastupdate":"2020-02-07T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -8207,7 +8194,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-07T07:00", "lastupdate":"2020-02-08T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -8240,7 +8227,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-08T07:00", "lastupdate":"2020-02-09T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -8287,24 +8274,24 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="127.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="127.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="H1" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -8336,7 +8323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -8369,7 +8356,7 @@
         <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -8402,7 +8389,7 @@
         <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:02", "quality":193},</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -8435,7 +8422,7 @@
         <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:03", "quality":194},</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -8468,7 +8455,7 @@
         <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:04", "quality":195},</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -8501,7 +8488,7 @@
         <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:05", "quality":196},</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -8534,7 +8521,7 @@
         <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:06", "quality":197},</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -8567,7 +8554,7 @@
         <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:07", "quality":198},</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -8600,7 +8587,7 @@
         <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:08", "quality":199},</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -8633,7 +8620,7 @@
         <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:09", "quality":200},</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -8666,7 +8653,7 @@
         <v>{ "flid": 2,"chid":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:10", "quality":201},</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -8699,7 +8686,7 @@
         <v>{ "flid": 2,"chid":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:11", "quality":202},</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -8732,7 +8719,7 @@
         <v>{ "flid": 2,"chid":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:12", "quality":203},</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -8765,7 +8752,7 @@
         <v>{ "flid": 2,"chid":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:13", "quality":204},</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -8798,7 +8785,7 @@
         <v>{ "flid": 2,"chid":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:14", "quality":205},</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -8831,7 +8818,7 @@
         <v>{ "flid": 2,"chid":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:15", "quality":206},</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -8864,7 +8851,7 @@
         <v>{ "flid": 2,"chid":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:16", "quality":207},</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -8897,7 +8884,7 @@
         <v>{ "flid": 2,"chid":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:17", "quality":208},</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -8930,7 +8917,7 @@
         <v>{ "flid": 2,"chid":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:18", "quality":209},</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -8963,7 +8950,7 @@
         <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:19", "quality":210},</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -8996,7 +8983,7 @@
         <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:20", "quality":211},</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -9029,7 +9016,7 @@
         <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:21", "quality":212},</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -9062,7 +9049,7 @@
         <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:22", "quality":213},</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -9095,7 +9082,7 @@
         <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:23", "quality":214},</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -9128,7 +9115,7 @@
         <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:24", "quality":215},</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -9161,7 +9148,7 @@
         <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:25", "quality":216},</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -9194,7 +9181,7 @@
         <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:26", "quality":217},</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -9227,7 +9214,7 @@
         <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:27", "quality":218},</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -9260,7 +9247,7 @@
         <v>{ "flid": 4,"chid":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:28", "quality":219},</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -9293,7 +9280,7 @@
         <v>{ "flid": 4,"chid":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:29", "quality":220},</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -9326,7 +9313,7 @@
         <v>{ "flid": 4,"chid":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:30", "quality":221},</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -9359,7 +9346,7 @@
         <v>{ "flid": 4,"chid":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:31", "quality":222},</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -9392,7 +9379,7 @@
         <v>{ "flid": 4,"chid":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:32", "quality":223},</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -9425,7 +9412,7 @@
         <v>{ "flid": 4,"chid":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:33", "quality":224},</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -9458,7 +9445,7 @@
         <v>{ "flid": 4,"chid":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:34", "quality":225},</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -9491,7 +9478,7 @@
         <v>{ "flid": 4,"chid":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:35", "quality":226},</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -9537,37 +9524,37 @@
       <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="110.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="22.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="24" max="27" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5703125" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="110.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="22.109375" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="24" max="27" width="10.109375" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="5.5546875" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>162</v>
       </c>
@@ -9651,7 +9638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>164</v>
       </c>
@@ -9711,7 +9698,7 @@
         <v>{"systemid":1,"name":"ДПКС № 1","ip":"192.168.0.111","path":"xxx.yyy.zzz","period":30,"sensors":[</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -9783,7 +9770,7 @@
         <v>{"sensorid":1,"low":0,"name":"P in KC 32","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -9855,7 +9842,7 @@
         <v>{"sensorid":2,"low":0,"name":"P in KC 33","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -9927,7 +9914,7 @@
         <v>{"sensorid":3,"low":0,"name":"P in KC 34","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>164</v>
       </c>
@@ -9987,7 +9974,7 @@
         <v>{"systemid":2,"name":"ДПКС № 2","ip":"192.168.0.112","path":"xxx.yyy.zzz","period":30,"sensors":[</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -10059,7 +10046,7 @@
         <v>{"sensorid":4,"low":0,"name":"P in KC 36","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -10131,7 +10118,7 @@
         <v>{"sensorid":5,"low":0,"name":"P in KC 37","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -10216,26 +10203,26 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="138.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="138.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H1" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>189</v>
       </c>
@@ -10267,7 +10254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -10300,7 +10287,7 @@
         <v>{ "paramid": 1,"sensorid":1, "value": 50, "state" :"good","stateDesc": "good", "user":"Ivan", "xxx":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -10333,7 +10320,7 @@
         <v>{ "paramid": 1,"sensorid":1, "value": 50, "state" :"good","stateDesc": "good", "user":"Ivan", "xxx":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -10366,7 +10353,7 @@
         <v>{ "paramid": 1,"sensorid":1, "value": 50, "state" :"good","stateDesc": "good", "user":"Ivan", "xxx":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -10399,7 +10386,7 @@
         <v>{ "paramid": 1,"sensorid":1, "value": 50, "state" :"good","stateDesc": "good", "user":"Ivan", "xxx":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -10432,7 +10419,7 @@
         <v>{ "paramid": 2,"sensorid":2, "value": 60, "state" :"good","stateDesc": "good", "user":"Ivan", "xxx":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -10465,7 +10452,7 @@
         <v>{ "paramid": 2,"sensorid":2, "value": 60, "state" :"good","stateDesc": "good", "user":"Ivan", "xxx":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -10498,7 +10485,7 @@
         <v>{ "paramid": 2,"sensorid":2, "value": 60, "state" :"good","stateDesc": "good", "user":"Ivan", "xxx":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -10531,7 +10518,7 @@
         <v>{ "paramid": 2,"sensorid":2, "value": 60, "state" :"good","stateDesc": "good", "user":"Ivan", "xxx":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -10564,7 +10551,7 @@
         <v>{ "paramid": 3,"sensorid":3, "value": 75, "state" :"good","stateDesc": "good", "user":"Ivan", "xxx":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -10597,7 +10584,7 @@
         <v>{ "paramid": 3,"sensorid":3, "value": 75, "state" :"good","stateDesc": "good", "user":"Ivan", "xxx":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -10630,7 +10617,7 @@
         <v>{ "paramid": 3,"sensorid":3, "value": 75, "state" :"good","stateDesc": "good", "user":"Ivan", "xxx":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -10663,7 +10650,7 @@
         <v>{ "paramid": 3,"sensorid":3, "value": 75, "state" :"good","stateDesc": "good", "user":"Ivan", "xxx":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -10696,7 +10683,7 @@
         <v>{ "paramid": 4,"sensorid":4, "value": 75, "state" :"good","stateDesc": "good", "user":"Ivan", "xxx":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -10729,7 +10716,7 @@
         <v>{ "paramid": 4,"sensorid":4, "value": 75, "state" :"good","stateDesc": "good", "user":"Ivan", "xxx":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -10762,7 +10749,7 @@
         <v>{ "paramid": 4,"sensorid":4, "value": 75, "state" :"good","stateDesc": "good", "user":"Ivan", "xxx":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -10795,7 +10782,7 @@
         <v>{ "paramid": 4,"sensorid":4, "value": 75, "state" :"good","stateDesc": "good", "user":"Ivan", "xxx":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -10828,7 +10815,7 @@
         <v>{ "paramid": 5,"sensorid":5, "value": 75, "state" :"good","stateDesc": "good", "user":"Ivan", "xxx":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -10861,7 +10848,7 @@
         <v>{ "paramid": 5,"sensorid":5, "value": 75, "state" :"good","stateDesc": "good", "user":"Ivan", "xxx":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>5</v>
       </c>
@@ -10894,7 +10881,7 @@
         <v>{ "paramid": 5,"sensorid":5, "value": 75, "state" :"good","stateDesc": "good", "user":"Ivan", "xxx":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -10927,7 +10914,7 @@
         <v>{ "paramid": 5,"sensorid":5, "value": 75, "state" :"good","stateDesc": "good", "user":"Ivan", "xxx":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -10960,7 +10947,7 @@
         <v>{ "paramid": 6,"sensorid":6, "value": 75, "state" :"good","stateDesc": "good", "user":"Ivan", "xxx":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>6</v>
       </c>
@@ -10993,7 +10980,7 @@
         <v>{ "paramid": 6,"sensorid":6, "value": 75, "state" :"good","stateDesc": "good", "user":"Ivan", "xxx":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>6</v>
       </c>
@@ -11026,7 +11013,7 @@
         <v>{ "paramid": 6,"sensorid":6, "value": 75, "state" :"good","stateDesc": "good", "user":"Ivan", "xxx":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>6</v>
       </c>
@@ -11073,14 +11060,14 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" customWidth="1"/>
+    <col min="4" max="4" width="42.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>189</v>
       </c>
@@ -11094,7 +11081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -11109,7 +11096,7 @@
         <v>{ "paramid": 1,"sensorid":1, "name": "P in KC-1"},</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -11124,7 +11111,7 @@
         <v>{ "paramid": 2,"sensorid":2, "name": "P in KC-2"},</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -11139,7 +11126,7 @@
         <v>{ "paramid": 3,"sensorid":3, "name": "P in KC-3"},</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -11154,7 +11141,7 @@
         <v>{ "paramid": 4,"sensorid":4, "name": "P in KC-4"},</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -11169,7 +11156,7 @@
         <v>{ "paramid": 5,"sensorid":5, "name": "P in KC-5"},</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -11184,7 +11171,7 @@
         <v>{ "paramid": 6,"sensorid":6, "name": "P in KC-6"},</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -11199,7 +11186,7 @@
         <v>{ "paramid": 7,"sensorid":null, "name": "P in KC-7"},</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -11214,7 +11201,7 @@
         <v>{ "paramid": 8,"sensorid":null, "name": "P in KC-8"},</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -11229,7 +11216,7 @@
         <v>{ "paramid": 9,"sensorid":null, "name": "P in KC-9"},</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -11244,7 +11231,7 @@
         <v>{ "paramid": 10,"sensorid":null, "name": "P in KC-10"},</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -11259,7 +11246,7 @@
         <v>{ "paramid": 11,"sensorid":null, "name": "P in KC-11"},</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -11274,7 +11261,7 @@
         <v>{ "paramid": 12,"sensorid":null, "name": "P in KC-12"},</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -11289,7 +11276,7 @@
         <v>{ "paramid": 13,"sensorid":null, "name": "P in KC-13"},</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -11304,7 +11291,7 @@
         <v>{ "paramid": 14,"sensorid":null, "name": "P in KC-14"},</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -11319,7 +11306,7 @@
         <v>{ "paramid": 15,"sensorid":null, "name": "P in KC-15"},</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -11334,7 +11321,7 @@
         <v>{ "paramid": 16,"sensorid":null, "name": "P in KC-16"},</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -11349,7 +11336,7 @@
         <v>{ "paramid": 17,"sensorid":null, "name": "P in KC-17"},</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -11364,7 +11351,7 @@
         <v>{ "paramid": 18,"sensorid":null, "name": "P in KC-18"},</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -11379,7 +11366,7 @@
         <v>{ "paramid": 19,"sensorid":null, "name": "P in KC-19"},</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -11394,7 +11381,7 @@
         <v>{ "paramid": 20,"sensorid":null, "name": "P in KC-20"},</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -11409,7 +11396,7 @@
         <v>{ "paramid": 21,"sensorid":null, "name": "P in KC-21"},</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -11424,7 +11411,7 @@
         <v>{ "paramid": 22,"sensorid":null, "name": "P in KC-22"},</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -11439,7 +11426,7 @@
         <v>{ "paramid": 23,"sensorid":null, "name": "P in KC-23"},</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>

--- a/xls/create-test-data.xlsx
+++ b/xls/create-test-data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\node\oask-gtp-webapi\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24912" windowHeight="12840" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Корр-каналы" sheetId="5" r:id="rId1"/>
@@ -22,14 +17,15 @@
     <sheet name="rtdata" sheetId="10" r:id="rId8"/>
     <sheet name="regimParam" sheetId="11" r:id="rId9"/>
     <sheet name="Forms" sheetId="12" r:id="rId10"/>
-    <sheet name="TablesGui" sheetId="13" r:id="rId11"/>
+    <sheet name="GuiTable" sheetId="13" r:id="rId11"/>
+    <sheet name="Menu" sheetId="14" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="310">
   <si>
     <t>isAbsP</t>
   </si>
@@ -878,12 +874,93 @@
   </si>
   <si>
     <t>","controls":[</t>
+  </si>
+  <si>
+    <t>"userid" :</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>{"userid":</t>
+  </si>
+  <si>
+    <t>login1</t>
+  </si>
+  <si>
+    <t>","buttons":[</t>
+  </si>
+  <si>
+    <t>{"label":"</t>
+  </si>
+  <si>
+    <t>"link":</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>","link":"</t>
+  </si>
+  <si>
+    <t>Кнопка 1</t>
+  </si>
+  <si>
+    <t>Кнопка 2</t>
+  </si>
+  <si>
+    <t>Кнопка 3</t>
+  </si>
+  <si>
+    <t>Кнопка 5</t>
+  </si>
+  <si>
+    <t>Кнопка 6</t>
+  </si>
+  <si>
+    <t>Кнопка 7</t>
+  </si>
+  <si>
+    <t>Кнопка 9</t>
+  </si>
+  <si>
+    <t>Кнопка 10</t>
+  </si>
+  <si>
+    <t>Кнопка 11</t>
+  </si>
+  <si>
+    <t>Кнопка 12</t>
+  </si>
+  <si>
+    <t>Кнопка 13</t>
+  </si>
+  <si>
+    <t>Кнопка 14</t>
+  </si>
+  <si>
+    <t>Кнопка 15</t>
+  </si>
+  <si>
+    <t>Кнопка 16</t>
+  </si>
+  <si>
+    <t>Кнопка 17</t>
+  </si>
+  <si>
+    <t>Кнопка 18</t>
+  </si>
+  <si>
+    <t>Кнопка 19</t>
+  </si>
+  <si>
+    <t>table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1212,7 +1289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1305,6 +1382,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1365,7 +1445,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1400,7 +1480,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1615,40 +1695,40 @@
       <selection sqref="A1:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="108.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" customWidth="1"/>
-    <col min="14" max="14" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="101.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="108.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="101.85546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -1732,7 +1812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>37</v>
       </c>
@@ -1792,7 +1872,7 @@
         <v>{"corrid":1,"name":"Корректор № 1","ip":"192.168.0.111","ftpDir":"./","addr":1,"channels":[</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1864,7 +1944,7 @@
         <v>{"chid":1,"chno":1,"name":"Line 1","template":"S001R1","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -1936,7 +2016,7 @@
         <v>{"chid":2,"chno":2,"name":"Line 2","template":"S001R2","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -2008,7 +2088,7 @@
         <v>{"chid":3,"chno":3,"name":"Line 3","template":"S001R3","isAbsP":true,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>37</v>
       </c>
@@ -2068,7 +2148,7 @@
         <v>{"corrid":2,"name":"Корректор № 2","ip":"192.168.0.112","ftpDir":"./","addr":2,"channels":[</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2140,7 +2220,7 @@
         <v>{"chid":4,"chno":1,"name":"Line 1","template":"S001R1","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -2212,7 +2292,7 @@
         <v>{"chid":5,"chno":2,"name":"Line 2","template":"S001R2","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2284,7 +2364,7 @@
         <v>{"chid":6,"chno":3,"name":"Line 3","template":"S001R3","isAbsP":true,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="AD10" s="6" t="s">
         <v>12</v>
       </c>
@@ -2299,33 +2379,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="55.109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="55.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>220</v>
       </c>
@@ -2385,7 +2465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>222</v>
       </c>
@@ -2427,7 +2507,7 @@
         <v>{"formid":1,"name":"Форма ввод № 1","controls":[</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -2485,7 +2565,7 @@
         <v>{"key":"param1","label":"Параметр 1","value":"100","controlType":"textbox","order":1,"options":[{}]},</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -2543,7 +2623,7 @@
         <v>{"key":"param2","label":"Параметр 2","value":"101","controlType":"textbox","order":2,"options":[{}]},</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -2601,7 +2681,7 @@
         <v>{"key":"param3","label":"Параметр 3","value":"102","controlType":"textbox","order":3,"options":[{}]}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>222</v>
       </c>
@@ -2643,7 +2723,7 @@
         <v>{"formid":2,"name":"Форма ввод № 2","controls":[</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2701,7 +2781,7 @@
         <v>{"key":"param5","label":"Параметр 5","value":"104","controlType":"textbox","order":5,"options":[{}]},</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -2759,7 +2839,7 @@
         <v>{"key":"param6","label":"Параметр 6","value":"105","controlType":"textbox","order":6,"options":[{}]},</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2827,34 +2907,34 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection sqref="A1:X21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="56.33203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="9" hidden="1" customWidth="1"/>
     <col min="19" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="96.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="96.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>250</v>
       </c>
@@ -2898,7 +2978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>252</v>
       </c>
@@ -2940,7 +3020,7 @@
         <v>{"tableid":1,"name":"Таблица ввод № 1","columns":[</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -2984,7 +3064,7 @@
         <v>{"name":"param1","display":"Параметр 1"},</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -3028,7 +3108,7 @@
         <v>{"name":"param2","display":"Параметр 2"},</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -3072,7 +3152,7 @@
         <v>{"name":"param3","display":"Параметр 3"}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>252</v>
       </c>
@@ -3114,7 +3194,7 @@
         <v>{"tableid":2,"name":"Таблица ввод № 1","columns":[</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -3158,7 +3238,7 @@
         <v>{"name":"param5","display":"Параметр 5"},</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -3202,7 +3282,7 @@
         <v>{"name":"param6","display":"Параметр 6"},</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -3246,7 +3326,7 @@
         <v>{"name":"param7","display":"Параметр 7"}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>252</v>
       </c>
@@ -3288,7 +3368,7 @@
         <v>{"tableid":3,"name":"Таблица ввод № 1","columns":[</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -3332,7 +3412,7 @@
         <v>{"name":"param5","display":"Параметр 5"},</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -3376,7 +3456,7 @@
         <v>{"name":"param6","display":"Параметр 6"},</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -3420,7 +3500,7 @@
         <v>{"name":"param7","display":"Параметр 7"},</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -3464,7 +3544,7 @@
         <v>{"name":"param8","display":"Параметр 8"},</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -3508,7 +3588,7 @@
         <v>{"name":"param9","display":"Параметр 9"},</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -3552,7 +3632,7 @@
         <v>{"name":"param10","display":"Параметр 10"},</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -3596,7 +3676,7 @@
         <v>{"name":"param11","display":"Параметр 11"},</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -3640,7 +3720,7 @@
         <v>{"name":"param12","display":"Параметр 12"},</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -3684,7 +3764,7 @@
         <v>{"name":"param13","display":"Параметр 13"},</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -3728,7 +3808,7 @@
         <v>{"name":"param14","display":"Параметр 14"},</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -3777,6 +3857,952 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="12" max="22" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="F2" s="13" t="str">
+        <f>CONCATENATE(A2,B2,C2,D2,E2)</f>
+        <v>{"userid":1,"name":"login1","buttons":[</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="24" t="str">
+        <f t="shared" ref="X2:X21" si="0">CONCATENATE(F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2)</f>
+        <v>{"userid":1,"name":"login1","buttons":[</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="13" t="str">
+        <f t="shared" ref="F3:F21" si="1">CONCATENATE(A3,B3,C3,D3,E3)</f>
+        <v/>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="K3" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"label":"Кнопка 1","link":"table"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"label":"Кнопка 2","link":"table"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="K5" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="X5" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"label":"Кнопка 3","link":"table"}]},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="13">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>{"userid":2,"name":"login1","buttons":[</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"userid":2,"name":"login1","buttons":[</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="K7" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X7" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"label":"Кнопка 5","link":"table"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="K8" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X8" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"label":"Кнопка 6","link":"table"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="K9" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="X9" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"label":"Кнопка 7","link":"table"}]},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" s="13">
+        <v>3</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="F10" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>{"userid":3,"name":"login1","buttons":[</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"userid":3,"name":"login1","buttons":[</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="J11" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="K11" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"label":"Кнопка 9","link":"table"},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="J12" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="K12" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X12" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"label":"Кнопка 10","link":"table"},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="J13" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="K13" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X13" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"label":"Кнопка 11","link":"table"},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="J14" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="K14" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X14" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"label":"Кнопка 12","link":"table"},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="J15" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="K15" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X15" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"label":"Кнопка 13","link":"table"},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="J16" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="K16" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X16" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"label":"Кнопка 14","link":"table"},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X17" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"label":"Кнопка 15","link":"table"},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="J18" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="K18" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X18" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"label":"Кнопка 16","link":"table"},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="K19" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X19" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"label":"Кнопка 17","link":"table"},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="J20" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="K20" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X20" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"label":"Кнопка 18","link":"table"},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="J21" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="K21" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="X21" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"label":"Кнопка 19","link":"table"}]},</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P19"/>
@@ -3785,26 +4811,26 @@
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="90.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="132.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="90.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="132.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="28" t="s">
         <v>21</v>
       </c>
@@ -3850,7 +4876,7 @@
         <v>["flid":flid"koef":koef"leadPt":leadPt"leadStat":leadStat</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -3883,7 +4909,7 @@
         <v>{ "flid" :1, "eic":"XXX-YYY-000-ZZZ-001", "name":"Харьков ГРС 1 ", "chid": 1, "cfgLines": null},</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -3916,7 +4942,7 @@
         <v>{ "flid" :2, "eic":"XXX-YYY-000-ZZZ-002", "name":"Харьков ГРС 2", "chid": 2, "cfgLines": null},</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -3949,7 +4975,7 @@
         <v>{ "flid" :3, "eic":"XXX-YYY-000-ZZZ-003", "name":"Харьков ГРС 3", "chid": 3, "cfgLines": null},</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -3982,7 +5008,7 @@
         <v>{ "flid" :4, "eic":"XXX-YYY-000-ZZZ-004", "name":"Харьков ГРС 4", "chid": 4, "cfgLines": null},</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -4015,7 +5041,7 @@
         <v>{ "flid" :5, "eic":"XXX-YYY-000-ZZZ-005", "name":"Харьков ГРС 5", "chid": 5, "cfgLines": null},</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -4048,7 +5074,7 @@
         <v>{ "flid" :6, "eic":"XXX-YYY-000-ZZZ-006", "name":"Харьков ГРС 6", "chid": 6, "cfgLines": null},</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4064,7 +5090,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="34"/>
     </row>
-    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -4097,7 +5123,7 @@
         <v>{ "flid" :7, "eic":"XXX-YYY-000-ZZZ-007", "name":"Харьков ГРС 7", "chid": null, "cfgLines": [</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4135,7 +5161,7 @@
         <v>{"flid":1,"koef":1,"leadPt":false,"leadStat":false},</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4173,7 +5199,7 @@
         <v>{"flid":2,"koef":1,"leadPt":false,"leadStat":false},</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4211,7 +5237,7 @@
         <v>{"flid":3,"koef":1,"leadPt":false,"leadStat":false},</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4249,7 +5275,7 @@
         <v>{"flid":4,"koef":1,"leadPt":false,"leadStat":false}]},</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>8</v>
       </c>
@@ -4282,7 +5308,7 @@
         <v>{ "flid" :8, "eic":"XXX-YYY-000-ZZZ-008", "name":"Харьков ГРС 8", "chid": null, "cfgLines": [</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4320,7 +5346,7 @@
         <v>{"flid":1,"koef":1,"leadPt":false,"leadStat":false},</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -4358,7 +5384,7 @@
         <v>{"flid":2,"koef":1,"leadPt":false,"leadStat":false},</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -4396,7 +5422,7 @@
         <v>{"flid":3,"koef":1,"leadPt":false,"leadStat":false},</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -4448,20 +5474,20 @@
       <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="105.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="105.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H1" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -4493,7 +5519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4526,7 +5552,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4559,7 +5585,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:02", "quality":192},</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4592,7 +5618,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -4625,7 +5651,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:03", "quality":192},</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -4658,7 +5684,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -4691,7 +5717,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:04", "quality":192},</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -4724,7 +5750,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -4757,7 +5783,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:05", "quality":192},</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -4790,7 +5816,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:05", "quality":192},</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -4823,7 +5849,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -4856,7 +5882,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:02", "quality":192},</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -4889,7 +5915,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -4922,7 +5948,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:03", "quality":192},</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -4955,7 +5981,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -4988,7 +6014,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:04", "quality":192},</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -5021,7 +6047,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -5054,7 +6080,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:05", "quality":192},</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -5087,7 +6113,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:05", "quality":192},</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -5120,7 +6146,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -5153,7 +6179,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:02", "quality":192},</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -5186,7 +6212,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -5219,7 +6245,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:03", "quality":192},</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -5252,7 +6278,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -5285,7 +6311,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:04", "quality":192},</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -5318,7 +6344,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -5351,7 +6377,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:05", "quality":192},</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -5384,7 +6410,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:05", "quality":192},</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -5417,7 +6443,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -5450,7 +6476,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:02", "quality":192},</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -5483,7 +6509,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -5516,7 +6542,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:03", "quality":192},</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -5549,7 +6575,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -5582,7 +6608,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:04", "quality":192},</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -5615,7 +6641,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -5648,7 +6674,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:05", "quality":192},</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -5681,7 +6707,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:05", "quality":192},</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5692,7 +6718,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -5717,24 +6743,24 @@
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="145.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="145.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H1" s="29" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="29"/>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -5767,7 +6793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="46">
         <v>1</v>
       </c>
@@ -5801,7 +6827,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T12:00", "lastupdate":"2020-02-19T13:00", "quality":192},</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="46">
         <v>1</v>
       </c>
@@ -5835,7 +6861,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T13:00", "lastupdate":"2020-02-19T14:00", "quality":192},</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46">
         <v>1</v>
       </c>
@@ -5869,7 +6895,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T14:00", "lastupdate":"2020-02-19T15:00", "quality":192},</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="46">
         <v>1</v>
       </c>
@@ -5903,7 +6929,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T15:00", "lastupdate":"2020-02-19T16:00", "quality":192},</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="46">
         <v>1</v>
       </c>
@@ -5937,7 +6963,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T16:00", "lastupdate":"2020-02-19T17:00", "quality":192},</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="46">
         <v>1</v>
       </c>
@@ -5971,7 +6997,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T17:00", "lastupdate":"2020-02-19T18:00", "quality":192},</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="46">
         <v>1</v>
       </c>
@@ -6005,7 +7031,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T18:00", "lastupdate":"2020-02-19T19:00", "quality":192},</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="46">
         <v>1</v>
       </c>
@@ -6039,7 +7065,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T19:00", "lastupdate":"2020-02-19T20:00", "quality":192},</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46">
         <v>1</v>
       </c>
@@ -6073,7 +7099,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T20:00", "lastupdate":"2020-02-19T21:00", "quality":192},</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="48">
         <v>2</v>
       </c>
@@ -6107,7 +7133,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T12:00", "lastupdate":"2020-02-19T13:00", "quality":192},</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48">
         <v>2</v>
       </c>
@@ -6141,7 +7167,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T13:00", "lastupdate":"2020-02-19T14:00", "quality":192},</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="48">
         <v>2</v>
       </c>
@@ -6175,7 +7201,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T14:00", "lastupdate":"2020-02-19T15:00", "quality":192},</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="48">
         <v>2</v>
       </c>
@@ -6209,7 +7235,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T15:00", "lastupdate":"2020-02-19T16:00", "quality":192},</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="48">
         <v>2</v>
       </c>
@@ -6243,7 +7269,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T16:00", "lastupdate":"2020-02-19T17:00", "quality":192},</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="48">
         <v>2</v>
       </c>
@@ -6277,7 +7303,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T17:00", "lastupdate":"2020-02-19T18:00", "quality":192},</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="48">
         <v>2</v>
       </c>
@@ -6311,7 +7337,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T18:00", "lastupdate":"2020-02-19T19:00", "quality":192},</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="48">
         <v>2</v>
       </c>
@@ -6345,7 +7371,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T19:00", "lastupdate":"2020-02-19T20:00", "quality":192},</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="48">
         <v>2</v>
       </c>
@@ -6379,7 +7405,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T20:00", "lastupdate":"2020-02-19T21:00", "quality":192},</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="50">
         <v>3</v>
       </c>
@@ -6413,7 +7439,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T12:00", "lastupdate":"2020-02-19T13:00", "quality":192},</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="51" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="50">
         <v>3</v>
       </c>
@@ -6447,7 +7473,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T13:00", "lastupdate":"2020-02-19T14:00", "quality":193},</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="51" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="50">
         <v>3</v>
       </c>
@@ -6481,7 +7507,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T14:00", "lastupdate":"2020-02-19T15:00", "quality":194},</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="51" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="50">
         <v>3</v>
       </c>
@@ -6515,7 +7541,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T15:00", "lastupdate":"2020-02-19T16:00", "quality":195},</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="51" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="50">
         <v>3</v>
       </c>
@@ -6549,7 +7575,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T16:00", "lastupdate":"2020-02-19T17:00", "quality":196},</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="51" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="50">
         <v>3</v>
       </c>
@@ -6583,7 +7609,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T17:00", "lastupdate":"2020-02-19T18:00", "quality":197},</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="51" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="50">
         <v>3</v>
       </c>
@@ -6617,7 +7643,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T18:00", "lastupdate":"2020-02-19T19:00", "quality":198},</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="51" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="50">
         <v>3</v>
       </c>
@@ -6651,7 +7677,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T19:00", "lastupdate":"2020-02-19T20:00", "quality":199},</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="51" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="50">
         <v>3</v>
       </c>
@@ -6685,7 +7711,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T20:00", "lastupdate":"2020-02-19T21:00", "quality":200},</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="48">
         <v>4</v>
       </c>
@@ -6719,7 +7745,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T12:00", "lastupdate":"2020-02-19T13:00", "quality":201},</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="48">
         <v>4</v>
       </c>
@@ -6753,7 +7779,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T13:00", "lastupdate":"2020-02-19T14:00", "quality":202},</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="48">
         <v>4</v>
       </c>
@@ -6787,7 +7813,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T14:00", "lastupdate":"2020-02-19T15:00", "quality":203},</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="48">
         <v>4</v>
       </c>
@@ -6821,7 +7847,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T15:00", "lastupdate":"2020-02-19T16:00", "quality":204},</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="48">
         <v>4</v>
       </c>
@@ -6855,7 +7881,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T16:00", "lastupdate":"2020-02-19T17:00", "quality":205},</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="48">
         <v>4</v>
       </c>
@@ -6889,7 +7915,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T17:00", "lastupdate":"2020-02-19T18:00", "quality":206},</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="48">
         <v>4</v>
       </c>
@@ -6923,7 +7949,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T18:00", "lastupdate":"2020-02-19T19:00", "quality":207},</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="48">
         <v>4</v>
       </c>
@@ -6957,7 +7983,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T19:00", "lastupdate":"2020-02-19T20:00", "quality":208},</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="48">
         <v>4</v>
       </c>
@@ -6991,7 +8017,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T20:00", "lastupdate":"2020-02-19T21:00", "quality":209},</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J39" s="1"/>
     </row>
   </sheetData>
@@ -7007,20 +8033,20 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H1" s="29" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="29"/>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -7053,7 +8079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7087,7 +8113,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-01T07:00", "lastupdate":"2020-02-02T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -7121,7 +8147,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-02T07:00", "lastupdate":"2020-02-03T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -7155,7 +8181,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-03T07:00", "lastupdate":"2020-02-04T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -7189,7 +8215,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-04T07:00", "lastupdate":"2020-02-05T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -7223,7 +8249,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-05T07:00", "lastupdate":"2020-02-06T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -7257,7 +8283,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-06T07:00", "lastupdate":"2020-02-07T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -7291,7 +8317,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-07T07:00", "lastupdate":"2020-02-08T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -7325,7 +8351,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-08T07:00", "lastupdate":"2020-02-09T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -7359,7 +8385,7 @@
         <v>{ "flid": 1,"chid":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-09T07:00", "lastupdate":"2020-02-10T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -7393,7 +8419,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-01T07:00", "lastupdate":"2020-02-02T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -7427,7 +8453,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-02T07:00", "lastupdate":"2020-02-03T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -7461,7 +8487,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-03T07:00", "lastupdate":"2020-02-04T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -7495,7 +8521,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-04T07:00", "lastupdate":"2020-02-05T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -7529,7 +8555,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-05T07:00", "lastupdate":"2020-02-06T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -7563,7 +8589,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-06T07:00", "lastupdate":"2020-02-07T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -7597,7 +8623,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-07T07:00", "lastupdate":"2020-02-08T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -7631,7 +8657,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-08T07:00", "lastupdate":"2020-02-09T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -7665,7 +8691,7 @@
         <v>{ "flid": 2,"chid":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-09T07:00", "lastupdate":"2020-02-10T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -7699,7 +8725,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-01T07:00", "lastupdate":"2020-02-02T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -7732,7 +8758,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-02T07:00", "lastupdate":"2020-02-03T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -7765,7 +8791,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-03T07:00", "lastupdate":"2020-02-04T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -7798,7 +8824,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-04T07:00", "lastupdate":"2020-02-05T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -7831,7 +8857,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-05T07:00", "lastupdate":"2020-02-06T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -7864,7 +8890,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-06T07:00", "lastupdate":"2020-02-07T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -7897,7 +8923,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-07T07:00", "lastupdate":"2020-02-08T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -7930,7 +8956,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-08T07:00", "lastupdate":"2020-02-09T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -7963,7 +8989,7 @@
         <v>{ "flid": 3,"chid":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-09T07:00", "lastupdate":"2020-02-10T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -7996,7 +9022,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-01T07:00", "lastupdate":"2020-02-02T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -8029,7 +9055,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-02T07:00", "lastupdate":"2020-02-03T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -8062,7 +9088,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-03T07:00", "lastupdate":"2020-02-04T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -8095,7 +9121,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-04T07:00", "lastupdate":"2020-02-05T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -8128,7 +9154,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-05T07:00", "lastupdate":"2020-02-06T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -8161,7 +9187,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-06T07:00", "lastupdate":"2020-02-07T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -8194,7 +9220,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-07T07:00", "lastupdate":"2020-02-08T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -8227,7 +9253,7 @@
         <v>{ "flid": 4,"chid":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-08T07:00", "lastupdate":"2020-02-09T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -8274,24 +9300,24 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="127.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="127.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H1" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -8323,7 +9349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -8356,7 +9382,7 @@
         <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -8389,7 +9415,7 @@
         <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:02", "quality":193},</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -8422,7 +9448,7 @@
         <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:03", "quality":194},</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -8455,7 +9481,7 @@
         <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:04", "quality":195},</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -8488,7 +9514,7 @@
         <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:05", "quality":196},</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -8521,7 +9547,7 @@
         <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:06", "quality":197},</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -8554,7 +9580,7 @@
         <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:07", "quality":198},</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -8587,7 +9613,7 @@
         <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:08", "quality":199},</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -8620,7 +9646,7 @@
         <v>{ "flid": 1,"chid":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:09", "quality":200},</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -8653,7 +9679,7 @@
         <v>{ "flid": 2,"chid":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:10", "quality":201},</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -8686,7 +9712,7 @@
         <v>{ "flid": 2,"chid":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:11", "quality":202},</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -8719,7 +9745,7 @@
         <v>{ "flid": 2,"chid":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:12", "quality":203},</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -8752,7 +9778,7 @@
         <v>{ "flid": 2,"chid":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:13", "quality":204},</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -8785,7 +9811,7 @@
         <v>{ "flid": 2,"chid":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:14", "quality":205},</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -8818,7 +9844,7 @@
         <v>{ "flid": 2,"chid":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:15", "quality":206},</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -8851,7 +9877,7 @@
         <v>{ "flid": 2,"chid":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:16", "quality":207},</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -8884,7 +9910,7 @@
         <v>{ "flid": 2,"chid":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:17", "quality":208},</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -8917,7 +9943,7 @@
         <v>{ "flid": 2,"chid":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:18", "quality":209},</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -8950,7 +9976,7 @@
         <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:19", "quality":210},</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -8983,7 +10009,7 @@
         <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:20", "quality":211},</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -9016,7 +10042,7 @@
         <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:21", "quality":212},</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -9049,7 +10075,7 @@
         <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:22", "quality":213},</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -9082,7 +10108,7 @@
         <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:23", "quality":214},</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -9115,7 +10141,7 @@
         <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:24", "quality":215},</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -9148,7 +10174,7 @@
         <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:25", "quality":216},</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -9181,7 +10207,7 @@
         <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:26", "quality":217},</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -9214,7 +10240,7 @@
         <v>{ "flid": 3,"chid":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:27", "quality":218},</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -9247,7 +10273,7 @@
         <v>{ "flid": 4,"chid":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:28", "quality":219},</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -9280,7 +10306,7 @@
         <v>{ "flid": 4,"chid":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:29", "quality":220},</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -9313,7 +10339,7 @@
         <v>{ "flid": 4,"chid":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:30", "quality":221},</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -9346,7 +10372,7 @@
         <v>{ "flid": 4,"chid":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:31", "quality":222},</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -9379,7 +10405,7 @@
         <v>{ "flid": 4,"chid":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:32", "quality":223},</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -9412,7 +10438,7 @@
         <v>{ "flid": 4,"chid":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:33", "quality":224},</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -9445,7 +10471,7 @@
         <v>{ "flid": 4,"chid":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:34", "quality":225},</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -9478,7 +10504,7 @@
         <v>{ "flid": 4,"chid":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:35", "quality":226},</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -9524,37 +10550,37 @@
       <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="110.6640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="22.109375" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="24" max="27" width="10.109375" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5546875" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="110.7109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="22.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="24" max="27" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>162</v>
       </c>
@@ -9638,7 +10664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>164</v>
       </c>
@@ -9698,7 +10724,7 @@
         <v>{"systemid":1,"name":"ДПКС № 1","ip":"192.168.0.111","path":"xxx.yyy.zzz","period":30,"sensors":[</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -9770,7 +10796,7 @@
         <v>{"sensorid":1,"low":0,"name":"P in KC 32","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -9842,7 +10868,7 @@
         <v>{"sensorid":2,"low":0,"name":"P in KC 33","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -9914,7 +10940,7 @@
         <v>{"sensorid":3,"low":0,"name":"P in KC 34","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>164</v>
       </c>
@@ -9974,7 +11000,7 @@
         <v>{"systemid":2,"name":"ДПКС № 2","ip":"192.168.0.112","path":"xxx.yyy.zzz","period":30,"sensors":[</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -10046,7 +11072,7 @@
         <v>{"sensorid":4,"low":0,"name":"P in KC 36","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -10118,7 +11144,7 @@
         <v>{"sensorid":5,"low":0,"name":"P in KC 37","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -10203,18 +11229,18 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="138.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="138.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -11060,11 +12086,11 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5546875" customWidth="1"/>
-    <col min="4" max="4" width="42.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">

--- a/xls/create-test-data.xlsx
+++ b/xls/create-test-data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\node\oask-gtp-webapi\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24912" windowHeight="12840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Корр-каналы" sheetId="5" r:id="rId1"/>
@@ -20,12 +25,12 @@
     <sheet name="GuiTable" sheetId="13" r:id="rId11"/>
     <sheet name="Menu" sheetId="14" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="387">
   <si>
     <t>isAbsP</t>
   </si>
@@ -1042,12 +1047,156 @@
   </si>
   <si>
     <t>Q48</t>
+  </si>
+  <si>
+    <t>Q49</t>
+  </si>
+  <si>
+    <t>Q50</t>
+  </si>
+  <si>
+    <t>Q51</t>
+  </si>
+  <si>
+    <t>Q52</t>
+  </si>
+  <si>
+    <t>Q53</t>
+  </si>
+  <si>
+    <t>Q54</t>
+  </si>
+  <si>
+    <t>Q55</t>
+  </si>
+  <si>
+    <t>Q56</t>
+  </si>
+  <si>
+    <t>Q57</t>
+  </si>
+  <si>
+    <t>Q58</t>
+  </si>
+  <si>
+    <t>Q59</t>
+  </si>
+  <si>
+    <t>Q60</t>
+  </si>
+  <si>
+    <t>Q61</t>
+  </si>
+  <si>
+    <t>Q62</t>
+  </si>
+  <si>
+    <t>Q63</t>
+  </si>
+  <si>
+    <t>Q64</t>
+  </si>
+  <si>
+    <t>Q65</t>
+  </si>
+  <si>
+    <t>Q66</t>
+  </si>
+  <si>
+    <t>Q67</t>
+  </si>
+  <si>
+    <t>Q68</t>
+  </si>
+  <si>
+    <t>Q69</t>
+  </si>
+  <si>
+    <t>Q70</t>
+  </si>
+  <si>
+    <t>Q71</t>
+  </si>
+  <si>
+    <t>Q72</t>
+  </si>
+  <si>
+    <t>Q73</t>
+  </si>
+  <si>
+    <t>Q74</t>
+  </si>
+  <si>
+    <t>Q75</t>
+  </si>
+  <si>
+    <t>Q76</t>
+  </si>
+  <si>
+    <t>Q77</t>
+  </si>
+  <si>
+    <t>Q78</t>
+  </si>
+  <si>
+    <t>Q79</t>
+  </si>
+  <si>
+    <t>Q80</t>
+  </si>
+  <si>
+    <t>Q81</t>
+  </si>
+  <si>
+    <t>Q82</t>
+  </si>
+  <si>
+    <t>Q83</t>
+  </si>
+  <si>
+    <t>Q84</t>
+  </si>
+  <si>
+    <t>Q85</t>
+  </si>
+  <si>
+    <t>Q86</t>
+  </si>
+  <si>
+    <t>Q87</t>
+  </si>
+  <si>
+    <t>Q88</t>
+  </si>
+  <si>
+    <t>Q89</t>
+  </si>
+  <si>
+    <t>Q90</t>
+  </si>
+  <si>
+    <t>Q91</t>
+  </si>
+  <si>
+    <t>Q92</t>
+  </si>
+  <si>
+    <t>Q93</t>
+  </si>
+  <si>
+    <t>Q94</t>
+  </si>
+  <si>
+    <t>Q95</t>
+  </si>
+  <si>
+    <t>Q96</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1441,7 +1590,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1476,7 +1625,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1687,44 +1836,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="108.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="101.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="108.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" customWidth="1"/>
+    <col min="14" max="14" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="101.88671875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
@@ -1808,7 +1957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
@@ -1868,7 +2017,7 @@
         <v>{"corrid":1,"name":"Корректор № 1","ip":"192.168.0.111","ftpDir":"./","addr":1,"channels":[</v>
       </c>
     </row>
-    <row r="3" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1940,7 +2089,7 @@
         <v>{"chid":1,"chno":1,"name":"Line 1","template":"S001R1","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="4" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -2012,7 +2161,7 @@
         <v>{"chid":2,"chno":2,"name":"Line 2","template":"S001R2","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="5" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -2084,7 +2233,7 @@
         <v>{"chid":3,"chno":3,"name":"Line 3","template":"S001R3","isAbsP":true,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -2144,7 +2293,7 @@
         <v>{"corrid":2,"name":"Корректор № 2","ip":"192.168.0.112","ftpDir":"./","addr":2,"channels":[</v>
       </c>
     </row>
-    <row r="7" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2216,7 +2365,7 @@
         <v>{"chid":4,"chno":1,"name":"Line 1","template":"S001R1","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="8" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -2288,7 +2437,7 @@
         <v>{"chid":5,"chno":2,"name":"Line 2","template":"S001R2","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="9" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2360,7 +2509,7 @@
         <v>{"chid":6,"chno":3,"name":"Line 3","template":"S001R3","isAbsP":true,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="AD10" s="6" t="s">
         <v>12</v>
       </c>
@@ -2379,29 +2528,29 @@
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="55.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="55.109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>167</v>
       </c>
@@ -2461,7 +2610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>169</v>
       </c>
@@ -2503,7 +2652,7 @@
         <v>{"formid":1,"name":"Форма ввод № 1","controls":[</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -2561,7 +2710,7 @@
         <v>{"key":"param1","label":"Параметр 1","value":"100","controlType":"textbox","order":1,"options":[{}]},</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -2619,7 +2768,7 @@
         <v>{"key":"param2","label":"Параметр 2","value":"101","controlType":"textbox","order":2,"options":[{}]},</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -2677,7 +2826,7 @@
         <v>{"key":"param3","label":"Параметр 3","value":"102","controlType":"textbox","order":3,"options":[{}]}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>169</v>
       </c>
@@ -2719,7 +2868,7 @@
         <v>{"formid":2,"name":"Форма ввод № 2","controls":[</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2777,7 +2926,7 @@
         <v>{"key":"param5","label":"Параметр 5","value":"104","controlType":"textbox","order":5,"options":[{}]},</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -2835,7 +2984,7 @@
         <v>{"key":"param6","label":"Параметр 6","value":"105","controlType":"textbox","order":6,"options":[{}]},</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2906,31 +3055,31 @@
       <selection sqref="A1:X21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="56.28515625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="9" hidden="1" customWidth="1"/>
     <col min="19" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="96.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="96.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>197</v>
       </c>
@@ -2974,7 +3123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>199</v>
       </c>
@@ -3016,7 +3165,7 @@
         <v>{"tableid":1,"name":"Таблица ввод № 1","columns":[</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -3060,7 +3209,7 @@
         <v>{"name":"param1","display":"Параметр 1"},</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -3104,7 +3253,7 @@
         <v>{"name":"param2","display":"Параметр 2"},</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -3148,7 +3297,7 @@
         <v>{"name":"param3","display":"Параметр 3"}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>199</v>
       </c>
@@ -3190,7 +3339,7 @@
         <v>{"tableid":2,"name":"Таблица ввод № 1","columns":[</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -3234,7 +3383,7 @@
         <v>{"name":"param5","display":"Параметр 5"},</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -3278,7 +3427,7 @@
         <v>{"name":"param6","display":"Параметр 6"},</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -3322,7 +3471,7 @@
         <v>{"name":"param7","display":"Параметр 7"}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>199</v>
       </c>
@@ -3364,7 +3513,7 @@
         <v>{"tableid":3,"name":"Таблица ввод № 1","columns":[</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -3408,7 +3557,7 @@
         <v>{"name":"param5","display":"Параметр 5"},</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -3452,7 +3601,7 @@
         <v>{"name":"param6","display":"Параметр 6"},</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -3496,7 +3645,7 @@
         <v>{"name":"param7","display":"Параметр 7"},</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -3540,7 +3689,7 @@
         <v>{"name":"param8","display":"Параметр 8"},</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -3584,7 +3733,7 @@
         <v>{"name":"param9","display":"Параметр 9"},</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -3628,7 +3777,7 @@
         <v>{"name":"param10","display":"Параметр 10"},</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -3672,7 +3821,7 @@
         <v>{"name":"param11","display":"Параметр 11"},</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -3716,7 +3865,7 @@
         <v>{"name":"param12","display":"Параметр 12"},</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -3760,7 +3909,7 @@
         <v>{"name":"param13","display":"Параметр 13"},</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -3804,7 +3953,7 @@
         <v>{"name":"param14","display":"Параметр 14"},</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -3861,21 +4010,21 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="46.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
     <col min="12" max="22" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>230</v>
       </c>
@@ -3919,7 +4068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>232</v>
       </c>
@@ -3961,7 +4110,7 @@
         <v>{"userid":1,"name":"login1","buttons":[</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -4005,7 +4154,7 @@
         <v>{"label":"Кнопка 1","link":"table"},</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -4049,7 +4198,7 @@
         <v>{"label":"Кнопка 2","link":"table"},</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -4093,7 +4242,7 @@
         <v>{"label":"Кнопка 3","link":"table"}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>232</v>
       </c>
@@ -4135,7 +4284,7 @@
         <v>{"userid":2,"name":"login1","buttons":[</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -4179,7 +4328,7 @@
         <v>{"label":"Кнопка 5","link":"table"},</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -4223,7 +4372,7 @@
         <v>{"label":"Кнопка 6","link":"table"},</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -4267,7 +4416,7 @@
         <v>{"label":"Кнопка 7","link":"table"}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>232</v>
       </c>
@@ -4309,7 +4458,7 @@
         <v>{"userid":3,"name":"login1","buttons":[</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -4353,7 +4502,7 @@
         <v>{"label":"Кнопка 9","link":"table"},</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -4397,7 +4546,7 @@
         <v>{"label":"Кнопка 10","link":"table"},</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -4441,7 +4590,7 @@
         <v>{"label":"Кнопка 11","link":"table"},</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -4485,7 +4634,7 @@
         <v>{"label":"Кнопка 12","link":"table"},</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -4529,7 +4678,7 @@
         <v>{"label":"Кнопка 13","link":"table"},</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -4573,7 +4722,7 @@
         <v>{"label":"Кнопка 14","link":"table"},</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -4617,7 +4766,7 @@
         <v>{"label":"Кнопка 15","link":"table"},</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -4661,7 +4810,7 @@
         <v>{"label":"Кнопка 16","link":"table"},</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -4705,7 +4854,7 @@
         <v>{"label":"Кнопка 17","link":"table"},</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -4749,7 +4898,7 @@
         <v>{"label":"Кнопка 18","link":"table"},</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -4806,24 +4955,24 @@
   </sheetPr>
   <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="102.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" customWidth="1"/>
-    <col min="9" max="9" width="152.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="102.109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" customWidth="1"/>
+    <col min="9" max="9" width="152.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>258</v>
       </c>
@@ -4848,7 +4997,7 @@
       <c r="H2" s="42"/>
       <c r="I2" s="31"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4879,7 +5028,7 @@
         <v>{ "object_id" :1, "fullname":"Харьков ГРС 1,  Q за час", "name":"XXX-YYY-000-ZZZ-001", "sname": "Q", "params": [[1,2,3], "q"]},</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4910,7 +5059,7 @@
         <v>{ "object_id" :2, "fullname":"Харьков ГРС 1,  P ср час", "name":"XXX-YYY-000-ZZZ-001", "sname": "P", "params": [[1,2,3], "q"]},</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4941,7 +5090,7 @@
         <v>{ "object_id" :3, "fullname":"Харьков ГРС 1,  Т ср час", "name":"XXX-YYY-000-ZZZ-001", "sname": "T", "params": [[1,2,3], "q"]},</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4972,7 +5121,7 @@
         <v>{ "object_id" :4, "fullname":"Харьков ГРС 2,  Q за час", "name":"XXX-YYY-000-ZZZ-002", "sname": "Q", "params": [[1,2,3], "q"]},</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5003,7 +5152,7 @@
         <v>{ "object_id" :5, "fullname":"Харьков ГРС 2,  P ср час", "name":"XXX-YYY-000-ZZZ-002", "sname": "P", "params": [[1,2,3], "q"]},</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5034,7 +5183,7 @@
         <v>{ "object_id" :6, "fullname":"Харьков ГРС 2,  Т ср час", "name":"XXX-YYY-000-ZZZ-002", "sname": "T", "params": [[1,2,3], "q"]},</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -5045,7 +5194,7 @@
       <c r="H9" s="30"/>
       <c r="I9" s="31"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5056,7 +5205,7 @@
       <c r="H10" s="30"/>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5067,7 +5216,7 @@
       <c r="H11" s="30"/>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5078,7 +5227,7 @@
       <c r="H12" s="30"/>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5089,7 +5238,7 @@
       <c r="H13" s="30"/>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5100,7 +5249,7 @@
       <c r="H14" s="30"/>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5111,7 +5260,7 @@
       <c r="H15" s="30"/>
       <c r="I15" s="31"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5122,7 +5271,7 @@
       <c r="H16" s="30"/>
       <c r="I16" s="31"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5133,7 +5282,7 @@
       <c r="H17" s="30"/>
       <c r="I17" s="31"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5144,7 +5293,7 @@
       <c r="H18" s="30"/>
       <c r="I18" s="31"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5166,26 +5315,26 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H98" sqref="H3:H98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="111.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="111.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F1" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>258</v>
       </c>
@@ -5211,7 +5360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5238,7 +5387,7 @@
         <v>{ "object_id": 1,"name":"Q1","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T00:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -5265,7 +5414,7 @@
         <v>{ "object_id": 1,"name":"Q2","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T01:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -5292,7 +5441,7 @@
         <v>{ "object_id": 1,"name":"Q3","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T02:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -5319,7 +5468,7 @@
         <v>{ "object_id": 1,"name":"Q4","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T03:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -5346,7 +5495,7 @@
         <v>{ "object_id": 1,"name":"Q5","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T04:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -5373,7 +5522,7 @@
         <v>{ "object_id": 1,"name":"Q6","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T05:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -5400,7 +5549,7 @@
         <v>{ "object_id": 1,"name":"Q7","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T06:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -5427,7 +5576,7 @@
         <v>{ "object_id": 1,"name":"Q8","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T07:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -5454,7 +5603,7 @@
         <v>{ "object_id": 1,"name":"Q9","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T08:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -5481,7 +5630,7 @@
         <v>{ "object_id": 1,"name":"Q10","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T09:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -5508,7 +5657,7 @@
         <v>{ "object_id": 1,"name":"Q11","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T10:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -5535,7 +5684,7 @@
         <v>{ "object_id": 1,"name":"Q12","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T11:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -5562,7 +5711,7 @@
         <v>{ "object_id": 1,"name":"Q13","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T12:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -5589,7 +5738,7 @@
         <v>{ "object_id": 1,"name":"Q14","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T13:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -5616,7 +5765,7 @@
         <v>{ "object_id": 1,"name":"Q15","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T14:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -5643,7 +5792,7 @@
         <v>{ "object_id": 1,"name":"Q16","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T15:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -5670,7 +5819,7 @@
         <v>{ "object_id": 1,"name":"Q17","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T16:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -5697,7 +5846,7 @@
         <v>{ "object_id": 1,"name":"Q18","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T17:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -5724,7 +5873,7 @@
         <v>{ "object_id": 1,"name":"Q19","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T18:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -5751,7 +5900,7 @@
         <v>{ "object_id": 1,"name":"Q20","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T19:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -5778,7 +5927,7 @@
         <v>{ "object_id": 1,"name":"Q21","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T20:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -5805,7 +5954,7 @@
         <v>{ "object_id": 1,"name":"Q22","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T21:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -5832,7 +5981,7 @@
         <v>{ "object_id": 1,"name":"Q23","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T22:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -5859,7 +6008,7 @@
         <v>{ "object_id": 1,"name":"Q24","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T23:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -5886,7 +6035,7 @@
         <v>{ "object_id": 2,"name":"Q25","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T00:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -5913,7 +6062,7 @@
         <v>{ "object_id": 2,"name":"Q26","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T01:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -5940,7 +6089,7 @@
         <v>{ "object_id": 2,"name":"Q27","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T02:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -5967,7 +6116,7 @@
         <v>{ "object_id": 2,"name":"Q28","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T03:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -5994,7 +6143,7 @@
         <v>{ "object_id": 2,"name":"Q29","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T04:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -6021,7 +6170,7 @@
         <v>{ "object_id": 2,"name":"Q30","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T05:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -6048,7 +6197,7 @@
         <v>{ "object_id": 2,"name":"Q31","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T06:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -6075,7 +6224,7 @@
         <v>{ "object_id": 2,"name":"Q32","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T07:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -6102,7 +6251,7 @@
         <v>{ "object_id": 2,"name":"Q33","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T08:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -6129,7 +6278,7 @@
         <v>{ "object_id": 2,"name":"Q34","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T09:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -6156,7 +6305,7 @@
         <v>{ "object_id": 2,"name":"Q35","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T10:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -6183,7 +6332,7 @@
         <v>{ "object_id": 2,"name":"Q36","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T11:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -6210,7 +6359,7 @@
         <v>{ "object_id": 2,"name":"Q37","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T12:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -6237,7 +6386,7 @@
         <v>{ "object_id": 2,"name":"Q38","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T13:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -6264,7 +6413,7 @@
         <v>{ "object_id": 2,"name":"Q39","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T14:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -6291,7 +6440,7 @@
         <v>{ "object_id": 2,"name":"Q40","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T15:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -6318,7 +6467,7 @@
         <v>{ "object_id": 2,"name":"Q41","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T16:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -6345,7 +6494,7 @@
         <v>{ "object_id": 2,"name":"Q42","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T17:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -6372,7 +6521,7 @@
         <v>{ "object_id": 2,"name":"Q43","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T18:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -6399,7 +6548,7 @@
         <v>{ "object_id": 2,"name":"Q44","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T19:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -6426,7 +6575,7 @@
         <v>{ "object_id": 2,"name":"Q45","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T20:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -6453,7 +6602,7 @@
         <v>{ "object_id": 2,"name":"Q46","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T21:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -6480,7 +6629,7 @@
         <v>{ "object_id": 2,"name":"Q47","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T22:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -6505,6 +6654,1302 @@
       <c r="H50" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q48","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T23:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="1">
+        <v>100</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" ref="H51:H74" si="1">CONCATENATE("{ ""object_id"": ",A51,",""name"":""",B51,""",""state"": """,C51,""", ""value"":",D51,", ""currday"":",E51,", ""lastupdate"":""",F51,""", ""source"":""",G51,"""},")</f>
+        <v>{ "object_id": 3,"name":"Q49","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T00:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>3</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="1">
+        <v>100</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "object_id": 3,"name":"Q50","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T01:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" s="1">
+        <v>100</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "object_id": 3,"name":"Q51","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T02:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>3</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" s="1">
+        <v>100</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "object_id": 3,"name":"Q52","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T03:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>3</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" s="1">
+        <v>100</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "object_id": 3,"name":"Q53","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T04:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>3</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="1">
+        <v>100</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "object_id": 3,"name":"Q54","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T05:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>3</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="1">
+        <v>100</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "object_id": 3,"name":"Q55","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T06:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>3</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" s="1">
+        <v>100</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "object_id": 3,"name":"Q56","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T07:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>3</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" s="1">
+        <v>100</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "object_id": 3,"name":"Q57","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T08:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>3</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" s="1">
+        <v>100</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "object_id": 3,"name":"Q58","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T09:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>3</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" s="1">
+        <v>100</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "object_id": 3,"name":"Q59","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T10:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>3</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D62" s="1">
+        <v>100</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "object_id": 3,"name":"Q60","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T11:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>3</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D63" s="1">
+        <v>100</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "object_id": 3,"name":"Q61","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T12:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>3</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" s="1">
+        <v>100</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "object_id": 3,"name":"Q62","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T13:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>3</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D65" s="1">
+        <v>100</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "object_id": 3,"name":"Q63","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T14:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>3</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66" s="1">
+        <v>100</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "object_id": 3,"name":"Q64","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T15:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>3</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67" s="1">
+        <v>100</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "object_id": 3,"name":"Q65","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T16:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>3</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" s="1">
+        <v>100</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "object_id": 3,"name":"Q66","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T17:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>3</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D69" s="1">
+        <v>100</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "object_id": 3,"name":"Q67","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T18:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>3</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D70" s="1">
+        <v>100</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "object_id": 3,"name":"Q68","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T19:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>3</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D71" s="1">
+        <v>100</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "object_id": 3,"name":"Q69","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T20:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>3</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D72" s="1">
+        <v>100</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "object_id": 3,"name":"Q70","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T21:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>3</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D73" s="1">
+        <v>100</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "object_id": 3,"name":"Q71","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T22:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>3</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D74" s="1">
+        <v>100</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="1"/>
+        <v>{ "object_id": 3,"name":"Q72","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T23:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>4</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D75" s="1">
+        <v>100</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" ref="H75:H98" si="2">CONCATENATE("{ ""object_id"": ",A75,",""name"":""",B75,""",""state"": """,C75,""", ""value"":",D75,", ""currday"":",E75,", ""lastupdate"":""",F75,""", ""source"":""",G75,"""},")</f>
+        <v>{ "object_id": 4,"name":"Q73","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T00:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>4</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76" s="1">
+        <v>100</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="2"/>
+        <v>{ "object_id": 4,"name":"Q74","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T01:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>4</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77" s="1">
+        <v>100</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="2"/>
+        <v>{ "object_id": 4,"name":"Q75","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T02:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>4</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D78" s="1">
+        <v>100</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="2"/>
+        <v>{ "object_id": 4,"name":"Q76","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T03:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>4</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D79" s="1">
+        <v>100</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="2"/>
+        <v>{ "object_id": 4,"name":"Q77","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T04:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>4</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D80" s="1">
+        <v>100</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="2"/>
+        <v>{ "object_id": 4,"name":"Q78","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T05:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>4</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" s="1">
+        <v>100</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="2"/>
+        <v>{ "object_id": 4,"name":"Q79","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T06:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>4</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D82" s="1">
+        <v>100</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="2"/>
+        <v>{ "object_id": 4,"name":"Q80","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T07:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>4</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" s="1">
+        <v>100</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="2"/>
+        <v>{ "object_id": 4,"name":"Q81","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T08:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>4</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D84" s="1">
+        <v>100</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="2"/>
+        <v>{ "object_id": 4,"name":"Q82","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T09:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>4</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D85" s="1">
+        <v>100</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="2"/>
+        <v>{ "object_id": 4,"name":"Q83","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T10:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>4</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D86" s="1">
+        <v>100</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="2"/>
+        <v>{ "object_id": 4,"name":"Q84","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T11:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>4</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D87" s="1">
+        <v>100</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="2"/>
+        <v>{ "object_id": 4,"name":"Q85","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T12:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>4</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D88" s="1">
+        <v>100</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="2"/>
+        <v>{ "object_id": 4,"name":"Q86","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T13:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>4</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D89" s="1">
+        <v>100</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="2"/>
+        <v>{ "object_id": 4,"name":"Q87","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T14:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>4</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D90" s="1">
+        <v>100</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="2"/>
+        <v>{ "object_id": 4,"name":"Q88","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T15:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>4</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D91" s="1">
+        <v>100</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="2"/>
+        <v>{ "object_id": 4,"name":"Q89","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T16:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>4</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D92" s="1">
+        <v>100</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="2"/>
+        <v>{ "object_id": 4,"name":"Q90","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T17:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>4</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D93" s="1">
+        <v>100</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="2"/>
+        <v>{ "object_id": 4,"name":"Q91","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T18:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>4</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D94" s="1">
+        <v>100</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="2"/>
+        <v>{ "object_id": 4,"name":"Q92","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T19:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>4</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D95" s="1">
+        <v>100</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="2"/>
+        <v>{ "object_id": 4,"name":"Q93","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T20:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>4</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D96" s="1">
+        <v>100</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="2"/>
+        <v>{ "object_id": 4,"name":"Q94","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T21:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>4</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D97" s="1">
+        <v>100</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="2"/>
+        <v>{ "object_id": 4,"name":"Q95","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T22:00", "source":"auto"},</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>4</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D98" s="1">
+        <v>100</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="2"/>
+        <v>{ "object_id": 4,"name":"Q96","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T23:00", "source":"auto"},</v>
       </c>
     </row>
   </sheetData>
@@ -6520,12 +7965,12 @@
       <selection sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="105.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="105.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -7225,7 +8670,7 @@
         <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:02", "quality":192},</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -7258,7 +8703,7 @@
         <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -7291,7 +8736,7 @@
         <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:03", "quality":192},</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -7324,7 +8769,7 @@
         <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -7357,7 +8802,7 @@
         <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:04", "quality":192},</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -7390,7 +8835,7 @@
         <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -7423,7 +8868,7 @@
         <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:05", "quality":192},</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -7456,7 +8901,7 @@
         <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:05", "quality":192},</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -7489,7 +8934,7 @@
         <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -7522,7 +8967,7 @@
         <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:02", "quality":192},</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -7555,7 +9000,7 @@
         <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -7588,7 +9033,7 @@
         <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:03", "quality":192},</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -7621,7 +9066,7 @@
         <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -7654,7 +9099,7 @@
         <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:04", "quality":192},</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -7687,7 +9132,7 @@
         <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -7720,7 +9165,7 @@
         <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:05", "quality":192},</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -7753,7 +9198,7 @@
         <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:05", "quality":192},</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -7764,7 +9209,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -7789,15 +9234,15 @@
       <selection activeCell="K3" sqref="K3:K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="145.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="145.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -8485,7 +9930,7 @@
         <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T12:00", "lastupdate":"2020-02-19T13:00", "quality":192},</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="39" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="38">
         <v>3</v>
       </c>
@@ -8519,7 +9964,7 @@
         <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T13:00", "lastupdate":"2020-02-19T14:00", "quality":193},</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="39" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="38">
         <v>3</v>
       </c>
@@ -8553,7 +9998,7 @@
         <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T14:00", "lastupdate":"2020-02-19T15:00", "quality":194},</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="39" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="38">
         <v>3</v>
       </c>
@@ -8587,7 +10032,7 @@
         <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T15:00", "lastupdate":"2020-02-19T16:00", "quality":195},</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="39" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="38">
         <v>3</v>
       </c>
@@ -8621,7 +10066,7 @@
         <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T16:00", "lastupdate":"2020-02-19T17:00", "quality":196},</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="39" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
         <v>3</v>
       </c>
@@ -8655,7 +10100,7 @@
         <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T17:00", "lastupdate":"2020-02-19T18:00", "quality":197},</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
         <v>3</v>
       </c>
@@ -8689,7 +10134,7 @@
         <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T18:00", "lastupdate":"2020-02-19T19:00", "quality":198},</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38">
         <v>3</v>
       </c>
@@ -8723,7 +10168,7 @@
         <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T19:00", "lastupdate":"2020-02-19T20:00", "quality":199},</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="38">
         <v>3</v>
       </c>
@@ -8757,7 +10202,7 @@
         <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T20:00", "lastupdate":"2020-02-19T21:00", "quality":200},</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="36">
         <v>4</v>
       </c>
@@ -8791,7 +10236,7 @@
         <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T12:00", "lastupdate":"2020-02-19T13:00", "quality":201},</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="36">
         <v>4</v>
       </c>
@@ -8825,7 +10270,7 @@
         <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T13:00", "lastupdate":"2020-02-19T14:00", "quality":202},</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="36">
         <v>4</v>
       </c>
@@ -8859,7 +10304,7 @@
         <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T14:00", "lastupdate":"2020-02-19T15:00", "quality":203},</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="36">
         <v>4</v>
       </c>
@@ -8893,7 +10338,7 @@
         <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T15:00", "lastupdate":"2020-02-19T16:00", "quality":204},</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="36">
         <v>4</v>
       </c>
@@ -8927,7 +10372,7 @@
         <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T16:00", "lastupdate":"2020-02-19T17:00", "quality":205},</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="36">
         <v>4</v>
       </c>
@@ -8961,7 +10406,7 @@
         <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T17:00", "lastupdate":"2020-02-19T18:00", "quality":206},</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="36">
         <v>4</v>
       </c>
@@ -8995,7 +10440,7 @@
         <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T18:00", "lastupdate":"2020-02-19T19:00", "quality":207},</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="36">
         <v>4</v>
       </c>
@@ -9029,7 +10474,7 @@
         <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T19:00", "lastupdate":"2020-02-19T20:00", "quality":208},</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="36">
         <v>4</v>
       </c>
@@ -9063,7 +10508,7 @@
         <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T20:00", "lastupdate":"2020-02-19T21:00", "quality":209},</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J39" s="1"/>
     </row>
   </sheetData>
@@ -9079,12 +10524,12 @@
       <selection activeCell="K3" sqref="K3:K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="118.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="118.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -9772,7 +11217,7 @@
         <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-01T07:00", "lastupdate":"2020-02-02T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -9805,7 +11250,7 @@
         <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-02T07:00", "lastupdate":"2020-02-03T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -9838,7 +11283,7 @@
         <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-03T07:00", "lastupdate":"2020-02-04T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -9871,7 +11316,7 @@
         <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-04T07:00", "lastupdate":"2020-02-05T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -9904,7 +11349,7 @@
         <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-05T07:00", "lastupdate":"2020-02-06T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -9937,7 +11382,7 @@
         <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-06T07:00", "lastupdate":"2020-02-07T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -9970,7 +11415,7 @@
         <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-07T07:00", "lastupdate":"2020-02-08T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -10003,7 +11448,7 @@
         <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-08T07:00", "lastupdate":"2020-02-09T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -10036,7 +11481,7 @@
         <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-09T07:00", "lastupdate":"2020-02-10T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -10069,7 +11514,7 @@
         <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-01T07:00", "lastupdate":"2020-02-02T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -10102,7 +11547,7 @@
         <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-02T07:00", "lastupdate":"2020-02-03T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -10135,7 +11580,7 @@
         <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-03T07:00", "lastupdate":"2020-02-04T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -10168,7 +11613,7 @@
         <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-04T07:00", "lastupdate":"2020-02-05T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -10201,7 +11646,7 @@
         <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-05T07:00", "lastupdate":"2020-02-06T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -10234,7 +11679,7 @@
         <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-06T07:00", "lastupdate":"2020-02-07T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -10267,7 +11712,7 @@
         <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-07T07:00", "lastupdate":"2020-02-08T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -10300,7 +11745,7 @@
         <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-08T07:00", "lastupdate":"2020-02-09T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -10347,16 +11792,16 @@
       <selection activeCell="J3" sqref="J3:J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="127.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="127.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -11023,7 +12468,7 @@
         <v>{ "flid": 3,"ch_id":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:19", "quality":210},</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -11056,7 +12501,7 @@
         <v>{ "flid": 3,"ch_id":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:20", "quality":211},</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -11089,7 +12534,7 @@
         <v>{ "flid": 3,"ch_id":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:21", "quality":212},</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -11122,7 +12567,7 @@
         <v>{ "flid": 3,"ch_id":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:22", "quality":213},</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -11155,7 +12600,7 @@
         <v>{ "flid": 3,"ch_id":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:23", "quality":214},</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -11188,7 +12633,7 @@
         <v>{ "flid": 3,"ch_id":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:24", "quality":215},</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -11221,7 +12666,7 @@
         <v>{ "flid": 3,"ch_id":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:25", "quality":216},</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -11254,7 +12699,7 @@
         <v>{ "flid": 3,"ch_id":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:26", "quality":217},</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -11287,7 +12732,7 @@
         <v>{ "flid": 3,"ch_id":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:27", "quality":218},</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -11320,7 +12765,7 @@
         <v>{ "flid": 4,"ch_id":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:28", "quality":219},</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -11353,7 +12798,7 @@
         <v>{ "flid": 4,"ch_id":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:29", "quality":220},</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -11386,7 +12831,7 @@
         <v>{ "flid": 4,"ch_id":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:30", "quality":221},</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -11419,7 +12864,7 @@
         <v>{ "flid": 4,"ch_id":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:31", "quality":222},</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -11452,7 +12897,7 @@
         <v>{ "flid": 4,"ch_id":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:32", "quality":223},</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -11485,7 +12930,7 @@
         <v>{ "flid": 4,"ch_id":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:33", "quality":224},</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -11518,7 +12963,7 @@
         <v>{ "flid": 4,"ch_id":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:34", "quality":225},</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -11551,7 +12996,7 @@
         <v>{ "flid": 4,"ch_id":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:35", "quality":226},</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -11600,37 +13045,37 @@
       <selection activeCell="AD2" sqref="AD2:AD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="110.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="22.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="24" max="27" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5703125" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="110.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="22.109375" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="24" max="27" width="10.109375" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="5.5546875" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>133</v>
       </c>
@@ -11714,7 +13159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>135</v>
       </c>
@@ -11774,7 +13219,7 @@
         <v>{"systemid":1,"name":"ДПКС № 1","ip":"192.168.0.111","path":"xxx.yyy.zzz","period":30,"sensors":[</v>
       </c>
     </row>
-    <row r="3" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -11846,7 +13291,7 @@
         <v>{"sensorid":1,"low":0,"name":"P in KC 32","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="4" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -11918,7 +13363,7 @@
         <v>{"sensorid":2,"low":0,"name":"P in KC 33","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="5" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -11990,7 +13435,7 @@
         <v>{"sensorid":3,"low":0,"name":"P in KC 34","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>135</v>
       </c>
@@ -12050,7 +13495,7 @@
         <v>{"systemid":2,"name":"ДПКС № 2","ip":"192.168.0.112","path":"xxx.yyy.zzz","period":30,"sensors":[</v>
       </c>
     </row>
-    <row r="7" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -12122,7 +13567,7 @@
         <v>{"sensorid":4,"low":0,"name":"P in KC 36","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="8" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -12194,7 +13639,7 @@
         <v>{"sensorid":5,"low":0,"name":"P in KC 37","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="9" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -12282,18 +13727,18 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="138.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="138.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">

--- a/xls/create-test-data.xlsx
+++ b/xls/create-test-data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\node\oask-gtp-webapi\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24912" windowHeight="12840" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Корр-каналы" sheetId="5" r:id="rId1"/>
@@ -25,7 +20,7 @@
     <sheet name="GuiTable" sheetId="13" r:id="rId11"/>
     <sheet name="Menu" sheetId="14" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -815,9 +810,6 @@
     <t>{}</t>
   </si>
   <si>
-    <t>SumChan</t>
-  </si>
-  <si>
     <t>sname</t>
   </si>
   <si>
@@ -830,9 +822,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>MaxChan</t>
-  </si>
-  <si>
     <t>Харьков ГРС 1,  Q за час</t>
   </si>
   <si>
@@ -854,9 +843,6 @@
     <t>]},</t>
   </si>
   <si>
-    <t>[1,2,3], "q"</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -1191,12 +1177,21 @@
   </si>
   <si>
     <t>Q96</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>{"query": "ch_id":1, "k":1, "model":"HourValue"},{"query": "ch_id":2, "k":1, "model":"HourValue"}</t>
+  </si>
+  <si>
+    <t>{"key": "ch_id", "id":1, "k":1, "model":"HourValue", "attr":"q"},{"key": "ch_id", "id":2, "k":1, "model":"HourValue", "attr":"q"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1590,7 +1585,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1625,7 +1620,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1837,43 +1832,43 @@
   <dimension ref="A1:AD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AD22" sqref="AD22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="108.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" customWidth="1"/>
-    <col min="14" max="14" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="101.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="108.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="101.85546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
@@ -1957,7 +1952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
@@ -2017,7 +2012,7 @@
         <v>{"corrid":1,"name":"Корректор № 1","ip":"192.168.0.111","ftpDir":"./","addr":1,"channels":[</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -2089,7 +2084,7 @@
         <v>{"chid":1,"chno":1,"name":"Line 1","template":"S001R1","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -2161,7 +2156,7 @@
         <v>{"chid":2,"chno":2,"name":"Line 2","template":"S001R2","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -2233,7 +2228,7 @@
         <v>{"chid":3,"chno":3,"name":"Line 3","template":"S001R3","isAbsP":true,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -2293,7 +2288,7 @@
         <v>{"corrid":2,"name":"Корректор № 2","ip":"192.168.0.112","ftpDir":"./","addr":2,"channels":[</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2365,7 +2360,7 @@
         <v>{"chid":4,"chno":1,"name":"Line 1","template":"S001R1","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -2437,7 +2432,7 @@
         <v>{"chid":5,"chno":2,"name":"Line 2","template":"S001R2","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2509,7 +2504,7 @@
         <v>{"chid":6,"chno":3,"name":"Line 3","template":"S001R3","isAbsP":true,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="AD10" s="6" t="s">
         <v>12</v>
       </c>
@@ -2528,29 +2523,29 @@
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="55.109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="55.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>167</v>
       </c>
@@ -2610,7 +2605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>169</v>
       </c>
@@ -2652,7 +2647,7 @@
         <v>{"formid":1,"name":"Форма ввод № 1","controls":[</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -2710,7 +2705,7 @@
         <v>{"key":"param1","label":"Параметр 1","value":"100","controlType":"textbox","order":1,"options":[{}]},</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -2768,7 +2763,7 @@
         <v>{"key":"param2","label":"Параметр 2","value":"101","controlType":"textbox","order":2,"options":[{}]},</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -2826,7 +2821,7 @@
         <v>{"key":"param3","label":"Параметр 3","value":"102","controlType":"textbox","order":3,"options":[{}]}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>169</v>
       </c>
@@ -2868,7 +2863,7 @@
         <v>{"formid":2,"name":"Форма ввод № 2","controls":[</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2926,7 +2921,7 @@
         <v>{"key":"param5","label":"Параметр 5","value":"104","controlType":"textbox","order":5,"options":[{}]},</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -2984,7 +2979,7 @@
         <v>{"key":"param6","label":"Параметр 6","value":"105","controlType":"textbox","order":6,"options":[{}]},</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -3055,31 +3050,31 @@
       <selection sqref="A1:X21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="56.33203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="9" hidden="1" customWidth="1"/>
     <col min="19" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="96.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="96.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>197</v>
       </c>
@@ -3123,7 +3118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>199</v>
       </c>
@@ -3165,7 +3160,7 @@
         <v>{"tableid":1,"name":"Таблица ввод № 1","columns":[</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -3209,7 +3204,7 @@
         <v>{"name":"param1","display":"Параметр 1"},</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -3253,7 +3248,7 @@
         <v>{"name":"param2","display":"Параметр 2"},</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -3297,7 +3292,7 @@
         <v>{"name":"param3","display":"Параметр 3"}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>199</v>
       </c>
@@ -3339,7 +3334,7 @@
         <v>{"tableid":2,"name":"Таблица ввод № 1","columns":[</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -3383,7 +3378,7 @@
         <v>{"name":"param5","display":"Параметр 5"},</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -3427,7 +3422,7 @@
         <v>{"name":"param6","display":"Параметр 6"},</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -3471,7 +3466,7 @@
         <v>{"name":"param7","display":"Параметр 7"}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>199</v>
       </c>
@@ -3513,7 +3508,7 @@
         <v>{"tableid":3,"name":"Таблица ввод № 1","columns":[</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -3557,7 +3552,7 @@
         <v>{"name":"param5","display":"Параметр 5"},</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -3601,7 +3596,7 @@
         <v>{"name":"param6","display":"Параметр 6"},</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -3645,7 +3640,7 @@
         <v>{"name":"param7","display":"Параметр 7"},</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -3689,7 +3684,7 @@
         <v>{"name":"param8","display":"Параметр 8"},</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -3733,7 +3728,7 @@
         <v>{"name":"param9","display":"Параметр 9"},</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -3777,7 +3772,7 @@
         <v>{"name":"param10","display":"Параметр 10"},</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -3821,7 +3816,7 @@
         <v>{"name":"param11","display":"Параметр 11"},</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -3865,7 +3860,7 @@
         <v>{"name":"param12","display":"Параметр 12"},</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -3909,7 +3904,7 @@
         <v>{"name":"param13","display":"Параметр 13"},</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -3953,7 +3948,7 @@
         <v>{"name":"param14","display":"Параметр 14"},</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -4010,21 +4005,21 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="46.88671875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
     <col min="12" max="22" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>230</v>
       </c>
@@ -4068,7 +4063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>232</v>
       </c>
@@ -4110,7 +4105,7 @@
         <v>{"userid":1,"name":"login1","buttons":[</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -4154,7 +4149,7 @@
         <v>{"label":"Кнопка 1","link":"table"},</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -4198,7 +4193,7 @@
         <v>{"label":"Кнопка 2","link":"table"},</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -4242,7 +4237,7 @@
         <v>{"label":"Кнопка 3","link":"table"}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>232</v>
       </c>
@@ -4284,7 +4279,7 @@
         <v>{"userid":2,"name":"login1","buttons":[</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -4328,7 +4323,7 @@
         <v>{"label":"Кнопка 5","link":"table"},</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -4372,7 +4367,7 @@
         <v>{"label":"Кнопка 6","link":"table"},</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -4416,7 +4411,7 @@
         <v>{"label":"Кнопка 7","link":"table"}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>232</v>
       </c>
@@ -4458,7 +4453,7 @@
         <v>{"userid":3,"name":"login1","buttons":[</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -4502,7 +4497,7 @@
         <v>{"label":"Кнопка 9","link":"table"},</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -4546,7 +4541,7 @@
         <v>{"label":"Кнопка 10","link":"table"},</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -4590,7 +4585,7 @@
         <v>{"label":"Кнопка 11","link":"table"},</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -4634,7 +4629,7 @@
         <v>{"label":"Кнопка 12","link":"table"},</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -4678,7 +4673,7 @@
         <v>{"label":"Кнопка 13","link":"table"},</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -4722,7 +4717,7 @@
         <v>{"label":"Кнопка 14","link":"table"},</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -4766,7 +4761,7 @@
         <v>{"label":"Кнопка 15","link":"table"},</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -4810,7 +4805,7 @@
         <v>{"label":"Кнопка 16","link":"table"},</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -4854,7 +4849,7 @@
         <v>{"label":"Кнопка 17","link":"table"},</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -4898,7 +4893,7 @@
         <v>{"label":"Кнопка 18","link":"table"},</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -4955,24 +4950,24 @@
   </sheetPr>
   <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="102.109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.44140625" customWidth="1"/>
-    <col min="9" max="9" width="152.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="102.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="59" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" customWidth="1"/>
+    <col min="9" max="9" width="194.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>258</v>
       </c>
@@ -4983,7 +4978,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E2" s="41" t="s">
         <v>259</v>
@@ -4997,193 +4992,193 @@
       <c r="H2" s="42"/>
       <c r="I2" s="31"/>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>261</v>
+        <v>384</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>CONCATENATE("{ ""object_id"" :",A3,", ""fullname"":""",B3,""", ""name"":""",C3,""", ""sname"": """,D3,""", ""params"": [")</f>
         <v>{ "object_id" :1, "fullname":"Харьков ГРС 1,  Q за час", "name":"XXX-YYY-000-ZZZ-001", "sname": "Q", "params": [</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>274</v>
+        <v>386</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I3" s="31" t="str">
         <f>CONCATENATE(F3,G3,H3,)</f>
-        <v>{ "object_id" :1, "fullname":"Харьков ГРС 1,  Q за час", "name":"XXX-YYY-000-ZZZ-001", "sname": "Q", "params": [[1,2,3], "q"]},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{ "object_id" :1, "fullname":"Харьков ГРС 1,  Q за час", "name":"XXX-YYY-000-ZZZ-001", "sname": "Q", "params": [{"key": "ch_id", "id":1, "k":1, "model":"HourValue", "attr":"q"},{"key": "ch_id", "id":2, "k":1, "model":"HourValue", "attr":"q"}]},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>266</v>
+        <v>384</v>
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" ref="F4:F5" si="0">CONCATENATE("{ ""object_id"" :",A4,", ""fullname"":""",B4,""", ""name"":""",C4,""", ""sname"": """,D4,""", ""params"": [")</f>
         <v>{ "object_id" :2, "fullname":"Харьков ГРС 1,  P ср час", "name":"XXX-YYY-000-ZZZ-001", "sname": "P", "params": [</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>274</v>
+        <v>385</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I4" s="31" t="str">
         <f t="shared" ref="I4:I8" si="1">CONCATENATE(F4,G4,H4,)</f>
-        <v>{ "object_id" :2, "fullname":"Харьков ГРС 1,  P ср час", "name":"XXX-YYY-000-ZZZ-001", "sname": "P", "params": [[1,2,3], "q"]},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{ "object_id" :2, "fullname":"Харьков ГРС 1,  P ср час", "name":"XXX-YYY-000-ZZZ-001", "sname": "P", "params": [{"query": "ch_id":1, "k":1, "model":"HourValue"},{"query": "ch_id":2, "k":1, "model":"HourValue"}]},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>266</v>
+        <v>384</v>
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id" :3, "fullname":"Харьков ГРС 1,  Т ср час", "name":"XXX-YYY-000-ZZZ-001", "sname": "T", "params": [</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>274</v>
+        <v>385</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I5" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>{ "object_id" :3, "fullname":"Харьков ГРС 1,  Т ср час", "name":"XXX-YYY-000-ZZZ-001", "sname": "T", "params": [[1,2,3], "q"]},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{ "object_id" :3, "fullname":"Харьков ГРС 1,  Т ср час", "name":"XXX-YYY-000-ZZZ-001", "sname": "T", "params": [{"query": "ch_id":1, "k":1, "model":"HourValue"},{"query": "ch_id":2, "k":1, "model":"HourValue"}]},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>261</v>
+        <v>384</v>
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" ref="F6:F8" si="2">CONCATENATE("{ ""object_id"" :",A6,", ""fullname"":""",B6,""", ""name"":""",C6,""", ""sname"": """,D6,""", ""params"": [")</f>
         <v>{ "object_id" :4, "fullname":"Харьков ГРС 2,  Q за час", "name":"XXX-YYY-000-ZZZ-002", "sname": "Q", "params": [</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>274</v>
+        <v>385</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I6" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>{ "object_id" :4, "fullname":"Харьков ГРС 2,  Q за час", "name":"XXX-YYY-000-ZZZ-002", "sname": "Q", "params": [[1,2,3], "q"]},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{ "object_id" :4, "fullname":"Харьков ГРС 2,  Q за час", "name":"XXX-YYY-000-ZZZ-002", "sname": "Q", "params": [{"query": "ch_id":1, "k":1, "model":"HourValue"},{"query": "ch_id":2, "k":1, "model":"HourValue"}]},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>266</v>
+        <v>384</v>
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id" :5, "fullname":"Харьков ГРС 2,  P ср час", "name":"XXX-YYY-000-ZZZ-002", "sname": "P", "params": [</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>274</v>
+        <v>385</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I7" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>{ "object_id" :5, "fullname":"Харьков ГРС 2,  P ср час", "name":"XXX-YYY-000-ZZZ-002", "sname": "P", "params": [[1,2,3], "q"]},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{ "object_id" :5, "fullname":"Харьков ГРС 2,  P ср час", "name":"XXX-YYY-000-ZZZ-002", "sname": "P", "params": [{"query": "ch_id":1, "k":1, "model":"HourValue"},{"query": "ch_id":2, "k":1, "model":"HourValue"}]},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>266</v>
+        <v>384</v>
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id" :6, "fullname":"Харьков ГРС 2,  Т ср час", "name":"XXX-YYY-000-ZZZ-002", "sname": "T", "params": [</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>274</v>
+        <v>385</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I8" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>{ "object_id" :6, "fullname":"Харьков ГРС 2,  Т ср час", "name":"XXX-YYY-000-ZZZ-002", "sname": "T", "params": [[1,2,3], "q"]},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{ "object_id" :6, "fullname":"Харьков ГРС 2,  Т ср час", "name":"XXX-YYY-000-ZZZ-002", "sname": "T", "params": [{"query": "ch_id":1, "k":1, "model":"HourValue"},{"query": "ch_id":2, "k":1, "model":"HourValue"}]},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -5194,7 +5189,7 @@
       <c r="H9" s="30"/>
       <c r="I9" s="31"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5205,7 +5200,7 @@
       <c r="H10" s="30"/>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5216,7 +5211,7 @@
       <c r="H11" s="30"/>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5227,7 +5222,7 @@
       <c r="H12" s="30"/>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5238,7 +5233,7 @@
       <c r="H13" s="30"/>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5249,7 +5244,7 @@
       <c r="H14" s="30"/>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5260,7 +5255,7 @@
       <c r="H15" s="30"/>
       <c r="I15" s="31"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5271,7 +5266,7 @@
       <c r="H16" s="30"/>
       <c r="I16" s="31"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5282,7 +5277,7 @@
       <c r="H17" s="30"/>
       <c r="I17" s="31"/>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5293,7 +5288,7 @@
       <c r="H18" s="30"/>
       <c r="I18" s="31"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5317,24 +5312,24 @@
   </sheetPr>
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H98" sqref="H3:H98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="111.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="111.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F1" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>258</v>
       </c>
@@ -5354,18 +5349,18 @@
         <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>166</v>
@@ -5377,22 +5372,22 @@
         <v>1000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H3" t="str">
         <f>CONCATENATE("{ ""object_id"": ",A3,",""name"":""",B3,""",""state"": """,C3,""", ""value"":",D3,", ""currday"":",E3,", ""lastupdate"":""",F3,""", ""source"":""",G3,"""},")</f>
         <v>{ "object_id": 1,"name":"Q1","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T00:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>166</v>
@@ -5404,22 +5399,22 @@
         <v>1000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ref="H4:H50" si="0">CONCATENATE("{ ""object_id"": ",A4,",""name"":""",B4,""",""state"": """,C4,""", ""value"":",D4,", ""currday"":",E4,", ""lastupdate"":""",F4,""", ""source"":""",G4,"""},")</f>
         <v>{ "object_id": 1,"name":"Q2","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T01:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>166</v>
@@ -5431,22 +5426,22 @@
         <v>1000</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q3","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T02:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>166</v>
@@ -5458,22 +5453,22 @@
         <v>1000</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q4","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T03:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>166</v>
@@ -5485,22 +5480,22 @@
         <v>1000</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q5","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T04:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>166</v>
@@ -5512,22 +5507,22 @@
         <v>1000</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q6","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T05:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>166</v>
@@ -5539,22 +5534,22 @@
         <v>1000</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q7","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T06:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>166</v>
@@ -5566,22 +5561,22 @@
         <v>1000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q8","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T07:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>166</v>
@@ -5593,22 +5588,22 @@
         <v>1000</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q9","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T08:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>166</v>
@@ -5620,22 +5615,22 @@
         <v>1000</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q10","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T09:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>166</v>
@@ -5647,22 +5642,22 @@
         <v>1000</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q11","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T10:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>166</v>
@@ -5674,22 +5669,22 @@
         <v>1000</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q12","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T11:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>166</v>
@@ -5704,19 +5699,19 @@
         <v>73</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q13","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T12:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>166</v>
@@ -5731,19 +5726,19 @@
         <v>74</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q14","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T13:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>166</v>
@@ -5758,19 +5753,19 @@
         <v>75</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q15","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T14:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>166</v>
@@ -5785,19 +5780,19 @@
         <v>76</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q16","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T15:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>166</v>
@@ -5812,19 +5807,19 @@
         <v>77</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q17","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T16:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>166</v>
@@ -5839,19 +5834,19 @@
         <v>78</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q18","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T17:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>166</v>
@@ -5866,19 +5861,19 @@
         <v>79</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q19","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T18:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>166</v>
@@ -5893,19 +5888,19 @@
         <v>80</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q20","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T19:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>166</v>
@@ -5920,19 +5915,19 @@
         <v>81</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q21","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T20:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>166</v>
@@ -5947,19 +5942,19 @@
         <v>82</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q22","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T21:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>166</v>
@@ -5971,22 +5966,22 @@
         <v>1000</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q23","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T22:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>166</v>
@@ -5998,22 +5993,22 @@
         <v>1000</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q24","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T23:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>166</v>
@@ -6025,22 +6020,22 @@
         <v>1000</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q25","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T00:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>166</v>
@@ -6052,22 +6047,22 @@
         <v>1000</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q26","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T01:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>166</v>
@@ -6079,22 +6074,22 @@
         <v>1000</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q27","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T02:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>166</v>
@@ -6106,22 +6101,22 @@
         <v>1000</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q28","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T03:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>166</v>
@@ -6133,22 +6128,22 @@
         <v>1000</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q29","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T04:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>166</v>
@@ -6160,22 +6155,22 @@
         <v>1000</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q30","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T05:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>166</v>
@@ -6187,22 +6182,22 @@
         <v>1000</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q31","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T06:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>166</v>
@@ -6214,22 +6209,22 @@
         <v>1000</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q32","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T07:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>166</v>
@@ -6241,22 +6236,22 @@
         <v>1000</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q33","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T08:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>166</v>
@@ -6268,22 +6263,22 @@
         <v>1000</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q34","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T09:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>166</v>
@@ -6295,22 +6290,22 @@
         <v>1000</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q35","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T10:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>166</v>
@@ -6322,22 +6317,22 @@
         <v>1000</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q36","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T11:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>166</v>
@@ -6352,19 +6347,19 @@
         <v>73</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q37","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T12:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>166</v>
@@ -6379,19 +6374,19 @@
         <v>74</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q38","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T13:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>166</v>
@@ -6406,19 +6401,19 @@
         <v>75</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q39","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T14:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>166</v>
@@ -6433,19 +6428,19 @@
         <v>76</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q40","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T15:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>166</v>
@@ -6460,19 +6455,19 @@
         <v>77</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q41","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T16:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>166</v>
@@ -6487,19 +6482,19 @@
         <v>78</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q42","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T17:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>166</v>
@@ -6514,19 +6509,19 @@
         <v>79</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q43","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T18:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>166</v>
@@ -6541,19 +6536,19 @@
         <v>80</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q44","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T19:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>166</v>
@@ -6568,19 +6563,19 @@
         <v>81</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q45","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T20:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>166</v>
@@ -6595,19 +6590,19 @@
         <v>82</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q46","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T21:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>166</v>
@@ -6619,22 +6614,22 @@
         <v>1000</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q47","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T22:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>166</v>
@@ -6646,22 +6641,22 @@
         <v>1000</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q48","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T23:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>3</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>166</v>
@@ -6673,22 +6668,22 @@
         <v>1000</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" ref="H51:H74" si="1">CONCATENATE("{ ""object_id"": ",A51,",""name"":""",B51,""",""state"": """,C51,""", ""value"":",D51,", ""currday"":",E51,", ""lastupdate"":""",F51,""", ""source"":""",G51,"""},")</f>
         <v>{ "object_id": 3,"name":"Q49","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T00:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>3</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>166</v>
@@ -6700,22 +6695,22 @@
         <v>1000</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q50","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T01:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>3</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>166</v>
@@ -6727,22 +6722,22 @@
         <v>1000</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q51","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T02:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>3</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>166</v>
@@ -6754,22 +6749,22 @@
         <v>1000</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q52","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T03:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>3</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>166</v>
@@ -6781,22 +6776,22 @@
         <v>1000</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q53","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T04:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>3</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>166</v>
@@ -6808,22 +6803,22 @@
         <v>1000</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q54","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T05:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>3</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>166</v>
@@ -6835,22 +6830,22 @@
         <v>1000</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q55","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T06:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>3</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>166</v>
@@ -6862,22 +6857,22 @@
         <v>1000</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q56","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T07:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>3</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>166</v>
@@ -6889,22 +6884,22 @@
         <v>1000</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q57","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T08:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>3</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>166</v>
@@ -6916,22 +6911,22 @@
         <v>1000</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q58","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T09:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>3</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>166</v>
@@ -6943,22 +6938,22 @@
         <v>1000</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q59","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T10:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>3</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>166</v>
@@ -6970,22 +6965,22 @@
         <v>1000</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q60","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T11:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>3</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>166</v>
@@ -7000,19 +6995,19 @@
         <v>73</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q61","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T12:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>3</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>166</v>
@@ -7027,19 +7022,19 @@
         <v>74</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q62","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T13:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>3</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>166</v>
@@ -7054,19 +7049,19 @@
         <v>75</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q63","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T14:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>3</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>166</v>
@@ -7081,19 +7076,19 @@
         <v>76</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q64","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T15:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>3</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>166</v>
@@ -7108,19 +7103,19 @@
         <v>77</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q65","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T16:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>3</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>166</v>
@@ -7135,19 +7130,19 @@
         <v>78</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q66","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T17:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>3</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>166</v>
@@ -7162,19 +7157,19 @@
         <v>79</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q67","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T18:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>3</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>166</v>
@@ -7189,19 +7184,19 @@
         <v>80</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q68","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T19:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>3</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>166</v>
@@ -7216,19 +7211,19 @@
         <v>81</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q69","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T20:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>3</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>166</v>
@@ -7243,19 +7238,19 @@
         <v>82</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q70","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T21:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>3</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>166</v>
@@ -7267,22 +7262,22 @@
         <v>1000</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q71","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T22:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>3</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>166</v>
@@ -7294,22 +7289,22 @@
         <v>1000</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q72","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T23:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>4</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>166</v>
@@ -7321,22 +7316,22 @@
         <v>1000</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" ref="H75:H98" si="2">CONCATENATE("{ ""object_id"": ",A75,",""name"":""",B75,""",""state"": """,C75,""", ""value"":",D75,", ""currday"":",E75,", ""lastupdate"":""",F75,""", ""source"":""",G75,"""},")</f>
         <v>{ "object_id": 4,"name":"Q73","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T00:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>4</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>166</v>
@@ -7348,22 +7343,22 @@
         <v>1000</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q74","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T01:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>4</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>166</v>
@@ -7375,22 +7370,22 @@
         <v>1000</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q75","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T02:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>4</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>166</v>
@@ -7402,22 +7397,22 @@
         <v>1000</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q76","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T03:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>4</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>166</v>
@@ -7429,22 +7424,22 @@
         <v>1000</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q77","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T04:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>4</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>166</v>
@@ -7456,22 +7451,22 @@
         <v>1000</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q78","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T05:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>4</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>166</v>
@@ -7483,22 +7478,22 @@
         <v>1000</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q79","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T06:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>4</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>166</v>
@@ -7510,22 +7505,22 @@
         <v>1000</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q80","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T07:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>4</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>166</v>
@@ -7537,22 +7532,22 @@
         <v>1000</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q81","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T08:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>4</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>166</v>
@@ -7564,22 +7559,22 @@
         <v>1000</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q82","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T09:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>4</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>166</v>
@@ -7591,22 +7586,22 @@
         <v>1000</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q83","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T10:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>4</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>166</v>
@@ -7618,22 +7613,22 @@
         <v>1000</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q84","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T11:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>4</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>166</v>
@@ -7648,19 +7643,19 @@
         <v>73</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q85","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T12:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>4</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>166</v>
@@ -7675,19 +7670,19 @@
         <v>74</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q86","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T13:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>4</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>166</v>
@@ -7702,19 +7697,19 @@
         <v>75</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q87","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T14:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>4</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>166</v>
@@ -7729,19 +7724,19 @@
         <v>76</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q88","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T15:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>4</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>166</v>
@@ -7756,19 +7751,19 @@
         <v>77</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q89","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T16:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>4</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>166</v>
@@ -7783,19 +7778,19 @@
         <v>78</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q90","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T17:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>4</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>166</v>
@@ -7810,19 +7805,19 @@
         <v>79</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q91","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T18:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>4</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>166</v>
@@ -7837,19 +7832,19 @@
         <v>80</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q92","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T19:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>4</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>166</v>
@@ -7864,19 +7859,19 @@
         <v>81</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q93","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T20:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>4</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>166</v>
@@ -7891,19 +7886,19 @@
         <v>82</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q94","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T21:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>4</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>166</v>
@@ -7915,22 +7910,22 @@
         <v>1000</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q95","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T22:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>4</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>166</v>
@@ -7942,10 +7937,10 @@
         <v>1000</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="2"/>
@@ -7965,12 +7960,12 @@
       <selection sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="105.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="105.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -9231,18 +9226,18 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K38"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="145.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="145.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -10524,12 +10519,12 @@
       <selection activeCell="K3" sqref="K3:K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="118.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="118.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -11792,16 +11787,16 @@
       <selection activeCell="J3" sqref="J3:J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="127.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="127.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -13045,37 +13040,37 @@
       <selection activeCell="AD2" sqref="AD2:AD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="110.6640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="22.109375" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="24" max="27" width="10.109375" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5546875" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="110.7109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="22.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="24" max="27" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>133</v>
       </c>
@@ -13159,7 +13154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>135</v>
       </c>
@@ -13219,7 +13214,7 @@
         <v>{"systemid":1,"name":"ДПКС № 1","ip":"192.168.0.111","path":"xxx.yyy.zzz","period":30,"sensors":[</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -13291,7 +13286,7 @@
         <v>{"sensorid":1,"low":0,"name":"P in KC 32","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -13363,7 +13358,7 @@
         <v>{"sensorid":2,"low":0,"name":"P in KC 33","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -13435,7 +13430,7 @@
         <v>{"sensorid":3,"low":0,"name":"P in KC 34","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>135</v>
       </c>
@@ -13495,7 +13490,7 @@
         <v>{"systemid":2,"name":"ДПКС № 2","ip":"192.168.0.112","path":"xxx.yyy.zzz","period":30,"sensors":[</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -13567,7 +13562,7 @@
         <v>{"sensorid":4,"low":0,"name":"P in KC 36","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -13639,7 +13634,7 @@
         <v>{"sensorid":5,"low":0,"name":"P in KC 37","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -13727,18 +13722,18 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="138.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="138.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">

--- a/xls/create-test-data.xlsx
+++ b/xls/create-test-data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\node\oask-gtp-webapi\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24912" windowHeight="12840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Корр-каналы" sheetId="5" r:id="rId1"/>
@@ -20,7 +25,7 @@
     <sheet name="GuiTable" sheetId="13" r:id="rId11"/>
     <sheet name="Menu" sheetId="14" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1185,13 +1190,13 @@
     <t>{"query": "ch_id":1, "k":1, "model":"HourValue"},{"query": "ch_id":2, "k":1, "model":"HourValue"}</t>
   </si>
   <si>
-    <t>{"key": "ch_id", "id":1, "k":1, "model":"HourValue", "attr":"q"},{"key": "ch_id", "id":2, "k":1, "model":"HourValue", "attr":"q"}</t>
+    <t>{"query": {"ch_id":1}, "k":1, "model":"HourValue", "attr":"q"},{"query": {"ch_id":2}, "k":1, "model":"HourValue", "attr":"q"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1585,7 +1590,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1620,7 +1625,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1835,40 +1840,40 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="108.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="101.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="108.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" customWidth="1"/>
+    <col min="14" max="14" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="101.88671875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
@@ -1952,7 +1957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
@@ -2012,7 +2017,7 @@
         <v>{"corrid":1,"name":"Корректор № 1","ip":"192.168.0.111","ftpDir":"./","addr":1,"channels":[</v>
       </c>
     </row>
-    <row r="3" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -2084,7 +2089,7 @@
         <v>{"chid":1,"chno":1,"name":"Line 1","template":"S001R1","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="4" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -2156,7 +2161,7 @@
         <v>{"chid":2,"chno":2,"name":"Line 2","template":"S001R2","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="5" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -2228,7 +2233,7 @@
         <v>{"chid":3,"chno":3,"name":"Line 3","template":"S001R3","isAbsP":true,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -2288,7 +2293,7 @@
         <v>{"corrid":2,"name":"Корректор № 2","ip":"192.168.0.112","ftpDir":"./","addr":2,"channels":[</v>
       </c>
     </row>
-    <row r="7" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2360,7 +2365,7 @@
         <v>{"chid":4,"chno":1,"name":"Line 1","template":"S001R1","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="8" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -2432,7 +2437,7 @@
         <v>{"chid":5,"chno":2,"name":"Line 2","template":"S001R2","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="9" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2504,7 +2509,7 @@
         <v>{"chid":6,"chno":3,"name":"Line 3","template":"S001R3","isAbsP":true,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="AD10" s="6" t="s">
         <v>12</v>
       </c>
@@ -2523,29 +2528,29 @@
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="55.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="55.109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>167</v>
       </c>
@@ -2605,7 +2610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>169</v>
       </c>
@@ -2647,7 +2652,7 @@
         <v>{"formid":1,"name":"Форма ввод № 1","controls":[</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -2705,7 +2710,7 @@
         <v>{"key":"param1","label":"Параметр 1","value":"100","controlType":"textbox","order":1,"options":[{}]},</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -2763,7 +2768,7 @@
         <v>{"key":"param2","label":"Параметр 2","value":"101","controlType":"textbox","order":2,"options":[{}]},</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -2821,7 +2826,7 @@
         <v>{"key":"param3","label":"Параметр 3","value":"102","controlType":"textbox","order":3,"options":[{}]}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>169</v>
       </c>
@@ -2863,7 +2868,7 @@
         <v>{"formid":2,"name":"Форма ввод № 2","controls":[</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2921,7 +2926,7 @@
         <v>{"key":"param5","label":"Параметр 5","value":"104","controlType":"textbox","order":5,"options":[{}]},</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -2979,7 +2984,7 @@
         <v>{"key":"param6","label":"Параметр 6","value":"105","controlType":"textbox","order":6,"options":[{}]},</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -3050,31 +3055,31 @@
       <selection sqref="A1:X21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="56.28515625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="9" hidden="1" customWidth="1"/>
     <col min="19" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="96.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="96.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>197</v>
       </c>
@@ -3118,7 +3123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>199</v>
       </c>
@@ -3160,7 +3165,7 @@
         <v>{"tableid":1,"name":"Таблица ввод № 1","columns":[</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -3204,7 +3209,7 @@
         <v>{"name":"param1","display":"Параметр 1"},</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -3248,7 +3253,7 @@
         <v>{"name":"param2","display":"Параметр 2"},</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -3292,7 +3297,7 @@
         <v>{"name":"param3","display":"Параметр 3"}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>199</v>
       </c>
@@ -3334,7 +3339,7 @@
         <v>{"tableid":2,"name":"Таблица ввод № 1","columns":[</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -3378,7 +3383,7 @@
         <v>{"name":"param5","display":"Параметр 5"},</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -3422,7 +3427,7 @@
         <v>{"name":"param6","display":"Параметр 6"},</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -3466,7 +3471,7 @@
         <v>{"name":"param7","display":"Параметр 7"}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>199</v>
       </c>
@@ -3508,7 +3513,7 @@
         <v>{"tableid":3,"name":"Таблица ввод № 1","columns":[</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -3552,7 +3557,7 @@
         <v>{"name":"param5","display":"Параметр 5"},</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -3596,7 +3601,7 @@
         <v>{"name":"param6","display":"Параметр 6"},</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -3640,7 +3645,7 @@
         <v>{"name":"param7","display":"Параметр 7"},</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -3684,7 +3689,7 @@
         <v>{"name":"param8","display":"Параметр 8"},</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -3728,7 +3733,7 @@
         <v>{"name":"param9","display":"Параметр 9"},</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -3772,7 +3777,7 @@
         <v>{"name":"param10","display":"Параметр 10"},</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -3816,7 +3821,7 @@
         <v>{"name":"param11","display":"Параметр 11"},</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -3860,7 +3865,7 @@
         <v>{"name":"param12","display":"Параметр 12"},</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -3904,7 +3909,7 @@
         <v>{"name":"param13","display":"Параметр 13"},</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -3948,7 +3953,7 @@
         <v>{"name":"param14","display":"Параметр 14"},</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -4005,21 +4010,21 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="46.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
     <col min="12" max="22" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>230</v>
       </c>
@@ -4063,7 +4068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>232</v>
       </c>
@@ -4105,7 +4110,7 @@
         <v>{"userid":1,"name":"login1","buttons":[</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -4149,7 +4154,7 @@
         <v>{"label":"Кнопка 1","link":"table"},</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -4193,7 +4198,7 @@
         <v>{"label":"Кнопка 2","link":"table"},</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -4237,7 +4242,7 @@
         <v>{"label":"Кнопка 3","link":"table"}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>232</v>
       </c>
@@ -4279,7 +4284,7 @@
         <v>{"userid":2,"name":"login1","buttons":[</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -4323,7 +4328,7 @@
         <v>{"label":"Кнопка 5","link":"table"},</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -4367,7 +4372,7 @@
         <v>{"label":"Кнопка 6","link":"table"},</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -4411,7 +4416,7 @@
         <v>{"label":"Кнопка 7","link":"table"}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>232</v>
       </c>
@@ -4453,7 +4458,7 @@
         <v>{"userid":3,"name":"login1","buttons":[</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -4497,7 +4502,7 @@
         <v>{"label":"Кнопка 9","link":"table"},</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -4541,7 +4546,7 @@
         <v>{"label":"Кнопка 10","link":"table"},</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -4585,7 +4590,7 @@
         <v>{"label":"Кнопка 11","link":"table"},</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -4629,7 +4634,7 @@
         <v>{"label":"Кнопка 12","link":"table"},</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -4673,7 +4678,7 @@
         <v>{"label":"Кнопка 13","link":"table"},</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -4717,7 +4722,7 @@
         <v>{"label":"Кнопка 14","link":"table"},</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -4761,7 +4766,7 @@
         <v>{"label":"Кнопка 15","link":"table"},</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -4805,7 +4810,7 @@
         <v>{"label":"Кнопка 16","link":"table"},</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -4849,7 +4854,7 @@
         <v>{"label":"Кнопка 17","link":"table"},</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -4893,7 +4898,7 @@
         <v>{"label":"Кнопка 18","link":"table"},</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -4950,24 +4955,24 @@
   </sheetPr>
   <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="102.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="102.109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="59" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" customWidth="1"/>
-    <col min="9" max="9" width="194.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" customWidth="1"/>
+    <col min="9" max="9" width="194.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>258</v>
       </c>
@@ -4992,7 +4997,7 @@
       <c r="H2" s="42"/>
       <c r="I2" s="31"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5020,10 +5025,10 @@
       </c>
       <c r="I3" s="31" t="str">
         <f>CONCATENATE(F3,G3,H3,)</f>
-        <v>{ "object_id" :1, "fullname":"Харьков ГРС 1,  Q за час", "name":"XXX-YYY-000-ZZZ-001", "sname": "Q", "params": [{"key": "ch_id", "id":1, "k":1, "model":"HourValue", "attr":"q"},{"key": "ch_id", "id":2, "k":1, "model":"HourValue", "attr":"q"}]},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{ "object_id" :1, "fullname":"Харьков ГРС 1,  Q за час", "name":"XXX-YYY-000-ZZZ-001", "sname": "Q", "params": [{"query": {"ch_id":1}, "k":1, "model":"HourValue", "attr":"q"},{"query": {"ch_id":2}, "k":1, "model":"HourValue", "attr":"q"}]},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5054,7 +5059,7 @@
         <v>{ "object_id" :2, "fullname":"Харьков ГРС 1,  P ср час", "name":"XXX-YYY-000-ZZZ-001", "sname": "P", "params": [{"query": "ch_id":1, "k":1, "model":"HourValue"},{"query": "ch_id":2, "k":1, "model":"HourValue"}]},</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5085,7 +5090,7 @@
         <v>{ "object_id" :3, "fullname":"Харьков ГРС 1,  Т ср час", "name":"XXX-YYY-000-ZZZ-001", "sname": "T", "params": [{"query": "ch_id":1, "k":1, "model":"HourValue"},{"query": "ch_id":2, "k":1, "model":"HourValue"}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5116,7 +5121,7 @@
         <v>{ "object_id" :4, "fullname":"Харьков ГРС 2,  Q за час", "name":"XXX-YYY-000-ZZZ-002", "sname": "Q", "params": [{"query": "ch_id":1, "k":1, "model":"HourValue"},{"query": "ch_id":2, "k":1, "model":"HourValue"}]},</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5147,7 +5152,7 @@
         <v>{ "object_id" :5, "fullname":"Харьков ГРС 2,  P ср час", "name":"XXX-YYY-000-ZZZ-002", "sname": "P", "params": [{"query": "ch_id":1, "k":1, "model":"HourValue"},{"query": "ch_id":2, "k":1, "model":"HourValue"}]},</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5178,7 +5183,7 @@
         <v>{ "object_id" :6, "fullname":"Харьков ГРС 2,  Т ср час", "name":"XXX-YYY-000-ZZZ-002", "sname": "T", "params": [{"query": "ch_id":1, "k":1, "model":"HourValue"},{"query": "ch_id":2, "k":1, "model":"HourValue"}]},</v>
       </c>
     </row>
-    <row r="9" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -5189,7 +5194,7 @@
       <c r="H9" s="30"/>
       <c r="I9" s="31"/>
     </row>
-    <row r="10" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5200,7 +5205,7 @@
       <c r="H10" s="30"/>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5211,7 +5216,7 @@
       <c r="H11" s="30"/>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5222,7 +5227,7 @@
       <c r="H12" s="30"/>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5233,7 +5238,7 @@
       <c r="H13" s="30"/>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5244,7 +5249,7 @@
       <c r="H14" s="30"/>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5255,7 +5260,7 @@
       <c r="H15" s="30"/>
       <c r="I15" s="31"/>
     </row>
-    <row r="16" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5266,7 +5271,7 @@
       <c r="H16" s="30"/>
       <c r="I16" s="31"/>
     </row>
-    <row r="17" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5277,7 +5282,7 @@
       <c r="H17" s="30"/>
       <c r="I17" s="31"/>
     </row>
-    <row r="18" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5288,7 +5293,7 @@
       <c r="H18" s="30"/>
       <c r="I18" s="31"/>
     </row>
-    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5316,20 +5321,20 @@
       <selection activeCell="H98" sqref="H3:H98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="111.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="111.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F1" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>258</v>
       </c>
@@ -5355,7 +5360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5382,7 +5387,7 @@
         <v>{ "object_id": 1,"name":"Q1","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T00:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -5409,7 +5414,7 @@
         <v>{ "object_id": 1,"name":"Q2","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T01:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -5436,7 +5441,7 @@
         <v>{ "object_id": 1,"name":"Q3","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T02:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -5463,7 +5468,7 @@
         <v>{ "object_id": 1,"name":"Q4","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T03:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -5490,7 +5495,7 @@
         <v>{ "object_id": 1,"name":"Q5","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T04:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -5517,7 +5522,7 @@
         <v>{ "object_id": 1,"name":"Q6","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T05:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -5544,7 +5549,7 @@
         <v>{ "object_id": 1,"name":"Q7","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T06:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -5571,7 +5576,7 @@
         <v>{ "object_id": 1,"name":"Q8","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T07:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -5598,7 +5603,7 @@
         <v>{ "object_id": 1,"name":"Q9","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T08:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -5625,7 +5630,7 @@
         <v>{ "object_id": 1,"name":"Q10","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T09:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -5652,7 +5657,7 @@
         <v>{ "object_id": 1,"name":"Q11","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T10:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -5679,7 +5684,7 @@
         <v>{ "object_id": 1,"name":"Q12","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T11:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -5706,7 +5711,7 @@
         <v>{ "object_id": 1,"name":"Q13","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T12:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -5733,7 +5738,7 @@
         <v>{ "object_id": 1,"name":"Q14","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T13:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -5760,7 +5765,7 @@
         <v>{ "object_id": 1,"name":"Q15","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T14:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -5787,7 +5792,7 @@
         <v>{ "object_id": 1,"name":"Q16","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T15:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -5814,7 +5819,7 @@
         <v>{ "object_id": 1,"name":"Q17","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T16:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -5841,7 +5846,7 @@
         <v>{ "object_id": 1,"name":"Q18","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T17:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -5868,7 +5873,7 @@
         <v>{ "object_id": 1,"name":"Q19","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T18:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -5895,7 +5900,7 @@
         <v>{ "object_id": 1,"name":"Q20","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T19:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -5922,7 +5927,7 @@
         <v>{ "object_id": 1,"name":"Q21","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T20:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -5949,7 +5954,7 @@
         <v>{ "object_id": 1,"name":"Q22","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T21:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -5976,7 +5981,7 @@
         <v>{ "object_id": 1,"name":"Q23","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T22:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -6003,7 +6008,7 @@
         <v>{ "object_id": 1,"name":"Q24","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T23:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -6030,7 +6035,7 @@
         <v>{ "object_id": 2,"name":"Q25","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T00:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -6057,7 +6062,7 @@
         <v>{ "object_id": 2,"name":"Q26","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T01:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -6084,7 +6089,7 @@
         <v>{ "object_id": 2,"name":"Q27","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T02:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -6111,7 +6116,7 @@
         <v>{ "object_id": 2,"name":"Q28","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T03:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -6138,7 +6143,7 @@
         <v>{ "object_id": 2,"name":"Q29","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T04:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -6165,7 +6170,7 @@
         <v>{ "object_id": 2,"name":"Q30","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T05:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -6192,7 +6197,7 @@
         <v>{ "object_id": 2,"name":"Q31","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T06:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -6219,7 +6224,7 @@
         <v>{ "object_id": 2,"name":"Q32","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T07:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -6246,7 +6251,7 @@
         <v>{ "object_id": 2,"name":"Q33","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T08:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -6273,7 +6278,7 @@
         <v>{ "object_id": 2,"name":"Q34","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T09:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -6300,7 +6305,7 @@
         <v>{ "object_id": 2,"name":"Q35","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T10:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -6327,7 +6332,7 @@
         <v>{ "object_id": 2,"name":"Q36","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T11:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -6354,7 +6359,7 @@
         <v>{ "object_id": 2,"name":"Q37","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T12:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -6381,7 +6386,7 @@
         <v>{ "object_id": 2,"name":"Q38","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T13:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -6408,7 +6413,7 @@
         <v>{ "object_id": 2,"name":"Q39","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T14:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -6435,7 +6440,7 @@
         <v>{ "object_id": 2,"name":"Q40","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T15:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -6462,7 +6467,7 @@
         <v>{ "object_id": 2,"name":"Q41","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T16:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -6489,7 +6494,7 @@
         <v>{ "object_id": 2,"name":"Q42","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T17:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -6516,7 +6521,7 @@
         <v>{ "object_id": 2,"name":"Q43","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T18:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -6543,7 +6548,7 @@
         <v>{ "object_id": 2,"name":"Q44","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T19:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -6570,7 +6575,7 @@
         <v>{ "object_id": 2,"name":"Q45","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T20:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -6597,7 +6602,7 @@
         <v>{ "object_id": 2,"name":"Q46","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T21:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -6624,7 +6629,7 @@
         <v>{ "object_id": 2,"name":"Q47","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T22:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -6651,7 +6656,7 @@
         <v>{ "object_id": 2,"name":"Q48","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T23:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>3</v>
       </c>
@@ -6678,7 +6683,7 @@
         <v>{ "object_id": 3,"name":"Q49","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T00:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>3</v>
       </c>
@@ -6705,7 +6710,7 @@
         <v>{ "object_id": 3,"name":"Q50","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T01:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>3</v>
       </c>
@@ -6732,7 +6737,7 @@
         <v>{ "object_id": 3,"name":"Q51","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T02:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>3</v>
       </c>
@@ -6759,7 +6764,7 @@
         <v>{ "object_id": 3,"name":"Q52","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T03:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>3</v>
       </c>
@@ -6786,7 +6791,7 @@
         <v>{ "object_id": 3,"name":"Q53","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T04:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>3</v>
       </c>
@@ -6813,7 +6818,7 @@
         <v>{ "object_id": 3,"name":"Q54","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T05:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>3</v>
       </c>
@@ -6840,7 +6845,7 @@
         <v>{ "object_id": 3,"name":"Q55","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T06:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>3</v>
       </c>
@@ -6867,7 +6872,7 @@
         <v>{ "object_id": 3,"name":"Q56","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T07:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>3</v>
       </c>
@@ -6894,7 +6899,7 @@
         <v>{ "object_id": 3,"name":"Q57","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T08:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>3</v>
       </c>
@@ -6921,7 +6926,7 @@
         <v>{ "object_id": 3,"name":"Q58","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T09:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>3</v>
       </c>
@@ -6948,7 +6953,7 @@
         <v>{ "object_id": 3,"name":"Q59","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T10:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>3</v>
       </c>
@@ -6975,7 +6980,7 @@
         <v>{ "object_id": 3,"name":"Q60","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T11:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>3</v>
       </c>
@@ -7002,7 +7007,7 @@
         <v>{ "object_id": 3,"name":"Q61","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T12:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>3</v>
       </c>
@@ -7029,7 +7034,7 @@
         <v>{ "object_id": 3,"name":"Q62","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T13:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>3</v>
       </c>
@@ -7056,7 +7061,7 @@
         <v>{ "object_id": 3,"name":"Q63","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T14:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>3</v>
       </c>
@@ -7083,7 +7088,7 @@
         <v>{ "object_id": 3,"name":"Q64","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T15:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>3</v>
       </c>
@@ -7110,7 +7115,7 @@
         <v>{ "object_id": 3,"name":"Q65","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T16:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>3</v>
       </c>
@@ -7137,7 +7142,7 @@
         <v>{ "object_id": 3,"name":"Q66","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T17:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>3</v>
       </c>
@@ -7164,7 +7169,7 @@
         <v>{ "object_id": 3,"name":"Q67","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T18:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>3</v>
       </c>
@@ -7191,7 +7196,7 @@
         <v>{ "object_id": 3,"name":"Q68","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T19:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>3</v>
       </c>
@@ -7218,7 +7223,7 @@
         <v>{ "object_id": 3,"name":"Q69","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T20:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>3</v>
       </c>
@@ -7245,7 +7250,7 @@
         <v>{ "object_id": 3,"name":"Q70","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T21:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>3</v>
       </c>
@@ -7272,7 +7277,7 @@
         <v>{ "object_id": 3,"name":"Q71","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T22:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>3</v>
       </c>
@@ -7299,7 +7304,7 @@
         <v>{ "object_id": 3,"name":"Q72","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T23:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>4</v>
       </c>
@@ -7326,7 +7331,7 @@
         <v>{ "object_id": 4,"name":"Q73","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T00:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>4</v>
       </c>
@@ -7353,7 +7358,7 @@
         <v>{ "object_id": 4,"name":"Q74","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T01:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>4</v>
       </c>
@@ -7380,7 +7385,7 @@
         <v>{ "object_id": 4,"name":"Q75","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T02:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>4</v>
       </c>
@@ -7407,7 +7412,7 @@
         <v>{ "object_id": 4,"name":"Q76","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T03:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>4</v>
       </c>
@@ -7434,7 +7439,7 @@
         <v>{ "object_id": 4,"name":"Q77","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T04:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>4</v>
       </c>
@@ -7461,7 +7466,7 @@
         <v>{ "object_id": 4,"name":"Q78","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T05:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>4</v>
       </c>
@@ -7488,7 +7493,7 @@
         <v>{ "object_id": 4,"name":"Q79","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T06:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>4</v>
       </c>
@@ -7515,7 +7520,7 @@
         <v>{ "object_id": 4,"name":"Q80","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T07:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>4</v>
       </c>
@@ -7542,7 +7547,7 @@
         <v>{ "object_id": 4,"name":"Q81","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T08:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>4</v>
       </c>
@@ -7569,7 +7574,7 @@
         <v>{ "object_id": 4,"name":"Q82","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T09:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>4</v>
       </c>
@@ -7596,7 +7601,7 @@
         <v>{ "object_id": 4,"name":"Q83","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T10:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>4</v>
       </c>
@@ -7623,7 +7628,7 @@
         <v>{ "object_id": 4,"name":"Q84","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T11:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>4</v>
       </c>
@@ -7650,7 +7655,7 @@
         <v>{ "object_id": 4,"name":"Q85","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T12:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>4</v>
       </c>
@@ -7677,7 +7682,7 @@
         <v>{ "object_id": 4,"name":"Q86","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T13:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>4</v>
       </c>
@@ -7704,7 +7709,7 @@
         <v>{ "object_id": 4,"name":"Q87","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T14:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>4</v>
       </c>
@@ -7731,7 +7736,7 @@
         <v>{ "object_id": 4,"name":"Q88","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T15:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>4</v>
       </c>
@@ -7758,7 +7763,7 @@
         <v>{ "object_id": 4,"name":"Q89","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T16:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>4</v>
       </c>
@@ -7785,7 +7790,7 @@
         <v>{ "object_id": 4,"name":"Q90","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T17:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>4</v>
       </c>
@@ -7812,7 +7817,7 @@
         <v>{ "object_id": 4,"name":"Q91","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T18:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>4</v>
       </c>
@@ -7839,7 +7844,7 @@
         <v>{ "object_id": 4,"name":"Q92","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T19:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>4</v>
       </c>
@@ -7866,7 +7871,7 @@
         <v>{ "object_id": 4,"name":"Q93","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T20:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>4</v>
       </c>
@@ -7893,7 +7898,7 @@
         <v>{ "object_id": 4,"name":"Q94","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T21:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>4</v>
       </c>
@@ -7920,7 +7925,7 @@
         <v>{ "object_id": 4,"name":"Q95","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T22:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>4</v>
       </c>
@@ -7960,12 +7965,12 @@
       <selection sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="105.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="105.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -9225,19 +9230,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="145.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="145.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -10519,12 +10524,12 @@
       <selection activeCell="K3" sqref="K3:K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="118.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="118.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -11787,16 +11792,16 @@
       <selection activeCell="J3" sqref="J3:J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="127.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="127.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -13040,37 +13045,37 @@
       <selection activeCell="AD2" sqref="AD2:AD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="110.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="22.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="24" max="27" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5703125" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="110.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="22.109375" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="24" max="27" width="10.109375" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="5.5546875" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>133</v>
       </c>
@@ -13154,7 +13159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>135</v>
       </c>
@@ -13214,7 +13219,7 @@
         <v>{"systemid":1,"name":"ДПКС № 1","ip":"192.168.0.111","path":"xxx.yyy.zzz","period":30,"sensors":[</v>
       </c>
     </row>
-    <row r="3" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -13286,7 +13291,7 @@
         <v>{"sensorid":1,"low":0,"name":"P in KC 32","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="4" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -13358,7 +13363,7 @@
         <v>{"sensorid":2,"low":0,"name":"P in KC 33","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="5" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -13430,7 +13435,7 @@
         <v>{"sensorid":3,"low":0,"name":"P in KC 34","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>135</v>
       </c>
@@ -13490,7 +13495,7 @@
         <v>{"systemid":2,"name":"ДПКС № 2","ip":"192.168.0.112","path":"xxx.yyy.zzz","period":30,"sensors":[</v>
       </c>
     </row>
-    <row r="7" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -13562,7 +13567,7 @@
         <v>{"sensorid":4,"low":0,"name":"P in KC 36","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="8" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -13634,7 +13639,7 @@
         <v>{"sensorid":5,"low":0,"name":"P in KC 37","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="9" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -13722,18 +13727,18 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="138.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="138.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">

--- a/xls/create-test-data.xlsx
+++ b/xls/create-test-data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\node\oask-gtp-webapi\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24912" windowHeight="12840" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Корр-каналы" sheetId="5" r:id="rId1"/>
@@ -25,12 +20,12 @@
     <sheet name="GuiTable" sheetId="13" r:id="rId11"/>
     <sheet name="Menu" sheetId="14" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="386">
   <si>
     <t>isAbsP</t>
   </si>
@@ -629,24 +624,12 @@
     <t>tableid</t>
   </si>
   <si>
-    <t>{"tableid":</t>
-  </si>
-  <si>
     <t>Таблица ввод № 1</t>
   </si>
   <si>
-    <t>{"name":"</t>
-  </si>
-  <si>
-    <t>"display":</t>
-  </si>
-  <si>
     <t>display</t>
   </si>
   <si>
-    <t>","display":"</t>
-  </si>
-  <si>
     <t>"</t>
   </si>
   <si>
@@ -1191,12 +1174,21 @@
   </si>
   <si>
     <t>{"query": {"ch_id":1}, "k":1, "model":"HourValue", "attr":"q"},{"query": {"ch_id":2}, "k":1, "model":"HourValue", "attr":"q"}</t>
+  </si>
+  <si>
+    <t>{"table_id":</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Время</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1462,7 +1454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1530,6 +1522,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1590,7 +1585,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1625,7 +1620,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1840,40 +1835,40 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="108.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" customWidth="1"/>
-    <col min="14" max="14" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="101.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="108.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="101.85546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
@@ -1957,7 +1952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
@@ -2017,7 +2012,7 @@
         <v>{"corrid":1,"name":"Корректор № 1","ip":"192.168.0.111","ftpDir":"./","addr":1,"channels":[</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -2089,7 +2084,7 @@
         <v>{"chid":1,"chno":1,"name":"Line 1","template":"S001R1","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -2161,7 +2156,7 @@
         <v>{"chid":2,"chno":2,"name":"Line 2","template":"S001R2","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -2233,7 +2228,7 @@
         <v>{"chid":3,"chno":3,"name":"Line 3","template":"S001R3","isAbsP":true,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -2293,7 +2288,7 @@
         <v>{"corrid":2,"name":"Корректор № 2","ip":"192.168.0.112","ftpDir":"./","addr":2,"channels":[</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2365,7 +2360,7 @@
         <v>{"chid":4,"chno":1,"name":"Line 1","template":"S001R1","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -2437,7 +2432,7 @@
         <v>{"chid":5,"chno":2,"name":"Line 2","template":"S001R2","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2509,7 +2504,7 @@
         <v>{"chid":6,"chno":3,"name":"Line 3","template":"S001R3","isAbsP":true,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="AD10" s="6" t="s">
         <v>12</v>
       </c>
@@ -2528,29 +2523,29 @@
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="55.109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="55.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>167</v>
       </c>
@@ -2610,7 +2605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>169</v>
       </c>
@@ -2624,7 +2619,7 @@
         <v>170</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F2" s="13" t="str">
         <f>CONCATENATE(A2,B2,C2,D2,E2)</f>
@@ -2652,7 +2647,7 @@
         <v>{"formid":1,"name":"Форма ввод № 1","controls":[</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -2666,7 +2661,7 @@
         <v>174</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>183</v>
@@ -2710,7 +2705,7 @@
         <v>{"key":"param1","label":"Параметр 1","value":"100","controlType":"textbox","order":1,"options":[{}]},</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -2724,7 +2719,7 @@
         <v>174</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>183</v>
@@ -2768,7 +2763,7 @@
         <v>{"key":"param2","label":"Параметр 2","value":"101","controlType":"textbox","order":2,"options":[{}]},</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -2782,7 +2777,7 @@
         <v>174</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>183</v>
@@ -2826,7 +2821,7 @@
         <v>{"key":"param3","label":"Параметр 3","value":"102","controlType":"textbox","order":3,"options":[{}]}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>169</v>
       </c>
@@ -2840,7 +2835,7 @@
         <v>171</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F6" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2868,7 +2863,7 @@
         <v>{"formid":2,"name":"Форма ввод № 2","controls":[</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2882,7 +2877,7 @@
         <v>174</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>183</v>
@@ -2926,7 +2921,7 @@
         <v>{"key":"param5","label":"Параметр 5","value":"104","controlType":"textbox","order":5,"options":[{}]},</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -2940,7 +2935,7 @@
         <v>174</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>183</v>
@@ -2984,7 +2979,7 @@
         <v>{"key":"param6","label":"Параметр 6","value":"105","controlType":"textbox","order":6,"options":[{}]},</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2998,7 +2993,7 @@
         <v>174</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>183</v>
@@ -3049,37 +3044,37 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:X21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:X24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="56.33203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="9" hidden="1" customWidth="1"/>
     <col min="19" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="96.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="96.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>197</v>
       </c>
@@ -3095,16 +3090,16 @@
       <c r="E1" s="11"/>
       <c r="F1" s="22"/>
       <c r="G1" s="21" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="H1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K1" s="21"/>
       <c r="L1" s="21"/>
@@ -3123,9 +3118,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>199</v>
+        <v>383</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
@@ -3134,14 +3129,14 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F2" s="13" t="str">
         <f>CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>{"tableid":1,"name":"Таблица ввод № 1","columns":[</v>
+        <v>{"table_id":1,"name":"Таблица ввод № 1","columns":[</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -3161,34 +3156,31 @@
       <c r="V2" s="14"/>
       <c r="W2" s="14"/>
       <c r="X2" s="24" t="str">
-        <f t="shared" ref="X2:X9" si="0">CONCATENATE(F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2)</f>
-        <v>{"tableid":1,"name":"Таблица ввод № 1","columns":[</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+        <f t="shared" ref="X2:X11" si="0">CONCATENATE(F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2)</f>
+        <v>{"table_id":1,"name":"Таблица ввод № 1","columns":[</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="43"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="13" t="str">
-        <f t="shared" ref="F3:F9" si="1">CONCATENATE(A3,B3,C3,D3,E3)</f>
-        <v/>
-      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -3206,33 +3198,33 @@
       </c>
       <c r="X3" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"name":"param1","display":"Параметр 1"},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{"key":"time","label":"Время"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F4:F11" si="1">CONCATENATE(A4,B4,C4,D4,E4)</f>
         <v/>
       </c>
       <c r="G4" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -3250,163 +3242,160 @@
       </c>
       <c r="X4" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"name":"param2","display":"Параметр 2"},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+        <v>{"key":"param1","label":"Параметр 1"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G5" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="19"/>
+      <c r="O5" s="8"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="19"/>
+      <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="20" t="s">
-        <v>34</v>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="X5" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"name":"param3","display":"Параметр 3"}]},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="13">
-        <v>2</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>212</v>
-      </c>
+        <v>{"key":"param2","label":"Параметр 2"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>{"tableid":2,"name":"Таблица ввод № 1","columns":[</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+        <v/>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="14"/>
+      <c r="O6" s="19"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="19"/>
       <c r="R6" s="8"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="X6" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"tableid":2,"name":"Таблица ввод № 1","columns":[</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+        <v>{"key":"param3","label":"Параметр 3"}]},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" s="13">
+        <v>2</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>208</v>
+      </c>
       <c r="F7" s="13" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G7" s="8" t="s">
+        <v>{"table_id":2,"name":"Таблица ввод № 1","columns":[</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"table_id":2,"name":"Таблица ввод № 1","columns":[</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="43"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="X7" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>{"name":"param5","display":"Параметр 5"},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -3424,339 +3413,336 @@
       </c>
       <c r="X8" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"name":"param6","display":"Параметр 6"},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+        <v>{"key":"time","label":"Время"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G9" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J9" s="8" t="s">
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"key":"param5","label":"Параметр 5"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"key":"param6","label":"Параметр 6"},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="20" t="s">
+      <c r="K11" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="X9" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>{"name":"param7","display":"Параметр 7"}]},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="X11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"key":"param7","label":"Параметр 7"}]},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="B12" s="13">
+        <v>3</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B10" s="13">
-        <v>3</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="F10" s="13" t="str">
-        <f t="shared" ref="F10:F13" si="2">CONCATENATE(A10,B10,C10,D10,E10)</f>
-        <v>{"tableid":3,"name":"Таблица ввод № 1","columns":[</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="25" t="str">
-        <f t="shared" ref="X10:X13" si="3">CONCATENATE(F10,G10,H10,I10,J10,K10,L10,M10,N10,O10,P10,Q10,R10,S10,T10,U10,V10,W10)</f>
-        <v>{"tableid":3,"name":"Таблица ввод № 1","columns":[</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="13" t="str">
+      <c r="E12" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" s="13" t="str">
+        <f t="shared" ref="F12:F16" si="2">CONCATENATE(A12,B12,C12,D12,E12)</f>
+        <v>{"table_id":3,"name":"Таблица ввод № 1","columns":[</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="25" t="str">
+        <f t="shared" ref="X12:X16" si="3">CONCATENATE(F12,G12,H12,I12,J12,K12,L12,M12,N12,O12,P12,Q12,R12,S12,T12,U12,V12,W12)</f>
+        <v>{"table_id":3,"name":"Таблица ввод № 1","columns":[</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="43"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X13" s="25" t="str">
+        <f t="shared" ref="X13" si="4">CONCATENATE(F13,G13,H13,I13,J13,K13,L13,M13,N13,O13,P13,Q13,R13,S13,T13,U13,V13,W13)</f>
+        <v>{"key":"time","label":"Время"},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G14" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="10" t="s">
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="X11" s="25" t="str">
+      <c r="X14" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"param5","display":"Параметр 5"},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="13" t="str">
+        <v>{"key":"param5","label":"Параметр 5"},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G15" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="X12" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>{"name":"param6","display":"Параметр 6"},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="X13" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>{"name":"param7","display":"Параметр 7"},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="13" t="str">
-        <f t="shared" ref="F14:F21" si="4">CONCATENATE(A14,B14,C14,D14,E14)</f>
-        <v/>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="X14" s="25" t="str">
-        <f t="shared" ref="X14:X21" si="5">CONCATENATE(F14,G14,H14,I14,J14,K14,L14,M14,N14,O14,P14,Q14,R14,S14,T14,U14,V14,W14)</f>
-        <v>{"name":"param8","display":"Параметр 8"},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="19"/>
+      <c r="O15" s="8"/>
       <c r="P15" s="8"/>
-      <c r="Q15" s="19"/>
+      <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
       <c r="W15" s="10" t="s">
         <v>33</v>
       </c>
       <c r="X15" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v>{"name":"param9","display":"Параметр 9"},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>{"key":"param6","label":"Параметр 6"},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G16" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
@@ -3773,34 +3759,34 @@
         <v>33</v>
       </c>
       <c r="X16" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v>{"name":"param10","display":"Параметр 10"},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>{"key":"param7","label":"Параметр 7"},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F17:F24" si="5">CONCATENATE(A17,B17,C17,D17,E17)</f>
         <v/>
       </c>
       <c r="G17" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
@@ -3817,34 +3803,34 @@
         <v>33</v>
       </c>
       <c r="X17" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v>{"name":"param11","display":"Параметр 11"},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="X17:X24" si="6">CONCATENATE(F17,G17,H17,I17,J17,K17,L17,M17,N17,O17,P17,Q17,R17,S17,T17,U17,V17,W17)</f>
+        <v>{"key":"param8","label":"Параметр 8"},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G18" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
@@ -3861,34 +3847,34 @@
         <v>33</v>
       </c>
       <c r="X18" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v>{"name":"param12","display":"Параметр 12"},</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>{"key":"param9","label":"Параметр 9"},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G19" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
@@ -3905,34 +3891,34 @@
         <v>33</v>
       </c>
       <c r="X19" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v>{"name":"param13","display":"Параметр 13"},</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>{"key":"param10","label":"Параметр 10"},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G20" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="K20" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
@@ -3949,34 +3935,34 @@
         <v>33</v>
       </c>
       <c r="X20" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v>{"name":"param14","display":"Параметр 14"},</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>{"key":"param11","label":"Параметр 11"},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="F21" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G21" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="K21" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
@@ -3989,12 +3975,144 @@
       <c r="T21" s="19"/>
       <c r="U21" s="19"/>
       <c r="V21" s="19"/>
-      <c r="W21" s="20" t="s">
+      <c r="W21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X21" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>{"key":"param12","label":"Параметр 12"},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X22" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>{"key":"param13","label":"Параметр 13"},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X23" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>{"key":"param14","label":"Параметр 14"},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="X21" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v>{"name":"param15","display":"Параметр 15"}]},</v>
+      <c r="X24" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>{"key":"param15","label":"Параметр 15"}]},</v>
       </c>
     </row>
   </sheetData>
@@ -4010,26 +4128,26 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="46.88671875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
     <col min="12" max="22" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>25</v>
@@ -4046,10 +4164,10 @@
         <v>176</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K1" s="21"/>
       <c r="L1" s="21"/>
@@ -4068,9 +4186,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
@@ -4079,10 +4197,10 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F2" s="13" t="str">
         <f>CONCATENATE(A2,B2,C2,D2,E2)</f>
@@ -4110,7 +4228,7 @@
         <v>{"userid":1,"name":"login1","buttons":[</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -4121,19 +4239,19 @@
         <v/>
       </c>
       <c r="G3" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>239</v>
-      </c>
       <c r="I3" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K3" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -4154,7 +4272,7 @@
         <v>{"label":"Кнопка 1","link":"table"},</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -4165,19 +4283,19 @@
         <v/>
       </c>
       <c r="G4" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K4" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -4198,7 +4316,7 @@
         <v>{"label":"Кнопка 2","link":"table"},</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -4209,19 +4327,19 @@
         <v/>
       </c>
       <c r="G5" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K5" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
@@ -4242,9 +4360,9 @@
         <v>{"label":"Кнопка 3","link":"table"}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B6" s="13">
         <v>2</v>
@@ -4253,10 +4371,10 @@
         <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F6" s="13" t="str">
         <f t="shared" si="1"/>
@@ -4284,7 +4402,7 @@
         <v>{"userid":2,"name":"login1","buttons":[</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -4295,19 +4413,19 @@
         <v/>
       </c>
       <c r="G7" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J7" s="40" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K7" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -4328,7 +4446,7 @@
         <v>{"label":"Кнопка 5","link":"table"},</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -4339,19 +4457,19 @@
         <v/>
       </c>
       <c r="G8" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J8" s="40" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K8" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -4372,7 +4490,7 @@
         <v>{"label":"Кнопка 6","link":"table"},</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -4383,19 +4501,19 @@
         <v/>
       </c>
       <c r="G9" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
@@ -4416,9 +4534,9 @@
         <v>{"label":"Кнопка 7","link":"table"}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B10" s="13">
         <v>3</v>
@@ -4427,10 +4545,10 @@
         <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F10" s="13" t="str">
         <f t="shared" si="1"/>
@@ -4458,7 +4576,7 @@
         <v>{"userid":3,"name":"login1","buttons":[</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -4469,19 +4587,19 @@
         <v/>
       </c>
       <c r="G11" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K11" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -4502,7 +4620,7 @@
         <v>{"label":"Кнопка 9","link":"table"},</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -4513,19 +4631,19 @@
         <v/>
       </c>
       <c r="G12" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J12" s="40" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K12" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -4546,7 +4664,7 @@
         <v>{"label":"Кнопка 10","link":"table"},</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -4557,19 +4675,19 @@
         <v/>
       </c>
       <c r="G13" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J13" s="40" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K13" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
@@ -4590,7 +4708,7 @@
         <v>{"label":"Кнопка 11","link":"table"},</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -4601,19 +4719,19 @@
         <v/>
       </c>
       <c r="G14" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J14" s="40" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K14" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
@@ -4634,7 +4752,7 @@
         <v>{"label":"Кнопка 12","link":"table"},</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -4645,19 +4763,19 @@
         <v/>
       </c>
       <c r="G15" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J15" s="40" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
@@ -4678,7 +4796,7 @@
         <v>{"label":"Кнопка 13","link":"table"},</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -4689,19 +4807,19 @@
         <v/>
       </c>
       <c r="G16" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J16" s="40" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K16" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
@@ -4722,7 +4840,7 @@
         <v>{"label":"Кнопка 14","link":"table"},</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -4733,19 +4851,19 @@
         <v/>
       </c>
       <c r="G17" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J17" s="40" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K17" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
@@ -4766,7 +4884,7 @@
         <v>{"label":"Кнопка 15","link":"table"},</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -4777,19 +4895,19 @@
         <v/>
       </c>
       <c r="G18" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H18" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="J18" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="J18" s="40" t="s">
-        <v>256</v>
-      </c>
       <c r="K18" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
@@ -4810,7 +4928,7 @@
         <v>{"label":"Кнопка 16","link":"table"},</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -4821,19 +4939,19 @@
         <v/>
       </c>
       <c r="G19" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J19" s="40" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K19" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
@@ -4854,7 +4972,7 @@
         <v>{"label":"Кнопка 17","link":"table"},</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -4865,19 +4983,19 @@
         <v/>
       </c>
       <c r="G20" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J20" s="40" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K20" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
@@ -4898,7 +5016,7 @@
         <v>{"label":"Кнопка 18","link":"table"},</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -4909,19 +5027,19 @@
         <v/>
       </c>
       <c r="G21" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J21" s="40" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K21" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
@@ -4959,231 +5077,231 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="102.109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="102.140625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="59" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.44140625" customWidth="1"/>
-    <col min="9" max="9" width="194.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" customWidth="1"/>
+    <col min="9" max="9" width="194.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H2" s="42"/>
       <c r="I2" s="31"/>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>CONCATENATE("{ ""object_id"" :",A3,", ""fullname"":""",B3,""", ""name"":""",C3,""", ""sname"": """,D3,""", ""params"": [")</f>
         <v>{ "object_id" :1, "fullname":"Харьков ГРС 1,  Q за час", "name":"XXX-YYY-000-ZZZ-001", "sname": "Q", "params": [</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I3" s="31" t="str">
         <f>CONCATENATE(F3,G3,H3,)</f>
         <v>{ "object_id" :1, "fullname":"Харьков ГРС 1,  Q за час", "name":"XXX-YYY-000-ZZZ-001", "sname": "Q", "params": [{"query": {"ch_id":1}, "k":1, "model":"HourValue", "attr":"q"},{"query": {"ch_id":2}, "k":1, "model":"HourValue", "attr":"q"}]},</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" ref="F4:F5" si="0">CONCATENATE("{ ""object_id"" :",A4,", ""fullname"":""",B4,""", ""name"":""",C4,""", ""sname"": """,D4,""", ""params"": [")</f>
         <v>{ "object_id" :2, "fullname":"Харьков ГРС 1,  P ср час", "name":"XXX-YYY-000-ZZZ-001", "sname": "P", "params": [</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I4" s="31" t="str">
         <f t="shared" ref="I4:I8" si="1">CONCATENATE(F4,G4,H4,)</f>
         <v>{ "object_id" :2, "fullname":"Харьков ГРС 1,  P ср час", "name":"XXX-YYY-000-ZZZ-001", "sname": "P", "params": [{"query": "ch_id":1, "k":1, "model":"HourValue"},{"query": "ch_id":2, "k":1, "model":"HourValue"}]},</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id" :3, "fullname":"Харьков ГРС 1,  Т ср час", "name":"XXX-YYY-000-ZZZ-001", "sname": "T", "params": [</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I5" s="31" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id" :3, "fullname":"Харьков ГРС 1,  Т ср час", "name":"XXX-YYY-000-ZZZ-001", "sname": "T", "params": [{"query": "ch_id":1, "k":1, "model":"HourValue"},{"query": "ch_id":2, "k":1, "model":"HourValue"}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" ref="F6:F8" si="2">CONCATENATE("{ ""object_id"" :",A6,", ""fullname"":""",B6,""", ""name"":""",C6,""", ""sname"": """,D6,""", ""params"": [")</f>
         <v>{ "object_id" :4, "fullname":"Харьков ГРС 2,  Q за час", "name":"XXX-YYY-000-ZZZ-002", "sname": "Q", "params": [</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I6" s="31" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id" :4, "fullname":"Харьков ГРС 2,  Q за час", "name":"XXX-YYY-000-ZZZ-002", "sname": "Q", "params": [{"query": "ch_id":1, "k":1, "model":"HourValue"},{"query": "ch_id":2, "k":1, "model":"HourValue"}]},</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id" :5, "fullname":"Харьков ГРС 2,  P ср час", "name":"XXX-YYY-000-ZZZ-002", "sname": "P", "params": [</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I7" s="31" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id" :5, "fullname":"Харьков ГРС 2,  P ср час", "name":"XXX-YYY-000-ZZZ-002", "sname": "P", "params": [{"query": "ch_id":1, "k":1, "model":"HourValue"},{"query": "ch_id":2, "k":1, "model":"HourValue"}]},</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id" :6, "fullname":"Харьков ГРС 2,  Т ср час", "name":"XXX-YYY-000-ZZZ-002", "sname": "T", "params": [</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I8" s="31" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id" :6, "fullname":"Харьков ГРС 2,  Т ср час", "name":"XXX-YYY-000-ZZZ-002", "sname": "T", "params": [{"query": "ch_id":1, "k":1, "model":"HourValue"},{"query": "ch_id":2, "k":1, "model":"HourValue"}]},</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -5194,7 +5312,7 @@
       <c r="H9" s="30"/>
       <c r="I9" s="31"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5205,7 +5323,7 @@
       <c r="H10" s="30"/>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5216,7 +5334,7 @@
       <c r="H11" s="30"/>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5227,7 +5345,7 @@
       <c r="H12" s="30"/>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5238,7 +5356,7 @@
       <c r="H13" s="30"/>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5249,7 +5367,7 @@
       <c r="H14" s="30"/>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5260,7 +5378,7 @@
       <c r="H15" s="30"/>
       <c r="I15" s="31"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5271,7 +5389,7 @@
       <c r="H16" s="30"/>
       <c r="I16" s="31"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5282,7 +5400,7 @@
       <c r="H17" s="30"/>
       <c r="I17" s="31"/>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5293,7 +5411,7 @@
       <c r="H18" s="30"/>
       <c r="I18" s="31"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5321,22 +5439,22 @@
       <selection activeCell="H98" sqref="H3:H98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="111.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="111.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F1" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -5354,18 +5472,18 @@
         <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>166</v>
@@ -5377,22 +5495,22 @@
         <v>1000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H3" t="str">
         <f>CONCATENATE("{ ""object_id"": ",A3,",""name"":""",B3,""",""state"": """,C3,""", ""value"":",D3,", ""currday"":",E3,", ""lastupdate"":""",F3,""", ""source"":""",G3,"""},")</f>
         <v>{ "object_id": 1,"name":"Q1","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T00:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>166</v>
@@ -5404,22 +5522,22 @@
         <v>1000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ref="H4:H50" si="0">CONCATENATE("{ ""object_id"": ",A4,",""name"":""",B4,""",""state"": """,C4,""", ""value"":",D4,", ""currday"":",E4,", ""lastupdate"":""",F4,""", ""source"":""",G4,"""},")</f>
         <v>{ "object_id": 1,"name":"Q2","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T01:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>166</v>
@@ -5431,22 +5549,22 @@
         <v>1000</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q3","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T02:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>166</v>
@@ -5458,22 +5576,22 @@
         <v>1000</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q4","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T03:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>166</v>
@@ -5485,22 +5603,22 @@
         <v>1000</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q5","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T04:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>166</v>
@@ -5512,22 +5630,22 @@
         <v>1000</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q6","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T05:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>166</v>
@@ -5539,22 +5657,22 @@
         <v>1000</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q7","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T06:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>166</v>
@@ -5566,22 +5684,22 @@
         <v>1000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q8","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T07:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>166</v>
@@ -5593,22 +5711,22 @@
         <v>1000</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q9","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T08:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>166</v>
@@ -5620,22 +5738,22 @@
         <v>1000</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q10","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T09:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>166</v>
@@ -5647,22 +5765,22 @@
         <v>1000</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q11","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T10:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>166</v>
@@ -5674,22 +5792,22 @@
         <v>1000</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q12","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T11:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>166</v>
@@ -5704,19 +5822,19 @@
         <v>73</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q13","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T12:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>166</v>
@@ -5731,19 +5849,19 @@
         <v>74</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q14","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T13:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>166</v>
@@ -5758,19 +5876,19 @@
         <v>75</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q15","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T14:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>166</v>
@@ -5785,19 +5903,19 @@
         <v>76</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q16","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T15:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>166</v>
@@ -5812,19 +5930,19 @@
         <v>77</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q17","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T16:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>166</v>
@@ -5839,19 +5957,19 @@
         <v>78</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q18","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T17:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>166</v>
@@ -5866,19 +5984,19 @@
         <v>79</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q19","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T18:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>166</v>
@@ -5893,19 +6011,19 @@
         <v>80</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q20","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T19:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>166</v>
@@ -5920,19 +6038,19 @@
         <v>81</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q21","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T20:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>166</v>
@@ -5947,19 +6065,19 @@
         <v>82</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q22","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T21:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>166</v>
@@ -5971,22 +6089,22 @@
         <v>1000</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q23","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T22:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>166</v>
@@ -5998,22 +6116,22 @@
         <v>1000</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 1,"name":"Q24","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T23:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>166</v>
@@ -6025,22 +6143,22 @@
         <v>1000</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q25","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T00:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>166</v>
@@ -6052,22 +6170,22 @@
         <v>1000</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q26","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T01:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>166</v>
@@ -6079,22 +6197,22 @@
         <v>1000</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q27","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T02:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>166</v>
@@ -6106,22 +6224,22 @@
         <v>1000</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q28","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T03:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>166</v>
@@ -6133,22 +6251,22 @@
         <v>1000</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q29","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T04:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>166</v>
@@ -6160,22 +6278,22 @@
         <v>1000</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q30","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T05:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>166</v>
@@ -6187,22 +6305,22 @@
         <v>1000</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q31","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T06:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>166</v>
@@ -6214,22 +6332,22 @@
         <v>1000</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q32","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T07:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>166</v>
@@ -6241,22 +6359,22 @@
         <v>1000</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q33","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T08:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>166</v>
@@ -6268,22 +6386,22 @@
         <v>1000</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q34","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T09:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>166</v>
@@ -6295,22 +6413,22 @@
         <v>1000</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q35","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T10:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>166</v>
@@ -6322,22 +6440,22 @@
         <v>1000</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q36","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T11:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>166</v>
@@ -6352,19 +6470,19 @@
         <v>73</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q37","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T12:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>166</v>
@@ -6379,19 +6497,19 @@
         <v>74</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q38","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T13:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>166</v>
@@ -6406,19 +6524,19 @@
         <v>75</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q39","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T14:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>166</v>
@@ -6433,19 +6551,19 @@
         <v>76</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q40","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T15:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>166</v>
@@ -6460,19 +6578,19 @@
         <v>77</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q41","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T16:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>166</v>
@@ -6487,19 +6605,19 @@
         <v>78</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q42","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T17:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>166</v>
@@ -6514,19 +6632,19 @@
         <v>79</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q43","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T18:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>166</v>
@@ -6541,19 +6659,19 @@
         <v>80</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q44","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T19:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>166</v>
@@ -6568,19 +6686,19 @@
         <v>81</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q45","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T20:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>166</v>
@@ -6595,19 +6713,19 @@
         <v>82</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q46","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T21:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>166</v>
@@ -6619,22 +6737,22 @@
         <v>1000</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q47","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T22:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>166</v>
@@ -6646,22 +6764,22 @@
         <v>1000</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
         <v>{ "object_id": 2,"name":"Q48","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T23:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>3</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>166</v>
@@ -6673,22 +6791,22 @@
         <v>1000</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" ref="H51:H74" si="1">CONCATENATE("{ ""object_id"": ",A51,",""name"":""",B51,""",""state"": """,C51,""", ""value"":",D51,", ""currday"":",E51,", ""lastupdate"":""",F51,""", ""source"":""",G51,"""},")</f>
         <v>{ "object_id": 3,"name":"Q49","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T00:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>3</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>166</v>
@@ -6700,22 +6818,22 @@
         <v>1000</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q50","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T01:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>3</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>166</v>
@@ -6727,22 +6845,22 @@
         <v>1000</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q51","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T02:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>3</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>166</v>
@@ -6754,22 +6872,22 @@
         <v>1000</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q52","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T03:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>3</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>166</v>
@@ -6781,22 +6899,22 @@
         <v>1000</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q53","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T04:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>3</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>166</v>
@@ -6808,22 +6926,22 @@
         <v>1000</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q54","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T05:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>3</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>166</v>
@@ -6835,22 +6953,22 @@
         <v>1000</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q55","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T06:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>3</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>166</v>
@@ -6862,22 +6980,22 @@
         <v>1000</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q56","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T07:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>3</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>166</v>
@@ -6889,22 +7007,22 @@
         <v>1000</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q57","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T08:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>3</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>166</v>
@@ -6916,22 +7034,22 @@
         <v>1000</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q58","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T09:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>3</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>166</v>
@@ -6943,22 +7061,22 @@
         <v>1000</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q59","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T10:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>3</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>166</v>
@@ -6970,22 +7088,22 @@
         <v>1000</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q60","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T11:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>3</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>166</v>
@@ -7000,19 +7118,19 @@
         <v>73</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q61","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T12:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>3</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>166</v>
@@ -7027,19 +7145,19 @@
         <v>74</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q62","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T13:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>3</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>166</v>
@@ -7054,19 +7172,19 @@
         <v>75</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q63","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T14:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>3</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>166</v>
@@ -7081,19 +7199,19 @@
         <v>76</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q64","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T15:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>3</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>166</v>
@@ -7108,19 +7226,19 @@
         <v>77</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q65","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T16:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>3</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>166</v>
@@ -7135,19 +7253,19 @@
         <v>78</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q66","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T17:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>3</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>166</v>
@@ -7162,19 +7280,19 @@
         <v>79</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q67","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T18:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>3</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>166</v>
@@ -7189,19 +7307,19 @@
         <v>80</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q68","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T19:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>3</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>166</v>
@@ -7216,19 +7334,19 @@
         <v>81</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q69","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T20:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>3</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>166</v>
@@ -7243,19 +7361,19 @@
         <v>82</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q70","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T21:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>3</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>166</v>
@@ -7267,22 +7385,22 @@
         <v>1000</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q71","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T22:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>3</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>166</v>
@@ -7294,22 +7412,22 @@
         <v>1000</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="1"/>
         <v>{ "object_id": 3,"name":"Q72","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T23:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>4</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>166</v>
@@ -7321,22 +7439,22 @@
         <v>1000</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" ref="H75:H98" si="2">CONCATENATE("{ ""object_id"": ",A75,",""name"":""",B75,""",""state"": """,C75,""", ""value"":",D75,", ""currday"":",E75,", ""lastupdate"":""",F75,""", ""source"":""",G75,"""},")</f>
         <v>{ "object_id": 4,"name":"Q73","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T00:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>4</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>166</v>
@@ -7348,22 +7466,22 @@
         <v>1000</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q74","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T01:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>4</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>166</v>
@@ -7375,22 +7493,22 @@
         <v>1000</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q75","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T02:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>4</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>166</v>
@@ -7402,22 +7520,22 @@
         <v>1000</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q76","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T03:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>4</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>166</v>
@@ -7429,22 +7547,22 @@
         <v>1000</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q77","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T04:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>4</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>166</v>
@@ -7456,22 +7574,22 @@
         <v>1000</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q78","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T05:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>4</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>166</v>
@@ -7483,22 +7601,22 @@
         <v>1000</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q79","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T06:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>4</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>166</v>
@@ -7510,22 +7628,22 @@
         <v>1000</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q80","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T07:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>4</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>166</v>
@@ -7537,22 +7655,22 @@
         <v>1000</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q81","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T08:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>4</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>166</v>
@@ -7564,22 +7682,22 @@
         <v>1000</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q82","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T09:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>4</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>166</v>
@@ -7591,22 +7709,22 @@
         <v>1000</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q83","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T10:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>4</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>166</v>
@@ -7618,22 +7736,22 @@
         <v>1000</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q84","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T11:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>4</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>166</v>
@@ -7648,19 +7766,19 @@
         <v>73</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q85","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T12:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>4</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>166</v>
@@ -7675,19 +7793,19 @@
         <v>74</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q86","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T13:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>4</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>166</v>
@@ -7702,19 +7820,19 @@
         <v>75</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q87","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T14:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>4</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>166</v>
@@ -7729,19 +7847,19 @@
         <v>76</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q88","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T15:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>4</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>166</v>
@@ -7756,19 +7874,19 @@
         <v>77</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q89","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T16:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>4</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>166</v>
@@ -7783,19 +7901,19 @@
         <v>78</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q90","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T17:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>4</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>166</v>
@@ -7810,19 +7928,19 @@
         <v>79</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q91","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T18:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>4</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>166</v>
@@ -7837,19 +7955,19 @@
         <v>80</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q92","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T19:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>4</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>166</v>
@@ -7864,19 +7982,19 @@
         <v>81</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q93","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T20:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>4</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>166</v>
@@ -7891,19 +8009,19 @@
         <v>82</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q94","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T21:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>4</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>166</v>
@@ -7915,22 +8033,22 @@
         <v>1000</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="2"/>
         <v>{ "object_id": 4,"name":"Q95","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T22:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>4</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>166</v>
@@ -7942,10 +8060,10 @@
         <v>1000</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="2"/>
@@ -7965,12 +8083,12 @@
       <selection sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="105.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="105.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -9230,19 +9348,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+    <sheetView topLeftCell="C12" workbookViewId="0">
       <selection activeCell="K2" sqref="K2:K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="145.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="145.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -10524,12 +10642,12 @@
       <selection activeCell="K3" sqref="K3:K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="118.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="118.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -11792,16 +11910,16 @@
       <selection activeCell="J3" sqref="J3:J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="127.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="127.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -13045,37 +13163,37 @@
       <selection activeCell="AD2" sqref="AD2:AD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="110.6640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="22.109375" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="24" max="27" width="10.109375" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5546875" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="110.7109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="22.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="24" max="27" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>133</v>
       </c>
@@ -13159,7 +13277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>135</v>
       </c>
@@ -13219,7 +13337,7 @@
         <v>{"systemid":1,"name":"ДПКС № 1","ip":"192.168.0.111","path":"xxx.yyy.zzz","period":30,"sensors":[</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -13291,7 +13409,7 @@
         <v>{"sensorid":1,"low":0,"name":"P in KC 32","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -13363,7 +13481,7 @@
         <v>{"sensorid":2,"low":0,"name":"P in KC 33","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -13435,7 +13553,7 @@
         <v>{"sensorid":3,"low":0,"name":"P in KC 34","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>135</v>
       </c>
@@ -13495,7 +13613,7 @@
         <v>{"systemid":2,"name":"ДПКС № 2","ip":"192.168.0.112","path":"xxx.yyy.zzz","period":30,"sensors":[</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -13567,7 +13685,7 @@
         <v>{"sensorid":4,"low":0,"name":"P in KC 36","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -13639,7 +13757,7 @@
         <v>{"sensorid":5,"low":0,"name":"P in KC 37","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -13727,18 +13845,18 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="138.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="138.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">

--- a/xls/create-test-data.xlsx
+++ b/xls/create-test-data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\node\oask-gtp-webapi\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="10"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24912" windowHeight="12840" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Корр-каналы" sheetId="5" r:id="rId1"/>
@@ -20,7 +25,7 @@
     <sheet name="GuiTable" sheetId="13" r:id="rId11"/>
     <sheet name="Menu" sheetId="14" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1188,7 +1193,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1585,7 +1590,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1620,7 +1625,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1835,40 +1840,40 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="108.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="101.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="108.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" customWidth="1"/>
+    <col min="14" max="14" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="101.88671875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
@@ -1952,7 +1957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
@@ -2012,7 +2017,7 @@
         <v>{"corrid":1,"name":"Корректор № 1","ip":"192.168.0.111","ftpDir":"./","addr":1,"channels":[</v>
       </c>
     </row>
-    <row r="3" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -2084,7 +2089,7 @@
         <v>{"chid":1,"chno":1,"name":"Line 1","template":"S001R1","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="4" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -2156,7 +2161,7 @@
         <v>{"chid":2,"chno":2,"name":"Line 2","template":"S001R2","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="5" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -2228,7 +2233,7 @@
         <v>{"chid":3,"chno":3,"name":"Line 3","template":"S001R3","isAbsP":true,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -2288,7 +2293,7 @@
         <v>{"corrid":2,"name":"Корректор № 2","ip":"192.168.0.112","ftpDir":"./","addr":2,"channels":[</v>
       </c>
     </row>
-    <row r="7" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2360,7 +2365,7 @@
         <v>{"chid":4,"chno":1,"name":"Line 1","template":"S001R1","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="8" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -2432,7 +2437,7 @@
         <v>{"chid":5,"chno":2,"name":"Line 2","template":"S001R2","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="9" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2504,7 +2509,7 @@
         <v>{"chid":6,"chno":3,"name":"Line 3","template":"S001R3","isAbsP":true,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="AD10" s="6" t="s">
         <v>12</v>
       </c>
@@ -2520,32 +2525,32 @@
   <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="55.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="55.109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>167</v>
       </c>
@@ -2605,7 +2610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>169</v>
       </c>
@@ -2647,7 +2652,7 @@
         <v>{"formid":1,"name":"Форма ввод № 1","controls":[</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -2705,7 +2710,7 @@
         <v>{"key":"param1","label":"Параметр 1","value":"100","controlType":"textbox","order":1,"options":[{}]},</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -2763,7 +2768,7 @@
         <v>{"key":"param2","label":"Параметр 2","value":"101","controlType":"textbox","order":2,"options":[{}]},</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -2821,7 +2826,7 @@
         <v>{"key":"param3","label":"Параметр 3","value":"102","controlType":"textbox","order":3,"options":[{}]}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>169</v>
       </c>
@@ -2863,7 +2868,7 @@
         <v>{"formid":2,"name":"Форма ввод № 2","controls":[</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2921,7 +2926,7 @@
         <v>{"key":"param5","label":"Параметр 5","value":"104","controlType":"textbox","order":5,"options":[{}]},</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -2979,7 +2984,7 @@
         <v>{"key":"param6","label":"Параметр 6","value":"105","controlType":"textbox","order":6,"options":[{}]},</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -3047,34 +3052,34 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:X24"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="56.28515625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="9" hidden="1" customWidth="1"/>
     <col min="19" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="96.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="96.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>197</v>
       </c>
@@ -3118,7 +3123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>383</v>
       </c>
@@ -3160,7 +3165,7 @@
         <v>{"table_id":1,"name":"Таблица ввод № 1","columns":[</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -3201,7 +3206,7 @@
         <v>{"key":"time","label":"Время"},</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -3245,7 +3250,7 @@
         <v>{"key":"param1","label":"Параметр 1"},</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -3289,7 +3294,7 @@
         <v>{"key":"param2","label":"Параметр 2"},</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -3333,7 +3338,7 @@
         <v>{"key":"param3","label":"Параметр 3"}]},</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>383</v>
       </c>
@@ -3375,7 +3380,7 @@
         <v>{"table_id":2,"name":"Таблица ввод № 1","columns":[</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="43"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -3416,7 +3421,7 @@
         <v>{"key":"time","label":"Время"},</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -3460,7 +3465,7 @@
         <v>{"key":"param5","label":"Параметр 5"},</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -3504,7 +3509,7 @@
         <v>{"key":"param6","label":"Параметр 6"},</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -3548,7 +3553,7 @@
         <v>{"key":"param7","label":"Параметр 7"}]},</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>383</v>
       </c>
@@ -3590,7 +3595,7 @@
         <v>{"table_id":3,"name":"Таблица ввод № 1","columns":[</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3631,7 +3636,7 @@
         <v>{"key":"time","label":"Время"},</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -3675,7 +3680,7 @@
         <v>{"key":"param5","label":"Параметр 5"},</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -3719,7 +3724,7 @@
         <v>{"key":"param6","label":"Параметр 6"},</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -3763,7 +3768,7 @@
         <v>{"key":"param7","label":"Параметр 7"},</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -3807,7 +3812,7 @@
         <v>{"key":"param8","label":"Параметр 8"},</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -3851,7 +3856,7 @@
         <v>{"key":"param9","label":"Параметр 9"},</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -3895,7 +3900,7 @@
         <v>{"key":"param10","label":"Параметр 10"},</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -3939,7 +3944,7 @@
         <v>{"key":"param11","label":"Параметр 11"},</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -3983,7 +3988,7 @@
         <v>{"key":"param12","label":"Параметр 12"},</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -4027,7 +4032,7 @@
         <v>{"key":"param13","label":"Параметр 13"},</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -4071,7 +4076,7 @@
         <v>{"key":"param14","label":"Параметр 14"},</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -4128,21 +4133,21 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="46.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
     <col min="12" max="22" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>226</v>
       </c>
@@ -4186,7 +4191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>228</v>
       </c>
@@ -4228,7 +4233,7 @@
         <v>{"userid":1,"name":"login1","buttons":[</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -4272,7 +4277,7 @@
         <v>{"label":"Кнопка 1","link":"table"},</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -4316,7 +4321,7 @@
         <v>{"label":"Кнопка 2","link":"table"},</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -4360,7 +4365,7 @@
         <v>{"label":"Кнопка 3","link":"table"}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>228</v>
       </c>
@@ -4402,7 +4407,7 @@
         <v>{"userid":2,"name":"login1","buttons":[</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -4446,7 +4451,7 @@
         <v>{"label":"Кнопка 5","link":"table"},</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -4490,7 +4495,7 @@
         <v>{"label":"Кнопка 6","link":"table"},</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -4534,7 +4539,7 @@
         <v>{"label":"Кнопка 7","link":"table"}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>228</v>
       </c>
@@ -4576,7 +4581,7 @@
         <v>{"userid":3,"name":"login1","buttons":[</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -4620,7 +4625,7 @@
         <v>{"label":"Кнопка 9","link":"table"},</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -4664,7 +4669,7 @@
         <v>{"label":"Кнопка 10","link":"table"},</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -4708,7 +4713,7 @@
         <v>{"label":"Кнопка 11","link":"table"},</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -4752,7 +4757,7 @@
         <v>{"label":"Кнопка 12","link":"table"},</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -4796,7 +4801,7 @@
         <v>{"label":"Кнопка 13","link":"table"},</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -4840,7 +4845,7 @@
         <v>{"label":"Кнопка 14","link":"table"},</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -4884,7 +4889,7 @@
         <v>{"label":"Кнопка 15","link":"table"},</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -4928,7 +4933,7 @@
         <v>{"label":"Кнопка 16","link":"table"},</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -4972,7 +4977,7 @@
         <v>{"label":"Кнопка 17","link":"table"},</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -5016,7 +5021,7 @@
         <v>{"label":"Кнопка 18","link":"table"},</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -5077,20 +5082,20 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="102.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="102.109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="59" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" customWidth="1"/>
-    <col min="9" max="9" width="194.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" customWidth="1"/>
+    <col min="9" max="9" width="194.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>254</v>
       </c>
@@ -5115,7 +5120,7 @@
       <c r="H2" s="42"/>
       <c r="I2" s="31"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5146,7 +5151,7 @@
         <v>{ "object_id" :1, "fullname":"Харьков ГРС 1,  Q за час", "name":"XXX-YYY-000-ZZZ-001", "sname": "Q", "params": [{"query": {"ch_id":1}, "k":1, "model":"HourValue", "attr":"q"},{"query": {"ch_id":2}, "k":1, "model":"HourValue", "attr":"q"}]},</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5177,7 +5182,7 @@
         <v>{ "object_id" :2, "fullname":"Харьков ГРС 1,  P ср час", "name":"XXX-YYY-000-ZZZ-001", "sname": "P", "params": [{"query": "ch_id":1, "k":1, "model":"HourValue"},{"query": "ch_id":2, "k":1, "model":"HourValue"}]},</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5208,7 +5213,7 @@
         <v>{ "object_id" :3, "fullname":"Харьков ГРС 1,  Т ср час", "name":"XXX-YYY-000-ZZZ-001", "sname": "T", "params": [{"query": "ch_id":1, "k":1, "model":"HourValue"},{"query": "ch_id":2, "k":1, "model":"HourValue"}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5239,7 +5244,7 @@
         <v>{ "object_id" :4, "fullname":"Харьков ГРС 2,  Q за час", "name":"XXX-YYY-000-ZZZ-002", "sname": "Q", "params": [{"query": "ch_id":1, "k":1, "model":"HourValue"},{"query": "ch_id":2, "k":1, "model":"HourValue"}]},</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5270,7 +5275,7 @@
         <v>{ "object_id" :5, "fullname":"Харьков ГРС 2,  P ср час", "name":"XXX-YYY-000-ZZZ-002", "sname": "P", "params": [{"query": "ch_id":1, "k":1, "model":"HourValue"},{"query": "ch_id":2, "k":1, "model":"HourValue"}]},</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5301,7 +5306,7 @@
         <v>{ "object_id" :6, "fullname":"Харьков ГРС 2,  Т ср час", "name":"XXX-YYY-000-ZZZ-002", "sname": "T", "params": [{"query": "ch_id":1, "k":1, "model":"HourValue"},{"query": "ch_id":2, "k":1, "model":"HourValue"}]},</v>
       </c>
     </row>
-    <row r="9" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -5312,7 +5317,7 @@
       <c r="H9" s="30"/>
       <c r="I9" s="31"/>
     </row>
-    <row r="10" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5323,7 +5328,7 @@
       <c r="H10" s="30"/>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5334,7 +5339,7 @@
       <c r="H11" s="30"/>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5345,7 +5350,7 @@
       <c r="H12" s="30"/>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5356,7 +5361,7 @@
       <c r="H13" s="30"/>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5367,7 +5372,7 @@
       <c r="H14" s="30"/>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5378,7 +5383,7 @@
       <c r="H15" s="30"/>
       <c r="I15" s="31"/>
     </row>
-    <row r="16" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5389,7 +5394,7 @@
       <c r="H16" s="30"/>
       <c r="I16" s="31"/>
     </row>
-    <row r="17" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5400,7 +5405,7 @@
       <c r="H17" s="30"/>
       <c r="I17" s="31"/>
     </row>
-    <row r="18" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5411,7 +5416,7 @@
       <c r="H18" s="30"/>
       <c r="I18" s="31"/>
     </row>
-    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5439,20 +5444,20 @@
       <selection activeCell="H98" sqref="H3:H98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="111.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="111.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F1" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>254</v>
       </c>
@@ -5478,7 +5483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5505,7 +5510,7 @@
         <v>{ "object_id": 1,"name":"Q1","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T00:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -5532,7 +5537,7 @@
         <v>{ "object_id": 1,"name":"Q2","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T01:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -5559,7 +5564,7 @@
         <v>{ "object_id": 1,"name":"Q3","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T02:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -5586,7 +5591,7 @@
         <v>{ "object_id": 1,"name":"Q4","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T03:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -5613,7 +5618,7 @@
         <v>{ "object_id": 1,"name":"Q5","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T04:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -5640,7 +5645,7 @@
         <v>{ "object_id": 1,"name":"Q6","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T05:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -5667,7 +5672,7 @@
         <v>{ "object_id": 1,"name":"Q7","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T06:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -5694,7 +5699,7 @@
         <v>{ "object_id": 1,"name":"Q8","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T07:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -5721,7 +5726,7 @@
         <v>{ "object_id": 1,"name":"Q9","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T08:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -5748,7 +5753,7 @@
         <v>{ "object_id": 1,"name":"Q10","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T09:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -5775,7 +5780,7 @@
         <v>{ "object_id": 1,"name":"Q11","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T10:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -5802,7 +5807,7 @@
         <v>{ "object_id": 1,"name":"Q12","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T11:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -5829,7 +5834,7 @@
         <v>{ "object_id": 1,"name":"Q13","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T12:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -5856,7 +5861,7 @@
         <v>{ "object_id": 1,"name":"Q14","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T13:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -5883,7 +5888,7 @@
         <v>{ "object_id": 1,"name":"Q15","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T14:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -5910,7 +5915,7 @@
         <v>{ "object_id": 1,"name":"Q16","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T15:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -5937,7 +5942,7 @@
         <v>{ "object_id": 1,"name":"Q17","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T16:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -5964,7 +5969,7 @@
         <v>{ "object_id": 1,"name":"Q18","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T17:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -5991,7 +5996,7 @@
         <v>{ "object_id": 1,"name":"Q19","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T18:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -6018,7 +6023,7 @@
         <v>{ "object_id": 1,"name":"Q20","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T19:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -6045,7 +6050,7 @@
         <v>{ "object_id": 1,"name":"Q21","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T20:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -6072,7 +6077,7 @@
         <v>{ "object_id": 1,"name":"Q22","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T21:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -6099,7 +6104,7 @@
         <v>{ "object_id": 1,"name":"Q23","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T22:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -6126,7 +6131,7 @@
         <v>{ "object_id": 1,"name":"Q24","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T23:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -6153,7 +6158,7 @@
         <v>{ "object_id": 2,"name":"Q25","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T00:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -6180,7 +6185,7 @@
         <v>{ "object_id": 2,"name":"Q26","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T01:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -6207,7 +6212,7 @@
         <v>{ "object_id": 2,"name":"Q27","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T02:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -6234,7 +6239,7 @@
         <v>{ "object_id": 2,"name":"Q28","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T03:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -6261,7 +6266,7 @@
         <v>{ "object_id": 2,"name":"Q29","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T04:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -6288,7 +6293,7 @@
         <v>{ "object_id": 2,"name":"Q30","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T05:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -6315,7 +6320,7 @@
         <v>{ "object_id": 2,"name":"Q31","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T06:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -6342,7 +6347,7 @@
         <v>{ "object_id": 2,"name":"Q32","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T07:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -6369,7 +6374,7 @@
         <v>{ "object_id": 2,"name":"Q33","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T08:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -6396,7 +6401,7 @@
         <v>{ "object_id": 2,"name":"Q34","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T09:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -6423,7 +6428,7 @@
         <v>{ "object_id": 2,"name":"Q35","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T10:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -6450,7 +6455,7 @@
         <v>{ "object_id": 2,"name":"Q36","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T11:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -6477,7 +6482,7 @@
         <v>{ "object_id": 2,"name":"Q37","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T12:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -6504,7 +6509,7 @@
         <v>{ "object_id": 2,"name":"Q38","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T13:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -6531,7 +6536,7 @@
         <v>{ "object_id": 2,"name":"Q39","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T14:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -6558,7 +6563,7 @@
         <v>{ "object_id": 2,"name":"Q40","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T15:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -6585,7 +6590,7 @@
         <v>{ "object_id": 2,"name":"Q41","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T16:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -6612,7 +6617,7 @@
         <v>{ "object_id": 2,"name":"Q42","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T17:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -6639,7 +6644,7 @@
         <v>{ "object_id": 2,"name":"Q43","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T18:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -6666,7 +6671,7 @@
         <v>{ "object_id": 2,"name":"Q44","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T19:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -6693,7 +6698,7 @@
         <v>{ "object_id": 2,"name":"Q45","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T20:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -6720,7 +6725,7 @@
         <v>{ "object_id": 2,"name":"Q46","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T21:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -6747,7 +6752,7 @@
         <v>{ "object_id": 2,"name":"Q47","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T22:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -6774,7 +6779,7 @@
         <v>{ "object_id": 2,"name":"Q48","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T23:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>3</v>
       </c>
@@ -6801,7 +6806,7 @@
         <v>{ "object_id": 3,"name":"Q49","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T00:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>3</v>
       </c>
@@ -6828,7 +6833,7 @@
         <v>{ "object_id": 3,"name":"Q50","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T01:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>3</v>
       </c>
@@ -6855,7 +6860,7 @@
         <v>{ "object_id": 3,"name":"Q51","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T02:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>3</v>
       </c>
@@ -6882,7 +6887,7 @@
         <v>{ "object_id": 3,"name":"Q52","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T03:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>3</v>
       </c>
@@ -6909,7 +6914,7 @@
         <v>{ "object_id": 3,"name":"Q53","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T04:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>3</v>
       </c>
@@ -6936,7 +6941,7 @@
         <v>{ "object_id": 3,"name":"Q54","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T05:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>3</v>
       </c>
@@ -6963,7 +6968,7 @@
         <v>{ "object_id": 3,"name":"Q55","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T06:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>3</v>
       </c>
@@ -6990,7 +6995,7 @@
         <v>{ "object_id": 3,"name":"Q56","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T07:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>3</v>
       </c>
@@ -7017,7 +7022,7 @@
         <v>{ "object_id": 3,"name":"Q57","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T08:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>3</v>
       </c>
@@ -7044,7 +7049,7 @@
         <v>{ "object_id": 3,"name":"Q58","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T09:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>3</v>
       </c>
@@ -7071,7 +7076,7 @@
         <v>{ "object_id": 3,"name":"Q59","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T10:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>3</v>
       </c>
@@ -7098,7 +7103,7 @@
         <v>{ "object_id": 3,"name":"Q60","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T11:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>3</v>
       </c>
@@ -7125,7 +7130,7 @@
         <v>{ "object_id": 3,"name":"Q61","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T12:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>3</v>
       </c>
@@ -7152,7 +7157,7 @@
         <v>{ "object_id": 3,"name":"Q62","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T13:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>3</v>
       </c>
@@ -7179,7 +7184,7 @@
         <v>{ "object_id": 3,"name":"Q63","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T14:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>3</v>
       </c>
@@ -7206,7 +7211,7 @@
         <v>{ "object_id": 3,"name":"Q64","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T15:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>3</v>
       </c>
@@ -7233,7 +7238,7 @@
         <v>{ "object_id": 3,"name":"Q65","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T16:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>3</v>
       </c>
@@ -7260,7 +7265,7 @@
         <v>{ "object_id": 3,"name":"Q66","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T17:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>3</v>
       </c>
@@ -7287,7 +7292,7 @@
         <v>{ "object_id": 3,"name":"Q67","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T18:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>3</v>
       </c>
@@ -7314,7 +7319,7 @@
         <v>{ "object_id": 3,"name":"Q68","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T19:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>3</v>
       </c>
@@ -7341,7 +7346,7 @@
         <v>{ "object_id": 3,"name":"Q69","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T20:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>3</v>
       </c>
@@ -7368,7 +7373,7 @@
         <v>{ "object_id": 3,"name":"Q70","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T21:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>3</v>
       </c>
@@ -7395,7 +7400,7 @@
         <v>{ "object_id": 3,"name":"Q71","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T22:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>3</v>
       </c>
@@ -7422,7 +7427,7 @@
         <v>{ "object_id": 3,"name":"Q72","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T23:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>4</v>
       </c>
@@ -7449,7 +7454,7 @@
         <v>{ "object_id": 4,"name":"Q73","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T00:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>4</v>
       </c>
@@ -7476,7 +7481,7 @@
         <v>{ "object_id": 4,"name":"Q74","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T01:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>4</v>
       </c>
@@ -7503,7 +7508,7 @@
         <v>{ "object_id": 4,"name":"Q75","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T02:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>4</v>
       </c>
@@ -7530,7 +7535,7 @@
         <v>{ "object_id": 4,"name":"Q76","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T03:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>4</v>
       </c>
@@ -7557,7 +7562,7 @@
         <v>{ "object_id": 4,"name":"Q77","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T04:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>4</v>
       </c>
@@ -7584,7 +7589,7 @@
         <v>{ "object_id": 4,"name":"Q78","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T05:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>4</v>
       </c>
@@ -7611,7 +7616,7 @@
         <v>{ "object_id": 4,"name":"Q79","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T06:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>4</v>
       </c>
@@ -7638,7 +7643,7 @@
         <v>{ "object_id": 4,"name":"Q80","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T07:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>4</v>
       </c>
@@ -7665,7 +7670,7 @@
         <v>{ "object_id": 4,"name":"Q81","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T08:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>4</v>
       </c>
@@ -7692,7 +7697,7 @@
         <v>{ "object_id": 4,"name":"Q82","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T09:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>4</v>
       </c>
@@ -7719,7 +7724,7 @@
         <v>{ "object_id": 4,"name":"Q83","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T10:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>4</v>
       </c>
@@ -7746,7 +7751,7 @@
         <v>{ "object_id": 4,"name":"Q84","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T11:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>4</v>
       </c>
@@ -7773,7 +7778,7 @@
         <v>{ "object_id": 4,"name":"Q85","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T12:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>4</v>
       </c>
@@ -7800,7 +7805,7 @@
         <v>{ "object_id": 4,"name":"Q86","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T13:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>4</v>
       </c>
@@ -7827,7 +7832,7 @@
         <v>{ "object_id": 4,"name":"Q87","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T14:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>4</v>
       </c>
@@ -7854,7 +7859,7 @@
         <v>{ "object_id": 4,"name":"Q88","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T15:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>4</v>
       </c>
@@ -7881,7 +7886,7 @@
         <v>{ "object_id": 4,"name":"Q89","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T16:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>4</v>
       </c>
@@ -7908,7 +7913,7 @@
         <v>{ "object_id": 4,"name":"Q90","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T17:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>4</v>
       </c>
@@ -7935,7 +7940,7 @@
         <v>{ "object_id": 4,"name":"Q91","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T18:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>4</v>
       </c>
@@ -7962,7 +7967,7 @@
         <v>{ "object_id": 4,"name":"Q92","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T19:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>4</v>
       </c>
@@ -7989,7 +7994,7 @@
         <v>{ "object_id": 4,"name":"Q93","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T20:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>4</v>
       </c>
@@ -8016,7 +8021,7 @@
         <v>{ "object_id": 4,"name":"Q94","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T21:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>4</v>
       </c>
@@ -8043,7 +8048,7 @@
         <v>{ "object_id": 4,"name":"Q95","state": "good", "value":100, "currday":1000, "lastupdate":"2020-02-19T22:00", "source":"auto"},</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>4</v>
       </c>
@@ -8083,12 +8088,12 @@
       <selection sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="105.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="105.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -9352,15 +9357,15 @@
       <selection activeCell="K2" sqref="K2:K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="145.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="145.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -10642,12 +10647,12 @@
       <selection activeCell="K3" sqref="K3:K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="118.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="118.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -11910,16 +11915,16 @@
       <selection activeCell="J3" sqref="J3:J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="127.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="127.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -13163,37 +13168,37 @@
       <selection activeCell="AD2" sqref="AD2:AD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="110.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="22.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="24" max="27" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5703125" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="110.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="22.109375" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="24" max="27" width="10.109375" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="5.5546875" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>133</v>
       </c>
@@ -13277,7 +13282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>135</v>
       </c>
@@ -13337,7 +13342,7 @@
         <v>{"systemid":1,"name":"ДПКС № 1","ip":"192.168.0.111","path":"xxx.yyy.zzz","period":30,"sensors":[</v>
       </c>
     </row>
-    <row r="3" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -13409,7 +13414,7 @@
         <v>{"sensorid":1,"low":0,"name":"P in KC 32","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="4" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -13481,7 +13486,7 @@
         <v>{"sensorid":2,"low":0,"name":"P in KC 33","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="5" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -13553,7 +13558,7 @@
         <v>{"sensorid":3,"low":0,"name":"P in KC 34","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>135</v>
       </c>
@@ -13613,7 +13618,7 @@
         <v>{"systemid":2,"name":"ДПКС № 2","ip":"192.168.0.112","path":"xxx.yyy.zzz","period":30,"sensors":[</v>
       </c>
     </row>
-    <row r="7" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -13685,7 +13690,7 @@
         <v>{"sensorid":4,"low":0,"name":"P in KC 36","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="8" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -13757,7 +13762,7 @@
         <v>{"sensorid":5,"low":0,"name":"P in KC 37","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="9" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -13845,18 +13850,18 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="138.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="138.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">

--- a/xls/create-test-data.xlsx
+++ b/xls/create-test-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Корр-каналы" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="276">
   <si>
     <t>isAbsP</t>
   </si>
@@ -846,6 +846,12 @@
   </si>
   <si>
     <t>form_id</t>
+  </si>
+  <si>
+    <t>ch_id</t>
+  </si>
+  <si>
+    <t>off</t>
   </si>
 </sst>
 </file>
@@ -2177,7 +2183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
@@ -4463,15 +4469,15 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="105.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="114.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -4481,10 +4487,10 @@
     </row>
     <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>274</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -4540,8 +4546,8 @@
         <v>192</v>
       </c>
       <c r="J3" t="str">
-        <f>CONCATENATE("{ ""flid"": ",A3,",""ch_id"":",B3,", ""p"": ",C3,", ""t"" :",D3,",""dp"": ",E3,", ""q"":",F3,", ""currday"":",G3,", ""lastupdate"":""",H3,""", ""quality"":",I3,"},")</f>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
+        <f>CONCATENATE("{ ""ch_id"": ",A3,",""rec_offset"":",B3,", ""p"": ",C3,", ""t"" :",D3,",""dp"": ",E3,", ""q"":",F3,", ""currday"":",G3,", ""lastupdate"":""",H3,""", ""quality"":",I3,"},")</f>
+        <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -4549,7 +4555,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>50</v>
@@ -4573,8 +4579,8 @@
         <v>192</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ref="J4:J38" si="0">CONCATENATE("{ ""flid"": ",A4,",""ch_id"":",B4,", ""p"": ",C4,", ""t"" :",D4,",""dp"": ",E4,", ""q"":",F4,", ""currday"":",G4,", ""lastupdate"":""",H4,""", ""quality"":",I4,"},")</f>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:02", "quality":192},</v>
+        <f t="shared" ref="J4:J38" si="0">CONCATENATE("{ ""ch_id"": ",A4,",""rec_offset"":",B4,", ""p"": ",C4,", ""t"" :",D4,",""dp"": ",E4,", ""q"":",F4,", ""currday"":",G4,", ""lastupdate"":""",H4,""", ""quality"":",I4,"},")</f>
+        <v>{ "ch_id": 1,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:02", "quality":192},</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -4582,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>50</v>
@@ -4607,7 +4613,7 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
+        <v>{ "ch_id": 1,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -4615,7 +4621,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>50</v>
@@ -4640,7 +4646,7 @@
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:03", "quality":192},</v>
+        <v>{ "ch_id": 1,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:03", "quality":192},</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -4648,7 +4654,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>50</v>
@@ -4673,7 +4679,7 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
+        <v>{ "ch_id": 1,"rec_offset":5, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -4681,7 +4687,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>50</v>
@@ -4706,7 +4712,7 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:04", "quality":192},</v>
+        <v>{ "ch_id": 1,"rec_offset":6, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:04", "quality":192},</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -4714,7 +4720,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <v>50</v>
@@ -4739,7 +4745,7 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
+        <v>{ "ch_id": 1,"rec_offset":7, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -4747,7 +4753,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>50</v>
@@ -4772,7 +4778,7 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:05", "quality":192},</v>
+        <v>{ "ch_id": 1,"rec_offset":8, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:05", "quality":192},</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -4780,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <v>50</v>
@@ -4805,7 +4811,7 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:05", "quality":192},</v>
+        <v>{ "ch_id": 1,"rec_offset":9, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:05", "quality":192},</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -4813,7 +4819,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
         <v>50</v>
@@ -4838,7 +4844,7 @@
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -4871,7 +4877,7 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:02", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:02", "quality":192},</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -4879,7 +4885,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1">
         <v>50</v>
@@ -4904,7 +4910,7 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -4912,7 +4918,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1">
         <v>50</v>
@@ -4937,7 +4943,7 @@
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:03", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:03", "quality":192},</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -4945,7 +4951,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1">
         <v>50</v>
@@ -4970,7 +4976,7 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":5, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -4978,7 +4984,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>50</v>
@@ -5003,7 +5009,7 @@
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:04", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":6, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:04", "quality":192},</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -5011,7 +5017,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1">
         <v>50</v>
@@ -5036,7 +5042,7 @@
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":7, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -5044,7 +5050,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1">
         <v>50</v>
@@ -5069,7 +5075,7 @@
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:05", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":8, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:05", "quality":192},</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -5077,7 +5083,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1">
         <v>50</v>
@@ -5102,7 +5108,7 @@
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:05", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":9, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:05", "quality":192},</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -5110,7 +5116,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1">
         <v>50</v>
@@ -5135,7 +5141,7 @@
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
+        <v>{ "ch_id": 3,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -5143,7 +5149,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1">
         <v>50</v>
@@ -5168,7 +5174,7 @@
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:02", "quality":192},</v>
+        <v>{ "ch_id": 3,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:02", "quality":192},</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -5201,7 +5207,7 @@
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -5209,7 +5215,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="1">
         <v>50</v>
@@ -5234,7 +5240,7 @@
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:03", "quality":192},</v>
+        <v>{ "ch_id": 3,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:03", "quality":192},</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -5242,7 +5248,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1">
         <v>50</v>
@@ -5267,7 +5273,7 @@
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
+        <v>{ "ch_id": 3,"rec_offset":5, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -5275,7 +5281,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1">
         <v>50</v>
@@ -5300,7 +5306,7 @@
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:04", "quality":192},</v>
+        <v>{ "ch_id": 3,"rec_offset":6, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:04", "quality":192},</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -5308,7 +5314,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1">
         <v>50</v>
@@ -5333,7 +5339,7 @@
       </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
+        <v>{ "ch_id": 3,"rec_offset":7, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -5341,7 +5347,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C28" s="1">
         <v>50</v>
@@ -5366,7 +5372,7 @@
       </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:05", "quality":192},</v>
+        <v>{ "ch_id": 3,"rec_offset":8, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:05", "quality":192},</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -5374,7 +5380,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C29" s="1">
         <v>50</v>
@@ -5399,7 +5405,7 @@
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:05", "quality":192},</v>
+        <v>{ "ch_id": 3,"rec_offset":9, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:05", "quality":192},</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -5407,7 +5413,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1">
         <v>50</v>
@@ -5432,7 +5438,7 @@
       </c>
       <c r="J30" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
+        <v>{ "ch_id": 4,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -5440,7 +5446,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C31" s="1">
         <v>50</v>
@@ -5465,7 +5471,7 @@
       </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:02", "quality":192},</v>
+        <v>{ "ch_id": 4,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:02", "quality":192},</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -5473,7 +5479,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1">
         <v>50</v>
@@ -5498,7 +5504,7 @@
       </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
+        <v>{ "ch_id": 4,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -5531,7 +5537,7 @@
       </c>
       <c r="J33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:03", "quality":192},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:03", "quality":192},</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -5539,7 +5545,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1">
         <v>50</v>
@@ -5564,7 +5570,7 @@
       </c>
       <c r="J34" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
+        <v>{ "ch_id": 4,"rec_offset":5, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -5572,7 +5578,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C35" s="1">
         <v>50</v>
@@ -5597,7 +5603,7 @@
       </c>
       <c r="J35" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:04", "quality":192},</v>
+        <v>{ "ch_id": 4,"rec_offset":6, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:04", "quality":192},</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -5605,7 +5611,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1">
         <v>50</v>
@@ -5630,7 +5636,7 @@
       </c>
       <c r="J36" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
+        <v>{ "ch_id": 4,"rec_offset":7, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -5638,7 +5644,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C37" s="1">
         <v>50</v>
@@ -5663,7 +5669,7 @@
       </c>
       <c r="J37" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:05", "quality":192},</v>
+        <v>{ "ch_id": 4,"rec_offset":8, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:05", "quality":192},</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -5671,7 +5677,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1">
         <v>50</v>
@@ -5696,7 +5702,7 @@
       </c>
       <c r="J38" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:05", "quality":192},</v>
+        <v>{ "ch_id": 4,"rec_offset":9, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:05", "quality":192},</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -5731,8 +5737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5815,8 +5821,8 @@
         <v>192</v>
       </c>
       <c r="K3" s="33" t="str">
-        <f>CONCATENATE("{ ""flid"": ",A3,",""ch_id"":",B3,", ""p"": ",C3,", ""t"" :",D3,",""dp"": ",E3,", ""q"":",F3,", ""start"":""",H3,""", ""lastupdate"":""",I3,""", ""quality"":",J3,"},")</f>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T12:00", "lastupdate":"2020-02-19T13:00", "quality":192},</v>
+        <f>CONCATENATE("{ ""ch_id"": ",A3,",""rec_offset"":",B3,", ""p"": ",C3,", ""t"" :",D3,",""dp"": ",E3,", ""q"":",F3,", ""start"":""",H3,""", ""lastupdate"":""",I3,""", ""quality"":",J3,"},")</f>
+        <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T12:00", "lastupdate":"2020-02-19T13:00", "quality":192},</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -5849,8 +5855,8 @@
         <v>192</v>
       </c>
       <c r="K4" s="33" t="str">
-        <f t="shared" ref="K4:K38" si="0">CONCATENATE("{ ""flid"": ",A4,",""ch_id"":",B4,", ""p"": ",C4,", ""t"" :",D4,",""dp"": ",E4,", ""q"":",F4,", ""start"":""",H4,""", ""lastupdate"":""",I4,""", ""quality"":",J4,"},")</f>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T13:00", "lastupdate":"2020-02-19T14:00", "quality":192},</v>
+        <f t="shared" ref="K4:K38" si="0">CONCATENATE("{ ""ch_id"": ",A4,",""rec_offset"":",B4,", ""p"": ",C4,", ""t"" :",D4,",""dp"": ",E4,", ""q"":",F4,", ""start"":""",H4,""", ""lastupdate"":""",I4,""", ""quality"":",J4,"},")</f>
+        <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T13:00", "lastupdate":"2020-02-19T14:00", "quality":192},</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -5884,7 +5890,7 @@
       </c>
       <c r="K5" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T14:00", "lastupdate":"2020-02-19T15:00", "quality":192},</v>
+        <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T14:00", "lastupdate":"2020-02-19T15:00", "quality":192},</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -5918,7 +5924,7 @@
       </c>
       <c r="K6" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T15:00", "lastupdate":"2020-02-19T16:00", "quality":192},</v>
+        <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T15:00", "lastupdate":"2020-02-19T16:00", "quality":192},</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -5952,7 +5958,7 @@
       </c>
       <c r="K7" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T16:00", "lastupdate":"2020-02-19T17:00", "quality":192},</v>
+        <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T16:00", "lastupdate":"2020-02-19T17:00", "quality":192},</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -5986,7 +5992,7 @@
       </c>
       <c r="K8" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T17:00", "lastupdate":"2020-02-19T18:00", "quality":192},</v>
+        <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T17:00", "lastupdate":"2020-02-19T18:00", "quality":192},</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6020,7 +6026,7 @@
       </c>
       <c r="K9" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T18:00", "lastupdate":"2020-02-19T19:00", "quality":192},</v>
+        <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T18:00", "lastupdate":"2020-02-19T19:00", "quality":192},</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6054,7 +6060,7 @@
       </c>
       <c r="K10" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T19:00", "lastupdate":"2020-02-19T20:00", "quality":192},</v>
+        <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T19:00", "lastupdate":"2020-02-19T20:00", "quality":192},</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6088,7 +6094,7 @@
       </c>
       <c r="K11" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T20:00", "lastupdate":"2020-02-19T21:00", "quality":192},</v>
+        <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T20:00", "lastupdate":"2020-02-19T21:00", "quality":192},</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6122,7 +6128,7 @@
       </c>
       <c r="K12" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T12:00", "lastupdate":"2020-02-19T13:00", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T12:00", "lastupdate":"2020-02-19T13:00", "quality":192},</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6156,7 +6162,7 @@
       </c>
       <c r="K13" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T13:00", "lastupdate":"2020-02-19T14:00", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T13:00", "lastupdate":"2020-02-19T14:00", "quality":192},</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6190,7 +6196,7 @@
       </c>
       <c r="K14" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T14:00", "lastupdate":"2020-02-19T15:00", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T14:00", "lastupdate":"2020-02-19T15:00", "quality":192},</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6224,7 +6230,7 @@
       </c>
       <c r="K15" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T15:00", "lastupdate":"2020-02-19T16:00", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T15:00", "lastupdate":"2020-02-19T16:00", "quality":192},</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6258,7 +6264,7 @@
       </c>
       <c r="K16" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T16:00", "lastupdate":"2020-02-19T17:00", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T16:00", "lastupdate":"2020-02-19T17:00", "quality":192},</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6292,7 +6298,7 @@
       </c>
       <c r="K17" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T17:00", "lastupdate":"2020-02-19T18:00", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T17:00", "lastupdate":"2020-02-19T18:00", "quality":192},</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6326,7 +6332,7 @@
       </c>
       <c r="K18" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T18:00", "lastupdate":"2020-02-19T19:00", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T18:00", "lastupdate":"2020-02-19T19:00", "quality":192},</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6360,7 +6366,7 @@
       </c>
       <c r="K19" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T19:00", "lastupdate":"2020-02-19T20:00", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T19:00", "lastupdate":"2020-02-19T20:00", "quality":192},</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6394,7 +6400,7 @@
       </c>
       <c r="K20" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T20:00", "lastupdate":"2020-02-19T21:00", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T20:00", "lastupdate":"2020-02-19T21:00", "quality":192},</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="37" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6428,7 +6434,7 @@
       </c>
       <c r="K21" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T12:00", "lastupdate":"2020-02-19T13:00", "quality":192},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T12:00", "lastupdate":"2020-02-19T13:00", "quality":192},</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="37" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6462,7 +6468,7 @@
       </c>
       <c r="K22" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T13:00", "lastupdate":"2020-02-19T14:00", "quality":193},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T13:00", "lastupdate":"2020-02-19T14:00", "quality":193},</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="37" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6496,7 +6502,7 @@
       </c>
       <c r="K23" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T14:00", "lastupdate":"2020-02-19T15:00", "quality":194},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T14:00", "lastupdate":"2020-02-19T15:00", "quality":194},</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="37" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6530,7 +6536,7 @@
       </c>
       <c r="K24" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T15:00", "lastupdate":"2020-02-19T16:00", "quality":195},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T15:00", "lastupdate":"2020-02-19T16:00", "quality":195},</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="37" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6564,7 +6570,7 @@
       </c>
       <c r="K25" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T16:00", "lastupdate":"2020-02-19T17:00", "quality":196},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T16:00", "lastupdate":"2020-02-19T17:00", "quality":196},</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="37" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6598,7 +6604,7 @@
       </c>
       <c r="K26" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T17:00", "lastupdate":"2020-02-19T18:00", "quality":197},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T17:00", "lastupdate":"2020-02-19T18:00", "quality":197},</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="37" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6632,7 +6638,7 @@
       </c>
       <c r="K27" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T18:00", "lastupdate":"2020-02-19T19:00", "quality":198},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T18:00", "lastupdate":"2020-02-19T19:00", "quality":198},</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="37" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6666,7 +6672,7 @@
       </c>
       <c r="K28" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T19:00", "lastupdate":"2020-02-19T20:00", "quality":199},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T19:00", "lastupdate":"2020-02-19T20:00", "quality":199},</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="37" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6700,7 +6706,7 @@
       </c>
       <c r="K29" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T20:00", "lastupdate":"2020-02-19T21:00", "quality":200},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T20:00", "lastupdate":"2020-02-19T21:00", "quality":200},</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6734,7 +6740,7 @@
       </c>
       <c r="K30" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T12:00", "lastupdate":"2020-02-19T13:00", "quality":201},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T12:00", "lastupdate":"2020-02-19T13:00", "quality":201},</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6768,7 +6774,7 @@
       </c>
       <c r="K31" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T13:00", "lastupdate":"2020-02-19T14:00", "quality":202},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T13:00", "lastupdate":"2020-02-19T14:00", "quality":202},</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6802,7 +6808,7 @@
       </c>
       <c r="K32" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T14:00", "lastupdate":"2020-02-19T15:00", "quality":203},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T14:00", "lastupdate":"2020-02-19T15:00", "quality":203},</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6836,7 +6842,7 @@
       </c>
       <c r="K33" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T15:00", "lastupdate":"2020-02-19T16:00", "quality":204},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T15:00", "lastupdate":"2020-02-19T16:00", "quality":204},</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6870,7 +6876,7 @@
       </c>
       <c r="K34" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T16:00", "lastupdate":"2020-02-19T17:00", "quality":205},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T16:00", "lastupdate":"2020-02-19T17:00", "quality":205},</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6904,7 +6910,7 @@
       </c>
       <c r="K35" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T17:00", "lastupdate":"2020-02-19T18:00", "quality":206},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T17:00", "lastupdate":"2020-02-19T18:00", "quality":206},</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6938,7 +6944,7 @@
       </c>
       <c r="K36" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T18:00", "lastupdate":"2020-02-19T19:00", "quality":207},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T18:00", "lastupdate":"2020-02-19T19:00", "quality":207},</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -6972,7 +6978,7 @@
       </c>
       <c r="K37" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T19:00", "lastupdate":"2020-02-19T20:00", "quality":208},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T19:00", "lastupdate":"2020-02-19T20:00", "quality":208},</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -7006,7 +7012,7 @@
       </c>
       <c r="K38" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T20:00", "lastupdate":"2020-02-19T21:00", "quality":209},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T20:00", "lastupdate":"2020-02-19T21:00", "quality":209},</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -7022,7 +7028,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K38"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7030,7 +7036,7 @@
     <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="118.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="124.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -7102,8 +7108,8 @@
         <v>192</v>
       </c>
       <c r="K3" t="str">
-        <f>CONCATENATE("{ ""flid"": ",A3,",""ch_id"":",B3,", ""p"": ",C3,", ""t"" :",D3,",""dp"": ",E3,", ""q"":",F3,", ""start"":""",H3,""", ""lastupdate"":""",I3,""", ""quality"":",J3,"},")</f>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-01T07:00", "lastupdate":"2020-02-02T07:00", "quality":192},</v>
+        <f>CONCATENATE("{ ""ch_id"": ",A3,",""rec_offset"":",B3,", ""p"": ",C3,", ""t"" :",D3,",""dp"": ",E3,", ""q"":",F3,", ""start"":""",H3,""", ""lastupdate"":""",I3,""", ""quality"":",J3,"},")</f>
+        <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-01T07:00", "lastupdate":"2020-02-02T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -7136,8 +7142,8 @@
         <v>192</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4:K38" si="0">CONCATENATE("{ ""flid"": ",A4,",""ch_id"":",B4,", ""p"": ",C4,", ""t"" :",D4,",""dp"": ",E4,", ""q"":",F4,", ""start"":""",H4,""", ""lastupdate"":""",I4,""", ""quality"":",J4,"},")</f>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-02T07:00", "lastupdate":"2020-02-03T07:00", "quality":192},</v>
+        <f t="shared" ref="K4:K38" si="0">CONCATENATE("{ ""ch_id"": ",A4,",""rec_offset"":",B4,", ""p"": ",C4,", ""t"" :",D4,",""dp"": ",E4,", ""q"":",F4,", ""start"":""",H4,""", ""lastupdate"":""",I4,""", ""quality"":",J4,"},")</f>
+        <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-02T07:00", "lastupdate":"2020-02-03T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -7171,7 +7177,7 @@
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-03T07:00", "lastupdate":"2020-02-04T07:00", "quality":192},</v>
+        <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-03T07:00", "lastupdate":"2020-02-04T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -7205,7 +7211,7 @@
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-04T07:00", "lastupdate":"2020-02-05T07:00", "quality":192},</v>
+        <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-04T07:00", "lastupdate":"2020-02-05T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -7239,7 +7245,7 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-05T07:00", "lastupdate":"2020-02-06T07:00", "quality":192},</v>
+        <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-05T07:00", "lastupdate":"2020-02-06T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -7273,7 +7279,7 @@
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-06T07:00", "lastupdate":"2020-02-07T07:00", "quality":192},</v>
+        <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-06T07:00", "lastupdate":"2020-02-07T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -7307,7 +7313,7 @@
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-07T07:00", "lastupdate":"2020-02-08T07:00", "quality":192},</v>
+        <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-07T07:00", "lastupdate":"2020-02-08T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -7341,7 +7347,7 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-08T07:00", "lastupdate":"2020-02-09T07:00", "quality":192},</v>
+        <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-08T07:00", "lastupdate":"2020-02-09T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -7375,7 +7381,7 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-09T07:00", "lastupdate":"2020-02-10T07:00", "quality":192},</v>
+        <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-09T07:00", "lastupdate":"2020-02-10T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -7409,7 +7415,7 @@
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-01T07:00", "lastupdate":"2020-02-02T07:00", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-01T07:00", "lastupdate":"2020-02-02T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -7443,7 +7449,7 @@
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-02T07:00", "lastupdate":"2020-02-03T07:00", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-02T07:00", "lastupdate":"2020-02-03T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -7477,7 +7483,7 @@
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-03T07:00", "lastupdate":"2020-02-04T07:00", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-03T07:00", "lastupdate":"2020-02-04T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -7511,7 +7517,7 @@
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-04T07:00", "lastupdate":"2020-02-05T07:00", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-04T07:00", "lastupdate":"2020-02-05T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -7545,7 +7551,7 @@
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-05T07:00", "lastupdate":"2020-02-06T07:00", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-05T07:00", "lastupdate":"2020-02-06T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -7579,7 +7585,7 @@
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-06T07:00", "lastupdate":"2020-02-07T07:00", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-06T07:00", "lastupdate":"2020-02-07T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -7613,7 +7619,7 @@
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-07T07:00", "lastupdate":"2020-02-08T07:00", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-07T07:00", "lastupdate":"2020-02-08T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -7647,7 +7653,7 @@
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-08T07:00", "lastupdate":"2020-02-09T07:00", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-08T07:00", "lastupdate":"2020-02-09T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -7681,7 +7687,7 @@
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-09T07:00", "lastupdate":"2020-02-10T07:00", "quality":192},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-09T07:00", "lastupdate":"2020-02-10T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -7715,7 +7721,7 @@
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-01T07:00", "lastupdate":"2020-02-02T07:00", "quality":192},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-01T07:00", "lastupdate":"2020-02-02T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -7748,7 +7754,7 @@
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-02T07:00", "lastupdate":"2020-02-03T07:00", "quality":192},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-02T07:00", "lastupdate":"2020-02-03T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -7781,7 +7787,7 @@
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-03T07:00", "lastupdate":"2020-02-04T07:00", "quality":192},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-03T07:00", "lastupdate":"2020-02-04T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -7814,7 +7820,7 @@
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-04T07:00", "lastupdate":"2020-02-05T07:00", "quality":192},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-04T07:00", "lastupdate":"2020-02-05T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -7847,7 +7853,7 @@
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-05T07:00", "lastupdate":"2020-02-06T07:00", "quality":192},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-05T07:00", "lastupdate":"2020-02-06T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -7880,7 +7886,7 @@
       </c>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-06T07:00", "lastupdate":"2020-02-07T07:00", "quality":192},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-06T07:00", "lastupdate":"2020-02-07T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -7913,7 +7919,7 @@
       </c>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-07T07:00", "lastupdate":"2020-02-08T07:00", "quality":192},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-07T07:00", "lastupdate":"2020-02-08T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -7946,7 +7952,7 @@
       </c>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-08T07:00", "lastupdate":"2020-02-09T07:00", "quality":192},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-08T07:00", "lastupdate":"2020-02-09T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -7979,7 +7985,7 @@
       </c>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-09T07:00", "lastupdate":"2020-02-10T07:00", "quality":192},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-09T07:00", "lastupdate":"2020-02-10T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -8012,7 +8018,7 @@
       </c>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-01T07:00", "lastupdate":"2020-02-02T07:00", "quality":192},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-01T07:00", "lastupdate":"2020-02-02T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -8045,7 +8051,7 @@
       </c>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-02T07:00", "lastupdate":"2020-02-03T07:00", "quality":192},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-02T07:00", "lastupdate":"2020-02-03T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -8078,7 +8084,7 @@
       </c>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-03T07:00", "lastupdate":"2020-02-04T07:00", "quality":192},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-03T07:00", "lastupdate":"2020-02-04T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -8111,7 +8117,7 @@
       </c>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-04T07:00", "lastupdate":"2020-02-05T07:00", "quality":192},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-04T07:00", "lastupdate":"2020-02-05T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -8144,7 +8150,7 @@
       </c>
       <c r="K34" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-05T07:00", "lastupdate":"2020-02-06T07:00", "quality":192},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-05T07:00", "lastupdate":"2020-02-06T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -8177,7 +8183,7 @@
       </c>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-06T07:00", "lastupdate":"2020-02-07T07:00", "quality":192},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-06T07:00", "lastupdate":"2020-02-07T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -8210,7 +8216,7 @@
       </c>
       <c r="K36" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-07T07:00", "lastupdate":"2020-02-08T07:00", "quality":192},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-07T07:00", "lastupdate":"2020-02-08T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -8243,7 +8249,7 @@
       </c>
       <c r="K37" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-08T07:00", "lastupdate":"2020-02-09T07:00", "quality":192},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-08T07:00", "lastupdate":"2020-02-09T07:00", "quality":192},</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -8276,7 +8282,7 @@
       </c>
       <c r="K38" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-09T07:00", "lastupdate":"2020-02-10T07:00", "quality":192},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-09T07:00", "lastupdate":"2020-02-10T07:00", "quality":192},</v>
       </c>
     </row>
   </sheetData>
@@ -8290,7 +8296,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J38"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8302,7 +8308,7 @@
     <col min="7" max="7" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="127.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="118.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -8371,8 +8377,8 @@
         <v>192</v>
       </c>
       <c r="J3" t="str">
-        <f>CONCATENATE("{ ""flid"": ",A3,",""ch_id"":",B3,", ""CO2"": ",C3,", ""N2"" :",D3,",""Ro"": ",E3,", ""xx"":",F3,", ""zz"":",G3,", ""lastupdate"":""",H3,""", ""quality"":",I3,"},")</f>
-        <v>{ "flid": 1,"ch_id":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
+        <f>CONCATENATE("{ ""ch_id"": ",A3,",""rec_offset"":",B3,", ""CO2"": ",C3,", ""N2"" :",D3,",""Ro"": ",E3,", ""xx"":",F3,", ""zz"":",G3,", ""lastupdate"":""",H3,""", ""quality"":",I3,"},")</f>
+        <v>{ "ch_id": 1,"rec_offset":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -8401,11 +8407,11 @@
         <v>93</v>
       </c>
       <c r="I4" s="1">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ref="J4:J38" si="0">CONCATENATE("{ ""flid"": ",A4,",""ch_id"":",B4,", ""CO2"": ",C4,", ""N2"" :",D4,",""Ro"": ",E4,", ""xx"":",F4,", ""zz"":",G4,", ""lastupdate"":""",H4,""", ""quality"":",I4,"},")</f>
-        <v>{ "flid": 1,"ch_id":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:02", "quality":193},</v>
+        <f t="shared" ref="J4:J38" si="0">CONCATENATE("{ ""ch_id"": ",A4,",""rec_offset"":",B4,", ""CO2"": ",C4,", ""N2"" :",D4,",""Ro"": ",E4,", ""xx"":",F4,", ""zz"":",G4,", ""lastupdate"":""",H4,""", ""quality"":",I4,"},")</f>
+        <v>{ "ch_id": 1,"rec_offset":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -8434,11 +8440,11 @@
         <v>95</v>
       </c>
       <c r="I5" s="1">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:03", "quality":194},</v>
+        <v>{ "ch_id": 1,"rec_offset":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -8467,11 +8473,11 @@
         <v>97</v>
       </c>
       <c r="I6" s="1">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:04", "quality":195},</v>
+        <v>{ "ch_id": 1,"rec_offset":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -8500,11 +8506,11 @@
         <v>99</v>
       </c>
       <c r="I7" s="1">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:05", "quality":196},</v>
+        <v>{ "ch_id": 1,"rec_offset":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:05", "quality":192},</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -8533,11 +8539,11 @@
         <v>100</v>
       </c>
       <c r="I8" s="1">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:06", "quality":197},</v>
+        <v>{ "ch_id": 1,"rec_offset":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:06", "quality":192},</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -8566,11 +8572,11 @@
         <v>101</v>
       </c>
       <c r="I9" s="1">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:07", "quality":198},</v>
+        <v>{ "ch_id": 1,"rec_offset":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:07", "quality":192},</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -8599,11 +8605,11 @@
         <v>102</v>
       </c>
       <c r="I10" s="1">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:08", "quality":199},</v>
+        <v>{ "ch_id": 1,"rec_offset":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:08", "quality":192},</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -8632,11 +8638,11 @@
         <v>103</v>
       </c>
       <c r="I11" s="1">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 1,"ch_id":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:09", "quality":200},</v>
+        <v>{ "ch_id": 1,"rec_offset":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:09", "quality":192},</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -8665,11 +8671,11 @@
         <v>104</v>
       </c>
       <c r="I12" s="1">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:10", "quality":201},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:10", "quality":192},</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -8698,11 +8704,11 @@
         <v>105</v>
       </c>
       <c r="I13" s="1">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:11", "quality":202},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:11", "quality":192},</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -8731,11 +8737,11 @@
         <v>106</v>
       </c>
       <c r="I14" s="1">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:12", "quality":203},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:12", "quality":192},</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -8764,11 +8770,11 @@
         <v>107</v>
       </c>
       <c r="I15" s="1">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:13", "quality":204},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:13", "quality":192},</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -8797,11 +8803,11 @@
         <v>108</v>
       </c>
       <c r="I16" s="1">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:14", "quality":205},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:14", "quality":192},</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -8830,11 +8836,11 @@
         <v>109</v>
       </c>
       <c r="I17" s="1">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:15", "quality":206},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:15", "quality":192},</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -8863,11 +8869,11 @@
         <v>110</v>
       </c>
       <c r="I18" s="1">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:16", "quality":207},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:16", "quality":192},</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -8896,11 +8902,11 @@
         <v>111</v>
       </c>
       <c r="I19" s="1">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:17", "quality":208},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:17", "quality":192},</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -8929,11 +8935,11 @@
         <v>112</v>
       </c>
       <c r="I20" s="1">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 2,"ch_id":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:18", "quality":209},</v>
+        <v>{ "ch_id": 2,"rec_offset":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:18", "quality":192},</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -8962,11 +8968,11 @@
         <v>113</v>
       </c>
       <c r="I21" s="1">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:19", "quality":210},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:19", "quality":192},</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -8995,11 +9001,11 @@
         <v>114</v>
       </c>
       <c r="I22" s="1">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:20", "quality":211},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:20", "quality":192},</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -9028,11 +9034,11 @@
         <v>115</v>
       </c>
       <c r="I23" s="1">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:21", "quality":212},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:21", "quality":192},</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -9061,11 +9067,11 @@
         <v>116</v>
       </c>
       <c r="I24" s="1">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:22", "quality":213},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:22", "quality":192},</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -9094,11 +9100,11 @@
         <v>117</v>
       </c>
       <c r="I25" s="1">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:23", "quality":214},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:23", "quality":192},</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -9127,11 +9133,11 @@
         <v>118</v>
       </c>
       <c r="I26" s="1">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:24", "quality":215},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:24", "quality":192},</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -9160,11 +9166,11 @@
         <v>119</v>
       </c>
       <c r="I27" s="1">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:25", "quality":216},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:25", "quality":192},</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -9193,11 +9199,11 @@
         <v>120</v>
       </c>
       <c r="I28" s="1">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:26", "quality":217},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:26", "quality":192},</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -9226,11 +9232,11 @@
         <v>121</v>
       </c>
       <c r="I29" s="1">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 3,"ch_id":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:27", "quality":218},</v>
+        <v>{ "ch_id": 3,"rec_offset":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:27", "quality":192},</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -9259,11 +9265,11 @@
         <v>122</v>
       </c>
       <c r="I30" s="1">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:28", "quality":219},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:28", "quality":192},</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -9292,11 +9298,11 @@
         <v>123</v>
       </c>
       <c r="I31" s="1">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:29", "quality":220},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:29", "quality":192},</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -9325,11 +9331,11 @@
         <v>124</v>
       </c>
       <c r="I32" s="1">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:30", "quality":221},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:30", "quality":192},</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -9358,11 +9364,11 @@
         <v>125</v>
       </c>
       <c r="I33" s="1">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:31", "quality":222},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:31", "quality":192},</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -9391,11 +9397,11 @@
         <v>126</v>
       </c>
       <c r="I34" s="1">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:32", "quality":223},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:32", "quality":192},</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -9424,11 +9430,11 @@
         <v>127</v>
       </c>
       <c r="I35" s="1">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:33", "quality":224},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:33", "quality":192},</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -9457,11 +9463,11 @@
         <v>128</v>
       </c>
       <c r="I36" s="1">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:34", "quality":225},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:34", "quality":192},</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -9490,11 +9496,11 @@
         <v>129</v>
       </c>
       <c r="I37" s="1">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:35", "quality":226},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:35", "quality":192},</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -9523,11 +9529,11 @@
         <v>130</v>
       </c>
       <c r="I38" s="1">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="0"/>
-        <v>{ "flid": 4,"ch_id":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:36", "quality":227},</v>
+        <v>{ "ch_id": 4,"rec_offset":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:36", "quality":192},</v>
       </c>
     </row>
   </sheetData>

--- a/xls/create-test-data.xlsx
+++ b/xls/create-test-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Корр-каналы" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="317">
   <si>
     <t>isAbsP</t>
   </si>
@@ -92,12 +92,6 @@
     <t>flid</t>
   </si>
   <si>
-    <t>XXX-YYY-000-ZZZ-001</t>
-  </si>
-  <si>
-    <t>XXX-YYY-000-ZZZ-002</t>
-  </si>
-  <si>
     <t>"corrid" :</t>
   </si>
   <si>
@@ -527,12 +521,6 @@
     <t>formid</t>
   </si>
   <si>
-    <t>Форма ввод № 1</t>
-  </si>
-  <si>
-    <t>Форма ввод № 2</t>
-  </si>
-  <si>
     <t>"key":</t>
   </si>
   <si>
@@ -785,33 +773,6 @@
     <t>sname</t>
   </si>
   <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Харьков ГРС 1,  Q за час</t>
-  </si>
-  <si>
-    <t>Харьков ГРС 1,  P ср час</t>
-  </si>
-  <si>
-    <t>Харьков ГРС 1,  Т ср час</t>
-  </si>
-  <si>
-    <t>Харьков ГРС 2,  Q за час</t>
-  </si>
-  <si>
-    <t>Харьков ГРС 2,  P ср час</t>
-  </si>
-  <si>
-    <t>Харьков ГРС 2,  Т ср час</t>
-  </si>
-  <si>
     <t>{"table_id":</t>
   </si>
   <si>
@@ -824,9 +785,6 @@
     <t>{"_id":</t>
   </si>
   <si>
-    <t>Режим № 1</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -852,6 +810,171 @@
   </si>
   <si>
     <t>off</t>
+  </si>
+  <si>
+    <t>КС Бобровницька-05</t>
+  </si>
+  <si>
+    <t>ДКС Мрин</t>
+  </si>
+  <si>
+    <t>ДКС Солоха</t>
+  </si>
+  <si>
+    <t>ДКС Олишівка</t>
+  </si>
+  <si>
+    <t>ПСГ Ч-Партизани</t>
+  </si>
+  <si>
+    <t>ПСГ Солоха</t>
+  </si>
+  <si>
+    <t>ПСГ Олишівка</t>
+  </si>
+  <si>
+    <t>Режим</t>
+  </si>
+  <si>
+    <t>Режим КС Бобровницька-05</t>
+  </si>
+  <si>
+    <t>Режим ДКС Мрин</t>
+  </si>
+  <si>
+    <t>Режим ДКС Солоха</t>
+  </si>
+  <si>
+    <t>Режим ДКС Олишівка</t>
+  </si>
+  <si>
+    <t>Режим ПСГ Ч-Партизани</t>
+  </si>
+  <si>
+    <t>Режим ПСГ Солоха</t>
+  </si>
+  <si>
+    <t>Режим ПСГ Олишівка</t>
+  </si>
+  <si>
+    <t>Стан ПСГ Ч-Партизани</t>
+  </si>
+  <si>
+    <t>Стан ПСГ Солоха</t>
+  </si>
+  <si>
+    <t>Стан ПСГ Олишівка</t>
+  </si>
+  <si>
+    <t>Стан</t>
+  </si>
+  <si>
+    <t>ВТВ ПСГ Ч-Партизани</t>
+  </si>
+  <si>
+    <t>ВТВ ПСГ Солоха</t>
+  </si>
+  <si>
+    <t>ВТВ ПСГ Олишівка</t>
+  </si>
+  <si>
+    <t>ВТВ</t>
+  </si>
+  <si>
+    <t>Режим КС</t>
+  </si>
+  <si>
+    <t>Режим ПСГ</t>
+  </si>
+  <si>
+    <t>Стан ПСГ</t>
+  </si>
+  <si>
+    <t>2020-03-18</t>
+  </si>
+  <si>
+    <t>p_in</t>
+  </si>
+  <si>
+    <t>p_out</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>q_in</t>
+  </si>
+  <si>
+    <t>q_out</t>
+  </si>
+  <si>
+    <t>num_lines</t>
+  </si>
+  <si>
+    <t>с.роб</t>
+  </si>
+  <si>
+    <t>Qзак</t>
+  </si>
+  <si>
+    <t>Qвідб</t>
+  </si>
+  <si>
+    <t>ГПА</t>
+  </si>
+  <si>
+    <t>num_gpa</t>
+  </si>
+  <si>
+    <t>[{"key":"Відбір", "value":2},{"key":"Закачка", "value":1},{"key":"Нейтральний", "value":0}]</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>Рвх КС</t>
+  </si>
+  <si>
+    <t>Рвих КС</t>
+  </si>
+  <si>
+    <t>ВТВ СПГ</t>
+  </si>
+  <si>
+    <t>Паливний</t>
+  </si>
+  <si>
+    <t>ДКС</t>
+  </si>
+  <si>
+    <t>ПСГ</t>
+  </si>
+  <si>
+    <t>dks</t>
+  </si>
+  <si>
+    <t>fuel</t>
+  </si>
+  <si>
+    <t>psg</t>
+  </si>
+  <si>
+    <t>,"type":"</t>
+  </si>
+  <si>
+    <t>Кран 11</t>
+  </si>
+  <si>
+    <t>ДКС Солоха Кран 11</t>
+  </si>
+  <si>
+    <t>Стан крану</t>
+  </si>
+  <si>
+    <t>[{"key":"Відкритий", "value":1},{"key":"Закритий","value":0}]</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1187,6 +1310,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1534,82 +1660,82 @@
   <sheetData>
     <row r="1" spans="1:30" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="11"/>
       <c r="J1" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="22"/>
       <c r="M1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="21" t="s">
-        <v>45</v>
-      </c>
       <c r="Q1" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="V1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="21" t="s">
-        <v>52</v>
-      </c>
       <c r="Z1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" s="21" t="s">
-        <v>55</v>
-      </c>
       <c r="AB1" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AC1" s="27"/>
       <c r="AD1" s="23" t="s">
@@ -1618,37 +1744,37 @@
     </row>
     <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J2" s="13">
         <v>1</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L2" s="13" t="str">
         <f>CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2)</f>
@@ -1693,55 +1819,55 @@
         <v/>
       </c>
       <c r="M3" s="8" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="N3" s="8">
         <v>1</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P3" s="8">
         <v>1</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AB3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AC3" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD3" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1765,55 +1891,55 @@
         <v/>
       </c>
       <c r="M4" s="8" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="N4" s="8">
         <v>2</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P4" s="8">
         <v>2</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AA4" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AB4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AC4" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD4" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1837,55 +1963,55 @@
         <v/>
       </c>
       <c r="M5" s="19" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="N5" s="19">
         <v>3</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P5" s="19">
         <v>3</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R5" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T5" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U5" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="W5" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="Y5" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="AA5" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AB5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="AC5" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AD5" s="26" t="str">
         <f t="shared" si="0"/>
@@ -1894,37 +2020,37 @@
     </row>
     <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="B6" s="13">
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J6" s="13">
         <v>2</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L6" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1969,55 +2095,55 @@
         <v/>
       </c>
       <c r="M7" s="8" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="N7" s="8">
         <v>4</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P7" s="8">
         <v>1</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U7" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AA7" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AB7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AC7" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD7" s="25" t="str">
         <f t="shared" si="0"/>
@@ -2041,55 +2167,55 @@
         <v/>
       </c>
       <c r="M8" s="8" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="N8" s="8">
         <v>5</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P8" s="8">
         <v>2</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V8" s="8" t="s">
         <v>5</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X8" s="8" t="s">
         <v>5</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z8" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AA8" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AB8" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AC8" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD8" s="25" t="str">
         <f t="shared" si="0"/>
@@ -2113,55 +2239,55 @@
         <v/>
       </c>
       <c r="M9" s="19" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="N9" s="8">
         <v>6</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P9" s="19">
         <v>3</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S9" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U9" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V9" s="19" t="s">
         <v>5</v>
       </c>
       <c r="W9" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X9" s="19" t="s">
         <v>5</v>
       </c>
       <c r="Y9" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z9" s="19" t="s">
         <v>5</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AB9" s="19" t="s">
         <v>5</v>
       </c>
       <c r="AC9" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AD9" s="26" t="str">
         <f t="shared" si="0"/>
@@ -2213,13 +2339,13 @@
   <sheetData>
     <row r="1" spans="1:24" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>3</v>
@@ -2227,16 +2353,16 @@
       <c r="E1" s="11"/>
       <c r="F1" s="22"/>
       <c r="G1" s="21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K1" s="21"/>
       <c r="L1" s="21"/>
@@ -2257,19 +2383,19 @@
     </row>
     <row r="2" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F2" s="13" t="str">
         <f>CONCATENATE(A2,B2,C2,D2,E2)</f>
@@ -2305,19 +2431,19 @@
       <c r="E3" s="10"/>
       <c r="F3" s="13"/>
       <c r="G3" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -2331,7 +2457,7 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X3" s="25" t="str">
         <f t="shared" si="0"/>
@@ -2349,19 +2475,19 @@
         <v/>
       </c>
       <c r="G4" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -2375,7 +2501,7 @@
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X4" s="25" t="str">
         <f t="shared" si="0"/>
@@ -2393,19 +2519,19 @@
         <v/>
       </c>
       <c r="G5" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>175</v>
-      </c>
       <c r="K5" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -2419,7 +2545,7 @@
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
       <c r="W5" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X5" s="25" t="str">
         <f t="shared" si="0"/>
@@ -2437,19 +2563,19 @@
         <v/>
       </c>
       <c r="G6" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
@@ -2463,7 +2589,7 @@
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
       <c r="W6" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X6" s="25" t="str">
         <f t="shared" si="0"/>
@@ -2472,19 +2598,19 @@
     </row>
     <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="B7" s="13">
         <v>2</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F7" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2520,19 +2646,19 @@
       <c r="E8" s="10"/>
       <c r="F8" s="13"/>
       <c r="G8" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -2546,7 +2672,7 @@
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
       <c r="W8" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X8" s="25" t="str">
         <f t="shared" si="0"/>
@@ -2564,19 +2690,19 @@
         <v/>
       </c>
       <c r="G9" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -2590,7 +2716,7 @@
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X9" s="25" t="str">
         <f t="shared" si="0"/>
@@ -2608,19 +2734,19 @@
         <v/>
       </c>
       <c r="G10" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -2634,7 +2760,7 @@
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X10" s="25" t="str">
         <f t="shared" si="0"/>
@@ -2652,19 +2778,19 @@
         <v/>
       </c>
       <c r="G11" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
@@ -2678,7 +2804,7 @@
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
       <c r="W11" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X11" s="25" t="str">
         <f t="shared" si="0"/>
@@ -2687,19 +2813,19 @@
     </row>
     <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="B12" s="13">
         <v>3</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F12" s="13" t="str">
         <f t="shared" ref="F12:F16" si="2">CONCATENATE(A12,B12,C12,D12,E12)</f>
@@ -2735,19 +2861,19 @@
       <c r="E13" s="10"/>
       <c r="F13" s="13"/>
       <c r="G13" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -2761,7 +2887,7 @@
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X13" s="25" t="str">
         <f t="shared" ref="X13" si="4">CONCATENATE(F13,G13,H13,I13,J13,K13,L13,M13,N13,O13,P13,Q13,R13,S13,T13,U13,V13,W13)</f>
@@ -2779,19 +2905,19 @@
         <v/>
       </c>
       <c r="G14" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
@@ -2805,7 +2931,7 @@
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X14" s="25" t="str">
         <f t="shared" si="3"/>
@@ -2823,19 +2949,19 @@
         <v/>
       </c>
       <c r="G15" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
@@ -2849,7 +2975,7 @@
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
       <c r="W15" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X15" s="25" t="str">
         <f t="shared" si="3"/>
@@ -2867,19 +2993,19 @@
         <v/>
       </c>
       <c r="G16" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
@@ -2893,7 +3019,7 @@
       <c r="U16" s="19"/>
       <c r="V16" s="19"/>
       <c r="W16" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X16" s="25" t="str">
         <f t="shared" si="3"/>
@@ -2911,19 +3037,19 @@
         <v/>
       </c>
       <c r="G17" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
@@ -2937,7 +3063,7 @@
       <c r="U17" s="19"/>
       <c r="V17" s="19"/>
       <c r="W17" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X17" s="25" t="str">
         <f t="shared" ref="X17:X24" si="6">CONCATENATE(F17,G17,H17,I17,J17,K17,L17,M17,N17,O17,P17,Q17,R17,S17,T17,U17,V17,W17)</f>
@@ -2955,19 +3081,19 @@
         <v/>
       </c>
       <c r="G18" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
@@ -2981,7 +3107,7 @@
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X18" s="25" t="str">
         <f t="shared" si="6"/>
@@ -2999,19 +3125,19 @@
         <v/>
       </c>
       <c r="G19" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
@@ -3025,7 +3151,7 @@
       <c r="U19" s="19"/>
       <c r="V19" s="19"/>
       <c r="W19" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X19" s="25" t="str">
         <f t="shared" si="6"/>
@@ -3043,19 +3169,19 @@
         <v/>
       </c>
       <c r="G20" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
@@ -3069,7 +3195,7 @@
       <c r="U20" s="19"/>
       <c r="V20" s="19"/>
       <c r="W20" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X20" s="25" t="str">
         <f t="shared" si="6"/>
@@ -3087,19 +3213,19 @@
         <v/>
       </c>
       <c r="G21" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
@@ -3113,7 +3239,7 @@
       <c r="U21" s="19"/>
       <c r="V21" s="19"/>
       <c r="W21" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X21" s="25" t="str">
         <f t="shared" si="6"/>
@@ -3131,19 +3257,19 @@
         <v/>
       </c>
       <c r="G22" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
@@ -3157,7 +3283,7 @@
       <c r="U22" s="19"/>
       <c r="V22" s="19"/>
       <c r="W22" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X22" s="25" t="str">
         <f t="shared" si="6"/>
@@ -3175,19 +3301,19 @@
         <v/>
       </c>
       <c r="G23" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
@@ -3201,7 +3327,7 @@
       <c r="U23" s="19"/>
       <c r="V23" s="19"/>
       <c r="W23" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X23" s="25" t="str">
         <f t="shared" si="6"/>
@@ -3219,19 +3345,19 @@
         <v/>
       </c>
       <c r="G24" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
@@ -3245,7 +3371,7 @@
       <c r="U24" s="19"/>
       <c r="V24" s="19"/>
       <c r="W24" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X24" s="25" t="str">
         <f t="shared" si="6"/>
@@ -3281,13 +3407,13 @@
   <sheetData>
     <row r="1" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>3</v>
@@ -3295,16 +3421,16 @@
       <c r="E1" s="11"/>
       <c r="F1" s="22"/>
       <c r="G1" s="21" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K1" s="21"/>
       <c r="L1" s="21"/>
@@ -3325,19 +3451,19 @@
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F2" s="13" t="str">
         <f>CONCATENATE(A2,B2,C2,D2,E2)</f>
@@ -3376,19 +3502,19 @@
         <v/>
       </c>
       <c r="G3" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>232</v>
-      </c>
       <c r="I3" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -3402,7 +3528,7 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X3" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3420,19 +3546,19 @@
         <v/>
       </c>
       <c r="G4" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -3446,7 +3572,7 @@
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X4" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3464,19 +3590,19 @@
         <v/>
       </c>
       <c r="G5" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
@@ -3490,7 +3616,7 @@
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
       <c r="W5" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X5" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3499,19 +3625,19 @@
     </row>
     <row r="6" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B6" s="13">
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F6" s="13" t="str">
         <f t="shared" si="1"/>
@@ -3550,19 +3676,19 @@
         <v/>
       </c>
       <c r="G7" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -3576,7 +3702,7 @@
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
       <c r="W7" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X7" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3594,19 +3720,19 @@
         <v/>
       </c>
       <c r="G8" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -3620,7 +3746,7 @@
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
       <c r="W8" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X8" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3638,19 +3764,19 @@
         <v/>
       </c>
       <c r="G9" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
@@ -3664,7 +3790,7 @@
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
       <c r="W9" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X9" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3673,19 +3799,19 @@
     </row>
     <row r="10" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B10" s="13">
         <v>3</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F10" s="13" t="str">
         <f t="shared" si="1"/>
@@ -3724,19 +3850,19 @@
         <v/>
       </c>
       <c r="G11" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -3750,7 +3876,7 @@
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
       <c r="W11" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X11" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3768,19 +3894,19 @@
         <v/>
       </c>
       <c r="G12" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -3794,7 +3920,7 @@
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
       <c r="W12" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X12" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3812,19 +3938,19 @@
         <v/>
       </c>
       <c r="G13" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
@@ -3838,7 +3964,7 @@
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
       <c r="W13" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X13" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3856,19 +3982,19 @@
         <v/>
       </c>
       <c r="G14" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
@@ -3882,7 +4008,7 @@
       <c r="U14" s="19"/>
       <c r="V14" s="19"/>
       <c r="W14" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X14" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3900,19 +4026,19 @@
         <v/>
       </c>
       <c r="G15" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K15" s="38" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
@@ -3926,7 +4052,7 @@
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
       <c r="W15" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X15" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3944,19 +4070,19 @@
         <v/>
       </c>
       <c r="G16" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K16" s="38" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
@@ -3970,7 +4096,7 @@
       <c r="U16" s="19"/>
       <c r="V16" s="19"/>
       <c r="W16" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X16" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3988,19 +4114,19 @@
         <v/>
       </c>
       <c r="G17" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
@@ -4014,7 +4140,7 @@
       <c r="U17" s="19"/>
       <c r="V17" s="19"/>
       <c r="W17" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X17" s="25" t="str">
         <f t="shared" si="0"/>
@@ -4032,19 +4158,19 @@
         <v/>
       </c>
       <c r="G18" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H18" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="J18" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>249</v>
-      </c>
       <c r="K18" s="38" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
@@ -4058,7 +4184,7 @@
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X18" s="25" t="str">
         <f t="shared" si="0"/>
@@ -4076,19 +4202,19 @@
         <v/>
       </c>
       <c r="G19" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K19" s="38" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
@@ -4102,7 +4228,7 @@
       <c r="U19" s="19"/>
       <c r="V19" s="19"/>
       <c r="W19" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X19" s="25" t="str">
         <f t="shared" si="0"/>
@@ -4120,19 +4246,19 @@
         <v/>
       </c>
       <c r="G20" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K20" s="38" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
@@ -4146,7 +4272,7 @@
       <c r="U20" s="19"/>
       <c r="V20" s="19"/>
       <c r="W20" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X20" s="25" t="str">
         <f t="shared" si="0"/>
@@ -4164,19 +4290,19 @@
         <v/>
       </c>
       <c r="G21" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K21" s="38" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
@@ -4190,7 +4316,7 @@
       <c r="U21" s="19"/>
       <c r="V21" s="19"/>
       <c r="W21" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X21" s="25" t="str">
         <f t="shared" si="0"/>
@@ -4210,35 +4336,35 @@
   </sheetPr>
   <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="97.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="108.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>11</v>
@@ -4249,20 +4375,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="E3" s="30">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>CONCATENATE("{ ""_id"" :",A3,", ""fullname"":""",B3,""", ""name"":""",C3,""", ""sname"": """,D3,"""",",""form_id"":",E3,"},")</f>
-        <v>{ "_id" :1, "fullname":"Харьков ГРС 1,  Q за час", "name":"XXX-YYY-000-ZZZ-001", "sname": "Q","form_id":1},</v>
+        <v>{ "_id" :1, "fullname":"Режим КС Бобровницька-05", "name":"КС Бобровницька-05", "sname": "Режим","form_id":1},</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4270,20 +4396,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="E4" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" ref="F4:F8" si="0">CONCATENATE("{ ""_id"" :",A4,", ""fullname"":""",B4,""", ""name"":""",C4,""", ""sname"": """,D4,"""",",""form_id"":",E4,"},")</f>
-        <v>{ "_id" :2, "fullname":"Харьков ГРС 1,  P ср час", "name":"XXX-YYY-000-ZZZ-001", "sname": "P","form_id":2},</v>
+        <f t="shared" ref="F4:F17" si="0">CONCATENATE("{ ""_id"" :",A4,", ""fullname"":""",B4,""", ""name"":""",C4,""", ""sname"": """,D4,"""",",""form_id"":",E4,"},")</f>
+        <v>{ "_id" :2, "fullname":"Режим ДКС Мрин", "name":"ДКС Мрин", "sname": "Режим","form_id":1},</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4291,20 +4417,20 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>264</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="E5" s="30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{ "_id" :3, "fullname":"Харьков ГРС 1,  Т ср час", "name":"XXX-YYY-000-ZZZ-001", "sname": "T","form_id":3},</v>
+        <v>{ "_id" :3, "fullname":"Режим ДКС Солоха", "name":"ДКС Солоха", "sname": "Режим","form_id":1},</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4312,20 +4438,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>265</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="E6" s="30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{ "_id" :4, "fullname":"Харьков ГРС 2,  Q за час", "name":"XXX-YYY-000-ZZZ-002", "sname": "Q","form_id":4},</v>
+        <v>{ "_id" :4, "fullname":"Режим ДКС Олишівка", "name":"ДКС Олишівка", "sname": "Режим","form_id":1},</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4333,20 +4459,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>266</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="E7" s="30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{ "_id" :5, "fullname":"Харьков ГРС 2,  P ср час", "name":"XXX-YYY-000-ZZZ-002", "sname": "P","form_id":5},</v>
+        <v>{ "_id" :5, "fullname":"Режим ПСГ Ч-Партизани", "name":"ПСГ Ч-Партизани", "sname": "Режим","form_id":2},</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4354,85 +4480,189 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>267</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="E8" s="30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{ "_id" :6, "fullname":"Харьков ГРС 2,  Т ср час", "name":"XXX-YYY-000-ZZZ-002", "sname": "T","form_id":6},</v>
+        <v>{ "_id" :6, "fullname":"Режим ПСГ Солоха", "name":"ПСГ Солоха", "sname": "Режим","form_id":2},</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="E9" s="30">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "_id" :7, "fullname":"Режим ПСГ Олишівка", "name":"ПСГ Олишівка", "sname": "Режим","form_id":2},</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" s="30">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "_id" :8, "fullname":"Стан ПСГ Ч-Партизани", "name":"ПСГ Ч-Партизани", "sname": "Стан","form_id":3},</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="E11" s="30">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "_id" :9, "fullname":"Стан ПСГ Солоха", "name":"ПСГ Солоха", "sname": "Стан","form_id":3},</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="E12" s="30">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "_id" :10, "fullname":"Стан ПСГ Олишівка", "name":"ПСГ Олишівка", "sname": "Стан","form_id":3},</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="E13" s="30">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "_id" :11, "fullname":"ВТВ ПСГ Ч-Партизани", "name":"ПСГ Ч-Партизани", "sname": "ВТВ","form_id":4},</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="E14" s="30">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "_id" :12, "fullname":"ВТВ ПСГ Солоха", "name":"ПСГ Солоха", "sname": "ВТВ","form_id":4},</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="E15" s="30">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "_id" :13, "fullname":"ВТВ ПСГ Олишівка", "name":"ПСГ Олишівка", "sname": "ВТВ","form_id":4},</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D16" s="30">
+        <v>11</v>
+      </c>
+      <c r="E16" s="30">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "_id" :14, "fullname":"ДКС Солоха Кран 11", "name":"Кран 11", "sname": "11","form_id":5},</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -4487,10 +4717,10 @@
     </row>
     <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -4540,7 +4770,7 @@
         <v>1000</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I3" s="1">
         <v>192</v>
@@ -4573,7 +4803,7 @@
         <v>1000</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I4" s="1">
         <v>192</v>
@@ -4606,7 +4836,7 @@
         <v>1000</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I5" s="1">
         <v>192</v>
@@ -4639,7 +4869,7 @@
         <v>1000</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I6" s="1">
         <v>192</v>
@@ -4672,7 +4902,7 @@
         <v>1000</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I7" s="1">
         <v>192</v>
@@ -4705,7 +4935,7 @@
         <v>1000</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I8" s="1">
         <v>192</v>
@@ -4738,7 +4968,7 @@
         <v>1000</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I9" s="1">
         <v>192</v>
@@ -4771,7 +5001,7 @@
         <v>1000</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I10" s="1">
         <v>192</v>
@@ -4804,7 +5034,7 @@
         <v>1000</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I11" s="1">
         <v>192</v>
@@ -4837,7 +5067,7 @@
         <v>1000</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I12" s="1">
         <v>192</v>
@@ -4870,7 +5100,7 @@
         <v>1000</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I13" s="1">
         <v>192</v>
@@ -4903,7 +5133,7 @@
         <v>1000</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1">
         <v>192</v>
@@ -4936,7 +5166,7 @@
         <v>1000</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I15" s="1">
         <v>192</v>
@@ -4969,7 +5199,7 @@
         <v>1000</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I16" s="1">
         <v>192</v>
@@ -5002,7 +5232,7 @@
         <v>1000</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I17" s="1">
         <v>192</v>
@@ -5035,7 +5265,7 @@
         <v>1000</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I18" s="1">
         <v>192</v>
@@ -5068,7 +5298,7 @@
         <v>1000</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I19" s="1">
         <v>192</v>
@@ -5101,7 +5331,7 @@
         <v>1000</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I20" s="1">
         <v>192</v>
@@ -5134,7 +5364,7 @@
         <v>1000</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I21" s="1">
         <v>192</v>
@@ -5167,7 +5397,7 @@
         <v>1000</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I22" s="1">
         <v>192</v>
@@ -5200,7 +5430,7 @@
         <v>1000</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I23" s="1">
         <v>192</v>
@@ -5233,7 +5463,7 @@
         <v>1000</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I24" s="1">
         <v>192</v>
@@ -5266,7 +5496,7 @@
         <v>1000</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I25" s="1">
         <v>192</v>
@@ -5299,7 +5529,7 @@
         <v>1000</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I26" s="1">
         <v>192</v>
@@ -5332,7 +5562,7 @@
         <v>1000</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I27" s="1">
         <v>192</v>
@@ -5365,7 +5595,7 @@
         <v>1000</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I28" s="1">
         <v>192</v>
@@ -5398,7 +5628,7 @@
         <v>1000</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I29" s="1">
         <v>192</v>
@@ -5431,7 +5661,7 @@
         <v>1000</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I30" s="1">
         <v>192</v>
@@ -5464,7 +5694,7 @@
         <v>1000</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I31" s="1">
         <v>192</v>
@@ -5497,7 +5727,7 @@
         <v>1000</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I32" s="1">
         <v>192</v>
@@ -5530,7 +5760,7 @@
         <v>1000</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I33" s="1">
         <v>192</v>
@@ -5563,7 +5793,7 @@
         <v>1000</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I34" s="1">
         <v>192</v>
@@ -5596,7 +5826,7 @@
         <v>1000</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I35" s="1">
         <v>192</v>
@@ -5629,7 +5859,7 @@
         <v>1000</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I36" s="1">
         <v>192</v>
@@ -5662,7 +5892,7 @@
         <v>1000</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I37" s="1">
         <v>192</v>
@@ -5695,7 +5925,7 @@
         <v>1000</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I38" s="1">
         <v>192</v>
@@ -5737,7 +5967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -5763,7 +5993,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -5779,10 +6009,10 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>19</v>
@@ -5812,10 +6042,10 @@
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J3" s="32">
         <v>192</v>
@@ -5846,10 +6076,10 @@
       </c>
       <c r="G4" s="32"/>
       <c r="H4" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J4" s="32">
         <v>192</v>
@@ -5880,10 +6110,10 @@
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J5" s="32">
         <v>192</v>
@@ -5914,10 +6144,10 @@
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J6" s="32">
         <v>192</v>
@@ -5948,10 +6178,10 @@
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J7" s="32">
         <v>192</v>
@@ -5982,10 +6212,10 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J8" s="32">
         <v>192</v>
@@ -6016,10 +6246,10 @@
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J9" s="32">
         <v>192</v>
@@ -6050,10 +6280,10 @@
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J10" s="32">
         <v>192</v>
@@ -6084,10 +6314,10 @@
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J11" s="32">
         <v>192</v>
@@ -6118,10 +6348,10 @@
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J12" s="34">
         <v>192</v>
@@ -6152,10 +6382,10 @@
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J13" s="34">
         <v>192</v>
@@ -6186,10 +6416,10 @@
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J14" s="34">
         <v>192</v>
@@ -6220,10 +6450,10 @@
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J15" s="34">
         <v>192</v>
@@ -6254,10 +6484,10 @@
       </c>
       <c r="G16" s="34"/>
       <c r="H16" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J16" s="34">
         <v>192</v>
@@ -6288,10 +6518,10 @@
       </c>
       <c r="G17" s="34"/>
       <c r="H17" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J17" s="34">
         <v>192</v>
@@ -6322,10 +6552,10 @@
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J18" s="34">
         <v>192</v>
@@ -6356,10 +6586,10 @@
       </c>
       <c r="G19" s="34"/>
       <c r="H19" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J19" s="34">
         <v>192</v>
@@ -6390,10 +6620,10 @@
       </c>
       <c r="G20" s="34"/>
       <c r="H20" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J20" s="34">
         <v>192</v>
@@ -6424,10 +6654,10 @@
       </c>
       <c r="G21" s="36"/>
       <c r="H21" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J21" s="36">
         <v>192</v>
@@ -6458,10 +6688,10 @@
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J22" s="36">
         <v>193</v>
@@ -6492,10 +6722,10 @@
       </c>
       <c r="G23" s="36"/>
       <c r="H23" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J23" s="36">
         <v>194</v>
@@ -6526,10 +6756,10 @@
       </c>
       <c r="G24" s="36"/>
       <c r="H24" s="36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J24" s="36">
         <v>195</v>
@@ -6560,10 +6790,10 @@
       </c>
       <c r="G25" s="36"/>
       <c r="H25" s="36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J25" s="36">
         <v>196</v>
@@ -6594,10 +6824,10 @@
       </c>
       <c r="G26" s="36"/>
       <c r="H26" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J26" s="36">
         <v>197</v>
@@ -6628,10 +6858,10 @@
       </c>
       <c r="G27" s="36"/>
       <c r="H27" s="36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J27" s="36">
         <v>198</v>
@@ -6662,10 +6892,10 @@
       </c>
       <c r="G28" s="36"/>
       <c r="H28" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J28" s="36">
         <v>199</v>
@@ -6696,10 +6926,10 @@
       </c>
       <c r="G29" s="36"/>
       <c r="H29" s="36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I29" s="36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J29" s="36">
         <v>200</v>
@@ -6730,10 +6960,10 @@
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I30" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J30" s="34">
         <v>201</v>
@@ -6764,10 +6994,10 @@
       </c>
       <c r="G31" s="34"/>
       <c r="H31" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I31" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J31" s="34">
         <v>202</v>
@@ -6798,10 +7028,10 @@
       </c>
       <c r="G32" s="34"/>
       <c r="H32" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I32" s="34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J32" s="34">
         <v>203</v>
@@ -6832,10 +7062,10 @@
       </c>
       <c r="G33" s="34"/>
       <c r="H33" s="34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I33" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J33" s="34">
         <v>204</v>
@@ -6866,10 +7096,10 @@
       </c>
       <c r="G34" s="34"/>
       <c r="H34" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I34" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J34" s="34">
         <v>205</v>
@@ -6900,10 +7130,10 @@
       </c>
       <c r="G35" s="34"/>
       <c r="H35" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I35" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J35" s="34">
         <v>206</v>
@@ -6934,10 +7164,10 @@
       </c>
       <c r="G36" s="34"/>
       <c r="H36" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J36" s="34">
         <v>207</v>
@@ -6968,10 +7198,10 @@
       </c>
       <c r="G37" s="34"/>
       <c r="H37" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I37" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J37" s="34">
         <v>208</v>
@@ -7002,10 +7232,10 @@
       </c>
       <c r="G38" s="34"/>
       <c r="H38" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I38" s="34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J38" s="34">
         <v>209</v>
@@ -7050,7 +7280,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>13</v>
@@ -7066,10 +7296,10 @@
       </c>
       <c r="G2" s="31"/>
       <c r="H2" s="31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>19</v>
@@ -7099,10 +7329,10 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J3" s="1">
         <v>192</v>
@@ -7133,10 +7363,10 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J4" s="1">
         <v>192</v>
@@ -7167,10 +7397,10 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J5" s="1">
         <v>192</v>
@@ -7201,10 +7431,10 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J6" s="1">
         <v>192</v>
@@ -7235,10 +7465,10 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J7" s="1">
         <v>192</v>
@@ -7269,10 +7499,10 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J8" s="1">
         <v>192</v>
@@ -7303,10 +7533,10 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J9" s="1">
         <v>192</v>
@@ -7337,10 +7567,10 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J10" s="1">
         <v>192</v>
@@ -7371,10 +7601,10 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J11" s="1">
         <v>192</v>
@@ -7405,10 +7635,10 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J12" s="1">
         <v>192</v>
@@ -7439,10 +7669,10 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J13" s="1">
         <v>192</v>
@@ -7473,10 +7703,10 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J14" s="1">
         <v>192</v>
@@ -7507,10 +7737,10 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J15" s="1">
         <v>192</v>
@@ -7541,10 +7771,10 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J16" s="1">
         <v>192</v>
@@ -7575,10 +7805,10 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J17" s="1">
         <v>192</v>
@@ -7609,10 +7839,10 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J18" s="1">
         <v>192</v>
@@ -7643,10 +7873,10 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J19" s="1">
         <v>192</v>
@@ -7677,10 +7907,10 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J20" s="1">
         <v>192</v>
@@ -7711,10 +7941,10 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J21" s="1">
         <v>192</v>
@@ -7744,10 +7974,10 @@
         <v>100</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J22" s="1">
         <v>192</v>
@@ -7777,10 +8007,10 @@
         <v>100</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J23" s="1">
         <v>192</v>
@@ -7810,10 +8040,10 @@
         <v>100</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J24" s="1">
         <v>192</v>
@@ -7843,10 +8073,10 @@
         <v>100</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J25" s="1">
         <v>192</v>
@@ -7876,10 +8106,10 @@
         <v>100</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J26" s="1">
         <v>192</v>
@@ -7909,10 +8139,10 @@
         <v>100</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J27" s="1">
         <v>192</v>
@@ -7942,10 +8172,10 @@
         <v>100</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J28" s="1">
         <v>192</v>
@@ -7975,10 +8205,10 @@
         <v>100</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J29" s="1">
         <v>192</v>
@@ -8008,10 +8238,10 @@
         <v>100</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J30" s="1">
         <v>192</v>
@@ -8041,10 +8271,10 @@
         <v>100</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J31" s="1">
         <v>192</v>
@@ -8074,10 +8304,10 @@
         <v>100</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J32" s="1">
         <v>192</v>
@@ -8107,10 +8337,10 @@
         <v>100</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J33" s="1">
         <v>192</v>
@@ -8140,10 +8370,10 @@
         <v>100</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J34" s="1">
         <v>192</v>
@@ -8173,10 +8403,10 @@
         <v>100</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J35" s="1">
         <v>192</v>
@@ -8206,10 +8436,10 @@
         <v>100</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J36" s="1">
         <v>192</v>
@@ -8239,10 +8469,10 @@
         <v>100</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J37" s="1">
         <v>192</v>
@@ -8272,10 +8502,10 @@
         <v>100</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J38" s="1">
         <v>192</v>
@@ -8321,22 +8551,22 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>18</v>
@@ -8356,13 +8586,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -8371,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I3" s="1">
         <v>192</v>
@@ -8389,13 +8619,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -8404,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I4" s="1">
         <v>192</v>
@@ -8422,13 +8652,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -8437,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I5" s="1">
         <v>192</v>
@@ -8455,13 +8685,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -8470,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I6" s="1">
         <v>192</v>
@@ -8488,13 +8718,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -8503,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I7" s="1">
         <v>192</v>
@@ -8521,13 +8751,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -8536,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I8" s="1">
         <v>192</v>
@@ -8554,13 +8784,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -8569,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I9" s="1">
         <v>192</v>
@@ -8587,13 +8817,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -8602,7 +8832,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I10" s="1">
         <v>192</v>
@@ -8620,13 +8850,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -8635,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I11" s="1">
         <v>192</v>
@@ -8653,13 +8883,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -8668,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I12" s="1">
         <v>192</v>
@@ -8686,13 +8916,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -8701,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I13" s="1">
         <v>192</v>
@@ -8719,13 +8949,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -8734,7 +8964,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I14" s="1">
         <v>192</v>
@@ -8752,13 +8982,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -8767,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I15" s="1">
         <v>192</v>
@@ -8785,13 +9015,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -8800,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I16" s="1">
         <v>192</v>
@@ -8818,13 +9048,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -8833,7 +9063,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I17" s="1">
         <v>192</v>
@@ -8851,13 +9081,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -8866,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I18" s="1">
         <v>192</v>
@@ -8884,13 +9114,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -8899,7 +9129,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I19" s="1">
         <v>192</v>
@@ -8917,13 +9147,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -8932,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I20" s="1">
         <v>192</v>
@@ -8950,13 +9180,13 @@
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -8965,7 +9195,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I21" s="1">
         <v>192</v>
@@ -8983,13 +9213,13 @@
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -8998,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I22" s="1">
         <v>192</v>
@@ -9016,13 +9246,13 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -9031,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I23" s="1">
         <v>192</v>
@@ -9049,13 +9279,13 @@
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -9064,7 +9294,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I24" s="1">
         <v>192</v>
@@ -9082,13 +9312,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -9097,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I25" s="1">
         <v>192</v>
@@ -9115,13 +9345,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -9130,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I26" s="1">
         <v>192</v>
@@ -9148,13 +9378,13 @@
         <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -9163,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I27" s="1">
         <v>192</v>
@@ -9181,13 +9411,13 @@
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -9196,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I28" s="1">
         <v>192</v>
@@ -9214,13 +9444,13 @@
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -9229,7 +9459,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I29" s="1">
         <v>192</v>
@@ -9247,13 +9477,13 @@
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -9262,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I30" s="1">
         <v>192</v>
@@ -9280,13 +9510,13 @@
         <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -9295,7 +9525,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I31" s="1">
         <v>192</v>
@@ -9313,13 +9543,13 @@
         <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -9328,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I32" s="1">
         <v>192</v>
@@ -9346,13 +9576,13 @@
         <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -9361,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I33" s="1">
         <v>192</v>
@@ -9379,13 +9609,13 @@
         <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -9394,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I34" s="1">
         <v>192</v>
@@ -9412,13 +9642,13 @@
         <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -9427,7 +9657,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I35" s="1">
         <v>192</v>
@@ -9445,13 +9675,13 @@
         <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -9460,7 +9690,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I36" s="1">
         <v>192</v>
@@ -9478,13 +9708,13 @@
         <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -9493,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I37" s="1">
         <v>192</v>
@@ -9511,13 +9741,13 @@
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -9526,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I38" s="1">
         <v>192</v>
@@ -9584,82 +9814,82 @@
   <sheetData>
     <row r="1" spans="1:30" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I1" s="11"/>
       <c r="J1" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="22"/>
       <c r="M1" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N1" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="O1" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="O1" s="21" t="s">
-        <v>143</v>
-      </c>
       <c r="P1" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="21" t="s">
-        <v>52</v>
-      </c>
       <c r="Z1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" s="21" t="s">
-        <v>55</v>
-      </c>
       <c r="AB1" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AC1" s="27"/>
       <c r="AD1" s="23" t="s">
@@ -9668,37 +9898,37 @@
     </row>
     <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I2" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="13">
+        <v>30</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>137</v>
-      </c>
-      <c r="J2" s="13">
-        <v>30</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>139</v>
       </c>
       <c r="L2" s="13" t="str">
         <f>CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2)</f>
@@ -9743,55 +9973,55 @@
         <v/>
       </c>
       <c r="M3" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N3" s="8">
         <v>1</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P3" s="8">
         <v>0</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="V3" s="8">
         <v>100</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AB3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AC3" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD3" s="25" t="str">
         <f t="shared" si="0"/>
@@ -9815,55 +10045,55 @@
         <v/>
       </c>
       <c r="M4" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N4" s="8">
         <v>2</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P4" s="8">
         <v>0</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="V4" s="8">
         <v>100</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AA4" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AB4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AC4" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD4" s="25" t="str">
         <f t="shared" si="0"/>
@@ -9887,55 +10117,55 @@
         <v/>
       </c>
       <c r="M5" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N5" s="19">
         <v>3</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P5" s="19">
         <v>0</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="T5" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="V5" s="8">
         <v>100</v>
       </c>
       <c r="W5" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="Y5" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="AA5" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AB5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="AC5" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AD5" s="26" t="str">
         <f t="shared" si="0"/>
@@ -9944,37 +10174,37 @@
     </row>
     <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" s="13">
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I6" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="13">
+        <v>30</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>137</v>
-      </c>
-      <c r="J6" s="13">
-        <v>30</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>139</v>
       </c>
       <c r="L6" s="13" t="str">
         <f t="shared" si="1"/>
@@ -10019,55 +10249,55 @@
         <v/>
       </c>
       <c r="M7" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N7" s="8">
         <v>4</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P7" s="8">
         <v>0</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U7" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="V7" s="8">
         <v>100</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AA7" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AB7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AC7" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD7" s="25" t="str">
         <f t="shared" si="0"/>
@@ -10091,55 +10321,55 @@
         <v/>
       </c>
       <c r="M8" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N8" s="8">
         <v>5</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P8" s="8">
         <v>0</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="T8" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="V8" s="8">
         <v>100</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X8" s="8" t="s">
         <v>5</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z8" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AA8" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AB8" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AC8" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD8" s="25" t="str">
         <f t="shared" si="0"/>
@@ -10163,55 +10393,55 @@
         <v/>
       </c>
       <c r="M9" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N9" s="8">
         <v>6</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P9" s="19">
         <v>0</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="T9" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U9" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="V9" s="8">
         <v>100</v>
       </c>
       <c r="W9" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X9" s="19" t="s">
         <v>5</v>
       </c>
       <c r="Y9" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z9" s="19" t="s">
         <v>5</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AB9" s="19" t="s">
         <v>5</v>
       </c>
       <c r="AC9" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AD9" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10255,25 +10485,25 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="31" t="s">
+      <c r="E2" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="F2" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>162</v>
-      </c>
       <c r="G2" s="31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>18</v>
@@ -10296,19 +10526,19 @@
         <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G3" s="1">
         <v>1000</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I3" s="1">
         <v>192</v>
@@ -10329,19 +10559,19 @@
         <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G4" s="1">
         <v>1000</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I4" s="1">
         <v>192</v>
@@ -10362,19 +10592,19 @@
         <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G5" s="1">
         <v>1000</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I5" s="1">
         <v>192</v>
@@ -10395,19 +10625,19 @@
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G6" s="1">
         <v>1000</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I6" s="1">
         <v>192</v>
@@ -10428,19 +10658,19 @@
         <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G7" s="1">
         <v>1000</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I7" s="1">
         <v>192</v>
@@ -10461,19 +10691,19 @@
         <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G8" s="1">
         <v>1000</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I8" s="1">
         <v>192</v>
@@ -10494,19 +10724,19 @@
         <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G9" s="1">
         <v>1000</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I9" s="1">
         <v>192</v>
@@ -10527,19 +10757,19 @@
         <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G10" s="1">
         <v>1000</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I10" s="1">
         <v>192</v>
@@ -10560,19 +10790,19 @@
         <v>75</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G11" s="1">
         <v>1000</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I11" s="1">
         <v>192</v>
@@ -10593,19 +10823,19 @@
         <v>75</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G12" s="1">
         <v>1000</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I12" s="1">
         <v>192</v>
@@ -10626,19 +10856,19 @@
         <v>75</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G13" s="1">
         <v>1000</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I13" s="1">
         <v>192</v>
@@ -10659,19 +10889,19 @@
         <v>75</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G14" s="1">
         <v>1000</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I14" s="1">
         <v>192</v>
@@ -10692,19 +10922,19 @@
         <v>75</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G15" s="1">
         <v>1000</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I15" s="1">
         <v>192</v>
@@ -10725,19 +10955,19 @@
         <v>75</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G16" s="1">
         <v>1000</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I16" s="1">
         <v>192</v>
@@ -10758,19 +10988,19 @@
         <v>75</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G17" s="1">
         <v>1000</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I17" s="1">
         <v>192</v>
@@ -10791,19 +11021,19 @@
         <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G18" s="1">
         <v>1000</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I18" s="1">
         <v>192</v>
@@ -10824,19 +11054,19 @@
         <v>75</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G19" s="1">
         <v>1000</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I19" s="1">
         <v>192</v>
@@ -10857,19 +11087,19 @@
         <v>75</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G20" s="1">
         <v>1000</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I20" s="1">
         <v>192</v>
@@ -10890,19 +11120,19 @@
         <v>75</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G21" s="1">
         <v>1000</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I21" s="1">
         <v>192</v>
@@ -10923,19 +11153,19 @@
         <v>75</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G22" s="1">
         <v>1000</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I22" s="1">
         <v>192</v>
@@ -10956,19 +11186,19 @@
         <v>75</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G23" s="1">
         <v>1000</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I23" s="1">
         <v>192</v>
@@ -10989,19 +11219,19 @@
         <v>75</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G24" s="1">
         <v>1000</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I24" s="1">
         <v>192</v>
@@ -11022,19 +11252,19 @@
         <v>75</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G25" s="1">
         <v>1000</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I25" s="1">
         <v>192</v>
@@ -11055,19 +11285,19 @@
         <v>75</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G26" s="1">
         <v>1000</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I26" s="1">
         <v>192</v>
@@ -11085,10 +11315,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11098,30 +11328,34 @@
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="55.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="58.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="26.85546875" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" customWidth="1"/>
+    <col min="21" max="21" width="26.85546875" customWidth="1"/>
+    <col min="27" max="27" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>3</v>
@@ -11129,69 +11363,74 @@
       <c r="E1" s="11"/>
       <c r="F1" s="22"/>
       <c r="G1" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>173</v>
-      </c>
       <c r="K1" s="21" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M1" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="O1" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>188</v>
-      </c>
       <c r="Q1" s="21" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>191</v>
+        <v>291</v>
       </c>
       <c r="S1" s="21"/>
       <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="23" t="s">
+      <c r="U1" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>167</v>
+        <v>285</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F2" s="13" t="str">
         <f>CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>{"_id":1,"name":"Форма ввод № 1","controls":[</v>
+        <v>{"_id":1,"name":"Режим КС","controls":[</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -11210,618 +11449,1524 @@
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
       <c r="W2" s="14"/>
-      <c r="X2" s="24" t="str">
-        <f t="shared" ref="X2:X9" si="0">CONCATENATE(F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2)</f>
-        <v>{"_id":1,"name":"Форма ввод № 1","controls":[</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="24" t="str">
+        <f>CONCATENATE(F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,R2,S2,T2,Q2,U2,V2,W2,X2,Y2,Z2)</f>
+        <v>{"_id":1,"name":"Режим КС","controls":[</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="13" t="str">
-        <f t="shared" ref="F3:F9" si="1">CONCATENATE(A3,B3,C3,D3,E3)</f>
+        <f t="shared" ref="F3:F11" si="0">CONCATENATE(A3,B3,C3,D3,E3)</f>
         <v/>
       </c>
       <c r="G3" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="L3" s="8">
-        <v>100</v>
-      </c>
-      <c r="M3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="P3" s="8">
         <v>1</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
+        <v>312</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="V3" s="8"/>
-      <c r="W3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="X3" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>{"key":"param1","label":"Параметр 1","value":"100","controlType":"textbox","order":1,"options":[{}]},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3" s="24" t="str">
+        <f t="shared" ref="AA3:AA17" si="1">CONCATENATE(F3,G3,H3,I3,J3,K3,L3,M3,N3,O3,P3,R3,S3,T3,Q3,U3,V3,W3,X3,Y3,Z3)</f>
+        <v>{"key":"date","label":"Дата","value":"2020-03-18","controlType":"textbox","order":1,"type":"date","options":[{}]},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G4" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>175</v>
+        <v>256</v>
       </c>
       <c r="K4" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L4" s="41">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="N4" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="L4" s="8">
-        <v>101</v>
-      </c>
-      <c r="M4" s="8" t="s">
+      <c r="O4" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="P4" s="8">
         <v>2</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
+        <v>312</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>258</v>
+      </c>
       <c r="V4" s="8"/>
-      <c r="W4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="X4" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>{"key":"param2","label":"Параметр 2","value":"101","controlType":"textbox","order":2,"options":[{}]},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>{"key":"hour","label":"Година","value":"0","controlType":"textbox","order":2,"type":"text","options":[{"key":"+00", "value":0},{"key":"+02", "value":2},{"key":"+04", "value":4},{"key":"+06", "value":6},{"key":"+08", "value":8},{"key":"+10", "value":10},{"key":"+12", "value":12},{"key":"+14", "value":14},{"key":"+00", "value":16},{"key":"+18", "value":18},{"key":"+20", "value":20},{"key":"+22", "value":22}]},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G5" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>201</v>
+        <v>289</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>176</v>
+        <v>303</v>
       </c>
       <c r="K5" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L5" s="41">
+        <v>0</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="L5" s="8">
-        <v>102</v>
-      </c>
-      <c r="M5" s="19" t="s">
+      <c r="O5" s="19" t="s">
         <v>185</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>189</v>
       </c>
       <c r="P5" s="8">
         <v>3</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
+        <v>312</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="V5" s="19"/>
-      <c r="W5" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="X5" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>{"key":"param3","label":"Параметр 3","value":"102","controlType":"textbox","order":3,"options":[{}]}]},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="B6" s="13">
-        <v>2</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="F6" s="13" t="str">
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA5" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>{"_id":2,"name":"Форма ввод № 2","controls":[</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>{"_id":2,"name":"Форма ввод № 2","controls":[</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{"key":"p_in","label":"Рвх КС","value":"0","controlType":"textbox","order":3,"type":"text","options":[{}]},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L6" s="41">
+        <v>0</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="P6" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA6" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>{"key":"p_out","label":"Рвих КС","value":"0","controlType":"textbox","order":4,"type":"text","options":[{}]},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="F7" s="13"/>
       <c r="G7" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>202</v>
+        <v>300</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>177</v>
+        <v>299</v>
       </c>
       <c r="K7" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L7" s="41">
+        <v>0</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="N7" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="L7" s="8">
-        <v>104</v>
-      </c>
-      <c r="M7" s="8" t="s">
+      <c r="O7" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="N7" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="O7" s="8" t="s">
+      <c r="P7" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="U7" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="P7" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="10" t="s">
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA7" s="24" t="str">
+        <f t="shared" ref="AA7" si="2">CONCATENATE(F7,G7,H7,I7,J7,K7,L7,M7,N7,O7,P7,R7,S7,T7,Q7,U7,V7,W7,X7,Y7,Z7)</f>
+        <v>{"key":"num_gpa","label":"ГПА","value":"0","controlType":"textbox","order":4,"type":"text","options":[{}]}]},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="13">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="X7" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>{"key":"param5","label":"Параметр 5","value":"104","controlType":"textbox","order":5,"options":[{}]},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="D8" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>218</v>
+      </c>
       <c r="F8" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="L8" s="8">
-        <v>105</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="P8" s="8">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>193</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>{"_id":2,"name":"Режим ПСГ","controls":[</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="X8" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>{"key":"param6","label":"Параметр 6","value":"105","controlType":"textbox","order":6,"options":[{}]},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>{"_id":2,"name":"Режим ПСГ","controls":[</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="P9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA9" s="24" t="str">
         <f t="shared" si="1"/>
+        <v>{"key":"date","label":"Дата","value":"2020-03-18","controlType":"textbox","order":1,"type":"date","options":[{}]},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="13" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="K9" s="8" t="s">
+      <c r="G10" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L10" s="41">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="N10" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="L9" s="8">
-        <v>106</v>
-      </c>
-      <c r="M9" s="19" t="s">
+      <c r="O10" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="N9" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="O9" s="19" t="s">
+      <c r="P10" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA10" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>{"key":"hour","label":"Година","value":"0","controlType":"textbox","order":2,"type":"text","options":[{"key":"+00", "value":0},{"key":"+02", "value":2},{"key":"+04", "value":4},{"key":"+06", "value":6},{"key":"+08", "value":8},{"key":"+10", "value":10},{"key":"+12", "value":12},{"key":"+14", "value":14},{"key":"+00", "value":16},{"key":"+18", "value":18},{"key":"+20", "value":20},{"key":"+22", "value":22}]},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L11" s="41">
+        <v>0</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="P11" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="U11" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="P9" s="8">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="X9" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>{"key":"param7","label":"Параметр 7","value":"106","controlType":"textbox","order":7,"options":[{}]}]},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="B10" s="13">
-        <v>3</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="F10" s="13" t="str">
-        <f t="shared" ref="F10:F13" si="2">CONCATENATE(A10,B10,C10,D10,E10)</f>
-        <v>{"_id":3,"name":"Режим № 1","controls":[</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="25" t="str">
-        <f t="shared" ref="X10:X13" si="3">CONCATENATE(F10,G10,H10,I10,J10,K10,L10,M10,N10,O10,P10,Q10,R10,S10,T10,U10,V10,W10)</f>
-        <v>{"_id":3,"name":"Режим № 1","controls":[</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="13" t="str">
-        <f t="shared" si="2"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA11" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>{"key":"q_in","label":"Qзак","value":"0","controlType":"textbox","order":3,"type":"text","options":[{}]},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="13" t="str">
+        <f t="shared" ref="F12:F13" si="3">CONCATENATE(A12,B12,C12,D12,E12)</f>
         <v/>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="K11" s="8" t="s">
+      <c r="G12" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L12" s="41">
+        <v>0</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="N12" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="L11" s="8">
-        <v>104</v>
-      </c>
-      <c r="M11" s="8" t="s">
+      <c r="O12" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="N11" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="O11" s="8" t="s">
+      <c r="P12" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="U12" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="P11" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="X11" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>{"key":"date","label":"Дата","value":"104","controlType":"textbox","order":5,"options":[{}]},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="L12" s="8">
-        <v>105</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="P12" s="8">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="X12" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>{"key":"hour","label":"Година","value":"105","controlType":"dropdown","order":6,"options":[{"key":"+00", "value":0},{"key":"+02", "value":2},{"key":"+04", "value":4},{"key":"+06", "value":6},{"key":"+08", "value":8},{"key":"+10", "value":10},{"key":"+12", "value":12},{"key":"+14", "value":14},{"key":"+00", "value":16},{"key":"+18", "value":18},{"key":"+20", "value":20},{"key":"+22", "value":22}]},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA12" s="24" t="str">
+        <f t="shared" ref="AA12:AA13" si="4">CONCATENATE(F12,G12,H12,I12,J12,K12,L12,M12,N12,O12,P12,R12,S12,T12,Q12,U12,V12,W12,X12,Y12,Z12)</f>
+        <v>{"key":"q_out","label":"Qвідб","value":"0","controlType":"textbox","order":4,"type":"text","options":[{}]},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G13" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>204</v>
+        <v>295</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>179</v>
+        <v>296</v>
       </c>
       <c r="K13" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L13" s="41">
+        <v>0</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="N13" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="L13" s="8">
-        <v>106</v>
-      </c>
-      <c r="M13" s="19" t="s">
+      <c r="O13" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="N13" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="O13" s="19" t="s">
+      <c r="P13" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="U13" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="P13" s="8">
-        <v>7</v>
-      </c>
-      <c r="Q13" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
       <c r="V13" s="19"/>
-      <c r="W13" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="X13" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>{"key":"param7","label":"Параметр 7","value":"106","controlType":"textbox","order":7,"options":[{}]}]},</v>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA13" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v>{"key":"num_lines","label":"с.роб","value":"0","controlType":"textbox","order":5,"type":"text","options":[{}]}]},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" s="13">
+        <v>3</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="13" t="str">
+        <f t="shared" ref="F14:F17" si="5">CONCATENATE(A14,B14,C14,D14,E14)</f>
+        <v>{"_id":3,"name":"Стан ПСГ","controls":[</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>{"_id":3,"name":"Стан ПСГ","controls":[</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="P15" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA15" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>{"key":"date","label":"Дата","value":"2020-03-18","controlType":"textbox","order":1,"type":"date","options":[{}]},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="P16" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA16" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>{"key":"hour","label":"Година","value":"12:00:00","controlType":"textbox","order":2,"type":"time","options":[{}]},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" s="41">
+        <v>0</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="P17" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA17" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>{"key":"state","label":"Стан","value":"0","controlType":"dropdown","order":3,"type":"text","options":[{"key":"Відбір", "value":2},{"key":"Закачка", "value":1},{"key":"Нейтральний", "value":0}]}]},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B18" s="13">
+        <v>4</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" s="13" t="str">
+        <f>CONCATENATE(A18,B18,C18,D18,E18)</f>
+        <v>{"_id":4,"name":"ВТВ СПГ","controls":[</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="24" t="str">
+        <f>CONCATENATE(F18,G18,H18,I18,J18,K18,L18,M18,N18,O18,P18,R18,S18,T18,Q18,U18,V18,W18,X18,Y18,Z18)</f>
+        <v>{"_id":4,"name":"ВТВ СПГ","controls":[</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="13" t="str">
+        <f t="shared" ref="F19:F20" si="6">CONCATENATE(A19,B19,C19,D19,E19)</f>
+        <v/>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="P19" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA19" s="24" t="str">
+        <f t="shared" ref="AA19:AA26" si="7">CONCATENATE(F19,G19,H19,I19,J19,K19,L19,M19,N19,O19,P19,R19,S19,T19,Q19,U19,V19,W19,X19,Y19,Z19)</f>
+        <v>{"key":"date","label":"Дата","value":"2020-03-18","controlType":"textbox","order":1,"type":"date","options":[{}]},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L20" s="41">
+        <v>0</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="O20" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="P20" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA20" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>{"key":"dks","label":"ДКС","value":"0","controlType":"textbox","order":2,"type":"text","options":[{}]},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" s="41">
+        <v>0</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="P21" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA21" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>{"key":"fuel","label":"Паливний","value":"0","controlType":"textbox","order":3,"type":"text","options":[{}]},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" s="41">
+        <v>0</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="P22" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="U22" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA22" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>{"key":"psg","label":"ПСГ","value":"0","controlType":"textbox","order":4,"type":"text","options":[{}]}]},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B23" s="13">
+        <v>5</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F23" s="13" t="str">
+        <f t="shared" ref="F23:F26" si="8">CONCATENATE(A23,B23,C23,D23,E23)</f>
+        <v>{"_id":5,"name":"Стан крану","controls":[</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>{"_id":5,"name":"Стан крану","controls":[</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L24" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="P24" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="T24" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="U24" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA24" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>{"key":"date","label":"Дата","value":"2020-03-18","controlType":"textbox","order":1,"type":"date","options":[{}]},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="P25" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="T25" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="U25" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA25" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>{"key":"hour","label":"Година","value":"12:00:00","controlType":"textbox","order":2,"type":"time","options":[{}]},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L26" s="41">
+        <v>0</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="P26" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="T26" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="U26" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA26" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>{"key":"state","label":"Стан","value":"0","controlType":"dropdown","order":3,"type":"text","options":[{"key":"Відкритий", "value":1},{"key":"Закритий","value":0}]}]},</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xls/create-test-data.xlsx
+++ b/xls/create-test-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Корр-каналы" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="324">
   <si>
     <t>isAbsP</t>
   </si>
@@ -689,9 +689,6 @@
     <t>userid</t>
   </si>
   <si>
-    <t>{"userid":</t>
-  </si>
-  <si>
     <t>login1</t>
   </si>
   <si>
@@ -710,39 +707,6 @@
     <t>","link":"</t>
   </si>
   <si>
-    <t>Кнопка 1</t>
-  </si>
-  <si>
-    <t>Кнопка 2</t>
-  </si>
-  <si>
-    <t>Кнопка 3</t>
-  </si>
-  <si>
-    <t>Кнопка 5</t>
-  </si>
-  <si>
-    <t>Кнопка 6</t>
-  </si>
-  <si>
-    <t>Кнопка 7</t>
-  </si>
-  <si>
-    <t>Кнопка 9</t>
-  </si>
-  <si>
-    <t>Кнопка 10</t>
-  </si>
-  <si>
-    <t>Кнопка 11</t>
-  </si>
-  <si>
-    <t>Кнопка 12</t>
-  </si>
-  <si>
-    <t>Кнопка 13</t>
-  </si>
-  <si>
     <t>Кнопка 14</t>
   </si>
   <si>
@@ -761,9 +725,6 @@
     <t>Кнопка 19</t>
   </si>
   <si>
-    <t>table</t>
-  </si>
-  <si>
     <t>fullname</t>
   </si>
   <si>
@@ -975,6 +936,66 @@
   </si>
   <si>
     <t>[{"key":"Відкритий", "value":1},{"key":"Закритий","value":0}]</t>
+  </si>
+  <si>
+    <t>login2</t>
+  </si>
+  <si>
+    <t>login3</t>
+  </si>
+  <si>
+    <t>dbo/1</t>
+  </si>
+  <si>
+    <t>dbo/2</t>
+  </si>
+  <si>
+    <t>dbo/3</t>
+  </si>
+  <si>
+    <t>dbo/5</t>
+  </si>
+  <si>
+    <t>dbo/6</t>
+  </si>
+  <si>
+    <t>dbo/7</t>
+  </si>
+  <si>
+    <t>dbo/9</t>
+  </si>
+  <si>
+    <t>dbo/10</t>
+  </si>
+  <si>
+    <t>dbo/11</t>
+  </si>
+  <si>
+    <t>dbo/12</t>
+  </si>
+  <si>
+    <t>dbo/13</t>
+  </si>
+  <si>
+    <t>dbo/14</t>
+  </si>
+  <si>
+    <t>dbo/15</t>
+  </si>
+  <si>
+    <t>dbo/16</t>
+  </si>
+  <si>
+    <t>dbo/17</t>
+  </si>
+  <si>
+    <t>dbo/18</t>
+  </si>
+  <si>
+    <t>dbo/19</t>
+  </si>
+  <si>
+    <t>Режим ДКС</t>
   </si>
 </sst>
 </file>
@@ -1744,7 +1765,7 @@
     </row>
     <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
@@ -1819,7 +1840,7 @@
         <v/>
       </c>
       <c r="M3" s="8" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="N3" s="8">
         <v>1</v>
@@ -1891,7 +1912,7 @@
         <v/>
       </c>
       <c r="M4" s="8" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="N4" s="8">
         <v>2</v>
@@ -1963,7 +1984,7 @@
         <v/>
       </c>
       <c r="M5" s="19" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="N5" s="19">
         <v>3</v>
@@ -2020,7 +2041,7 @@
     </row>
     <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B6" s="13">
         <v>2</v>
@@ -2095,7 +2116,7 @@
         <v/>
       </c>
       <c r="M7" s="8" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="N7" s="8">
         <v>4</v>
@@ -2167,7 +2188,7 @@
         <v/>
       </c>
       <c r="M8" s="8" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="N8" s="8">
         <v>5</v>
@@ -2239,7 +2260,7 @@
         <v/>
       </c>
       <c r="M9" s="19" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="N9" s="8">
         <v>6</v>
@@ -2383,7 +2404,7 @@
     </row>
     <row r="2" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
@@ -2434,13 +2455,13 @@
         <v>167</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>194</v>
@@ -2598,7 +2619,7 @@
     </row>
     <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B7" s="13">
         <v>2</v>
@@ -2649,13 +2670,13 @@
         <v>167</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>194</v>
@@ -2813,7 +2834,7 @@
     </row>
     <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B12" s="13">
         <v>3</v>
@@ -2864,13 +2885,13 @@
         <v>167</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>194</v>
@@ -3388,7 +3409,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+      <selection activeCell="X2" sqref="X2:X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3403,6 +3424,7 @@
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="10.140625" customWidth="1"/>
     <col min="12" max="22" width="0" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
@@ -3427,10 +3449,10 @@
         <v>169</v>
       </c>
       <c r="I1" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>225</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>226</v>
       </c>
       <c r="K1" s="21"/>
       <c r="L1" s="21"/>
@@ -3451,7 +3473,7 @@
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
@@ -3460,14 +3482,14 @@
         <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>223</v>
       </c>
       <c r="F2" s="13" t="str">
         <f>CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>{"userid":1,"name":"login1","buttons":[</v>
+        <v>{"_id":1,"name":"login1","buttons":[</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -3488,7 +3510,7 @@
       <c r="W2" s="14"/>
       <c r="X2" s="24" t="str">
         <f t="shared" ref="X2:X21" si="0">CONCATENATE(F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2)</f>
-        <v>{"userid":1,"name":"login1","buttons":[</v>
+        <v>{"_id":1,"name":"login1","buttons":[</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3502,16 +3524,16 @@
         <v/>
       </c>
       <c r="G3" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>228</v>
+        <v>323</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="K3" s="38" t="s">
         <v>194</v>
@@ -3532,7 +3554,7 @@
       </c>
       <c r="X3" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"label":"Кнопка 1","link":"table"},</v>
+        <v>{"label":"Режим ДКС","link":"dbo/1"},</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3546,16 +3568,16 @@
         <v/>
       </c>
       <c r="G4" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>245</v>
+        <v>307</v>
       </c>
       <c r="K4" s="38" t="s">
         <v>194</v>
@@ -3576,7 +3598,7 @@
       </c>
       <c r="X4" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"label":"Кнопка 2","link":"table"},</v>
+        <v>{"label":"Режим ПСГ","link":"dbo/2"},</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3590,16 +3612,16 @@
         <v/>
       </c>
       <c r="G5" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>245</v>
+        <v>308</v>
       </c>
       <c r="K5" s="38" t="s">
         <v>194</v>
@@ -3620,12 +3642,12 @@
       </c>
       <c r="X5" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"label":"Кнопка 3","link":"table"}]},</v>
+        <v>{"label":"ВТВ","link":"dbo/3"}]},</v>
       </c>
     </row>
     <row r="6" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="B6" s="13">
         <v>2</v>
@@ -3634,14 +3656,14 @@
         <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>223</v>
       </c>
       <c r="F6" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>{"userid":2,"name":"login1","buttons":[</v>
+        <v>{"_id":2,"name":"login2","buttons":[</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -3662,7 +3684,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"userid":2,"name":"login1","buttons":[</v>
+        <v>{"_id":2,"name":"login2","buttons":[</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3676,16 +3698,16 @@
         <v/>
       </c>
       <c r="G7" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>231</v>
+        <v>323</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>245</v>
+        <v>309</v>
       </c>
       <c r="K7" s="38" t="s">
         <v>194</v>
@@ -3706,7 +3728,7 @@
       </c>
       <c r="X7" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"label":"Кнопка 5","link":"table"},</v>
+        <v>{"label":"Режим ДКС","link":"dbo/5"},</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3720,16 +3742,16 @@
         <v/>
       </c>
       <c r="G8" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>245</v>
+        <v>310</v>
       </c>
       <c r="K8" s="38" t="s">
         <v>194</v>
@@ -3750,7 +3772,7 @@
       </c>
       <c r="X8" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"label":"Кнопка 6","link":"table"},</v>
+        <v>{"label":"Режим ПСГ","link":"dbo/6"},</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3764,16 +3786,16 @@
         <v/>
       </c>
       <c r="G9" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>245</v>
+        <v>311</v>
       </c>
       <c r="K9" s="38" t="s">
         <v>194</v>
@@ -3794,12 +3816,12 @@
       </c>
       <c r="X9" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"label":"Кнопка 7","link":"table"}]},</v>
+        <v>{"label":"ВТВ","link":"dbo/7"}]},</v>
       </c>
     </row>
     <row r="10" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="B10" s="13">
         <v>3</v>
@@ -3808,14 +3830,14 @@
         <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>223</v>
       </c>
       <c r="F10" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>{"userid":3,"name":"login1","buttons":[</v>
+        <v>{"_id":3,"name":"login3","buttons":[</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -3836,7 +3858,7 @@
       <c r="W10" s="14"/>
       <c r="X10" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"userid":3,"name":"login1","buttons":[</v>
+        <v>{"_id":3,"name":"login3","buttons":[</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3850,16 +3872,16 @@
         <v/>
       </c>
       <c r="G11" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>234</v>
+        <v>323</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>245</v>
+        <v>312</v>
       </c>
       <c r="K11" s="38" t="s">
         <v>194</v>
@@ -3880,7 +3902,7 @@
       </c>
       <c r="X11" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"label":"Кнопка 9","link":"table"},</v>
+        <v>{"label":"Режим ДКС","link":"dbo/9"},</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3894,16 +3916,16 @@
         <v/>
       </c>
       <c r="G12" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>245</v>
+        <v>313</v>
       </c>
       <c r="K12" s="38" t="s">
         <v>194</v>
@@ -3924,7 +3946,7 @@
       </c>
       <c r="X12" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"label":"Кнопка 10","link":"table"},</v>
+        <v>{"label":"Режим ПСГ","link":"dbo/10"},</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3938,16 +3960,16 @@
         <v/>
       </c>
       <c r="G13" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>245</v>
+        <v>314</v>
       </c>
       <c r="K13" s="38" t="s">
         <v>194</v>
@@ -3968,7 +3990,7 @@
       </c>
       <c r="X13" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"label":"Кнопка 11","link":"table"},</v>
+        <v>{"label":"ВТВ","link":"dbo/11"},</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3982,16 +4004,16 @@
         <v/>
       </c>
       <c r="G14" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>245</v>
+        <v>315</v>
       </c>
       <c r="K14" s="38" t="s">
         <v>194</v>
@@ -4012,7 +4034,7 @@
       </c>
       <c r="X14" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"label":"Кнопка 12","link":"table"},</v>
+        <v>{"label":"Стан ПСГ","link":"dbo/12"},</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4026,16 +4048,16 @@
         <v/>
       </c>
       <c r="G15" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="K15" s="38" t="s">
         <v>194</v>
@@ -4056,7 +4078,7 @@
       </c>
       <c r="X15" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"label":"Кнопка 13","link":"table"},</v>
+        <v>{"label":"Стан крану","link":"dbo/13"},</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4070,16 +4092,16 @@
         <v/>
       </c>
       <c r="G16" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="K16" s="38" t="s">
         <v>194</v>
@@ -4100,7 +4122,7 @@
       </c>
       <c r="X16" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"label":"Кнопка 14","link":"table"},</v>
+        <v>{"label":"Кнопка 14","link":"dbo/14"},</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4114,16 +4136,16 @@
         <v/>
       </c>
       <c r="G17" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>245</v>
+        <v>318</v>
       </c>
       <c r="K17" s="38" t="s">
         <v>194</v>
@@ -4144,7 +4166,7 @@
       </c>
       <c r="X17" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"label":"Кнопка 15","link":"table"},</v>
+        <v>{"label":"Кнопка 15","link":"dbo/15"},</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4158,16 +4180,16 @@
         <v/>
       </c>
       <c r="G18" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="K18" s="38" t="s">
         <v>194</v>
@@ -4188,7 +4210,7 @@
       </c>
       <c r="X18" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"label":"Кнопка 16","link":"table"},</v>
+        <v>{"label":"Кнопка 16","link":"dbo/16"},</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4202,16 +4224,16 @@
         <v/>
       </c>
       <c r="G19" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>245</v>
+        <v>320</v>
       </c>
       <c r="K19" s="38" t="s">
         <v>194</v>
@@ -4232,7 +4254,7 @@
       </c>
       <c r="X19" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"label":"Кнопка 17","link":"table"},</v>
+        <v>{"label":"Кнопка 17","link":"dbo/17"},</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4246,16 +4268,16 @@
         <v/>
       </c>
       <c r="G20" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>245</v>
+        <v>321</v>
       </c>
       <c r="K20" s="38" t="s">
         <v>194</v>
@@ -4276,7 +4298,7 @@
       </c>
       <c r="X20" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"label":"Кнопка 18","link":"table"},</v>
+        <v>{"label":"Кнопка 18","link":"dbo/18"},</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4290,16 +4312,16 @@
         <v/>
       </c>
       <c r="G21" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="K21" s="38" t="s">
         <v>194</v>
@@ -4320,7 +4342,7 @@
       </c>
       <c r="X21" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"label":"Кнопка 19","link":"table"}]},</v>
+        <v>{"label":"Кнопка 19","link":"dbo/19"}]},</v>
       </c>
     </row>
   </sheetData>
@@ -4336,8 +4358,8 @@
   </sheetPr>
   <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4352,19 +4374,19 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>11</v>
@@ -4375,13 +4397,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E3" s="30">
         <v>1</v>
@@ -4396,19 +4418,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E4" s="30">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" ref="F4:F17" si="0">CONCATENATE("{ ""_id"" :",A4,", ""fullname"":""",B4,""", ""name"":""",C4,""", ""sname"": """,D4,"""",",""form_id"":",E4,"},")</f>
+        <f t="shared" ref="F4:F16" si="0">CONCATENATE("{ ""_id"" :",A4,", ""fullname"":""",B4,""", ""name"":""",C4,""", ""sname"": """,D4,"""",",""form_id"":",E4,"},")</f>
         <v>{ "_id" :2, "fullname":"Режим ДКС Мрин", "name":"ДКС Мрин", "sname": "Режим","form_id":1},</v>
       </c>
     </row>
@@ -4417,13 +4439,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E5" s="30">
         <v>1</v>
@@ -4438,13 +4460,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E6" s="30">
         <v>1</v>
@@ -4459,13 +4481,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E7" s="30">
         <v>2</v>
@@ -4480,13 +4502,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E8" s="30">
         <v>2</v>
@@ -4501,13 +4523,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E9" s="30">
         <v>2</v>
@@ -4522,13 +4544,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="E10" s="30">
         <v>3</v>
@@ -4543,13 +4565,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>267</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>280</v>
       </c>
       <c r="E11" s="30">
         <v>3</v>
@@ -4564,13 +4586,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="E12" s="30">
         <v>3</v>
@@ -4585,13 +4607,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="E13" s="30">
         <v>4</v>
@@ -4606,13 +4628,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="E14" s="30">
         <v>4</v>
@@ -4627,13 +4649,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="E15" s="30">
         <v>4</v>
@@ -4648,10 +4670,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="D16" s="30">
         <v>11</v>
@@ -4717,10 +4739,10 @@
     </row>
     <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -11317,8 +11339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11396,7 +11418,7 @@
         <v>186</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="S1" s="21"/>
       <c r="T1" s="21"/>
@@ -11414,7 +11436,7 @@
     </row>
     <row r="2" spans="1:27" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
@@ -11423,7 +11445,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>218</v>
@@ -11471,19 +11493,19 @@
         <v>167</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>178</v>
       </c>
       <c r="L3" s="41" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>181</v>
@@ -11501,10 +11523,10 @@
         <v>188</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="T3" s="8" t="s">
         <v>194</v>
@@ -11538,13 +11560,13 @@
         <v>167</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>178</v>
@@ -11556,7 +11578,7 @@
         <v>181</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>185</v>
@@ -11568,16 +11590,16 @@
         <v>188</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="T4" s="8" t="s">
         <v>194</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
@@ -11588,7 +11610,7 @@
       </c>
       <c r="AA4" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"hour","label":"Година","value":"0","controlType":"textbox","order":2,"type":"text","options":[{"key":"+00", "value":0},{"key":"+02", "value":2},{"key":"+04", "value":4},{"key":"+06", "value":6},{"key":"+08", "value":8},{"key":"+10", "value":10},{"key":"+12", "value":12},{"key":"+14", "value":14},{"key":"+00", "value":16},{"key":"+18", "value":18},{"key":"+20", "value":20},{"key":"+22", "value":22}]},</v>
+        <v>{"key":"hour","label":"Година","value":"0","controlType":"dropdown","order":2,"type":"text","options":[{"key":"+00", "value":0},{"key":"+02", "value":2},{"key":"+04", "value":4},{"key":"+06", "value":6},{"key":"+08", "value":8},{"key":"+10", "value":10},{"key":"+12", "value":12},{"key":"+14", "value":14},{"key":"+00", "value":16},{"key":"+18", "value":18},{"key":"+20", "value":20},{"key":"+22", "value":22}]},</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11605,13 +11627,13 @@
         <v>167</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>178</v>
@@ -11635,10 +11657,10 @@
         <v>188</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="T5" s="8" t="s">
         <v>194</v>
@@ -11669,13 +11691,13 @@
         <v>167</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>178</v>
@@ -11699,10 +11721,10 @@
         <v>188</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="T6" s="8" t="s">
         <v>194</v>
@@ -11733,13 +11755,13 @@
         <v>167</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>178</v>
@@ -11763,10 +11785,10 @@
         <v>188</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="T7" s="8" t="s">
         <v>194</v>
@@ -11788,7 +11810,7 @@
     </row>
     <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B8" s="13">
         <v>2</v>
@@ -11797,7 +11819,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>218</v>
@@ -11845,19 +11867,19 @@
         <v>167</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>178</v>
       </c>
       <c r="L9" s="41" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>181</v>
@@ -11875,10 +11897,10 @@
         <v>188</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="T9" s="8" t="s">
         <v>194</v>
@@ -11912,13 +11934,13 @@
         <v>167</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>178</v>
@@ -11930,7 +11952,7 @@
         <v>181</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>185</v>
@@ -11942,16 +11964,16 @@
         <v>188</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="T10" s="8" t="s">
         <v>194</v>
       </c>
       <c r="U10" s="8" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
@@ -11962,7 +11984,7 @@
       </c>
       <c r="AA10" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>{"key":"hour","label":"Година","value":"0","controlType":"textbox","order":2,"type":"text","options":[{"key":"+00", "value":0},{"key":"+02", "value":2},{"key":"+04", "value":4},{"key":"+06", "value":6},{"key":"+08", "value":8},{"key":"+10", "value":10},{"key":"+12", "value":12},{"key":"+14", "value":14},{"key":"+00", "value":16},{"key":"+18", "value":18},{"key":"+20", "value":20},{"key":"+22", "value":22}]},</v>
+        <v>{"key":"hour","label":"Година","value":"0","controlType":"dropdown","order":2,"type":"text","options":[{"key":"+00", "value":0},{"key":"+02", "value":2},{"key":"+04", "value":4},{"key":"+06", "value":6},{"key":"+08", "value":8},{"key":"+10", "value":10},{"key":"+12", "value":12},{"key":"+14", "value":14},{"key":"+00", "value":16},{"key":"+18", "value":18},{"key":"+20", "value":20},{"key":"+22", "value":22}]},</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11979,13 +12001,13 @@
         <v>167</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>178</v>
@@ -12009,10 +12031,10 @@
         <v>188</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="T11" s="8" t="s">
         <v>194</v>
@@ -12046,13 +12068,13 @@
         <v>167</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>178</v>
@@ -12076,10 +12098,10 @@
         <v>188</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="T12" s="8" t="s">
         <v>194</v>
@@ -12113,13 +12135,13 @@
         <v>167</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>178</v>
@@ -12143,10 +12165,10 @@
         <v>188</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="T13" s="8" t="s">
         <v>194</v>
@@ -12168,7 +12190,7 @@
     </row>
     <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B14" s="13">
         <v>3</v>
@@ -12177,7 +12199,7 @@
         <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>218</v>
@@ -12225,19 +12247,19 @@
         <v>167</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>178</v>
       </c>
       <c r="L15" s="41" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>181</v>
@@ -12255,10 +12277,10 @@
         <v>188</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="T15" s="8" t="s">
         <v>194</v>
@@ -12292,19 +12314,19 @@
         <v>167</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>178</v>
       </c>
       <c r="L16" s="41" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>181</v>
@@ -12322,10 +12344,10 @@
         <v>188</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="T16" s="8" t="s">
         <v>194</v>
@@ -12365,7 +12387,7 @@
         <v>176</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>178</v>
@@ -12377,7 +12399,7 @@
         <v>181</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="O17" s="8" t="s">
         <v>185</v>
@@ -12389,16 +12411,16 @@
         <v>188</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="T17" s="8" t="s">
         <v>194</v>
       </c>
       <c r="U17" s="8" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
@@ -12414,7 +12436,7 @@
     </row>
     <row r="18" spans="1:27" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B18" s="13">
         <v>4</v>
@@ -12423,7 +12445,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>218</v>
@@ -12471,19 +12493,19 @@
         <v>167</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>178</v>
       </c>
       <c r="L19" s="41" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>181</v>
@@ -12501,10 +12523,10 @@
         <v>188</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="S19" s="8" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="T19" s="8" t="s">
         <v>194</v>
@@ -12538,13 +12560,13 @@
         <v>167</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>178</v>
@@ -12568,10 +12590,10 @@
         <v>188</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="T20" s="8" t="s">
         <v>194</v>
@@ -12602,13 +12624,13 @@
         <v>167</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>178</v>
@@ -12632,10 +12654,10 @@
         <v>188</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="T21" s="8" t="s">
         <v>194</v>
@@ -12666,13 +12688,13 @@
         <v>167</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>178</v>
@@ -12696,10 +12718,10 @@
         <v>188</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="T22" s="8" t="s">
         <v>194</v>
@@ -12721,7 +12743,7 @@
     </row>
     <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B23" s="13">
         <v>5</v>
@@ -12730,7 +12752,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>218</v>
@@ -12778,19 +12800,19 @@
         <v>167</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>178</v>
       </c>
       <c r="L24" s="41" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>181</v>
@@ -12808,10 +12830,10 @@
         <v>188</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="S24" s="8" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="T24" s="8" t="s">
         <v>194</v>
@@ -12845,19 +12867,19 @@
         <v>167</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>178</v>
       </c>
       <c r="L25" s="41" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>181</v>
@@ -12875,10 +12897,10 @@
         <v>188</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="T25" s="8" t="s">
         <v>194</v>
@@ -12918,7 +12940,7 @@
         <v>176</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>178</v>
@@ -12930,7 +12952,7 @@
         <v>181</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="O26" s="8" t="s">
         <v>185</v>
@@ -12942,16 +12964,16 @@
         <v>188</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="T26" s="8" t="s">
         <v>194</v>
       </c>
       <c r="U26" s="8" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="V26" s="19"/>
       <c r="W26" s="19"/>

--- a/xls/create-test-data.xlsx
+++ b/xls/create-test-data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\node\oask-gtp-webapi\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24912" windowHeight="12840" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Корр-каналы" sheetId="5" r:id="rId1"/>
@@ -19,12 +24,12 @@
     <sheet name="GuiTable" sheetId="13" r:id="rId10"/>
     <sheet name="Menu" sheetId="14" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="350">
   <si>
     <t>isAbsP</t>
   </si>
@@ -632,54 +637,6 @@
     <t>","columns":[</t>
   </si>
   <si>
-    <t>param8</t>
-  </si>
-  <si>
-    <t>Параметр 8</t>
-  </si>
-  <si>
-    <t>param9</t>
-  </si>
-  <si>
-    <t>Параметр 9</t>
-  </si>
-  <si>
-    <t>param10</t>
-  </si>
-  <si>
-    <t>Параметр 10</t>
-  </si>
-  <si>
-    <t>param11</t>
-  </si>
-  <si>
-    <t>Параметр 11</t>
-  </si>
-  <si>
-    <t>param12</t>
-  </si>
-  <si>
-    <t>Параметр 12</t>
-  </si>
-  <si>
-    <t>param13</t>
-  </si>
-  <si>
-    <t>Параметр 13</t>
-  </si>
-  <si>
-    <t>param14</t>
-  </si>
-  <si>
-    <t>Параметр 14</t>
-  </si>
-  <si>
-    <t>param15</t>
-  </si>
-  <si>
-    <t>Параметр 15</t>
-  </si>
-  <si>
     <t>","controls":[</t>
   </si>
   <si>
@@ -731,12 +688,6 @@
     <t>object_id</t>
   </si>
   <si>
-    <t>sname</t>
-  </si>
-  <si>
-    <t>{"table_id":</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -773,18 +724,6 @@
     <t>off</t>
   </si>
   <si>
-    <t>КС Бобровницька-05</t>
-  </si>
-  <si>
-    <t>ДКС Мрин</t>
-  </si>
-  <si>
-    <t>ДКС Солоха</t>
-  </si>
-  <si>
-    <t>ДКС Олишівка</t>
-  </si>
-  <si>
     <t>ПСГ Ч-Партизани</t>
   </si>
   <si>
@@ -794,9 +733,6 @@
     <t>ПСГ Олишівка</t>
   </si>
   <si>
-    <t>Режим</t>
-  </si>
-  <si>
     <t>Режим КС Бобровницька-05</t>
   </si>
   <si>
@@ -996,12 +932,159 @@
   </si>
   <si>
     <t>Режим ДКС</t>
+  </si>
+  <si>
+    <t>kc_bobrovnitska_05</t>
+  </si>
+  <si>
+    <t>kc_mrin</t>
+  </si>
+  <si>
+    <t>kc_solokha</t>
+  </si>
+  <si>
+    <t>kc_olishevka</t>
+  </si>
+  <si>
+    <t>psg_red_partizanen</t>
+  </si>
+  <si>
+    <t>psg_solokha</t>
+  </si>
+  <si>
+    <t>psg_olishevka</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>DksRegim</t>
+  </si>
+  <si>
+    <t>PsgRegim</t>
+  </si>
+  <si>
+    <t>kc_bobrovnitska_05.p_in</t>
+  </si>
+  <si>
+    <t>kc_bobrovnitska_05.p_out</t>
+  </si>
+  <si>
+    <t>kc_bobrovnitska_05.e</t>
+  </si>
+  <si>
+    <t>kc_bobrovnitska_05.num_gpa</t>
+  </si>
+  <si>
+    <t>psg_red_partizanen.q_in</t>
+  </si>
+  <si>
+    <t>psg_red_partizanen.q_out</t>
+  </si>
+  <si>
+    <t>psg_red_partizanen.num_lines</t>
+  </si>
+  <si>
+    <t>kc_mrin.p_in</t>
+  </si>
+  <si>
+    <t>kc_mrin.p_out</t>
+  </si>
+  <si>
+    <t>kc_mrin.e</t>
+  </si>
+  <si>
+    <t>kc_mrin.num_gpa</t>
+  </si>
+  <si>
+    <t>Режим Мринське ВУ ПЗГ</t>
+  </si>
+  <si>
+    <t>psg_solokha.q_in</t>
+  </si>
+  <si>
+    <t>psg_solokha.q_out</t>
+  </si>
+  <si>
+    <t>psg_solokha.num_lines</t>
+  </si>
+  <si>
+    <t>kc_solokha.p_in</t>
+  </si>
+  <si>
+    <t>kc_solokha.p_out</t>
+  </si>
+  <si>
+    <t>kc_solokha.e</t>
+  </si>
+  <si>
+    <t>kc_solokha.num_gpa</t>
+  </si>
+  <si>
+    <t>psg_olishevka.q_in</t>
+  </si>
+  <si>
+    <t>psg_olishevka.q_out</t>
+  </si>
+  <si>
+    <t>psg_olishevka.num_lines</t>
+  </si>
+  <si>
+    <t>kc_olishevka.p_in</t>
+  </si>
+  <si>
+    <t>kc_olishevka.p_out</t>
+  </si>
+  <si>
+    <t>kc_olishevka.e</t>
+  </si>
+  <si>
+    <t>kc_olishevka.num_gpa</t>
+  </si>
+  <si>
+    <t>Рвх</t>
+  </si>
+  <si>
+    <t>Рвих</t>
+  </si>
+  <si>
+    <t>е</t>
+  </si>
+  <si>
+    <t>Qвід</t>
+  </si>
+  <si>
+    <t>#скв</t>
+  </si>
+  <si>
+    <t>q_in_total_ogsu</t>
+  </si>
+  <si>
+    <t>q_out_total_ogsu</t>
+  </si>
+  <si>
+    <t>q_in_total_vupzg</t>
+  </si>
+  <si>
+    <t>q_out_total_vupzg</t>
+  </si>
+  <si>
+    <t>Qзак ОГСУ</t>
+  </si>
+  <si>
+    <t>Qвід ОГСУ</t>
+  </si>
+  <si>
+    <t>Qзак ПСГ</t>
+  </si>
+  <si>
+    <t>Qвід ПСГ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1396,7 +1479,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1431,7 +1514,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1646,40 +1729,40 @@
       <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="108.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="101.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="108.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" customWidth="1"/>
+    <col min="14" max="14" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="101.88671875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
@@ -1763,9 +1846,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
@@ -1823,7 +1906,7 @@
         <v>{"_id":1,"name":"Корректор № 1","ip":"192.168.0.111","ftpDir":"./","addr":1,"channels":[</v>
       </c>
     </row>
-    <row r="3" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1840,7 +1923,7 @@
         <v/>
       </c>
       <c r="M3" s="8" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="N3" s="8">
         <v>1</v>
@@ -1895,7 +1978,7 @@
         <v>{"_id":1,"chno":1,"name":"Line 1","template":"S001R1","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="4" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -1912,7 +1995,7 @@
         <v/>
       </c>
       <c r="M4" s="8" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="N4" s="8">
         <v>2</v>
@@ -1967,7 +2050,7 @@
         <v>{"_id":2,"chno":2,"name":"Line 2","template":"S001R2","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="5" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -1984,7 +2067,7 @@
         <v/>
       </c>
       <c r="M5" s="19" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="N5" s="19">
         <v>3</v>
@@ -2039,9 +2122,9 @@
         <v>{"_id":3,"chno":3,"name":"Line 3","template":"S001R3","isAbsP":true,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B6" s="13">
         <v>2</v>
@@ -2099,7 +2182,7 @@
         <v>{"_id":2,"name":"Корректор № 2","ip":"192.168.0.112","ftpDir":"./","addr":2,"channels":[</v>
       </c>
     </row>
-    <row r="7" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2116,7 +2199,7 @@
         <v/>
       </c>
       <c r="M7" s="8" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="N7" s="8">
         <v>4</v>
@@ -2171,7 +2254,7 @@
         <v>{"_id":4,"chno":1,"name":"Line 1","template":"S001R1","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="8" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -2188,7 +2271,7 @@
         <v/>
       </c>
       <c r="M8" s="8" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="N8" s="8">
         <v>5</v>
@@ -2243,7 +2326,7 @@
         <v>{"_id":5,"chno":2,"name":"Line 2","template":"S001R2","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="9" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2260,7 +2343,7 @@
         <v/>
       </c>
       <c r="M9" s="19" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="N9" s="8">
         <v>6</v>
@@ -2315,7 +2398,7 @@
         <v>{"_id":6,"chno":3,"name":"Line 3","template":"S001R3","isAbsP":true,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="AD10" s="6" t="s">
         <v>12</v>
       </c>
@@ -2328,37 +2411,38 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="56.28515625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="9" hidden="1" customWidth="1"/>
     <col min="19" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="96.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="96.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>190</v>
       </c>
@@ -2402,9 +2486,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
@@ -2420,7 +2504,7 @@
       </c>
       <c r="F2" s="13" t="str">
         <f>CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>{"table_id":1,"name":"Таблица ввод № 1","columns":[</v>
+        <v>{"_id":1,"name":"Таблица ввод № 1","columns":[</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -2441,10 +2525,10 @@
       <c r="W2" s="14"/>
       <c r="X2" s="24" t="str">
         <f t="shared" ref="X2:X11" si="0">CONCATENATE(F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2)</f>
-        <v>{"table_id":1,"name":"Таблица ввод № 1","columns":[</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{"_id":1,"name":"Таблица ввод № 1","columns":[</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="40"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -2455,13 +2539,13 @@
         <v>167</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>194</v>
@@ -2485,7 +2569,7 @@
         <v>{"key":"time","label":"Время"},</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -2529,7 +2613,7 @@
         <v>{"key":"param1","label":"Параметр 1"},</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -2573,7 +2657,7 @@
         <v>{"key":"param2","label":"Параметр 2"},</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -2617,9 +2701,9 @@
         <v>{"key":"param3","label":"Параметр 3"}]},</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B7" s="13">
         <v>2</v>
@@ -2635,7 +2719,7 @@
       </c>
       <c r="F7" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>{"table_id":2,"name":"Таблица ввод № 1","columns":[</v>
+        <v>{"_id":2,"name":"Таблица ввод № 1","columns":[</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -2656,10 +2740,10 @@
       <c r="W7" s="14"/>
       <c r="X7" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>{"table_id":2,"name":"Таблица ввод № 1","columns":[</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{"_id":2,"name":"Таблица ввод № 1","columns":[</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="40"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2670,13 +2754,13 @@
         <v>167</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>194</v>
@@ -2700,7 +2784,7 @@
         <v>{"key":"time","label":"Время"},</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -2744,7 +2828,7 @@
         <v>{"key":"param5","label":"Параметр 5"},</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -2788,7 +2872,7 @@
         <v>{"key":"param6","label":"Параметр 6"},</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -2832,9 +2916,9 @@
         <v>{"key":"param7","label":"Параметр 7"}]},</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B12" s="13">
         <v>3</v>
@@ -2843,14 +2927,14 @@
         <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>201</v>
       </c>
       <c r="F12" s="13" t="str">
         <f t="shared" ref="F12:F16" si="2">CONCATENATE(A12,B12,C12,D12,E12)</f>
-        <v>{"table_id":3,"name":"Таблица ввод № 1","columns":[</v>
+        <v>{"_id":3,"name":"Режим Мринське ВУ ПЗГ","columns":[</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -2871,10 +2955,10 @@
       <c r="W12" s="14"/>
       <c r="X12" s="25" t="str">
         <f t="shared" ref="X12:X16" si="3">CONCATENATE(F12,G12,H12,I12,J12,K12,L12,M12,N12,O12,P12,Q12,R12,S12,T12,U12,V12,W12)</f>
-        <v>{"table_id":3,"name":"Таблица ввод № 1","columns":[</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{"_id":3,"name":"Режим Мринське ВУ ПЗГ","columns":[</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="40"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2885,13 +2969,13 @@
         <v>167</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>194</v>
@@ -2912,10 +2996,10 @@
       </c>
       <c r="X13" s="25" t="str">
         <f t="shared" ref="X13" si="4">CONCATENATE(F13,G13,H13,I13,J13,K13,L13,M13,N13,O13,P13,Q13,R13,S13,T13,U13,V13,W13)</f>
-        <v>{"key":"time","label":"Время"},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{"key":"time","label":"Година"},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -2928,14 +3012,14 @@
       <c r="G14" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>198</v>
+      <c r="H14" s="30" t="s">
+        <v>311</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>173</v>
+        <v>337</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>194</v>
@@ -2956,10 +3040,10 @@
       </c>
       <c r="X14" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>{"key":"param5","label":"Параметр 5"},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{"key":"kc_bobrovnitska_05.p_in","label":"Рвх"},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -2972,14 +3056,14 @@
       <c r="G15" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>199</v>
+      <c r="H15" s="30" t="s">
+        <v>312</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>174</v>
+        <v>338</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>194</v>
@@ -3000,10 +3084,10 @@
       </c>
       <c r="X15" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>{"key":"param6","label":"Параметр 6"},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{"key":"kc_bobrovnitska_05.p_out","label":"Рвих"},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -3016,14 +3100,14 @@
       <c r="G16" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>200</v>
+      <c r="H16" s="30" t="s">
+        <v>313</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>175</v>
+        <v>339</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>194</v>
@@ -3044,10 +3128,10 @@
       </c>
       <c r="X16" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>{"key":"param7","label":"Параметр 7"},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{"key":"kc_bobrovnitska_05.e","label":"е"},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -3060,14 +3144,14 @@
       <c r="G17" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>202</v>
+      <c r="H17" s="30" t="s">
+        <v>314</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>194</v>
@@ -3088,10 +3172,10 @@
       </c>
       <c r="X17" s="25" t="str">
         <f t="shared" ref="X17:X24" si="6">CONCATENATE(F17,G17,H17,I17,J17,K17,L17,M17,N17,O17,P17,Q17,R17,S17,T17,U17,V17,W17)</f>
-        <v>{"key":"param8","label":"Параметр 8"},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{"key":"kc_bobrovnitska_05.num_gpa","label":"ГПА"},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -3104,14 +3188,14 @@
       <c r="G18" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>204</v>
+      <c r="H18" s="30" t="s">
+        <v>315</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>194</v>
@@ -3132,10 +3216,10 @@
       </c>
       <c r="X18" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>{"key":"param9","label":"Параметр 9"},</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{"key":"psg_red_partizanen.q_in","label":"Qзак"},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -3148,14 +3232,14 @@
       <c r="G19" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>206</v>
+      <c r="H19" s="30" t="s">
+        <v>316</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>207</v>
+        <v>340</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>194</v>
@@ -3176,10 +3260,10 @@
       </c>
       <c r="X19" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>{"key":"param10","label":"Параметр 10"},</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{"key":"psg_red_partizanen.q_out","label":"Qвід"},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -3192,14 +3276,14 @@
       <c r="G20" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>208</v>
+      <c r="H20" s="30" t="s">
+        <v>317</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>209</v>
+        <v>341</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>194</v>
@@ -3220,10 +3304,10 @@
       </c>
       <c r="X20" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>{"key":"param11","label":"Параметр 11"},</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{"key":"psg_red_partizanen.num_lines","label":"#скв"},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -3236,14 +3320,14 @@
       <c r="G21" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>210</v>
+      <c r="H21" s="30" t="s">
+        <v>318</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>211</v>
+        <v>337</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>194</v>
@@ -3264,10 +3348,10 @@
       </c>
       <c r="X21" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>{"key":"param12","label":"Параметр 12"},</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{"key":"kc_mrin.p_in","label":"Рвх"},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -3280,14 +3364,14 @@
       <c r="G22" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>212</v>
+      <c r="H22" s="30" t="s">
+        <v>319</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>213</v>
+        <v>338</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>194</v>
@@ -3308,10 +3392,10 @@
       </c>
       <c r="X22" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>{"key":"param13","label":"Параметр 13"},</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{"key":"kc_mrin.p_out","label":"Рвих"},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -3324,14 +3408,14 @@
       <c r="G23" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>214</v>
+      <c r="H23" s="30" t="s">
+        <v>320</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>215</v>
+        <v>339</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>194</v>
@@ -3352,10 +3436,10 @@
       </c>
       <c r="X23" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>{"key":"param14","label":"Параметр 14"},</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>{"key":"kc_mrin.e","label":"е"},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -3368,14 +3452,14 @@
       <c r="G24" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>216</v>
+      <c r="H24" s="30" t="s">
+        <v>321</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>194</v>
@@ -3391,16 +3475,809 @@
       <c r="T24" s="19"/>
       <c r="U24" s="19"/>
       <c r="V24" s="19"/>
-      <c r="W24" s="20" t="s">
-        <v>31</v>
+      <c r="W24" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="X24" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>{"key":"param15","label":"Параметр 15"}]},</v>
+        <v>{"key":"kc_mrin.num_gpa","label":"ГПА"},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="13" t="str">
+        <f t="shared" ref="F25:F31" si="7">CONCATENATE(A25,B25,C25,D25,E25)</f>
+        <v/>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X25" s="25" t="str">
+        <f t="shared" ref="X25:X31" si="8">CONCATENATE(F25,G25,H25,I25,J25,K25,L25,M25,N25,O25,P25,Q25,R25,S25,T25,U25,V25,W25)</f>
+        <v>{"key":"psg_solokha.q_in","label":"Qзак"},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X26" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v>{"key":"psg_solokha.q_out","label":"Qвід"},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X27" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v>{"key":"psg_solokha.num_lines","label":"#скв"},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X28" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v>{"key":"kc_solokha.p_in","label":"Рвх"},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X29" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v>{"key":"kc_solokha.p_out","label":"Рвих"},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X30" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v>{"key":"kc_solokha.e","label":"е"},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X31" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v>{"key":"kc_solokha.num_gpa","label":"ГПА"},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="13" t="str">
+        <f t="shared" ref="F32:F38" si="9">CONCATENATE(A32,B32,C32,D32,E32)</f>
+        <v/>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X32" s="25" t="str">
+        <f t="shared" ref="X32:X38" si="10">CONCATENATE(F32,G32,H32,I32,J32,K32,L32,M32,N32,O32,P32,Q32,R32,S32,T32,U32,V32,W32)</f>
+        <v>{"key":"psg_olishevka.q_in","label":"Qзак"},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X33" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v>{"key":"psg_olishevka.q_out","label":"Qвід"},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X34" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v>{"key":"psg_olishevka.num_lines","label":"#скв"},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X35" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v>{"key":"kc_olishevka.p_in","label":"Рвх"},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X36" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v>{"key":"kc_olishevka.p_out","label":"Рвих"},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X37" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v>{"key":"kc_olishevka.e","label":"е"},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X38" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v>{"key":"kc_olishevka.num_gpa","label":"ГПА"},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="13" t="str">
+        <f t="shared" ref="F39:F42" si="11">CONCATENATE(A39,B39,C39,D39,E39)</f>
+        <v/>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X39" s="25" t="str">
+        <f t="shared" ref="X39:X42" si="12">CONCATENATE(F39,G39,H39,I39,J39,K39,L39,M39,N39,O39,P39,Q39,R39,S39,T39,U39,V39,W39)</f>
+        <v>{"key":"q_in_total_ogsu","label":"Qзак ОГСУ"},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X40" s="25" t="str">
+        <f t="shared" si="12"/>
+        <v>{"key":"q_out_total_ogsu","label":"Qвід ОГСУ"},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H41" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X41" s="25" t="str">
+        <f t="shared" si="12"/>
+        <v>{"key":"q_in_total_vupzg","label":"Qзак ПСГ"},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X42" s="25" t="str">
+        <f t="shared" si="12"/>
+        <v>{"key":"q_out_total_vupzg","label":"Qвід ПСГ"}]},</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3409,30 +4286,30 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:X21"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="46.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
     <col min="12" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="36.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>23</v>
@@ -3449,10 +4326,10 @@
         <v>169</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="K1" s="21"/>
       <c r="L1" s="21"/>
@@ -3471,9 +4348,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
@@ -3482,10 +4359,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="F2" s="13" t="str">
         <f>CONCATENATE(A2,B2,C2,D2,E2)</f>
@@ -3513,7 +4390,7 @@
         <v>{"_id":1,"name":"login1","buttons":[</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -3524,16 +4401,16 @@
         <v/>
       </c>
       <c r="G3" s="8" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="K3" s="38" t="s">
         <v>194</v>
@@ -3557,7 +4434,7 @@
         <v>{"label":"Режим ДКС","link":"dbo/1"},</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -3568,16 +4445,16 @@
         <v/>
       </c>
       <c r="G4" s="8" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="K4" s="38" t="s">
         <v>194</v>
@@ -3601,7 +4478,7 @@
         <v>{"label":"Режим ПСГ","link":"dbo/2"},</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -3612,16 +4489,16 @@
         <v/>
       </c>
       <c r="G5" s="8" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="K5" s="38" t="s">
         <v>194</v>
@@ -3645,9 +4522,9 @@
         <v>{"label":"ВТВ","link":"dbo/3"}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B6" s="13">
         <v>2</v>
@@ -3656,10 +4533,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="F6" s="13" t="str">
         <f t="shared" si="1"/>
@@ -3687,7 +4564,7 @@
         <v>{"_id":2,"name":"login2","buttons":[</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -3698,16 +4575,16 @@
         <v/>
       </c>
       <c r="G7" s="8" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="K7" s="38" t="s">
         <v>194</v>
@@ -3731,7 +4608,7 @@
         <v>{"label":"Режим ДКС","link":"dbo/5"},</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -3742,16 +4619,16 @@
         <v/>
       </c>
       <c r="G8" s="8" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="K8" s="38" t="s">
         <v>194</v>
@@ -3775,7 +4652,7 @@
         <v>{"label":"Режим ПСГ","link":"dbo/6"},</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -3786,16 +4663,16 @@
         <v/>
       </c>
       <c r="G9" s="8" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="K9" s="38" t="s">
         <v>194</v>
@@ -3819,9 +4696,9 @@
         <v>{"label":"ВТВ","link":"dbo/7"}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B10" s="13">
         <v>3</v>
@@ -3830,10 +4707,10 @@
         <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="F10" s="13" t="str">
         <f t="shared" si="1"/>
@@ -3861,7 +4738,7 @@
         <v>{"_id":3,"name":"login3","buttons":[</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -3872,16 +4749,16 @@
         <v/>
       </c>
       <c r="G11" s="8" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="K11" s="38" t="s">
         <v>194</v>
@@ -3905,7 +4782,7 @@
         <v>{"label":"Режим ДКС","link":"dbo/9"},</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -3916,16 +4793,16 @@
         <v/>
       </c>
       <c r="G12" s="8" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="K12" s="38" t="s">
         <v>194</v>
@@ -3949,7 +4826,7 @@
         <v>{"label":"Режим ПСГ","link":"dbo/10"},</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -3960,16 +4837,16 @@
         <v/>
       </c>
       <c r="G13" s="8" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="K13" s="38" t="s">
         <v>194</v>
@@ -3993,7 +4870,7 @@
         <v>{"label":"ВТВ","link":"dbo/11"},</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -4004,16 +4881,16 @@
         <v/>
       </c>
       <c r="G14" s="8" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="K14" s="38" t="s">
         <v>194</v>
@@ -4037,7 +4914,7 @@
         <v>{"label":"Стан ПСГ","link":"dbo/12"},</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -4048,16 +4925,16 @@
         <v/>
       </c>
       <c r="G15" s="8" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="K15" s="38" t="s">
         <v>194</v>
@@ -4081,7 +4958,7 @@
         <v>{"label":"Стан крану","link":"dbo/13"},</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -4092,16 +4969,16 @@
         <v/>
       </c>
       <c r="G16" s="8" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="K16" s="38" t="s">
         <v>194</v>
@@ -4125,7 +5002,7 @@
         <v>{"label":"Кнопка 14","link":"dbo/14"},</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -4136,16 +5013,16 @@
         <v/>
       </c>
       <c r="G17" s="8" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="K17" s="38" t="s">
         <v>194</v>
@@ -4169,7 +5046,7 @@
         <v>{"label":"Кнопка 15","link":"dbo/15"},</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -4180,16 +5057,16 @@
         <v/>
       </c>
       <c r="G18" s="8" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="K18" s="38" t="s">
         <v>194</v>
@@ -4213,7 +5090,7 @@
         <v>{"label":"Кнопка 16","link":"dbo/16"},</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -4224,16 +5101,16 @@
         <v/>
       </c>
       <c r="G19" s="8" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="K19" s="38" t="s">
         <v>194</v>
@@ -4257,7 +5134,7 @@
         <v>{"label":"Кнопка 17","link":"dbo/17"},</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -4268,16 +5145,16 @@
         <v/>
       </c>
       <c r="G20" s="8" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="K20" s="38" t="s">
         <v>194</v>
@@ -4301,7 +5178,7 @@
         <v>{"label":"Кнопка 18","link":"dbo/18"},</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -4312,16 +5189,16 @@
         <v/>
       </c>
       <c r="G21" s="8" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="K21" s="38" t="s">
         <v>194</v>
@@ -4359,321 +5236,321 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="108.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="108.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>3</v>
+        <v>308</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>235</v>
+        <v>166</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="E3" s="30">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f>CONCATENATE("{ ""_id"" :",A3,", ""fullname"":""",B3,""", ""name"":""",C3,""", ""sname"": """,D3,"""",",""form_id"":",E3,"},")</f>
-        <v>{ "_id" :1, "fullname":"Режим КС Бобровницька-05", "name":"КС Бобровницька-05", "sname": "Режим","form_id":1},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("{ ""_id"" :",A3,", ""fullname"":""",B3,""", ""model"":""",C3,""", ""key"": """,D3,"""",",""form_id"":",E3,"},")</f>
+        <v>{ "_id" :1, "fullname":"Режим КС Бобровницька-05", "model":"DksRegim", "key": "kc_bobrovnitska_05","form_id":1},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>250</v>
+        <v>309</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="E4" s="30">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" ref="F4:F16" si="0">CONCATENATE("{ ""_id"" :",A4,", ""fullname"":""",B4,""", ""name"":""",C4,""", ""sname"": """,D4,"""",",""form_id"":",E4,"},")</f>
-        <v>{ "_id" :2, "fullname":"Режим ДКС Мрин", "name":"ДКС Мрин", "sname": "Режим","form_id":1},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F4:F16" si="0">CONCATENATE("{ ""_id"" :",A4,", ""fullname"":""",B4,""", ""model"":""",C4,""", ""key"": """,D4,"""",",""form_id"":",E4,"},")</f>
+        <v>{ "_id" :2, "fullname":"Режим ДКС Мрин", "model":"DksRegim", "key": "kc_mrin","form_id":1},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>251</v>
+        <v>309</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="E5" s="30">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{ "_id" :3, "fullname":"Режим ДКС Солоха", "name":"ДКС Солоха", "sname": "Режим","form_id":1},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{ "_id" :3, "fullname":"Режим ДКС Солоха", "model":"DksRegim", "key": "kc_solokha","form_id":1},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>252</v>
+        <v>309</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="E6" s="30">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{ "_id" :4, "fullname":"Режим ДКС Олишівка", "name":"ДКС Олишівка", "sname": "Режим","form_id":1},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{ "_id" :4, "fullname":"Режим ДКС Олишівка", "model":"DksRegim", "key": "kc_olishevka","form_id":1},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>253</v>
+        <v>310</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>256</v>
+        <v>305</v>
       </c>
       <c r="E7" s="30">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{ "_id" :5, "fullname":"Режим ПСГ Ч-Партизани", "name":"ПСГ Ч-Партизани", "sname": "Режим","form_id":2},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{ "_id" :5, "fullname":"Режим ПСГ Ч-Партизани", "model":"PsgRegim", "key": "psg_red_partizanen","form_id":2},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>254</v>
+        <v>310</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="E8" s="30">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{ "_id" :6, "fullname":"Режим ПСГ Солоха", "name":"ПСГ Солоха", "sname": "Режим","form_id":2},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{ "_id" :6, "fullname":"Режим ПСГ Солоха", "model":"PsgRegim", "key": "psg_solokha","form_id":2},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="E9" s="30">
         <v>2</v>
       </c>
       <c r="F9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{ "_id" :7, "fullname":"Режим ПСГ Олишівка", "name":"ПСГ Олишівка", "sname": "Режим","form_id":2},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{ "_id" :7, "fullname":"Режим ПСГ Олишівка", "model":"PsgRegim", "key": "psg_olishevka","form_id":2},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="E10" s="30">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{ "_id" :8, "fullname":"Стан ПСГ Ч-Партизани", "name":"ПСГ Ч-Партизани", "sname": "Стан","form_id":3},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{ "_id" :8, "fullname":"Стан ПСГ Ч-Партизани", "model":"ПСГ Ч-Партизани", "key": "Стан","form_id":3},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="E11" s="30">
         <v>3</v>
       </c>
       <c r="F11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{ "_id" :9, "fullname":"Стан ПСГ Солоха", "name":"ПСГ Солоха", "sname": "Стан","form_id":3},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{ "_id" :9, "fullname":"Стан ПСГ Солоха", "model":"ПСГ Солоха", "key": "Стан","form_id":3},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="E12" s="30">
         <v>3</v>
       </c>
       <c r="F12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{ "_id" :10, "fullname":"Стан ПСГ Олишівка", "name":"ПСГ Олишівка", "sname": "Стан","form_id":3},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{ "_id" :10, "fullname":"Стан ПСГ Олишівка", "model":"ПСГ Олишівка", "key": "Стан","form_id":3},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="E13" s="30">
         <v>4</v>
       </c>
       <c r="F13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{ "_id" :11, "fullname":"ВТВ ПСГ Ч-Партизани", "name":"ПСГ Ч-Партизани", "sname": "ВТВ","form_id":4},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{ "_id" :11, "fullname":"ВТВ ПСГ Ч-Партизани", "model":"ПСГ Ч-Партизани", "key": "ВТВ","form_id":4},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="E14" s="30">
         <v>4</v>
       </c>
       <c r="F14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{ "_id" :12, "fullname":"ВТВ ПСГ Солоха", "name":"ПСГ Солоха", "sname": "ВТВ","form_id":4},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{ "_id" :12, "fullname":"ВТВ ПСГ Солоха", "model":"ПСГ Солоха", "key": "ВТВ","form_id":4},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="E15" s="30">
         <v>4</v>
       </c>
       <c r="F15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{ "_id" :13, "fullname":"ВТВ ПСГ Олишівка", "name":"ПСГ Олишівка", "sname": "ВТВ","form_id":4},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{ "_id" :13, "fullname":"ВТВ ПСГ Олишівка", "model":"ПСГ Олишівка", "key": "ВТВ","form_id":4},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="D16" s="30">
         <v>11</v>
@@ -4683,10 +5560,10 @@
       </c>
       <c r="F16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{ "_id" :14, "fullname":"ДКС Солоха Кран 11", "name":"Кран 11", "sname": "11","form_id":5},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>{ "_id" :14, "fullname":"ДКС Солоха Кран 11", "model":"Кран 11", "key": "11","form_id":5},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4694,7 +5571,7 @@
       <c r="E17" s="30"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4702,7 +5579,7 @@
       <c r="E18" s="30"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4724,25 +5601,25 @@
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="114.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="114.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H1" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -4769,7 +5646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4802,7 +5679,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4835,7 +5712,7 @@
         <v>{ "ch_id": 1,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:02", "quality":192},</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4868,7 +5745,7 @@
         <v>{ "ch_id": 1,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -4901,7 +5778,7 @@
         <v>{ "ch_id": 1,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:03", "quality":192},</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -4934,7 +5811,7 @@
         <v>{ "ch_id": 1,"rec_offset":5, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -4967,7 +5844,7 @@
         <v>{ "ch_id": 1,"rec_offset":6, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:04", "quality":192},</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -5000,7 +5877,7 @@
         <v>{ "ch_id": 1,"rec_offset":7, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -5033,7 +5910,7 @@
         <v>{ "ch_id": 1,"rec_offset":8, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:05", "quality":192},</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -5066,7 +5943,7 @@
         <v>{ "ch_id": 1,"rec_offset":9, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:05", "quality":192},</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -5099,7 +5976,7 @@
         <v>{ "ch_id": 2,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -5132,7 +6009,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:02", "quality":192},</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -5165,7 +6042,7 @@
         <v>{ "ch_id": 2,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -5198,7 +6075,7 @@
         <v>{ "ch_id": 2,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:03", "quality":192},</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -5231,7 +6108,7 @@
         <v>{ "ch_id": 2,"rec_offset":5, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -5264,7 +6141,7 @@
         <v>{ "ch_id": 2,"rec_offset":6, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:04", "quality":192},</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -5297,7 +6174,7 @@
         <v>{ "ch_id": 2,"rec_offset":7, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -5330,7 +6207,7 @@
         <v>{ "ch_id": 2,"rec_offset":8, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:05", "quality":192},</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -5363,7 +6240,7 @@
         <v>{ "ch_id": 2,"rec_offset":9, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:05", "quality":192},</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -5396,7 +6273,7 @@
         <v>{ "ch_id": 3,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -5429,7 +6306,7 @@
         <v>{ "ch_id": 3,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:02", "quality":192},</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -5462,7 +6339,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -5495,7 +6372,7 @@
         <v>{ "ch_id": 3,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:03", "quality":192},</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -5528,7 +6405,7 @@
         <v>{ "ch_id": 3,"rec_offset":5, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -5561,7 +6438,7 @@
         <v>{ "ch_id": 3,"rec_offset":6, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:04", "quality":192},</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -5594,7 +6471,7 @@
         <v>{ "ch_id": 3,"rec_offset":7, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -5627,7 +6504,7 @@
         <v>{ "ch_id": 3,"rec_offset":8, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:05", "quality":192},</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -5660,7 +6537,7 @@
         <v>{ "ch_id": 3,"rec_offset":9, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:05", "quality":192},</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -5693,7 +6570,7 @@
         <v>{ "ch_id": 4,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -5726,7 +6603,7 @@
         <v>{ "ch_id": 4,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:02", "quality":192},</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -5759,7 +6636,7 @@
         <v>{ "ch_id": 4,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -5792,7 +6669,7 @@
         <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:03", "quality":192},</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -5825,7 +6702,7 @@
         <v>{ "ch_id": 4,"rec_offset":5, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -5858,7 +6735,7 @@
         <v>{ "ch_id": 4,"rec_offset":6, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:04", "quality":192},</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -5891,7 +6768,7 @@
         <v>{ "ch_id": 4,"rec_offset":7, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -5924,7 +6801,7 @@
         <v>{ "ch_id": 4,"rec_offset":8, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T13:05", "quality":192},</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -5957,7 +6834,7 @@
         <v>{ "ch_id": 4,"rec_offset":9, "p": 50, "t" :30,"dp": 1000, "q":100, "currday":1000, "lastupdate":"2020-02-19T12:05", "quality":192},</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5968,7 +6845,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -5993,24 +6870,24 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="145.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="145.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H1" s="29" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="29"/>
     </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -6043,7 +6920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32">
         <v>1</v>
       </c>
@@ -6077,7 +6954,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T12:00", "lastupdate":"2020-02-19T13:00", "quality":192},</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32">
         <v>1</v>
       </c>
@@ -6111,7 +6988,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T13:00", "lastupdate":"2020-02-19T14:00", "quality":192},</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32">
         <v>1</v>
       </c>
@@ -6145,7 +7022,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T14:00", "lastupdate":"2020-02-19T15:00", "quality":192},</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32">
         <v>1</v>
       </c>
@@ -6179,7 +7056,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T15:00", "lastupdate":"2020-02-19T16:00", "quality":192},</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32">
         <v>1</v>
       </c>
@@ -6213,7 +7090,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T16:00", "lastupdate":"2020-02-19T17:00", "quality":192},</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32">
         <v>1</v>
       </c>
@@ -6247,7 +7124,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T17:00", "lastupdate":"2020-02-19T18:00", "quality":192},</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32">
         <v>1</v>
       </c>
@@ -6281,7 +7158,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T18:00", "lastupdate":"2020-02-19T19:00", "quality":192},</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32">
         <v>1</v>
       </c>
@@ -6315,7 +7192,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T19:00", "lastupdate":"2020-02-19T20:00", "quality":192},</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32">
         <v>1</v>
       </c>
@@ -6349,7 +7226,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T20:00", "lastupdate":"2020-02-19T21:00", "quality":192},</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34">
         <v>2</v>
       </c>
@@ -6383,7 +7260,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T12:00", "lastupdate":"2020-02-19T13:00", "quality":192},</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34">
         <v>2</v>
       </c>
@@ -6417,7 +7294,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T13:00", "lastupdate":"2020-02-19T14:00", "quality":192},</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34">
         <v>2</v>
       </c>
@@ -6451,7 +7328,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T14:00", "lastupdate":"2020-02-19T15:00", "quality":192},</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34">
         <v>2</v>
       </c>
@@ -6485,7 +7362,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T15:00", "lastupdate":"2020-02-19T16:00", "quality":192},</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="34">
         <v>2</v>
       </c>
@@ -6519,7 +7396,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T16:00", "lastupdate":"2020-02-19T17:00", "quality":192},</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34">
         <v>2</v>
       </c>
@@ -6553,7 +7430,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T17:00", "lastupdate":"2020-02-19T18:00", "quality":192},</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34">
         <v>2</v>
       </c>
@@ -6587,7 +7464,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T18:00", "lastupdate":"2020-02-19T19:00", "quality":192},</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34">
         <v>2</v>
       </c>
@@ -6621,7 +7498,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T19:00", "lastupdate":"2020-02-19T20:00", "quality":192},</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34">
         <v>2</v>
       </c>
@@ -6655,7 +7532,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T20:00", "lastupdate":"2020-02-19T21:00", "quality":192},</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="37" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36">
         <v>3</v>
       </c>
@@ -6689,7 +7566,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T12:00", "lastupdate":"2020-02-19T13:00", "quality":192},</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="37" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36">
         <v>3</v>
       </c>
@@ -6723,7 +7600,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T13:00", "lastupdate":"2020-02-19T14:00", "quality":193},</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="37" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36">
         <v>3</v>
       </c>
@@ -6757,7 +7634,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T14:00", "lastupdate":"2020-02-19T15:00", "quality":194},</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="37" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="36">
         <v>3</v>
       </c>
@@ -6791,7 +7668,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T15:00", "lastupdate":"2020-02-19T16:00", "quality":195},</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="37" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36">
         <v>3</v>
       </c>
@@ -6825,7 +7702,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T16:00", "lastupdate":"2020-02-19T17:00", "quality":196},</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="37" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="36">
         <v>3</v>
       </c>
@@ -6859,7 +7736,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T17:00", "lastupdate":"2020-02-19T18:00", "quality":197},</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="37" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="36">
         <v>3</v>
       </c>
@@ -6893,7 +7770,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T18:00", "lastupdate":"2020-02-19T19:00", "quality":198},</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="37" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="36">
         <v>3</v>
       </c>
@@ -6927,7 +7804,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T19:00", "lastupdate":"2020-02-19T20:00", "quality":199},</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="37" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="36">
         <v>3</v>
       </c>
@@ -6961,7 +7838,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T20:00", "lastupdate":"2020-02-19T21:00", "quality":200},</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34">
         <v>4</v>
       </c>
@@ -6995,7 +7872,7 @@
         <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T12:00", "lastupdate":"2020-02-19T13:00", "quality":201},</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34">
         <v>4</v>
       </c>
@@ -7029,7 +7906,7 @@
         <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T13:00", "lastupdate":"2020-02-19T14:00", "quality":202},</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34">
         <v>4</v>
       </c>
@@ -7063,7 +7940,7 @@
         <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T14:00", "lastupdate":"2020-02-19T15:00", "quality":203},</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34">
         <v>4</v>
       </c>
@@ -7097,7 +7974,7 @@
         <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T15:00", "lastupdate":"2020-02-19T16:00", "quality":204},</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="34">
         <v>4</v>
       </c>
@@ -7131,7 +8008,7 @@
         <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T16:00", "lastupdate":"2020-02-19T17:00", "quality":205},</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="34">
         <v>4</v>
       </c>
@@ -7165,7 +8042,7 @@
         <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T17:00", "lastupdate":"2020-02-19T18:00", "quality":206},</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="34">
         <v>4</v>
       </c>
@@ -7199,7 +8076,7 @@
         <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T18:00", "lastupdate":"2020-02-19T19:00", "quality":207},</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="34">
         <v>4</v>
       </c>
@@ -7233,7 +8110,7 @@
         <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T19:00", "lastupdate":"2020-02-19T20:00", "quality":208},</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="34">
         <v>4</v>
       </c>
@@ -7267,7 +8144,7 @@
         <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-19T20:00", "lastupdate":"2020-02-19T21:00", "quality":209},</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J39" s="1"/>
     </row>
   </sheetData>
@@ -7283,21 +8160,21 @@
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="124.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="124.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H1" s="29" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="29"/>
     </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -7330,7 +8207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7364,7 +8241,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-01T07:00", "lastupdate":"2020-02-02T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -7398,7 +8275,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-02T07:00", "lastupdate":"2020-02-03T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -7432,7 +8309,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-03T07:00", "lastupdate":"2020-02-04T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -7466,7 +8343,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-04T07:00", "lastupdate":"2020-02-05T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -7500,7 +8377,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-05T07:00", "lastupdate":"2020-02-06T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -7534,7 +8411,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-06T07:00", "lastupdate":"2020-02-07T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -7568,7 +8445,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-07T07:00", "lastupdate":"2020-02-08T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -7602,7 +8479,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-08T07:00", "lastupdate":"2020-02-09T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -7636,7 +8513,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-09T07:00", "lastupdate":"2020-02-10T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -7670,7 +8547,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-01T07:00", "lastupdate":"2020-02-02T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -7704,7 +8581,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-02T07:00", "lastupdate":"2020-02-03T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -7738,7 +8615,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-03T07:00", "lastupdate":"2020-02-04T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -7772,7 +8649,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-04T07:00", "lastupdate":"2020-02-05T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -7806,7 +8683,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-05T07:00", "lastupdate":"2020-02-06T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -7840,7 +8717,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-06T07:00", "lastupdate":"2020-02-07T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -7874,7 +8751,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-07T07:00", "lastupdate":"2020-02-08T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -7908,7 +8785,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-08T07:00", "lastupdate":"2020-02-09T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -7942,7 +8819,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-09T07:00", "lastupdate":"2020-02-10T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -7976,7 +8853,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-01T07:00", "lastupdate":"2020-02-02T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -8009,7 +8886,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-02T07:00", "lastupdate":"2020-02-03T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -8042,7 +8919,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-03T07:00", "lastupdate":"2020-02-04T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -8075,7 +8952,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-04T07:00", "lastupdate":"2020-02-05T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -8108,7 +8985,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-05T07:00", "lastupdate":"2020-02-06T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -8141,7 +9018,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-06T07:00", "lastupdate":"2020-02-07T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -8174,7 +9051,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-07T07:00", "lastupdate":"2020-02-08T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -8207,7 +9084,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-08T07:00", "lastupdate":"2020-02-09T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -8240,7 +9117,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-09T07:00", "lastupdate":"2020-02-10T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -8273,7 +9150,7 @@
         <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-01T07:00", "lastupdate":"2020-02-02T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -8306,7 +9183,7 @@
         <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-02T07:00", "lastupdate":"2020-02-03T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -8339,7 +9216,7 @@
         <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-03T07:00", "lastupdate":"2020-02-04T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -8372,7 +9249,7 @@
         <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-04T07:00", "lastupdate":"2020-02-05T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -8405,7 +9282,7 @@
         <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-05T07:00", "lastupdate":"2020-02-06T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -8438,7 +9315,7 @@
         <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-06T07:00", "lastupdate":"2020-02-07T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -8471,7 +9348,7 @@
         <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-07T07:00", "lastupdate":"2020-02-08T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -8504,7 +9381,7 @@
         <v>{ "ch_id": 4,"rec_offset":4, "p": 50, "t" :30,"dp": 1000, "q":100, "start":"2020-02-08T07:00", "lastupdate":"2020-02-09T07:00", "quality":192},</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -8551,24 +9428,24 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="118.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="118.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H1" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -8600,7 +9477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -8633,7 +9510,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:01", "quality":192},</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -8666,7 +9543,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:02", "quality":192},</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -8699,7 +9576,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:03", "quality":192},</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -8732,7 +9609,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:04", "quality":192},</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -8765,7 +9642,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:05", "quality":192},</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -8798,7 +9675,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:06", "quality":192},</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -8831,7 +9708,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:07", "quality":192},</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -8864,7 +9741,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:08", "quality":192},</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -8897,7 +9774,7 @@
         <v>{ "ch_id": 1,"rec_offset":1, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:09", "quality":192},</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -8930,7 +9807,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:10", "quality":192},</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -8963,7 +9840,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:11", "quality":192},</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -8996,7 +9873,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:12", "quality":192},</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -9029,7 +9906,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:13", "quality":192},</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -9062,7 +9939,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:14", "quality":192},</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -9095,7 +9972,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:15", "quality":192},</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -9128,7 +10005,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:16", "quality":192},</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -9161,7 +10038,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:17", "quality":192},</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -9194,7 +10071,7 @@
         <v>{ "ch_id": 2,"rec_offset":2, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:18", "quality":192},</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -9227,7 +10104,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:19", "quality":192},</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -9260,7 +10137,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:20", "quality":192},</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -9293,7 +10170,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:21", "quality":192},</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -9326,7 +10203,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:22", "quality":192},</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -9359,7 +10236,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:23", "quality":192},</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -9392,7 +10269,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:24", "quality":192},</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -9425,7 +10302,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:25", "quality":192},</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -9458,7 +10335,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:26", "quality":192},</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -9491,7 +10368,7 @@
         <v>{ "ch_id": 3,"rec_offset":3, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:27", "quality":192},</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -9524,7 +10401,7 @@
         <v>{ "ch_id": 4,"rec_offset":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:28", "quality":192},</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -9557,7 +10434,7 @@
         <v>{ "ch_id": 4,"rec_offset":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:29", "quality":192},</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -9590,7 +10467,7 @@
         <v>{ "ch_id": 4,"rec_offset":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:30", "quality":192},</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -9623,7 +10500,7 @@
         <v>{ "ch_id": 4,"rec_offset":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:31", "quality":192},</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -9656,7 +10533,7 @@
         <v>{ "ch_id": 4,"rec_offset":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:32", "quality":192},</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -9689,7 +10566,7 @@
         <v>{ "ch_id": 4,"rec_offset":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:33", "quality":192},</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -9722,7 +10599,7 @@
         <v>{ "ch_id": 4,"rec_offset":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:34", "quality":192},</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -9755,7 +10632,7 @@
         <v>{ "ch_id": 4,"rec_offset":4, "CO2": 0.2332, "N2" :0.8976,"Ro": 0.9345, "xx":0, "zz":0, "lastupdate":"2020-02-19T12:35", "quality":192},</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -9804,37 +10681,37 @@
       <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="110.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="22.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="24" max="27" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5703125" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="110.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="22.109375" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="24" max="27" width="10.109375" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="5.5546875" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>129</v>
       </c>
@@ -9918,7 +10795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>131</v>
       </c>
@@ -9978,7 +10855,7 @@
         <v>{"systemid":1,"name":"ДПКС № 1","ip":"192.168.0.111","path":"xxx.yyy.zzz","period":30,"sensors":[</v>
       </c>
     </row>
-    <row r="3" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -10050,7 +10927,7 @@
         <v>{"sensorid":1,"low":0,"name":"P in KC 32","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="4" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -10122,7 +10999,7 @@
         <v>{"sensorid":2,"low":0,"name":"P in KC 33","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="5" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -10194,7 +11071,7 @@
         <v>{"sensorid":3,"low":0,"name":"P in KC 34","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>131</v>
       </c>
@@ -10254,7 +11131,7 @@
         <v>{"systemid":2,"name":"ДПКС № 2","ip":"192.168.0.112","path":"xxx.yyy.zzz","period":30,"sensors":[</v>
       </c>
     </row>
-    <row r="7" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -10326,7 +11203,7 @@
         <v>{"sensorid":4,"low":0,"name":"P in KC 36","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="8" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -10398,7 +11275,7 @@
         <v>{"sensorid":5,"low":0,"name":"P in KC 37","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="9" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -10486,18 +11363,18 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="138.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="138.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -11339,37 +12216,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="58.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" customWidth="1"/>
-    <col min="21" max="21" width="26.85546875" customWidth="1"/>
-    <col min="27" max="27" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5546875" customWidth="1"/>
+    <col min="21" max="21" width="26.88671875" customWidth="1"/>
+    <col min="27" max="27" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>163</v>
       </c>
@@ -11418,7 +12295,7 @@
         <v>186</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="S1" s="21"/>
       <c r="T1" s="21"/>
@@ -11434,9 +12311,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
@@ -11445,10 +12322,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="F2" s="13" t="str">
         <f>CONCATENATE(A2,B2,C2,D2,E2)</f>
@@ -11479,7 +12356,7 @@
         <v>{"_id":1,"name":"Режим КС","controls":[</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -11493,19 +12370,19 @@
         <v>167</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>178</v>
       </c>
       <c r="L3" s="41" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>181</v>
@@ -11523,10 +12400,10 @@
         <v>188</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="T3" s="8" t="s">
         <v>194</v>
@@ -11546,7 +12423,7 @@
         <v>{"key":"date","label":"Дата","value":"2020-03-18","controlType":"textbox","order":1,"type":"date","options":[{}]},</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -11560,13 +12437,13 @@
         <v>167</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>178</v>
@@ -11578,7 +12455,7 @@
         <v>181</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>185</v>
@@ -11590,16 +12467,16 @@
         <v>188</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="T4" s="8" t="s">
         <v>194</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
@@ -11613,7 +12490,7 @@
         <v>{"key":"hour","label":"Година","value":"0","controlType":"dropdown","order":2,"type":"text","options":[{"key":"+00", "value":0},{"key":"+02", "value":2},{"key":"+04", "value":4},{"key":"+06", "value":6},{"key":"+08", "value":8},{"key":"+10", "value":10},{"key":"+12", "value":12},{"key":"+14", "value":14},{"key":"+00", "value":16},{"key":"+18", "value":18},{"key":"+20", "value":20},{"key":"+22", "value":22}]},</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -11627,13 +12504,13 @@
         <v>167</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>178</v>
@@ -11657,10 +12534,10 @@
         <v>188</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="T5" s="8" t="s">
         <v>194</v>
@@ -11680,7 +12557,7 @@
         <v>{"key":"p_in","label":"Рвх КС","value":"0","controlType":"textbox","order":3,"type":"text","options":[{}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -11691,13 +12568,13 @@
         <v>167</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>178</v>
@@ -11721,10 +12598,10 @@
         <v>188</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="T6" s="8" t="s">
         <v>194</v>
@@ -11744,7 +12621,7 @@
         <v>{"key":"p_out","label":"Рвих КС","value":"0","controlType":"textbox","order":4,"type":"text","options":[{}]},</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -11755,13 +12632,13 @@
         <v>167</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>178</v>
@@ -11785,10 +12662,10 @@
         <v>188</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="T7" s="8" t="s">
         <v>194</v>
@@ -11808,9 +12685,9 @@
         <v>{"key":"num_gpa","label":"ГПА","value":"0","controlType":"textbox","order":4,"type":"text","options":[{}]}]},</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B8" s="13">
         <v>2</v>
@@ -11819,10 +12696,10 @@
         <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="F8" s="13" t="str">
         <f t="shared" si="0"/>
@@ -11853,7 +12730,7 @@
         <v>{"_id":2,"name":"Режим ПСГ","controls":[</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -11867,19 +12744,19 @@
         <v>167</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>178</v>
       </c>
       <c r="L9" s="41" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>181</v>
@@ -11897,10 +12774,10 @@
         <v>188</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="T9" s="8" t="s">
         <v>194</v>
@@ -11920,7 +12797,7 @@
         <v>{"key":"date","label":"Дата","value":"2020-03-18","controlType":"textbox","order":1,"type":"date","options":[{}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -11934,13 +12811,13 @@
         <v>167</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>178</v>
@@ -11952,7 +12829,7 @@
         <v>181</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>185</v>
@@ -11964,16 +12841,16 @@
         <v>188</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="T10" s="8" t="s">
         <v>194</v>
       </c>
       <c r="U10" s="8" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
@@ -11987,7 +12864,7 @@
         <v>{"key":"hour","label":"Година","value":"0","controlType":"dropdown","order":2,"type":"text","options":[{"key":"+00", "value":0},{"key":"+02", "value":2},{"key":"+04", "value":4},{"key":"+06", "value":6},{"key":"+08", "value":8},{"key":"+10", "value":10},{"key":"+12", "value":12},{"key":"+14", "value":14},{"key":"+00", "value":16},{"key":"+18", "value":18},{"key":"+20", "value":20},{"key":"+22", "value":22}]},</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -12001,13 +12878,13 @@
         <v>167</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>178</v>
@@ -12031,10 +12908,10 @@
         <v>188</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="T11" s="8" t="s">
         <v>194</v>
@@ -12054,7 +12931,7 @@
         <v>{"key":"q_in","label":"Qзак","value":"0","controlType":"textbox","order":3,"type":"text","options":[{}]},</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -12068,13 +12945,13 @@
         <v>167</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>178</v>
@@ -12098,10 +12975,10 @@
         <v>188</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="T12" s="8" t="s">
         <v>194</v>
@@ -12121,7 +12998,7 @@
         <v>{"key":"q_out","label":"Qвідб","value":"0","controlType":"textbox","order":4,"type":"text","options":[{}]},</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -12135,13 +13012,13 @@
         <v>167</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>178</v>
@@ -12165,10 +13042,10 @@
         <v>188</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="T13" s="8" t="s">
         <v>194</v>
@@ -12188,9 +13065,9 @@
         <v>{"key":"num_lines","label":"с.роб","value":"0","controlType":"textbox","order":5,"type":"text","options":[{}]}]},</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B14" s="13">
         <v>3</v>
@@ -12199,10 +13076,10 @@
         <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="F14" s="13" t="str">
         <f t="shared" ref="F14:F17" si="5">CONCATENATE(A14,B14,C14,D14,E14)</f>
@@ -12233,7 +13110,7 @@
         <v>{"_id":3,"name":"Стан ПСГ","controls":[</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -12247,19 +13124,19 @@
         <v>167</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>178</v>
       </c>
       <c r="L15" s="41" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>181</v>
@@ -12277,10 +13154,10 @@
         <v>188</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="T15" s="8" t="s">
         <v>194</v>
@@ -12300,7 +13177,7 @@
         <v>{"key":"date","label":"Дата","value":"2020-03-18","controlType":"textbox","order":1,"type":"date","options":[{}]},</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -12314,19 +13191,19 @@
         <v>167</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>178</v>
       </c>
       <c r="L16" s="41" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>181</v>
@@ -12344,10 +13221,10 @@
         <v>188</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="T16" s="8" t="s">
         <v>194</v>
@@ -12367,7 +13244,7 @@
         <v>{"key":"hour","label":"Година","value":"12:00:00","controlType":"textbox","order":2,"type":"time","options":[{}]},</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -12387,7 +13264,7 @@
         <v>176</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>178</v>
@@ -12399,7 +13276,7 @@
         <v>181</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="O17" s="8" t="s">
         <v>185</v>
@@ -12411,16 +13288,16 @@
         <v>188</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="T17" s="8" t="s">
         <v>194</v>
       </c>
       <c r="U17" s="8" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
@@ -12434,9 +13311,9 @@
         <v>{"key":"state","label":"Стан","value":"0","controlType":"dropdown","order":3,"type":"text","options":[{"key":"Відбір", "value":2},{"key":"Закачка", "value":1},{"key":"Нейтральний", "value":0}]}]},</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B18" s="13">
         <v>4</v>
@@ -12445,10 +13322,10 @@
         <v>32</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="F18" s="13" t="str">
         <f>CONCATENATE(A18,B18,C18,D18,E18)</f>
@@ -12479,7 +13356,7 @@
         <v>{"_id":4,"name":"ВТВ СПГ","controls":[</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -12493,19 +13370,19 @@
         <v>167</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>178</v>
       </c>
       <c r="L19" s="41" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>181</v>
@@ -12523,10 +13400,10 @@
         <v>188</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="S19" s="8" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="T19" s="8" t="s">
         <v>194</v>
@@ -12546,7 +13423,7 @@
         <v>{"key":"date","label":"Дата","value":"2020-03-18","controlType":"textbox","order":1,"type":"date","options":[{}]},</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -12560,13 +13437,13 @@
         <v>167</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>178</v>
@@ -12590,10 +13467,10 @@
         <v>188</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="T20" s="8" t="s">
         <v>194</v>
@@ -12613,7 +13490,7 @@
         <v>{"key":"dks","label":"ДКС","value":"0","controlType":"textbox","order":2,"type":"text","options":[{}]},</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -12624,13 +13501,13 @@
         <v>167</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>178</v>
@@ -12654,10 +13531,10 @@
         <v>188</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="T21" s="8" t="s">
         <v>194</v>
@@ -12677,7 +13554,7 @@
         <v>{"key":"fuel","label":"Паливний","value":"0","controlType":"textbox","order":3,"type":"text","options":[{}]},</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -12688,13 +13565,13 @@
         <v>167</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>178</v>
@@ -12718,10 +13595,10 @@
         <v>188</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="T22" s="8" t="s">
         <v>194</v>
@@ -12741,9 +13618,9 @@
         <v>{"key":"psg","label":"ПСГ","value":"0","controlType":"textbox","order":4,"type":"text","options":[{}]}]},</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B23" s="13">
         <v>5</v>
@@ -12752,10 +13629,10 @@
         <v>32</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="F23" s="13" t="str">
         <f t="shared" ref="F23:F26" si="8">CONCATENATE(A23,B23,C23,D23,E23)</f>
@@ -12786,7 +13663,7 @@
         <v>{"_id":5,"name":"Стан крану","controls":[</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -12800,19 +13677,19 @@
         <v>167</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>178</v>
       </c>
       <c r="L24" s="41" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>181</v>
@@ -12830,10 +13707,10 @@
         <v>188</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="S24" s="8" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="T24" s="8" t="s">
         <v>194</v>
@@ -12853,7 +13730,7 @@
         <v>{"key":"date","label":"Дата","value":"2020-03-18","controlType":"textbox","order":1,"type":"date","options":[{}]},</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -12867,19 +13744,19 @@
         <v>167</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>178</v>
       </c>
       <c r="L25" s="41" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>181</v>
@@ -12897,10 +13774,10 @@
         <v>188</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="T25" s="8" t="s">
         <v>194</v>
@@ -12920,7 +13797,7 @@
         <v>{"key":"hour","label":"Година","value":"12:00:00","controlType":"textbox","order":2,"type":"time","options":[{}]},</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -12940,7 +13817,7 @@
         <v>176</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>178</v>
@@ -12952,7 +13829,7 @@
         <v>181</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="O26" s="8" t="s">
         <v>185</v>
@@ -12964,16 +13841,16 @@
         <v>188</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="T26" s="8" t="s">
         <v>194</v>
       </c>
       <c r="U26" s="8" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="V26" s="19"/>
       <c r="W26" s="19"/>

--- a/xls/create-test-data.xlsx
+++ b/xls/create-test-data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\node\oask-gtp-webapi\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24912" windowHeight="12840" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Корр-каналы" sheetId="5" r:id="rId1"/>
@@ -24,7 +19,7 @@
     <sheet name="GuiTable" sheetId="13" r:id="rId10"/>
     <sheet name="Menu" sheetId="14" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -964,84 +959,9 @@
     <t>PsgRegim</t>
   </si>
   <si>
-    <t>kc_bobrovnitska_05.p_in</t>
-  </si>
-  <si>
-    <t>kc_bobrovnitska_05.p_out</t>
-  </si>
-  <si>
-    <t>kc_bobrovnitska_05.e</t>
-  </si>
-  <si>
-    <t>kc_bobrovnitska_05.num_gpa</t>
-  </si>
-  <si>
-    <t>psg_red_partizanen.q_in</t>
-  </si>
-  <si>
-    <t>psg_red_partizanen.q_out</t>
-  </si>
-  <si>
-    <t>psg_red_partizanen.num_lines</t>
-  </si>
-  <si>
-    <t>kc_mrin.p_in</t>
-  </si>
-  <si>
-    <t>kc_mrin.p_out</t>
-  </si>
-  <si>
-    <t>kc_mrin.e</t>
-  </si>
-  <si>
-    <t>kc_mrin.num_gpa</t>
-  </si>
-  <si>
     <t>Режим Мринське ВУ ПЗГ</t>
   </si>
   <si>
-    <t>psg_solokha.q_in</t>
-  </si>
-  <si>
-    <t>psg_solokha.q_out</t>
-  </si>
-  <si>
-    <t>psg_solokha.num_lines</t>
-  </si>
-  <si>
-    <t>kc_solokha.p_in</t>
-  </si>
-  <si>
-    <t>kc_solokha.p_out</t>
-  </si>
-  <si>
-    <t>kc_solokha.e</t>
-  </si>
-  <si>
-    <t>kc_solokha.num_gpa</t>
-  </si>
-  <si>
-    <t>psg_olishevka.q_in</t>
-  </si>
-  <si>
-    <t>psg_olishevka.q_out</t>
-  </si>
-  <si>
-    <t>psg_olishevka.num_lines</t>
-  </si>
-  <si>
-    <t>kc_olishevka.p_in</t>
-  </si>
-  <si>
-    <t>kc_olishevka.p_out</t>
-  </si>
-  <si>
-    <t>kc_olishevka.e</t>
-  </si>
-  <si>
-    <t>kc_olishevka.num_gpa</t>
-  </si>
-  <si>
     <t>Рвх</t>
   </si>
   <si>
@@ -1079,12 +999,87 @@
   </si>
   <si>
     <t>Qвід ПСГ</t>
+  </si>
+  <si>
+    <t>kc_bobrovnitska_05_p_in</t>
+  </si>
+  <si>
+    <t>kc_bobrovnitska_05_p_out</t>
+  </si>
+  <si>
+    <t>kc_bobrovnitska_05_e</t>
+  </si>
+  <si>
+    <t>kc_bobrovnitska_05_num_gpa</t>
+  </si>
+  <si>
+    <t>psg_red_partizanen_q_in</t>
+  </si>
+  <si>
+    <t>psg_red_partizanen_q_out</t>
+  </si>
+  <si>
+    <t>psg_red_partizanen_num_lines</t>
+  </si>
+  <si>
+    <t>kc_mrin_p_in</t>
+  </si>
+  <si>
+    <t>kc_mrin_p_out</t>
+  </si>
+  <si>
+    <t>kc_mrin_e</t>
+  </si>
+  <si>
+    <t>kc_mrin_num_gpa</t>
+  </si>
+  <si>
+    <t>psg_solokha_q_in</t>
+  </si>
+  <si>
+    <t>psg_solokha_q_out</t>
+  </si>
+  <si>
+    <t>psg_solokha_num_lines</t>
+  </si>
+  <si>
+    <t>kc_solokha_p_in</t>
+  </si>
+  <si>
+    <t>kc_solokha_p_out</t>
+  </si>
+  <si>
+    <t>kc_solokha_e</t>
+  </si>
+  <si>
+    <t>kc_solokha_num_gpa</t>
+  </si>
+  <si>
+    <t>psg_olishevka_q_in</t>
+  </si>
+  <si>
+    <t>psg_olishevka_q_out</t>
+  </si>
+  <si>
+    <t>psg_olishevka_num_lines</t>
+  </si>
+  <si>
+    <t>kc_olishevka_p_in</t>
+  </si>
+  <si>
+    <t>kc_olishevka_p_out</t>
+  </si>
+  <si>
+    <t>kc_olishevka_e</t>
+  </si>
+  <si>
+    <t>kc_olishevka_num_gpa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1479,7 +1474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1514,7 +1509,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1729,40 +1724,40 @@
       <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="108.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" customWidth="1"/>
-    <col min="14" max="14" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="101.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="108.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="101.85546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
@@ -1846,7 +1841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>221</v>
       </c>
@@ -1906,7 +1901,7 @@
         <v>{"_id":1,"name":"Корректор № 1","ip":"192.168.0.111","ftpDir":"./","addr":1,"channels":[</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1978,7 +1973,7 @@
         <v>{"_id":1,"chno":1,"name":"Line 1","template":"S001R1","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -2050,7 +2045,7 @@
         <v>{"_id":2,"chno":2,"name":"Line 2","template":"S001R2","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -2122,7 +2117,7 @@
         <v>{"_id":3,"chno":3,"name":"Line 3","template":"S001R3","isAbsP":true,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>221</v>
       </c>
@@ -2182,7 +2177,7 @@
         <v>{"_id":2,"name":"Корректор № 2","ip":"192.168.0.112","ftpDir":"./","addr":2,"channels":[</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2254,7 +2249,7 @@
         <v>{"_id":4,"chno":1,"name":"Line 1","template":"S001R1","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -2326,7 +2321,7 @@
         <v>{"_id":5,"chno":2,"name":"Line 2","template":"S001R2","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2398,7 +2393,7 @@
         <v>{"_id":6,"chno":3,"name":"Line 3","template":"S001R3","isAbsP":true,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="AD10" s="6" t="s">
         <v>12</v>
       </c>
@@ -2413,36 +2408,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:X42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="56.33203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="9" hidden="1" customWidth="1"/>
     <col min="19" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="96.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="96.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>190</v>
       </c>
@@ -2486,7 +2481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>221</v>
       </c>
@@ -2528,7 +2523,7 @@
         <v>{"_id":1,"name":"Таблица ввод № 1","columns":[</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -2569,7 +2564,7 @@
         <v>{"key":"time","label":"Время"},</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -2613,7 +2608,7 @@
         <v>{"key":"param1","label":"Параметр 1"},</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -2657,7 +2652,7 @@
         <v>{"key":"param2","label":"Параметр 2"},</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -2701,7 +2696,7 @@
         <v>{"key":"param3","label":"Параметр 3"}]},</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>221</v>
       </c>
@@ -2743,7 +2738,7 @@
         <v>{"_id":2,"name":"Таблица ввод № 1","columns":[</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="40"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2784,7 +2779,7 @@
         <v>{"key":"time","label":"Время"},</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -2828,7 +2823,7 @@
         <v>{"key":"param5","label":"Параметр 5"},</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -2872,7 +2867,7 @@
         <v>{"key":"param6","label":"Параметр 6"},</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -2916,7 +2911,7 @@
         <v>{"key":"param7","label":"Параметр 7"}]},</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>221</v>
       </c>
@@ -2927,7 +2922,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>201</v>
@@ -2958,7 +2953,7 @@
         <v>{"_id":3,"name":"Режим Мринське ВУ ПЗГ","columns":[</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2999,7 +2994,7 @@
         <v>{"key":"time","label":"Година"},</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -3013,13 +3008,13 @@
         <v>167</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>194</v>
@@ -3040,10 +3035,10 @@
       </c>
       <c r="X14" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>{"key":"kc_bobrovnitska_05.p_in","label":"Рвх"},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{"key":"kc_bobrovnitska_05_p_in","label":"Рвх"},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -3057,13 +3052,13 @@
         <v>167</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>194</v>
@@ -3084,10 +3079,10 @@
       </c>
       <c r="X15" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>{"key":"kc_bobrovnitska_05.p_out","label":"Рвих"},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{"key":"kc_bobrovnitska_05_p_out","label":"Рвих"},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -3101,13 +3096,13 @@
         <v>167</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>194</v>
@@ -3128,10 +3123,10 @@
       </c>
       <c r="X16" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>{"key":"kc_bobrovnitska_05.e","label":"е"},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{"key":"kc_bobrovnitska_05_e","label":"е"},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -3145,7 +3140,7 @@
         <v>167</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>176</v>
@@ -3172,10 +3167,10 @@
       </c>
       <c r="X17" s="25" t="str">
         <f t="shared" ref="X17:X24" si="6">CONCATENATE(F17,G17,H17,I17,J17,K17,L17,M17,N17,O17,P17,Q17,R17,S17,T17,U17,V17,W17)</f>
-        <v>{"key":"kc_bobrovnitska_05.num_gpa","label":"ГПА"},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{"key":"kc_bobrovnitska_05_num_gpa","label":"ГПА"},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -3189,7 +3184,7 @@
         <v>167</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>176</v>
@@ -3216,10 +3211,10 @@
       </c>
       <c r="X18" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>{"key":"psg_red_partizanen.q_in","label":"Qзак"},</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{"key":"psg_red_partizanen_q_in","label":"Qзак"},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -3233,13 +3228,13 @@
         <v>167</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>194</v>
@@ -3260,10 +3255,10 @@
       </c>
       <c r="X19" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>{"key":"psg_red_partizanen.q_out","label":"Qвід"},</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{"key":"psg_red_partizanen_q_out","label":"Qвід"},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -3277,13 +3272,13 @@
         <v>167</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>194</v>
@@ -3304,10 +3299,10 @@
       </c>
       <c r="X20" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>{"key":"psg_red_partizanen.num_lines","label":"#скв"},</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{"key":"psg_red_partizanen_num_lines","label":"#скв"},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -3321,13 +3316,13 @@
         <v>167</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>194</v>
@@ -3348,10 +3343,10 @@
       </c>
       <c r="X21" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>{"key":"kc_mrin.p_in","label":"Рвх"},</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{"key":"kc_mrin_p_in","label":"Рвх"},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -3365,13 +3360,13 @@
         <v>167</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>194</v>
@@ -3392,10 +3387,10 @@
       </c>
       <c r="X22" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>{"key":"kc_mrin.p_out","label":"Рвих"},</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{"key":"kc_mrin_p_out","label":"Рвих"},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -3409,13 +3404,13 @@
         <v>167</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>194</v>
@@ -3436,10 +3431,10 @@
       </c>
       <c r="X23" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>{"key":"kc_mrin.e","label":"е"},</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{"key":"kc_mrin_e","label":"е"},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -3453,7 +3448,7 @@
         <v>167</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>176</v>
@@ -3480,10 +3475,10 @@
       </c>
       <c r="X24" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>{"key":"kc_mrin.num_gpa","label":"ГПА"},</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{"key":"kc_mrin_num_gpa","label":"ГПА"},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -3497,7 +3492,7 @@
         <v>167</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>176</v>
@@ -3524,10 +3519,10 @@
       </c>
       <c r="X25" s="25" t="str">
         <f t="shared" ref="X25:X31" si="8">CONCATENATE(F25,G25,H25,I25,J25,K25,L25,M25,N25,O25,P25,Q25,R25,S25,T25,U25,V25,W25)</f>
-        <v>{"key":"psg_solokha.q_in","label":"Qзак"},</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{"key":"psg_solokha_q_in","label":"Qзак"},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -3541,13 +3536,13 @@
         <v>167</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>194</v>
@@ -3568,10 +3563,10 @@
       </c>
       <c r="X26" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>{"key":"psg_solokha.q_out","label":"Qвід"},</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{"key":"psg_solokha_q_out","label":"Qвід"},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -3585,13 +3580,13 @@
         <v>167</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>194</v>
@@ -3612,10 +3607,10 @@
       </c>
       <c r="X27" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>{"key":"psg_solokha.num_lines","label":"#скв"},</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{"key":"psg_solokha_num_lines","label":"#скв"},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -3629,13 +3624,13 @@
         <v>167</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>194</v>
@@ -3656,10 +3651,10 @@
       </c>
       <c r="X28" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>{"key":"kc_solokha.p_in","label":"Рвх"},</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{"key":"kc_solokha_p_in","label":"Рвх"},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -3673,13 +3668,13 @@
         <v>167</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>194</v>
@@ -3700,10 +3695,10 @@
       </c>
       <c r="X29" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>{"key":"kc_solokha.p_out","label":"Рвих"},</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{"key":"kc_solokha_p_out","label":"Рвих"},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -3717,13 +3712,13 @@
         <v>167</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>194</v>
@@ -3744,10 +3739,10 @@
       </c>
       <c r="X30" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>{"key":"kc_solokha.e","label":"е"},</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{"key":"kc_solokha_e","label":"е"},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -3761,7 +3756,7 @@
         <v>167</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>176</v>
@@ -3788,10 +3783,10 @@
       </c>
       <c r="X31" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>{"key":"kc_solokha.num_gpa","label":"ГПА"},</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{"key":"kc_solokha_num_gpa","label":"ГПА"},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -3805,7 +3800,7 @@
         <v>167</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>176</v>
@@ -3832,10 +3827,10 @@
       </c>
       <c r="X32" s="25" t="str">
         <f t="shared" ref="X32:X38" si="10">CONCATENATE(F32,G32,H32,I32,J32,K32,L32,M32,N32,O32,P32,Q32,R32,S32,T32,U32,V32,W32)</f>
-        <v>{"key":"psg_olishevka.q_in","label":"Qзак"},</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{"key":"psg_olishevka_q_in","label":"Qзак"},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -3849,13 +3844,13 @@
         <v>167</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>194</v>
@@ -3876,10 +3871,10 @@
       </c>
       <c r="X33" s="25" t="str">
         <f t="shared" si="10"/>
-        <v>{"key":"psg_olishevka.q_out","label":"Qвід"},</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{"key":"psg_olishevka_q_out","label":"Qвід"},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -3893,13 +3888,13 @@
         <v>167</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>194</v>
@@ -3920,10 +3915,10 @@
       </c>
       <c r="X34" s="25" t="str">
         <f t="shared" si="10"/>
-        <v>{"key":"psg_olishevka.num_lines","label":"#скв"},</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{"key":"psg_olishevka_num_lines","label":"#скв"},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -3937,13 +3932,13 @@
         <v>167</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>194</v>
@@ -3964,10 +3959,10 @@
       </c>
       <c r="X35" s="25" t="str">
         <f t="shared" si="10"/>
-        <v>{"key":"kc_olishevka.p_in","label":"Рвх"},</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{"key":"kc_olishevka_p_in","label":"Рвх"},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -3981,13 +3976,13 @@
         <v>167</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>194</v>
@@ -4008,10 +4003,10 @@
       </c>
       <c r="X36" s="25" t="str">
         <f t="shared" si="10"/>
-        <v>{"key":"kc_olishevka.p_out","label":"Рвих"},</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{"key":"kc_olishevka_p_out","label":"Рвих"},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -4025,13 +4020,13 @@
         <v>167</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>194</v>
@@ -4052,10 +4047,10 @@
       </c>
       <c r="X37" s="25" t="str">
         <f t="shared" si="10"/>
-        <v>{"key":"kc_olishevka.e","label":"е"},</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{"key":"kc_olishevka_e","label":"е"},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -4069,7 +4064,7 @@
         <v>167</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>176</v>
@@ -4096,10 +4091,10 @@
       </c>
       <c r="X38" s="25" t="str">
         <f t="shared" si="10"/>
-        <v>{"key":"kc_olishevka.num_gpa","label":"ГПА"},</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>{"key":"kc_olishevka_num_gpa","label":"ГПА"},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -4113,13 +4108,13 @@
         <v>167</v>
       </c>
       <c r="H39" s="30" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>194</v>
@@ -4143,7 +4138,7 @@
         <v>{"key":"q_in_total_ogsu","label":"Qзак ОГСУ"},</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -4157,13 +4152,13 @@
         <v>167</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>194</v>
@@ -4187,7 +4182,7 @@
         <v>{"key":"q_out_total_ogsu","label":"Qвід ОГСУ"},</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -4201,13 +4196,13 @@
         <v>167</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>194</v>
@@ -4231,7 +4226,7 @@
         <v>{"key":"q_in_total_vupzg","label":"Qзак ПСГ"},</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -4245,13 +4240,13 @@
         <v>167</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>194</v>
@@ -4289,22 +4284,22 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="46.88671875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
     <col min="12" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>203</v>
       </c>
@@ -4348,7 +4343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>221</v>
       </c>
@@ -4390,7 +4385,7 @@
         <v>{"_id":1,"name":"login1","buttons":[</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -4434,7 +4429,7 @@
         <v>{"label":"Режим ДКС","link":"dbo/1"},</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -4478,7 +4473,7 @@
         <v>{"label":"Режим ПСГ","link":"dbo/2"},</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -4522,7 +4517,7 @@
         <v>{"label":"ВТВ","link":"dbo/3"}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>221</v>
       </c>
@@ -4564,7 +4559,7 @@
         <v>{"_id":2,"name":"login2","buttons":[</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -4608,7 +4603,7 @@
         <v>{"label":"Режим ДКС","link":"dbo/5"},</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -4652,7 +4647,7 @@
         <v>{"label":"Режим ПСГ","link":"dbo/6"},</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -4696,7 +4691,7 @@
         <v>{"label":"ВТВ","link":"dbo/7"}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>221</v>
       </c>
@@ -4738,7 +4733,7 @@
         <v>{"_id":3,"name":"login3","buttons":[</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -4782,7 +4777,7 @@
         <v>{"label":"Режим ДКС","link":"dbo/9"},</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -4826,7 +4821,7 @@
         <v>{"label":"Режим ПСГ","link":"dbo/10"},</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -4870,7 +4865,7 @@
         <v>{"label":"ВТВ","link":"dbo/11"},</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -4914,7 +4909,7 @@
         <v>{"label":"Стан ПСГ","link":"dbo/12"},</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -4958,7 +4953,7 @@
         <v>{"label":"Стан крану","link":"dbo/13"},</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -5002,7 +4997,7 @@
         <v>{"label":"Кнопка 14","link":"dbo/14"},</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -5046,7 +5041,7 @@
         <v>{"label":"Кнопка 15","link":"dbo/15"},</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -5090,7 +5085,7 @@
         <v>{"label":"Кнопка 16","link":"dbo/16"},</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -5134,7 +5129,7 @@
         <v>{"label":"Кнопка 17","link":"dbo/17"},</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -5178,7 +5173,7 @@
         <v>{"label":"Кнопка 18","link":"dbo/18"},</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -5236,20 +5231,20 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="108.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="108.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>218</v>
       </c>
@@ -5269,7 +5264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5290,7 +5285,7 @@
         <v>{ "_id" :1, "fullname":"Режим КС Бобровницька-05", "model":"DksRegim", "key": "kc_bobrovnitska_05","form_id":1},</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5311,7 +5306,7 @@
         <v>{ "_id" :2, "fullname":"Режим ДКС Мрин", "model":"DksRegim", "key": "kc_mrin","form_id":1},</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5332,7 +5327,7 @@
         <v>{ "_id" :3, "fullname":"Режим ДКС Солоха", "model":"DksRegim", "key": "kc_solokha","form_id":1},</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5353,7 +5348,7 @@
         <v>{ "_id" :4, "fullname":"Режим ДКС Олишівка", "model":"DksRegim", "key": "kc_olishevka","form_id":1},</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5374,7 +5369,7 @@
         <v>{ "_id" :5, "fullname":"Режим ПСГ Ч-Партизани", "model":"PsgRegim", "key": "psg_red_partizanen","form_id":2},</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5395,7 +5390,7 @@
         <v>{ "_id" :6, "fullname":"Режим ПСГ Солоха", "model":"PsgRegim", "key": "psg_solokha","form_id":2},</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5416,7 +5411,7 @@
         <v>{ "_id" :7, "fullname":"Режим ПСГ Олишівка", "model":"PsgRegim", "key": "psg_olishevka","form_id":2},</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5437,7 +5432,7 @@
         <v>{ "_id" :8, "fullname":"Стан ПСГ Ч-Партизани", "model":"ПСГ Ч-Партизани", "key": "Стан","form_id":3},</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5458,7 +5453,7 @@
         <v>{ "_id" :9, "fullname":"Стан ПСГ Солоха", "model":"ПСГ Солоха", "key": "Стан","form_id":3},</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5479,7 +5474,7 @@
         <v>{ "_id" :10, "fullname":"Стан ПСГ Олишівка", "model":"ПСГ Олишівка", "key": "Стан","form_id":3},</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5500,7 +5495,7 @@
         <v>{ "_id" :11, "fullname":"ВТВ ПСГ Ч-Партизани", "model":"ПСГ Ч-Партизани", "key": "ВТВ","form_id":4},</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5521,7 +5516,7 @@
         <v>{ "_id" :12, "fullname":"ВТВ ПСГ Солоха", "model":"ПСГ Солоха", "key": "ВТВ","form_id":4},</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5542,7 +5537,7 @@
         <v>{ "_id" :13, "fullname":"ВТВ ПСГ Олишівка", "model":"ПСГ Олишівка", "key": "ВТВ","form_id":4},</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5563,7 +5558,7 @@
         <v>{ "_id" :14, "fullname":"ДКС Солоха Кран 11", "model":"Кран 11", "key": "11","form_id":5},</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5571,7 +5566,7 @@
       <c r="E17" s="30"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5579,7 +5574,7 @@
       <c r="E18" s="30"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5601,12 +5596,12 @@
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="114.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="114.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -6870,15 +6865,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="145.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="145.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -8160,12 +8155,12 @@
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="124.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="124.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -9428,16 +9423,16 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="118.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="118.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -10681,37 +10676,37 @@
       <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="110.6640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="22.109375" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="24" max="27" width="10.109375" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5546875" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="110.7109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="22.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="24" max="27" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>129</v>
       </c>
@@ -10795,7 +10790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>131</v>
       </c>
@@ -10855,7 +10850,7 @@
         <v>{"systemid":1,"name":"ДПКС № 1","ip":"192.168.0.111","path":"xxx.yyy.zzz","period":30,"sensors":[</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -10927,7 +10922,7 @@
         <v>{"sensorid":1,"low":0,"name":"P in KC 32","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -10999,7 +10994,7 @@
         <v>{"sensorid":2,"low":0,"name":"P in KC 33","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -11071,7 +11066,7 @@
         <v>{"sensorid":3,"low":0,"name":"P in KC 34","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>131</v>
       </c>
@@ -11131,7 +11126,7 @@
         <v>{"systemid":2,"name":"ДПКС № 2","ip":"192.168.0.112","path":"xxx.yyy.zzz","period":30,"sensors":[</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -11203,7 +11198,7 @@
         <v>{"sensorid":4,"low":0,"name":"P in KC 36","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -11275,7 +11270,7 @@
         <v>{"sensorid":5,"low":0,"name":"P in KC 37","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -11363,18 +11358,18 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="138.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="138.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -12220,33 +12215,33 @@
       <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5546875" customWidth="1"/>
-    <col min="21" max="21" width="26.88671875" customWidth="1"/>
-    <col min="27" max="27" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" customWidth="1"/>
+    <col min="21" max="21" width="26.85546875" customWidth="1"/>
+    <col min="27" max="27" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>163</v>
       </c>
@@ -12311,7 +12306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>221</v>
       </c>
@@ -12356,7 +12351,7 @@
         <v>{"_id":1,"name":"Режим КС","controls":[</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -12423,7 +12418,7 @@
         <v>{"key":"date","label":"Дата","value":"2020-03-18","controlType":"textbox","order":1,"type":"date","options":[{}]},</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -12490,7 +12485,7 @@
         <v>{"key":"hour","label":"Година","value":"0","controlType":"dropdown","order":2,"type":"text","options":[{"key":"+00", "value":0},{"key":"+02", "value":2},{"key":"+04", "value":4},{"key":"+06", "value":6},{"key":"+08", "value":8},{"key":"+10", "value":10},{"key":"+12", "value":12},{"key":"+14", "value":14},{"key":"+00", "value":16},{"key":"+18", "value":18},{"key":"+20", "value":20},{"key":"+22", "value":22}]},</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -12557,7 +12552,7 @@
         <v>{"key":"p_in","label":"Рвх КС","value":"0","controlType":"textbox","order":3,"type":"text","options":[{}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -12621,7 +12616,7 @@
         <v>{"key":"p_out","label":"Рвих КС","value":"0","controlType":"textbox","order":4,"type":"text","options":[{}]},</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -12685,7 +12680,7 @@
         <v>{"key":"num_gpa","label":"ГПА","value":"0","controlType":"textbox","order":4,"type":"text","options":[{}]}]},</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>221</v>
       </c>
@@ -12730,7 +12725,7 @@
         <v>{"_id":2,"name":"Режим ПСГ","controls":[</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -12797,7 +12792,7 @@
         <v>{"key":"date","label":"Дата","value":"2020-03-18","controlType":"textbox","order":1,"type":"date","options":[{}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -12864,7 +12859,7 @@
         <v>{"key":"hour","label":"Година","value":"0","controlType":"dropdown","order":2,"type":"text","options":[{"key":"+00", "value":0},{"key":"+02", "value":2},{"key":"+04", "value":4},{"key":"+06", "value":6},{"key":"+08", "value":8},{"key":"+10", "value":10},{"key":"+12", "value":12},{"key":"+14", "value":14},{"key":"+00", "value":16},{"key":"+18", "value":18},{"key":"+20", "value":20},{"key":"+22", "value":22}]},</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -12931,7 +12926,7 @@
         <v>{"key":"q_in","label":"Qзак","value":"0","controlType":"textbox","order":3,"type":"text","options":[{}]},</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -12998,7 +12993,7 @@
         <v>{"key":"q_out","label":"Qвідб","value":"0","controlType":"textbox","order":4,"type":"text","options":[{}]},</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -13065,7 +13060,7 @@
         <v>{"key":"num_lines","label":"с.роб","value":"0","controlType":"textbox","order":5,"type":"text","options":[{}]}]},</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>221</v>
       </c>
@@ -13110,7 +13105,7 @@
         <v>{"_id":3,"name":"Стан ПСГ","controls":[</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -13177,7 +13172,7 @@
         <v>{"key":"date","label":"Дата","value":"2020-03-18","controlType":"textbox","order":1,"type":"date","options":[{}]},</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -13244,7 +13239,7 @@
         <v>{"key":"hour","label":"Година","value":"12:00:00","controlType":"textbox","order":2,"type":"time","options":[{}]},</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -13311,7 +13306,7 @@
         <v>{"key":"state","label":"Стан","value":"0","controlType":"dropdown","order":3,"type":"text","options":[{"key":"Відбір", "value":2},{"key":"Закачка", "value":1},{"key":"Нейтральний", "value":0}]}]},</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>221</v>
       </c>
@@ -13356,7 +13351,7 @@
         <v>{"_id":4,"name":"ВТВ СПГ","controls":[</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -13423,7 +13418,7 @@
         <v>{"key":"date","label":"Дата","value":"2020-03-18","controlType":"textbox","order":1,"type":"date","options":[{}]},</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -13490,7 +13485,7 @@
         <v>{"key":"dks","label":"ДКС","value":"0","controlType":"textbox","order":2,"type":"text","options":[{}]},</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -13554,7 +13549,7 @@
         <v>{"key":"fuel","label":"Паливний","value":"0","controlType":"textbox","order":3,"type":"text","options":[{}]},</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -13618,7 +13613,7 @@
         <v>{"key":"psg","label":"ПСГ","value":"0","controlType":"textbox","order":4,"type":"text","options":[{}]}]},</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>221</v>
       </c>
@@ -13663,7 +13658,7 @@
         <v>{"_id":5,"name":"Стан крану","controls":[</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -13730,7 +13725,7 @@
         <v>{"key":"date","label":"Дата","value":"2020-03-18","controlType":"textbox","order":1,"type":"date","options":[{}]},</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -13797,7 +13792,7 @@
         <v>{"key":"hour","label":"Година","value":"12:00:00","controlType":"textbox","order":2,"type":"time","options":[{}]},</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>

--- a/xls/create-test-data.xlsx
+++ b/xls/create-test-data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\node\oask-gtp-webapi\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24912" windowHeight="12840" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Корр-каналы" sheetId="5" r:id="rId1"/>
@@ -19,7 +24,7 @@
     <sheet name="GuiTable" sheetId="13" r:id="rId10"/>
     <sheet name="Menu" sheetId="14" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1079,7 +1084,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1474,7 +1479,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1509,7 +1514,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1724,40 +1729,40 @@
       <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="108.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="101.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="108.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" customWidth="1"/>
+    <col min="14" max="14" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="101.88671875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
@@ -1841,7 +1846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>221</v>
       </c>
@@ -1901,7 +1906,7 @@
         <v>{"_id":1,"name":"Корректор № 1","ip":"192.168.0.111","ftpDir":"./","addr":1,"channels":[</v>
       </c>
     </row>
-    <row r="3" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1973,7 +1978,7 @@
         <v>{"_id":1,"chno":1,"name":"Line 1","template":"S001R1","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="4" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -2045,7 +2050,7 @@
         <v>{"_id":2,"chno":2,"name":"Line 2","template":"S001R2","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="5" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -2117,7 +2122,7 @@
         <v>{"_id":3,"chno":3,"name":"Line 3","template":"S001R3","isAbsP":true,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>221</v>
       </c>
@@ -2177,7 +2182,7 @@
         <v>{"_id":2,"name":"Корректор № 2","ip":"192.168.0.112","ftpDir":"./","addr":2,"channels":[</v>
       </c>
     </row>
-    <row r="7" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2249,7 +2254,7 @@
         <v>{"_id":4,"chno":1,"name":"Line 1","template":"S001R1","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="8" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -2321,7 +2326,7 @@
         <v>{"_id":5,"chno":2,"name":"Line 2","template":"S001R2","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="9" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2393,7 +2398,7 @@
         <v>{"_id":6,"chno":3,"name":"Line 3","template":"S001R3","isAbsP":true,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="AD10" s="6" t="s">
         <v>12</v>
       </c>
@@ -2408,36 +2413,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="X2" sqref="X2:X42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="56.28515625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="9" hidden="1" customWidth="1"/>
     <col min="19" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="96.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="96.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>190</v>
       </c>
@@ -2481,7 +2486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>221</v>
       </c>
@@ -2523,7 +2528,7 @@
         <v>{"_id":1,"name":"Таблица ввод № 1","columns":[</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="40"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -2564,7 +2569,7 @@
         <v>{"key":"time","label":"Время"},</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -2608,7 +2613,7 @@
         <v>{"key":"param1","label":"Параметр 1"},</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -2652,7 +2657,7 @@
         <v>{"key":"param2","label":"Параметр 2"},</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -2696,7 +2701,7 @@
         <v>{"key":"param3","label":"Параметр 3"}]},</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>221</v>
       </c>
@@ -2738,7 +2743,7 @@
         <v>{"_id":2,"name":"Таблица ввод № 1","columns":[</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="40"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2779,7 +2784,7 @@
         <v>{"key":"time","label":"Время"},</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -2823,7 +2828,7 @@
         <v>{"key":"param5","label":"Параметр 5"},</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -2867,7 +2872,7 @@
         <v>{"key":"param6","label":"Параметр 6"},</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -2911,7 +2916,7 @@
         <v>{"key":"param7","label":"Параметр 7"}]},</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>221</v>
       </c>
@@ -2953,7 +2958,7 @@
         <v>{"_id":3,"name":"Режим Мринське ВУ ПЗГ","columns":[</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="40"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2994,7 +2999,7 @@
         <v>{"key":"time","label":"Година"},</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -3038,7 +3043,7 @@
         <v>{"key":"kc_bobrovnitska_05_p_in","label":"Рвх"},</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -3082,7 +3087,7 @@
         <v>{"key":"kc_bobrovnitska_05_p_out","label":"Рвих"},</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -3126,7 +3131,7 @@
         <v>{"key":"kc_bobrovnitska_05_e","label":"е"},</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -3170,7 +3175,7 @@
         <v>{"key":"kc_bobrovnitska_05_num_gpa","label":"ГПА"},</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -3214,7 +3219,7 @@
         <v>{"key":"psg_red_partizanen_q_in","label":"Qзак"},</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -3258,7 +3263,7 @@
         <v>{"key":"psg_red_partizanen_q_out","label":"Qвід"},</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -3302,7 +3307,7 @@
         <v>{"key":"psg_red_partizanen_num_lines","label":"#скв"},</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -3346,7 +3351,7 @@
         <v>{"key":"kc_mrin_p_in","label":"Рвх"},</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -3390,7 +3395,7 @@
         <v>{"key":"kc_mrin_p_out","label":"Рвих"},</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -3434,7 +3439,7 @@
         <v>{"key":"kc_mrin_e","label":"е"},</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -3478,7 +3483,7 @@
         <v>{"key":"kc_mrin_num_gpa","label":"ГПА"},</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="17"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -3522,7 +3527,7 @@
         <v>{"key":"psg_solokha_q_in","label":"Qзак"},</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -3566,7 +3571,7 @@
         <v>{"key":"psg_solokha_q_out","label":"Qвід"},</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -3610,7 +3615,7 @@
         <v>{"key":"psg_solokha_num_lines","label":"#скв"},</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -3654,7 +3659,7 @@
         <v>{"key":"kc_solokha_p_in","label":"Рвх"},</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -3698,7 +3703,7 @@
         <v>{"key":"kc_solokha_p_out","label":"Рвих"},</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -3742,7 +3747,7 @@
         <v>{"key":"kc_solokha_e","label":"е"},</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="17"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -3786,7 +3791,7 @@
         <v>{"key":"kc_solokha_num_gpa","label":"ГПА"},</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -3830,7 +3835,7 @@
         <v>{"key":"psg_olishevka_q_in","label":"Qзак"},</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="17"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -3874,7 +3879,7 @@
         <v>{"key":"psg_olishevka_q_out","label":"Qвід"},</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -3918,7 +3923,7 @@
         <v>{"key":"psg_olishevka_num_lines","label":"#скв"},</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="17"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -3962,7 +3967,7 @@
         <v>{"key":"kc_olishevka_p_in","label":"Рвх"},</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -4006,7 +4011,7 @@
         <v>{"key":"kc_olishevka_p_out","label":"Рвих"},</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -4050,7 +4055,7 @@
         <v>{"key":"kc_olishevka_e","label":"е"},</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="17"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -4094,7 +4099,7 @@
         <v>{"key":"kc_olishevka_num_gpa","label":"ГПА"},</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -4138,7 +4143,7 @@
         <v>{"key":"q_in_total_ogsu","label":"Qзак ОГСУ"},</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -4182,7 +4187,7 @@
         <v>{"key":"q_out_total_ogsu","label":"Qвід ОГСУ"},</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -4226,7 +4231,7 @@
         <v>{"key":"q_in_total_vupzg","label":"Qзак ПСГ"},</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -4284,22 +4289,22 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="46.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
     <col min="12" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="36.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>203</v>
       </c>
@@ -4343,7 +4348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>221</v>
       </c>
@@ -4385,7 +4390,7 @@
         <v>{"_id":1,"name":"login1","buttons":[</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -4429,7 +4434,7 @@
         <v>{"label":"Режим ДКС","link":"dbo/1"},</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -4473,7 +4478,7 @@
         <v>{"label":"Режим ПСГ","link":"dbo/2"},</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -4517,7 +4522,7 @@
         <v>{"label":"ВТВ","link":"dbo/3"}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>221</v>
       </c>
@@ -4559,7 +4564,7 @@
         <v>{"_id":2,"name":"login2","buttons":[</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -4603,7 +4608,7 @@
         <v>{"label":"Режим ДКС","link":"dbo/5"},</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -4647,7 +4652,7 @@
         <v>{"label":"Режим ПСГ","link":"dbo/6"},</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -4691,7 +4696,7 @@
         <v>{"label":"ВТВ","link":"dbo/7"}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>221</v>
       </c>
@@ -4733,7 +4738,7 @@
         <v>{"_id":3,"name":"login3","buttons":[</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -4777,7 +4782,7 @@
         <v>{"label":"Режим ДКС","link":"dbo/9"},</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -4821,7 +4826,7 @@
         <v>{"label":"Режим ПСГ","link":"dbo/10"},</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -4865,7 +4870,7 @@
         <v>{"label":"ВТВ","link":"dbo/11"},</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -4909,7 +4914,7 @@
         <v>{"label":"Стан ПСГ","link":"dbo/12"},</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -4953,7 +4958,7 @@
         <v>{"label":"Стан крану","link":"dbo/13"},</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -4997,7 +5002,7 @@
         <v>{"label":"Кнопка 14","link":"dbo/14"},</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -5041,7 +5046,7 @@
         <v>{"label":"Кнопка 15","link":"dbo/15"},</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -5085,7 +5090,7 @@
         <v>{"label":"Кнопка 16","link":"dbo/16"},</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -5129,7 +5134,7 @@
         <v>{"label":"Кнопка 17","link":"dbo/17"},</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -5173,7 +5178,7 @@
         <v>{"label":"Кнопка 18","link":"dbo/18"},</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -5234,17 +5239,17 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="108.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="108.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>218</v>
       </c>
@@ -5264,7 +5269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5285,7 +5290,7 @@
         <v>{ "_id" :1, "fullname":"Режим КС Бобровницька-05", "model":"DksRegim", "key": "kc_bobrovnitska_05","form_id":1},</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5306,7 +5311,7 @@
         <v>{ "_id" :2, "fullname":"Режим ДКС Мрин", "model":"DksRegim", "key": "kc_mrin","form_id":1},</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5327,7 +5332,7 @@
         <v>{ "_id" :3, "fullname":"Режим ДКС Солоха", "model":"DksRegim", "key": "kc_solokha","form_id":1},</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5348,7 +5353,7 @@
         <v>{ "_id" :4, "fullname":"Режим ДКС Олишівка", "model":"DksRegim", "key": "kc_olishevka","form_id":1},</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5369,7 +5374,7 @@
         <v>{ "_id" :5, "fullname":"Режим ПСГ Ч-Партизани", "model":"PsgRegim", "key": "psg_red_partizanen","form_id":2},</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5390,7 +5395,7 @@
         <v>{ "_id" :6, "fullname":"Режим ПСГ Солоха", "model":"PsgRegim", "key": "psg_solokha","form_id":2},</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5411,7 +5416,7 @@
         <v>{ "_id" :7, "fullname":"Режим ПСГ Олишівка", "model":"PsgRegim", "key": "psg_olishevka","form_id":2},</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5432,7 +5437,7 @@
         <v>{ "_id" :8, "fullname":"Стан ПСГ Ч-Партизани", "model":"ПСГ Ч-Партизани", "key": "Стан","form_id":3},</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5453,7 +5458,7 @@
         <v>{ "_id" :9, "fullname":"Стан ПСГ Солоха", "model":"ПСГ Солоха", "key": "Стан","form_id":3},</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5474,7 +5479,7 @@
         <v>{ "_id" :10, "fullname":"Стан ПСГ Олишівка", "model":"ПСГ Олишівка", "key": "Стан","form_id":3},</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5495,7 +5500,7 @@
         <v>{ "_id" :11, "fullname":"ВТВ ПСГ Ч-Партизани", "model":"ПСГ Ч-Партизани", "key": "ВТВ","form_id":4},</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5516,7 +5521,7 @@
         <v>{ "_id" :12, "fullname":"ВТВ ПСГ Солоха", "model":"ПСГ Солоха", "key": "ВТВ","form_id":4},</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5537,7 +5542,7 @@
         <v>{ "_id" :13, "fullname":"ВТВ ПСГ Олишівка", "model":"ПСГ Олишівка", "key": "ВТВ","form_id":4},</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5558,7 +5563,7 @@
         <v>{ "_id" :14, "fullname":"ДКС Солоха Кран 11", "model":"Кран 11", "key": "11","form_id":5},</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5566,7 +5571,7 @@
       <c r="E17" s="30"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5574,7 +5579,7 @@
       <c r="E18" s="30"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5596,12 +5601,12 @@
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="114.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="114.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -6861,19 +6866,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="145.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="145.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -8155,12 +8160,12 @@
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="124.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="124.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -9423,16 +9428,16 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="118.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="118.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -10676,37 +10681,37 @@
       <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="110.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="22.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="24" max="27" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5703125" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="110.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="22.109375" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="24" max="27" width="10.109375" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="5.5546875" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>129</v>
       </c>
@@ -10790,7 +10795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>131</v>
       </c>
@@ -10850,7 +10855,7 @@
         <v>{"systemid":1,"name":"ДПКС № 1","ip":"192.168.0.111","path":"xxx.yyy.zzz","period":30,"sensors":[</v>
       </c>
     </row>
-    <row r="3" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -10922,7 +10927,7 @@
         <v>{"sensorid":1,"low":0,"name":"P in KC 32","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="4" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -10994,7 +10999,7 @@
         <v>{"sensorid":2,"low":0,"name":"P in KC 33","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="5" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -11066,7 +11071,7 @@
         <v>{"sensorid":3,"low":0,"name":"P in KC 34","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>131</v>
       </c>
@@ -11126,7 +11131,7 @@
         <v>{"systemid":2,"name":"ДПКС № 2","ip":"192.168.0.112","path":"xxx.yyy.zzz","period":30,"sensors":[</v>
       </c>
     </row>
-    <row r="7" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -11198,7 +11203,7 @@
         <v>{"sensorid":4,"low":0,"name":"P in KC 36","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="8" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -11270,7 +11275,7 @@
         <v>{"sensorid":5,"low":0,"name":"P in KC 37","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="9" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -11358,18 +11363,18 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="138.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="138.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -12215,33 +12220,33 @@
       <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="58.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" customWidth="1"/>
-    <col min="21" max="21" width="26.85546875" customWidth="1"/>
-    <col min="27" max="27" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5546875" customWidth="1"/>
+    <col min="21" max="21" width="26.88671875" customWidth="1"/>
+    <col min="27" max="27" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>163</v>
       </c>
@@ -12306,7 +12311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>221</v>
       </c>
@@ -12351,7 +12356,7 @@
         <v>{"_id":1,"name":"Режим КС","controls":[</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -12418,7 +12423,7 @@
         <v>{"key":"date","label":"Дата","value":"2020-03-18","controlType":"textbox","order":1,"type":"date","options":[{}]},</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -12485,7 +12490,7 @@
         <v>{"key":"hour","label":"Година","value":"0","controlType":"dropdown","order":2,"type":"text","options":[{"key":"+00", "value":0},{"key":"+02", "value":2},{"key":"+04", "value":4},{"key":"+06", "value":6},{"key":"+08", "value":8},{"key":"+10", "value":10},{"key":"+12", "value":12},{"key":"+14", "value":14},{"key":"+00", "value":16},{"key":"+18", "value":18},{"key":"+20", "value":20},{"key":"+22", "value":22}]},</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -12552,7 +12557,7 @@
         <v>{"key":"p_in","label":"Рвх КС","value":"0","controlType":"textbox","order":3,"type":"text","options":[{}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -12616,7 +12621,7 @@
         <v>{"key":"p_out","label":"Рвих КС","value":"0","controlType":"textbox","order":4,"type":"text","options":[{}]},</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -12680,7 +12685,7 @@
         <v>{"key":"num_gpa","label":"ГПА","value":"0","controlType":"textbox","order":4,"type":"text","options":[{}]}]},</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>221</v>
       </c>
@@ -12725,7 +12730,7 @@
         <v>{"_id":2,"name":"Режим ПСГ","controls":[</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -12792,7 +12797,7 @@
         <v>{"key":"date","label":"Дата","value":"2020-03-18","controlType":"textbox","order":1,"type":"date","options":[{}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -12859,7 +12864,7 @@
         <v>{"key":"hour","label":"Година","value":"0","controlType":"dropdown","order":2,"type":"text","options":[{"key":"+00", "value":0},{"key":"+02", "value":2},{"key":"+04", "value":4},{"key":"+06", "value":6},{"key":"+08", "value":8},{"key":"+10", "value":10},{"key":"+12", "value":12},{"key":"+14", "value":14},{"key":"+00", "value":16},{"key":"+18", "value":18},{"key":"+20", "value":20},{"key":"+22", "value":22}]},</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -12926,7 +12931,7 @@
         <v>{"key":"q_in","label":"Qзак","value":"0","controlType":"textbox","order":3,"type":"text","options":[{}]},</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -12993,7 +12998,7 @@
         <v>{"key":"q_out","label":"Qвідб","value":"0","controlType":"textbox","order":4,"type":"text","options":[{}]},</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -13060,7 +13065,7 @@
         <v>{"key":"num_lines","label":"с.роб","value":"0","controlType":"textbox","order":5,"type":"text","options":[{}]}]},</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>221</v>
       </c>
@@ -13105,7 +13110,7 @@
         <v>{"_id":3,"name":"Стан ПСГ","controls":[</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -13172,7 +13177,7 @@
         <v>{"key":"date","label":"Дата","value":"2020-03-18","controlType":"textbox","order":1,"type":"date","options":[{}]},</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -13239,7 +13244,7 @@
         <v>{"key":"hour","label":"Година","value":"12:00:00","controlType":"textbox","order":2,"type":"time","options":[{}]},</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -13306,7 +13311,7 @@
         <v>{"key":"state","label":"Стан","value":"0","controlType":"dropdown","order":3,"type":"text","options":[{"key":"Відбір", "value":2},{"key":"Закачка", "value":1},{"key":"Нейтральний", "value":0}]}]},</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>221</v>
       </c>
@@ -13351,7 +13356,7 @@
         <v>{"_id":4,"name":"ВТВ СПГ","controls":[</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -13418,7 +13423,7 @@
         <v>{"key":"date","label":"Дата","value":"2020-03-18","controlType":"textbox","order":1,"type":"date","options":[{}]},</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -13485,7 +13490,7 @@
         <v>{"key":"dks","label":"ДКС","value":"0","controlType":"textbox","order":2,"type":"text","options":[{}]},</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -13549,7 +13554,7 @@
         <v>{"key":"fuel","label":"Паливний","value":"0","controlType":"textbox","order":3,"type":"text","options":[{}]},</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -13613,7 +13618,7 @@
         <v>{"key":"psg","label":"ПСГ","value":"0","controlType":"textbox","order":4,"type":"text","options":[{}]}]},</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>221</v>
       </c>
@@ -13658,7 +13663,7 @@
         <v>{"_id":5,"name":"Стан крану","controls":[</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -13725,7 +13730,7 @@
         <v>{"key":"date","label":"Дата","value":"2020-03-18","controlType":"textbox","order":1,"type":"date","options":[{}]},</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -13792,7 +13797,7 @@
         <v>{"key":"hour","label":"Година","value":"12:00:00","controlType":"textbox","order":2,"type":"time","options":[{}]},</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>

--- a/xls/create-test-data.xlsx
+++ b/xls/create-test-data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\node\oask-gtp-webapi\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24912" windowHeight="12840" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Корр-каналы" sheetId="5" r:id="rId1"/>
@@ -24,12 +19,12 @@
     <sheet name="GuiTable" sheetId="13" r:id="rId10"/>
     <sheet name="Menu" sheetId="14" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="367">
   <si>
     <t>isAbsP</t>
   </si>
@@ -724,15 +719,6 @@
     <t>off</t>
   </si>
   <si>
-    <t>ПСГ Ч-Партизани</t>
-  </si>
-  <si>
-    <t>ПСГ Солоха</t>
-  </si>
-  <si>
-    <t>ПСГ Олишівка</t>
-  </si>
-  <si>
     <t>Режим КС Бобровницька-05</t>
   </si>
   <si>
@@ -862,9 +848,6 @@
     <t>,"type":"</t>
   </si>
   <si>
-    <t>Кран 11</t>
-  </si>
-  <si>
     <t>ДКС Солоха Кран 11</t>
   </si>
   <si>
@@ -1079,12 +1062,75 @@
   </si>
   <si>
     <t>kc_olishevka_num_gpa</t>
+  </si>
+  <si>
+    <t>childs</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>ПВВГ Мрин</t>
+  </si>
+  <si>
+    <t>PvvgHourValue</t>
+  </si>
+  <si>
+    <t>pvvg_mrin</t>
+  </si>
+  <si>
+    <t>vtv_dks_red_partizanen</t>
+  </si>
+  <si>
+    <t>vtv_dks_solokha</t>
+  </si>
+  <si>
+    <t>vtv_dks_olishevka</t>
+  </si>
+  <si>
+    <t>ObjectEvent</t>
+  </si>
+  <si>
+    <t>kc_solokha_v_11</t>
+  </si>
+  <si>
+    <t>VtvPsgDayValue</t>
+  </si>
+  <si>
+    <t>stan_red_partizanen</t>
+  </si>
+  <si>
+    <t>stan_solokha</t>
+  </si>
+  <si>
+    <t>stan_olishevka</t>
+  </si>
+  <si>
+    <t>ВТВ ГРС Партизани</t>
+  </si>
+  <si>
+    <t>VtvGrsDayValue</t>
+  </si>
+  <si>
+    <t>vtv_grs_red_partizanen</t>
+  </si>
+  <si>
+    <t>[1,2,3,4]</t>
+  </si>
+  <si>
+    <t>ВТВ Мринське ВУ ПЗГ</t>
+  </si>
+  <si>
+    <t>vtv_mrin_psg</t>
+  </si>
+  <si>
+    <t>[11,12,13]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1479,7 +1525,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1514,7 +1560,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1729,40 +1775,40 @@
       <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="108.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" customWidth="1"/>
-    <col min="14" max="14" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="101.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="108.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="101.85546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
@@ -1846,7 +1892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>221</v>
       </c>
@@ -1906,7 +1952,7 @@
         <v>{"_id":1,"name":"Корректор № 1","ip":"192.168.0.111","ftpDir":"./","addr":1,"channels":[</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1978,7 +2024,7 @@
         <v>{"_id":1,"chno":1,"name":"Line 1","template":"S001R1","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -2050,7 +2096,7 @@
         <v>{"_id":2,"chno":2,"name":"Line 2","template":"S001R2","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -2122,7 +2168,7 @@
         <v>{"_id":3,"chno":3,"name":"Line 3","template":"S001R3","isAbsP":true,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>221</v>
       </c>
@@ -2182,7 +2228,7 @@
         <v>{"_id":2,"name":"Корректор № 2","ip":"192.168.0.112","ftpDir":"./","addr":2,"channels":[</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2254,7 +2300,7 @@
         <v>{"_id":4,"chno":1,"name":"Line 1","template":"S001R1","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -2326,7 +2372,7 @@
         <v>{"_id":5,"chno":2,"name":"Line 2","template":"S001R2","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2398,7 +2444,7 @@
         <v>{"_id":6,"chno":3,"name":"Line 3","template":"S001R3","isAbsP":true,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="AD10" s="6" t="s">
         <v>12</v>
       </c>
@@ -2417,32 +2463,32 @@
       <selection activeCell="X2" sqref="X2:X42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="56.33203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="9" hidden="1" customWidth="1"/>
     <col min="19" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="96.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="96.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>190</v>
       </c>
@@ -2486,7 +2532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>221</v>
       </c>
@@ -2528,7 +2574,7 @@
         <v>{"_id":1,"name":"Таблица ввод № 1","columns":[</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -2569,7 +2615,7 @@
         <v>{"key":"time","label":"Время"},</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -2613,7 +2659,7 @@
         <v>{"key":"param1","label":"Параметр 1"},</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -2657,7 +2703,7 @@
         <v>{"key":"param2","label":"Параметр 2"},</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -2701,7 +2747,7 @@
         <v>{"key":"param3","label":"Параметр 3"}]},</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>221</v>
       </c>
@@ -2743,7 +2789,7 @@
         <v>{"_id":2,"name":"Таблица ввод № 1","columns":[</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="40"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2784,7 +2830,7 @@
         <v>{"key":"time","label":"Время"},</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -2828,7 +2874,7 @@
         <v>{"key":"param5","label":"Параметр 5"},</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -2872,7 +2918,7 @@
         <v>{"key":"param6","label":"Параметр 6"},</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -2916,7 +2962,7 @@
         <v>{"key":"param7","label":"Параметр 7"}]},</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>221</v>
       </c>
@@ -2927,7 +2973,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>201</v>
@@ -2958,7 +3004,7 @@
         <v>{"_id":3,"name":"Режим Мринське ВУ ПЗГ","columns":[</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2999,7 +3045,7 @@
         <v>{"key":"time","label":"Година"},</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -3013,13 +3059,13 @@
         <v>167</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>194</v>
@@ -3043,7 +3089,7 @@
         <v>{"key":"kc_bobrovnitska_05_p_in","label":"Рвх"},</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -3057,13 +3103,13 @@
         <v>167</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>194</v>
@@ -3087,7 +3133,7 @@
         <v>{"key":"kc_bobrovnitska_05_p_out","label":"Рвих"},</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -3101,13 +3147,13 @@
         <v>167</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>194</v>
@@ -3131,7 +3177,7 @@
         <v>{"key":"kc_bobrovnitska_05_e","label":"е"},</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -3145,13 +3191,13 @@
         <v>167</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>194</v>
@@ -3175,7 +3221,7 @@
         <v>{"key":"kc_bobrovnitska_05_num_gpa","label":"ГПА"},</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -3189,13 +3235,13 @@
         <v>167</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>194</v>
@@ -3219,7 +3265,7 @@
         <v>{"key":"psg_red_partizanen_q_in","label":"Qзак"},</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -3233,13 +3279,13 @@
         <v>167</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>194</v>
@@ -3263,7 +3309,7 @@
         <v>{"key":"psg_red_partizanen_q_out","label":"Qвід"},</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -3277,13 +3323,13 @@
         <v>167</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>194</v>
@@ -3307,7 +3353,7 @@
         <v>{"key":"psg_red_partizanen_num_lines","label":"#скв"},</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -3321,13 +3367,13 @@
         <v>167</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>194</v>
@@ -3351,7 +3397,7 @@
         <v>{"key":"kc_mrin_p_in","label":"Рвх"},</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -3365,13 +3411,13 @@
         <v>167</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>194</v>
@@ -3395,7 +3441,7 @@
         <v>{"key":"kc_mrin_p_out","label":"Рвих"},</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -3409,13 +3455,13 @@
         <v>167</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>194</v>
@@ -3439,7 +3485,7 @@
         <v>{"key":"kc_mrin_e","label":"е"},</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -3453,13 +3499,13 @@
         <v>167</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>194</v>
@@ -3483,7 +3529,7 @@
         <v>{"key":"kc_mrin_num_gpa","label":"ГПА"},</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -3497,13 +3543,13 @@
         <v>167</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>194</v>
@@ -3527,7 +3573,7 @@
         <v>{"key":"psg_solokha_q_in","label":"Qзак"},</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -3541,13 +3587,13 @@
         <v>167</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>194</v>
@@ -3571,7 +3617,7 @@
         <v>{"key":"psg_solokha_q_out","label":"Qвід"},</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -3585,13 +3631,13 @@
         <v>167</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>194</v>
@@ -3615,7 +3661,7 @@
         <v>{"key":"psg_solokha_num_lines","label":"#скв"},</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -3629,13 +3675,13 @@
         <v>167</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>194</v>
@@ -3659,7 +3705,7 @@
         <v>{"key":"kc_solokha_p_in","label":"Рвх"},</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -3673,13 +3719,13 @@
         <v>167</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>194</v>
@@ -3703,7 +3749,7 @@
         <v>{"key":"kc_solokha_p_out","label":"Рвих"},</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -3717,13 +3763,13 @@
         <v>167</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>194</v>
@@ -3747,7 +3793,7 @@
         <v>{"key":"kc_solokha_e","label":"е"},</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -3761,13 +3807,13 @@
         <v>167</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>194</v>
@@ -3791,7 +3837,7 @@
         <v>{"key":"kc_solokha_num_gpa","label":"ГПА"},</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -3805,13 +3851,13 @@
         <v>167</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>194</v>
@@ -3835,7 +3881,7 @@
         <v>{"key":"psg_olishevka_q_in","label":"Qзак"},</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -3849,13 +3895,13 @@
         <v>167</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>194</v>
@@ -3879,7 +3925,7 @@
         <v>{"key":"psg_olishevka_q_out","label":"Qвід"},</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -3893,13 +3939,13 @@
         <v>167</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>194</v>
@@ -3923,7 +3969,7 @@
         <v>{"key":"psg_olishevka_num_lines","label":"#скв"},</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -3937,13 +3983,13 @@
         <v>167</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>194</v>
@@ -3967,7 +4013,7 @@
         <v>{"key":"kc_olishevka_p_in","label":"Рвх"},</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -3981,13 +4027,13 @@
         <v>167</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>194</v>
@@ -4011,7 +4057,7 @@
         <v>{"key":"kc_olishevka_p_out","label":"Рвих"},</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -4025,13 +4071,13 @@
         <v>167</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>194</v>
@@ -4055,7 +4101,7 @@
         <v>{"key":"kc_olishevka_e","label":"е"},</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -4069,13 +4115,13 @@
         <v>167</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>194</v>
@@ -4099,7 +4145,7 @@
         <v>{"key":"kc_olishevka_num_gpa","label":"ГПА"},</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -4113,13 +4159,13 @@
         <v>167</v>
       </c>
       <c r="H39" s="30" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>194</v>
@@ -4143,7 +4189,7 @@
         <v>{"key":"q_in_total_ogsu","label":"Qзак ОГСУ"},</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -4157,13 +4203,13 @@
         <v>167</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>194</v>
@@ -4187,7 +4233,7 @@
         <v>{"key":"q_out_total_ogsu","label":"Qвід ОГСУ"},</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -4201,13 +4247,13 @@
         <v>167</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>194</v>
@@ -4231,7 +4277,7 @@
         <v>{"key":"q_in_total_vupzg","label":"Qзак ПСГ"},</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -4245,13 +4291,13 @@
         <v>167</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>194</v>
@@ -4289,22 +4335,22 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="46.88671875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
     <col min="12" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>203</v>
       </c>
@@ -4348,7 +4394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>221</v>
       </c>
@@ -4390,7 +4436,7 @@
         <v>{"_id":1,"name":"login1","buttons":[</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -4404,13 +4450,13 @@
         <v>207</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>210</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K3" s="38" t="s">
         <v>194</v>
@@ -4434,7 +4480,7 @@
         <v>{"label":"Режим ДКС","link":"dbo/1"},</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -4448,13 +4494,13 @@
         <v>207</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>210</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K4" s="38" t="s">
         <v>194</v>
@@ -4478,7 +4524,7 @@
         <v>{"label":"Режим ПСГ","link":"dbo/2"},</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -4492,13 +4538,13 @@
         <v>207</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>210</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K5" s="38" t="s">
         <v>194</v>
@@ -4522,7 +4568,7 @@
         <v>{"label":"ВТВ","link":"dbo/3"}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>221</v>
       </c>
@@ -4533,7 +4579,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>206</v>
@@ -4564,7 +4610,7 @@
         <v>{"_id":2,"name":"login2","buttons":[</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -4578,13 +4624,13 @@
         <v>207</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>210</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K7" s="38" t="s">
         <v>194</v>
@@ -4608,7 +4654,7 @@
         <v>{"label":"Режим ДКС","link":"dbo/5"},</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -4622,13 +4668,13 @@
         <v>207</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>210</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K8" s="38" t="s">
         <v>194</v>
@@ -4652,7 +4698,7 @@
         <v>{"label":"Режим ПСГ","link":"dbo/6"},</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -4666,13 +4712,13 @@
         <v>207</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>210</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K9" s="38" t="s">
         <v>194</v>
@@ -4696,7 +4742,7 @@
         <v>{"label":"ВТВ","link":"dbo/7"}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>221</v>
       </c>
@@ -4707,7 +4753,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>206</v>
@@ -4738,7 +4784,7 @@
         <v>{"_id":3,"name":"login3","buttons":[</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -4752,13 +4798,13 @@
         <v>207</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>210</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K11" s="38" t="s">
         <v>194</v>
@@ -4782,7 +4828,7 @@
         <v>{"label":"Режим ДКС","link":"dbo/9"},</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -4796,13 +4842,13 @@
         <v>207</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>210</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K12" s="38" t="s">
         <v>194</v>
@@ -4826,7 +4872,7 @@
         <v>{"label":"Режим ПСГ","link":"dbo/10"},</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -4840,13 +4886,13 @@
         <v>207</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>210</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K13" s="38" t="s">
         <v>194</v>
@@ -4870,7 +4916,7 @@
         <v>{"label":"ВТВ","link":"dbo/11"},</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -4884,13 +4930,13 @@
         <v>207</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>210</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K14" s="38" t="s">
         <v>194</v>
@@ -4914,7 +4960,7 @@
         <v>{"label":"Стан ПСГ","link":"dbo/12"},</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -4928,13 +4974,13 @@
         <v>207</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>210</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K15" s="38" t="s">
         <v>194</v>
@@ -4958,7 +5004,7 @@
         <v>{"label":"Стан крану","link":"dbo/13"},</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -4978,7 +5024,7 @@
         <v>210</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K16" s="38" t="s">
         <v>194</v>
@@ -5002,7 +5048,7 @@
         <v>{"label":"Кнопка 14","link":"dbo/14"},</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -5022,7 +5068,7 @@
         <v>210</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K17" s="38" t="s">
         <v>194</v>
@@ -5046,7 +5092,7 @@
         <v>{"label":"Кнопка 15","link":"dbo/15"},</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -5066,7 +5112,7 @@
         <v>210</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K18" s="38" t="s">
         <v>194</v>
@@ -5090,7 +5136,7 @@
         <v>{"label":"Кнопка 16","link":"dbo/16"},</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -5110,7 +5156,7 @@
         <v>210</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K19" s="38" t="s">
         <v>194</v>
@@ -5134,7 +5180,7 @@
         <v>{"label":"Кнопка 17","link":"dbo/17"},</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -5154,7 +5200,7 @@
         <v>210</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K20" s="38" t="s">
         <v>194</v>
@@ -5178,7 +5224,7 @@
         <v>{"label":"Кнопка 18","link":"dbo/18"},</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -5198,7 +5244,7 @@
         <v>210</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K21" s="38" t="s">
         <v>194</v>
@@ -5233,23 +5279,24 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A2:F19"/>
+  <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="108.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="121.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>218</v>
       </c>
@@ -5257,7 +5304,7 @@
         <v>217</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>166</v>
@@ -5265,327 +5312,431 @@
       <c r="E2" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E3" s="30">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="str">
-        <f>CONCATENATE("{ ""_id"" :",A3,", ""fullname"":""",B3,""", ""model"":""",C3,""", ""key"": """,D3,"""",",""form_id"":",E3,"},")</f>
-        <v>{ "_id" :1, "fullname":"Режим КС Бобровницька-05", "model":"DksRegim", "key": "kc_bobrovnitska_05","form_id":1},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f>CONCATENATE("{ ""_id"" :",A3,", ""fullname"":""",B3,""", ""model"":""",C3,""", ""key"": """,D3,"""",",""form_id"":",E3,",""childs"":",F3,"},")</f>
+        <v>{ "_id" :1, "fullname":"Режим КС Бобровницька-05", "model":"DksRegim", "key": "kc_bobrovnitska_05","form_id":1,"childs":[]},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E4" s="30">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="str">
-        <f t="shared" ref="F4:F16" si="0">CONCATENATE("{ ""_id"" :",A4,", ""fullname"":""",B4,""", ""model"":""",C4,""", ""key"": """,D4,"""",",""form_id"":",E4,"},")</f>
-        <v>{ "_id" :2, "fullname":"Режим ДКС Мрин", "model":"DksRegim", "key": "kc_mrin","form_id":1},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f t="shared" ref="G4:G19" si="0">CONCATENATE("{ ""_id"" :",A4,", ""fullname"":""",B4,""", ""model"":""",C4,""", ""key"": """,D4,"""",",""form_id"":",E4,",""childs"":",F4,"},")</f>
+        <v>{ "_id" :2, "fullname":"Режим ДКС Мрин", "model":"DksRegim", "key": "kc_mrin","form_id":1,"childs":[]},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E5" s="30">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{ "_id" :3, "fullname":"Режим ДКС Солоха", "model":"DksRegim", "key": "kc_solokha","form_id":1},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "_id" :3, "fullname":"Режим ДКС Солоха", "model":"DksRegim", "key": "kc_solokha","form_id":1,"childs":[]},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E6" s="30">
         <v>1</v>
       </c>
-      <c r="F6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{ "_id" :4, "fullname":"Режим ДКС Олишівка", "model":"DksRegim", "key": "kc_olishevka","form_id":1},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "_id" :4, "fullname":"Режим ДКС Олишівка", "model":"DksRegim", "key": "kc_olishevka","form_id":1,"childs":[]},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E7" s="30">
         <v>2</v>
       </c>
-      <c r="F7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{ "_id" :5, "fullname":"Режим ПСГ Ч-Партизани", "model":"PsgRegim", "key": "psg_red_partizanen","form_id":2},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "_id" :5, "fullname":"Режим ПСГ Ч-Партизани", "model":"PsgRegim", "key": "psg_red_partizanen","form_id":2,"childs":[]},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E8" s="30">
         <v>2</v>
       </c>
-      <c r="F8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{ "_id" :6, "fullname":"Режим ПСГ Солоха", "model":"PsgRegim", "key": "psg_solokha","form_id":2},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "_id" :6, "fullname":"Режим ПСГ Солоха", "model":"PsgRegim", "key": "psg_solokha","form_id":2,"childs":[]},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E9" s="30">
         <v>2</v>
       </c>
-      <c r="F9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{ "_id" :7, "fullname":"Режим ПСГ Олишівка", "model":"PsgRegim", "key": "psg_olishevka","form_id":2},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "_id" :7, "fullname":"Режим ПСГ Олишівка", "model":"PsgRegim", "key": "psg_olishevka","form_id":2,"childs":[]},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>231</v>
+        <v>354</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>244</v>
+        <v>357</v>
       </c>
       <c r="E10" s="30">
         <v>3</v>
       </c>
-      <c r="F10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{ "_id" :8, "fullname":"Стан ПСГ Ч-Партизани", "model":"ПСГ Ч-Партизани", "key": "Стан","form_id":3},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "_id" :8, "fullname":"Стан ПСГ Ч-Партизани", "model":"ObjectEvent", "key": "stan_red_partizanen","form_id":3,"childs":[]},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>232</v>
+        <v>354</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>244</v>
+        <v>358</v>
       </c>
       <c r="E11" s="30">
         <v>3</v>
       </c>
-      <c r="F11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{ "_id" :9, "fullname":"Стан ПСГ Солоха", "model":"ПСГ Солоха", "key": "Стан","form_id":3},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "_id" :9, "fullname":"Стан ПСГ Солоха", "model":"ObjectEvent", "key": "stan_solokha","form_id":3,"childs":[]},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>233</v>
+        <v>354</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>244</v>
+        <v>359</v>
       </c>
       <c r="E12" s="30">
         <v>3</v>
       </c>
-      <c r="F12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{ "_id" :10, "fullname":"Стан ПСГ Олишівка", "model":"ПСГ Олишівка", "key": "Стан","form_id":3},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "_id" :10, "fullname":"Стан ПСГ Олишівка", "model":"ObjectEvent", "key": "stan_olishevka","form_id":3,"childs":[]},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>231</v>
+        <v>356</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>248</v>
+        <v>351</v>
       </c>
       <c r="E13" s="30">
         <v>4</v>
       </c>
-      <c r="F13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{ "_id" :11, "fullname":"ВТВ ПСГ Ч-Партизани", "model":"ПСГ Ч-Партизани", "key": "ВТВ","form_id":4},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "_id" :11, "fullname":"ВТВ ПСГ Ч-Партизани", "model":"VtvPsgDayValue", "key": "vtv_dks_red_partizanen","form_id":4,"childs":[]},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>232</v>
+        <v>356</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>248</v>
+        <v>352</v>
       </c>
       <c r="E14" s="30">
         <v>4</v>
       </c>
-      <c r="F14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{ "_id" :12, "fullname":"ВТВ ПСГ Солоха", "model":"ПСГ Солоха", "key": "ВТВ","form_id":4},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "_id" :12, "fullname":"ВТВ ПСГ Солоха", "model":"VtvPsgDayValue", "key": "vtv_dks_solokha","form_id":4,"childs":[]},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>233</v>
+        <v>356</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>248</v>
+        <v>353</v>
       </c>
       <c r="E15" s="30">
         <v>4</v>
       </c>
-      <c r="F15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{ "_id" :13, "fullname":"ВТВ ПСГ Олишівка", "model":"ПСГ Олишівка", "key": "ВТВ","form_id":4},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "_id" :13, "fullname":"ВТВ ПСГ Олишівка", "model":"VtvPsgDayValue", "key": "vtv_dks_olishevka","form_id":4,"childs":[]},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>278</v>
+        <v>364</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D16" s="30">
-        <v>11</v>
+        <v>356</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>365</v>
       </c>
       <c r="E16" s="30">
+        <v>4</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" ref="G16" si="1">CONCATENATE("{ ""_id"" :",A16,", ""fullname"":""",B16,""", ""model"":""",C16,""", ""key"": """,D16,"""",",""form_id"":",E16,",""childs"":",F16,"},")</f>
+        <v>{ "_id" :14, "fullname":"ВТВ Мринське ВУ ПЗГ", "model":"VtvPsgDayValue", "key": "vtv_mrin_psg","form_id":4,"childs":[11,12,13]},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="E17" s="30">
         <v>5</v>
       </c>
-      <c r="F16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{ "_id" :14, "fullname":"ДКС Солоха Кран 11", "model":"Кран 11", "key": "11","form_id":5},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="1"/>
+      <c r="F17" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "_id" :15, "fullname":"ДКС Солоха Кран 11", "model":"ObjectEvent", "key": "kc_solokha_v_11","form_id":5,"childs":[]},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="E18" s="30">
+        <v>5</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "_id" :16, "fullname":"ПВВГ Мрин", "model":"PvvgHourValue", "key": "pvvg_mrin","form_id":5,"childs":[1,2,3,4]},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="E19" s="30">
+        <v>4</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{ "_id" :17, "fullname":"ВТВ ГРС Партизани", "model":"VtvGrsDayValue", "key": "vtv_grs_red_partizanen","form_id":4,"childs":[]},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5601,12 +5752,12 @@
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="114.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="114.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -6866,19 +7017,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K38"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="145.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="145.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -8160,12 +8311,12 @@
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="124.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="124.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -9428,16 +9579,16 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="118.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="118.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -10681,37 +10832,37 @@
       <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="110.6640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="22.109375" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="24" max="27" width="10.109375" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5546875" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="110.7109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="22.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="24" max="27" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>129</v>
       </c>
@@ -10795,7 +10946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>131</v>
       </c>
@@ -10855,7 +11006,7 @@
         <v>{"systemid":1,"name":"ДПКС № 1","ip":"192.168.0.111","path":"xxx.yyy.zzz","period":30,"sensors":[</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -10927,7 +11078,7 @@
         <v>{"sensorid":1,"low":0,"name":"P in KC 32","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -10999,7 +11150,7 @@
         <v>{"sensorid":2,"low":0,"name":"P in KC 33","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -11071,7 +11222,7 @@
         <v>{"sensorid":3,"low":0,"name":"P in KC 34","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>131</v>
       </c>
@@ -11131,7 +11282,7 @@
         <v>{"systemid":2,"name":"ДПКС № 2","ip":"192.168.0.112","path":"xxx.yyy.zzz","period":30,"sensors":[</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -11203,7 +11354,7 @@
         <v>{"sensorid":4,"low":0,"name":"P in KC 36","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -11275,7 +11426,7 @@
         <v>{"sensorid":5,"low":0,"name":"P in KC 37","path":"xxx.yyy.zzz","high":100,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -11363,18 +11514,18 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="138.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="138.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -12220,33 +12371,33 @@
       <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5546875" customWidth="1"/>
-    <col min="21" max="21" width="26.88671875" customWidth="1"/>
-    <col min="27" max="27" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" customWidth="1"/>
+    <col min="21" max="21" width="26.85546875" customWidth="1"/>
+    <col min="27" max="27" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>163</v>
       </c>
@@ -12295,7 +12446,7 @@
         <v>186</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S1" s="21"/>
       <c r="T1" s="21"/>
@@ -12311,7 +12462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>221</v>
       </c>
@@ -12322,7 +12473,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>202</v>
@@ -12356,7 +12507,7 @@
         <v>{"_id":1,"name":"Режим КС","controls":[</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -12382,7 +12533,7 @@
         <v>178</v>
       </c>
       <c r="L3" s="41" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>181</v>
@@ -12400,7 +12551,7 @@
         <v>188</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S3" s="8" t="s">
         <v>222</v>
@@ -12423,7 +12574,7 @@
         <v>{"key":"date","label":"Дата","value":"2020-03-18","controlType":"textbox","order":1,"type":"date","options":[{}]},</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -12467,10 +12618,10 @@
         <v>188</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="T4" s="8" t="s">
         <v>194</v>
@@ -12490,7 +12641,7 @@
         <v>{"key":"hour","label":"Година","value":"0","controlType":"dropdown","order":2,"type":"text","options":[{"key":"+00", "value":0},{"key":"+02", "value":2},{"key":"+04", "value":4},{"key":"+06", "value":6},{"key":"+08", "value":8},{"key":"+10", "value":10},{"key":"+12", "value":12},{"key":"+14", "value":14},{"key":"+00", "value":16},{"key":"+18", "value":18},{"key":"+20", "value":20},{"key":"+22", "value":22}]},</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -12504,13 +12655,13 @@
         <v>167</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>178</v>
@@ -12534,10 +12685,10 @@
         <v>188</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="T5" s="8" t="s">
         <v>194</v>
@@ -12557,7 +12708,7 @@
         <v>{"key":"p_in","label":"Рвх КС","value":"0","controlType":"textbox","order":3,"type":"text","options":[{}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -12568,13 +12719,13 @@
         <v>167</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>178</v>
@@ -12598,10 +12749,10 @@
         <v>188</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="T6" s="8" t="s">
         <v>194</v>
@@ -12621,7 +12772,7 @@
         <v>{"key":"p_out","label":"Рвих КС","value":"0","controlType":"textbox","order":4,"type":"text","options":[{}]},</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -12632,13 +12783,13 @@
         <v>167</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>178</v>
@@ -12662,10 +12813,10 @@
         <v>188</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="T7" s="8" t="s">
         <v>194</v>
@@ -12685,7 +12836,7 @@
         <v>{"key":"num_gpa","label":"ГПА","value":"0","controlType":"textbox","order":4,"type":"text","options":[{}]}]},</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>221</v>
       </c>
@@ -12696,7 +12847,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>202</v>
@@ -12730,7 +12881,7 @@
         <v>{"_id":2,"name":"Режим ПСГ","controls":[</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -12756,7 +12907,7 @@
         <v>178</v>
       </c>
       <c r="L9" s="41" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>181</v>
@@ -12774,7 +12925,7 @@
         <v>188</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S9" s="8" t="s">
         <v>222</v>
@@ -12797,7 +12948,7 @@
         <v>{"key":"date","label":"Дата","value":"2020-03-18","controlType":"textbox","order":1,"type":"date","options":[{}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -12841,10 +12992,10 @@
         <v>188</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="T10" s="8" t="s">
         <v>194</v>
@@ -12864,7 +13015,7 @@
         <v>{"key":"hour","label":"Година","value":"0","controlType":"dropdown","order":2,"type":"text","options":[{"key":"+00", "value":0},{"key":"+02", "value":2},{"key":"+04", "value":4},{"key":"+06", "value":6},{"key":"+08", "value":8},{"key":"+10", "value":10},{"key":"+12", "value":12},{"key":"+14", "value":14},{"key":"+00", "value":16},{"key":"+18", "value":18},{"key":"+20", "value":20},{"key":"+22", "value":22}]},</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -12878,13 +13029,13 @@
         <v>167</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>178</v>
@@ -12908,10 +13059,10 @@
         <v>188</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="T11" s="8" t="s">
         <v>194</v>
@@ -12931,7 +13082,7 @@
         <v>{"key":"q_in","label":"Qзак","value":"0","controlType":"textbox","order":3,"type":"text","options":[{}]},</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -12945,13 +13096,13 @@
         <v>167</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>178</v>
@@ -12975,10 +13126,10 @@
         <v>188</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="T12" s="8" t="s">
         <v>194</v>
@@ -12998,7 +13149,7 @@
         <v>{"key":"q_out","label":"Qвідб","value":"0","controlType":"textbox","order":4,"type":"text","options":[{}]},</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -13012,13 +13163,13 @@
         <v>167</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>178</v>
@@ -13042,10 +13193,10 @@
         <v>188</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="T13" s="8" t="s">
         <v>194</v>
@@ -13065,7 +13216,7 @@
         <v>{"key":"num_lines","label":"с.роб","value":"0","controlType":"textbox","order":5,"type":"text","options":[{}]}]},</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>221</v>
       </c>
@@ -13076,7 +13227,7 @@
         <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>202</v>
@@ -13110,7 +13261,7 @@
         <v>{"_id":3,"name":"Стан ПСГ","controls":[</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -13136,7 +13287,7 @@
         <v>178</v>
       </c>
       <c r="L15" s="41" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>181</v>
@@ -13154,7 +13305,7 @@
         <v>188</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S15" s="8" t="s">
         <v>222</v>
@@ -13177,7 +13328,7 @@
         <v>{"key":"date","label":"Дата","value":"2020-03-18","controlType":"textbox","order":1,"type":"date","options":[{}]},</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -13203,7 +13354,7 @@
         <v>178</v>
       </c>
       <c r="L16" s="41" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>181</v>
@@ -13221,7 +13372,7 @@
         <v>188</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S16" s="8" t="s">
         <v>219</v>
@@ -13244,7 +13395,7 @@
         <v>{"key":"hour","label":"Година","value":"12:00:00","controlType":"textbox","order":2,"type":"time","options":[{}]},</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -13264,7 +13415,7 @@
         <v>176</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>178</v>
@@ -13288,16 +13439,16 @@
         <v>188</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="T17" s="8" t="s">
         <v>194</v>
       </c>
       <c r="U17" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
@@ -13311,7 +13462,7 @@
         <v>{"key":"state","label":"Стан","value":"0","controlType":"dropdown","order":3,"type":"text","options":[{"key":"Відбір", "value":2},{"key":"Закачка", "value":1},{"key":"Нейтральний", "value":0}]}]},</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>221</v>
       </c>
@@ -13322,7 +13473,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>202</v>
@@ -13356,7 +13507,7 @@
         <v>{"_id":4,"name":"ВТВ СПГ","controls":[</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -13382,7 +13533,7 @@
         <v>178</v>
       </c>
       <c r="L19" s="41" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>181</v>
@@ -13400,7 +13551,7 @@
         <v>188</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S19" s="8" t="s">
         <v>222</v>
@@ -13423,7 +13574,7 @@
         <v>{"key":"date","label":"Дата","value":"2020-03-18","controlType":"textbox","order":1,"type":"date","options":[{}]},</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -13437,13 +13588,13 @@
         <v>167</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>178</v>
@@ -13467,10 +13618,10 @@
         <v>188</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="T20" s="8" t="s">
         <v>194</v>
@@ -13490,7 +13641,7 @@
         <v>{"key":"dks","label":"ДКС","value":"0","controlType":"textbox","order":2,"type":"text","options":[{}]},</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -13501,13 +13652,13 @@
         <v>167</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>178</v>
@@ -13531,10 +13682,10 @@
         <v>188</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="T21" s="8" t="s">
         <v>194</v>
@@ -13554,7 +13705,7 @@
         <v>{"key":"fuel","label":"Паливний","value":"0","controlType":"textbox","order":3,"type":"text","options":[{}]},</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -13565,13 +13716,13 @@
         <v>167</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>178</v>
@@ -13595,10 +13746,10 @@
         <v>188</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="T22" s="8" t="s">
         <v>194</v>
@@ -13618,7 +13769,7 @@
         <v>{"key":"psg","label":"ПСГ","value":"0","controlType":"textbox","order":4,"type":"text","options":[{}]}]},</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>221</v>
       </c>
@@ -13629,7 +13780,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>202</v>
@@ -13663,7 +13814,7 @@
         <v>{"_id":5,"name":"Стан крану","controls":[</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -13689,7 +13840,7 @@
         <v>178</v>
       </c>
       <c r="L24" s="41" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>181</v>
@@ -13707,7 +13858,7 @@
         <v>188</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S24" s="8" t="s">
         <v>222</v>
@@ -13730,7 +13881,7 @@
         <v>{"key":"date","label":"Дата","value":"2020-03-18","controlType":"textbox","order":1,"type":"date","options":[{}]},</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -13756,7 +13907,7 @@
         <v>178</v>
       </c>
       <c r="L25" s="41" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>181</v>
@@ -13774,7 +13925,7 @@
         <v>188</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S25" s="8" t="s">
         <v>219</v>
@@ -13797,7 +13948,7 @@
         <v>{"key":"hour","label":"Година","value":"12:00:00","controlType":"textbox","order":2,"type":"time","options":[{}]},</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -13817,7 +13968,7 @@
         <v>176</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>178</v>
@@ -13841,16 +13992,16 @@
         <v>188</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="T26" s="8" t="s">
         <v>194</v>
       </c>
       <c r="U26" s="8" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="V26" s="19"/>
       <c r="W26" s="19"/>

--- a/xls/create-test-data.xlsx
+++ b/xls/create-test-data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\node\oask-gtp-webapi\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24912" windowHeight="12840" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Корр-каналы" sheetId="5" r:id="rId1"/>
@@ -19,7 +24,7 @@
     <sheet name="GuiTable" sheetId="13" r:id="rId10"/>
     <sheet name="Menu" sheetId="14" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1130,7 +1135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1525,7 +1530,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1560,7 +1565,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1775,40 +1780,40 @@
       <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="108.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="101.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="108.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" customWidth="1"/>
+    <col min="14" max="14" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="101.88671875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
@@ -1892,7 +1897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>221</v>
       </c>
@@ -1952,7 +1957,7 @@
         <v>{"_id":1,"name":"Корректор № 1","ip":"192.168.0.111","ftpDir":"./","addr":1,"channels":[</v>
       </c>
     </row>
-    <row r="3" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -2024,7 +2029,7 @@
         <v>{"_id":1,"chno":1,"name":"Line 1","template":"S001R1","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="4" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -2096,7 +2101,7 @@
         <v>{"_id":2,"chno":2,"name":"Line 2","template":"S001R2","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="5" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -2168,7 +2173,7 @@
         <v>{"_id":3,"chno":3,"name":"Line 3","template":"S001R3","isAbsP":true,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>221</v>
       </c>
@@ -2228,7 +2233,7 @@
         <v>{"_id":2,"name":"Корректор № 2","ip":"192.168.0.112","ftpDir":"./","addr":2,"channels":[</v>
       </c>
     </row>
-    <row r="7" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2300,7 +2305,7 @@
         <v>{"_id":4,"chno":1,"name":"Line 1","template":"S001R1","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="8" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -2372,7 +2377,7 @@
         <v>{"_id":5,"chno":2,"name":"Line 2","template":"S001R2","isAbsP":true,"chour":true,"hasR":true,"hasH":true},</v>
       </c>
     </row>
-    <row r="9" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2444,7 +2449,7 @@
         <v>{"_id":6,"chno":3,"name":"Line 3","template":"S001R3","isAbsP":true,"chour":true,"hasR":true,"hasH":true}]},</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="AD10" s="6" t="s">
         <v>12</v>
       </c>
@@ -2463,32 +2468,32 @@
       <selection activeCell="X2" sqref="X2:X42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="56.28515625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="9" hidden="1" customWidth="1"/>
     <col min="19" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="96.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="96.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>190</v>
       </c>
@@ -2532,7 +2537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>221</v>
       </c>
@@ -2574,7 +2579,7 @@
         <v>{"_id":1,"name":"Таблица ввод № 1","columns":[</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="40"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -2615,7 +2620,7 @@
         <v>{"key":"time","label":"Время"},</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -2659,7 +2664,7 @@
         <v>{"key":"param1","label":"Параметр 1"},</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -2703,7 +2708,7 @@
         <v>{"key":"param2","label":"Параметр 2"},</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -2747,7 +2752,7 @@
         <v>{"key":"param3","label":"Параметр 3"}]},</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>221</v>
       </c>
@@ -2789,7 +2794,7 @@
         <v>{"_id":2,"name":"Таблица ввод № 1","columns":[</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="40"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2830,7 +2835,7 @@
         <v>{"key":"time","label":"Время"},</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -2874,7 +2879,7 @@
         <v>{"key":"param5","label":"Параметр 5"},</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -2918,7 +2923,7 @@
         <v>{"key":"param6","label":"Параметр 6"},</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -2962,7 +2967,7 @@
         <v>{"key":"param7","label":"Параметр 7"}]},</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>221</v>
       </c>
@@ -3004,7 +3009,7 @@
         <v>{"_id":3,"name":"Режим Мринське ВУ ПЗГ","columns":[</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="40"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3045,7 +3050,7 @@
         <v>{"key":"time","label":"Година"},</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -3089,7 +3094,7 @@
         <v>{"key":"kc_bobrovnitska_05_p_in","label":"Рвх"},</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -3133,7 +3138,7 @@
         <v>{"key":"kc_bobrovnitska_05_p_out","label":"Рвих"},</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -3177,7 +3182,7 @@
         <v>{"key":"kc_bobrovnitska_05_e","label":"е"},</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -3221,7 +3226,7 @@
         <v>{"key":"kc_bobrovnitska_05_num_gpa","label":"ГПА"},</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -3265,7 +3270,7 @@
         <v>{"key":"psg_red_partizanen_q_in","label":"Qзак"},</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -3309,7 +3314,7 @@
         <v>{"key":"psg_red_partizanen_q_out","label":"Qвід"},</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -3353,7 +3358,7 @@
         <v>{"key":"psg_red_partizanen_num_lines","label":"#скв"},</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -3397,7 +3402,7 @@
         <v>{"key":"kc_mrin_p_in","label":"Рвх"},</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -3441,7 +3446,7 @@
         <v>{"key":"kc_mrin_p_out","label":"Рвих"},</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -3485,7 +3490,7 @@
         <v>{"key":"kc_mrin_e","label":"е"},</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -3529,7 +3534,7 @@
         <v>{"key":"kc_mrin_num_gpa","label":"ГПА"},</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="17"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -3573,7 +3578,7 @@
         <v>{"key":"psg_solokha_q_in","label":"Qзак"},</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -3617,7 +3622,7 @@
         <v>{"key":"psg_solokha_q_out","label":"Qвід"},</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -3661,7 +3666,7 @@
         <v>{"key":"psg_solokha_num_lines","label":"#скв"},</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -3705,7 +3710,7 @@
         <v>{"key":"kc_solokha_p_in","label":"Рвх"},</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -3749,7 +3754,7 @@
         <v>{"key":"kc_solokha_p_out","label":"Рвих"},</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -3793,7 +3798,7 @@
         <v>{"key":"kc_solokha_e","label":"е"},</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="17"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -3837,7 +3842,7 @@
         <v>{"key":"kc_solokha_num_gpa","label":"ГПА"},</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -3881,7 +3886,7 @@
         <v>{"key":"psg_olishevka_q_in","label":"Qзак"},</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="17"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -3925,7 +3930,7 @@
         <v>{"key":"psg_olishevka_q_out","label":"Qвід"},</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -3969,7 +3974,7 @@
         <v>{"key":"psg_olishevka_num_lines","label":"#скв"},</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="17"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -4013,7 +4018,7 @@
         <v>{"key":"kc_olishevka_p_in","label":"Рвх"},</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -4057,7 +4062,7 @@
         <v>{"key":"kc_olishevka_p_out","label":"Рвих"},</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -4101,7 +4106,7 @@
         <v>{"key":"kc_olishevka_e","label":"е"},</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="17"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -4145,7 +4150,7 @@
         <v>{"key":"kc_olishevka_num_gpa","label":"ГПА"},</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -4189,7 +4194,7 @@
         <v>{"key":"q_in_total_ogsu","label":"Qзак ОГСУ"},</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -4233,7 +4238,7 @@
         <v>{"key":"q_out_total_ogsu","label":"Qвід ОГСУ"},</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -4277,7 +4282,7 @@
         <v>{"key":"q_in_total_vupzg","label":"Qзак ПСГ"},</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -4332,25 +4337,25 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="46.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
     <col min="9" max="9" width="16